--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -44,82 +44,82 @@
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80316549539566</t>
+    <t xml:space="preserve">0.803165376186371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815986633301</t>
+    <t xml:space="preserve">0.80181610584259</t>
   </si>
   <si>
     <t xml:space="preserve">0.796415865421295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790680408478</t>
+    <t xml:space="preserve">0.799790620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441112041473</t>
+    <t xml:space="preserve">0.798441171646118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066356658936</t>
+    <t xml:space="preserve">0.795066475868225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789666950702667</t>
+    <t xml:space="preserve">0.789666891098022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716073036194</t>
   </si>
   <si>
     <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057744026184</t>
+    <t xml:space="preserve">0.876057863235474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661487102509</t>
+    <t xml:space="preserve">0.843661427497864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390894651413</t>
+    <t xml:space="preserve">0.863908767700195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961754322052</t>
+    <t xml:space="preserve">0.840961813926697</t>
   </si>
   <si>
     <t xml:space="preserve">0.824763000011444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236774921417</t>
+    <t xml:space="preserve">0.836236894130707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713758468628</t>
+    <t xml:space="preserve">0.820713698863983</t>
   </si>
   <si>
     <t xml:space="preserve">0.809915006160736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917380332947</t>
+    <t xml:space="preserve">0.782917439937592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090947628021</t>
+    <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
     <t xml:space="preserve">0.812614738941193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264514923096</t>
+    <t xml:space="preserve">0.811264455318451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115478992462</t>
+    <t xml:space="preserve">0.799115598201752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840577602386</t>
+    <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
     <t xml:space="preserve">0.809239983558655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80249035358429</t>
+    <t xml:space="preserve">0.802490293979645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140904426575</t>
+    <t xml:space="preserve">0.80114084482193</t>
   </si>
   <si>
     <t xml:space="preserve">0.806540250778198</t>
@@ -128,100 +128,100 @@
     <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78831672668457</t>
+    <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168525218964</t>
+    <t xml:space="preserve">0.776168644428253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289105892181</t>
+    <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
     <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837488174438</t>
+    <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038616657257</t>
+    <t xml:space="preserve">0.820038557052612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363594055176</t>
+    <t xml:space="preserve">0.819363534450531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639329910278</t>
+    <t xml:space="preserve">0.814639389514923</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939537525177</t>
+    <t xml:space="preserve">0.811939656734467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813964247703552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822886347770691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823572754859924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.827003717422485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820827603340149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.820141136646271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824258506298065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817395865917206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.816709339618683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813277661800385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811905443668365</t>
   </si>
   <si>
     <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886288166046</t>
+    <t xml:space="preserve">0.819454669952393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572874069214</t>
+    <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82700377702713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820827543735504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.820141136646271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82425844669342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.817395865917206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.816709399223328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813277781009674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811905384063721</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.813964068889618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.819454610347748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.809846043586731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.789257168769836</t>
+    <t xml:space="preserve">0.789257347583771</t>
   </si>
   <si>
     <t xml:space="preserve">0.802983224391937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473765850067</t>
+    <t xml:space="preserve">0.808473825454712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641508102417</t>
+    <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061183929443</t>
+    <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553599357605</t>
   </si>
   <si>
     <t xml:space="preserve">0.830435454845428</t>
@@ -230,7 +230,7 @@
     <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
     <t xml:space="preserve">0.783766746520996</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804282665253</t>
+    <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
@@ -257,13 +257,13 @@
     <t xml:space="preserve">0.788570821285248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903390884399</t>
+    <t xml:space="preserve">0.776903331279755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667817115784</t>
+    <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335187911987</t>
+    <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236079692841</t>
@@ -272,10 +272,10 @@
     <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313860416412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941642284393</t>
+    <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
@@ -287,19 +287,19 @@
     <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76249086856842</t>
+    <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021654605865</t>
+    <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77964860200882</t>
+    <t xml:space="preserve">0.779648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296876907349</t>
+    <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788423538208</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
     <t xml:space="preserve">0.796119928359985</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">0.78513902425766</t>
@@ -320,7 +320,7 @@
     <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589857578278</t>
+    <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
     <t xml:space="preserve">0.767294704914093</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746706008911133</t>
+    <t xml:space="preserve">0.746705949306488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754255175590515</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276383876801</t>
@@ -341,118 +341,118 @@
     <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707346439362</t>
+    <t xml:space="preserve">0.781707406044006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197649478912</t>
+    <t xml:space="preserve">0.787197768688202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161510467529</t>
+    <t xml:space="preserve">0.844161450862885</t>
   </si>
   <si>
     <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888340950012</t>
+    <t xml:space="preserve">0.857888281345367</t>
   </si>
   <si>
     <t xml:space="preserve">0.868869304656982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712789535522</t>
+    <t xml:space="preserve">0.886712670326233</t>
   </si>
   <si>
     <t xml:space="preserve">0.879163503646851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84827983379364</t>
+    <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849651992321014</t>
+    <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
     <t xml:space="preserve">0.869555711746216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338459014893</t>
+    <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
     <t xml:space="preserve">0.826318025588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063177108765</t>
+    <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925996303558</t>
+    <t xml:space="preserve">0.835926055908203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102766036987</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376770019531</t>
+    <t xml:space="preserve">0.828376829624176</t>
   </si>
   <si>
     <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591075897217</t>
+    <t xml:space="preserve">0.812591254711151</t>
   </si>
   <si>
     <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475818634033</t>
+    <t xml:space="preserve">0.843475878238678</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553450345993</t>
+    <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730547904968</t>
+    <t xml:space="preserve">0.840730488300323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.8736732006073</t>
   </si>
   <si>
     <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517460346222</t>
+    <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281767368317</t>
+    <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986733913422</t>
+    <t xml:space="preserve">0.872986793518066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260499477386</t>
+    <t xml:space="preserve">0.859260559082031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595360279083</t>
+    <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881881058216095</t>
+    <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165857315063</t>
+    <t xml:space="preserve">0.886165916919708</t>
   </si>
   <si>
     <t xml:space="preserve">0.892592549324036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90258914232254</t>
+    <t xml:space="preserve">0.90258926153183</t>
   </si>
   <si>
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445396900177</t>
+    <t xml:space="preserve">0.905445456504822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873881816864</t>
+    <t xml:space="preserve">0.906874001026154</t>
   </si>
   <si>
     <t xml:space="preserve">0.887593626976013</t>
@@ -467,64 +467,64 @@
     <t xml:space="preserve">0.904017746448517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168429851532</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023070335388</t>
+    <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878426074982</t>
+    <t xml:space="preserve">0.891878306865692</t>
   </si>
   <si>
     <t xml:space="preserve">0.878310441970825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889022052288055</t>
+    <t xml:space="preserve">0.889021992683411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166756153107</t>
+    <t xml:space="preserve">0.881166696548462</t>
   </si>
   <si>
     <t xml:space="preserve">0.899732887744904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.899018526077271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305177688599</t>
+    <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159639358521</t>
+    <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155273914337</t>
+    <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
     <t xml:space="preserve">0.914728403091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014399051666</t>
+    <t xml:space="preserve">0.914014160633087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444617271423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015953540802</t>
+    <t xml:space="preserve">0.909016013145447</t>
   </si>
   <si>
     <t xml:space="preserve">0.904731929302216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171181201935</t>
+    <t xml:space="preserve">0.86617112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885451555252075</t>
+    <t xml:space="preserve">0.88545161485672</t>
   </si>
   <si>
     <t xml:space="preserve">0.871884405612946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885483264923</t>
+    <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.874026477336884</t>
@@ -533,19 +533,19 @@
     <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028270244598</t>
+    <t xml:space="preserve">0.869028151035309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877597033977509</t>
+    <t xml:space="preserve">0.877597093582153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876882791519165</t>
+    <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288555145264</t>
+    <t xml:space="preserve">0.953288376331329</t>
   </si>
   <si>
     <t xml:space="preserve">0.933294594287872</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011588096619</t>
+    <t xml:space="preserve">0.924011647701263</t>
   </si>
   <si>
     <t xml:space="preserve">0.976852893829346</t>
@@ -563,10 +563,10 @@
     <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709029197693</t>
+    <t xml:space="preserve">0.979709148406982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961142957210541</t>
+    <t xml:space="preserve">0.96114307641983</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568869590759</t>
@@ -575,25 +575,25 @@
     <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429608821869</t>
+    <t xml:space="preserve">0.960429668426514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567255496979</t>
+    <t xml:space="preserve">0.977567195892334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96828418970108</t>
+    <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426201820374</t>
+    <t xml:space="preserve">0.970426142215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848528385162</t>
+    <t xml:space="preserve">0.991848409175873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710881710052</t>
+    <t xml:space="preserve">0.974711000919342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992154598236</t>
+    <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.999702990055084</t>
@@ -602,13 +602,13 @@
     <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846973896027</t>
+    <t xml:space="preserve">0.996846795082092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134285926819</t>
+    <t xml:space="preserve">0.991134345531464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137812137604</t>
+    <t xml:space="preserve">0.981137633323669</t>
   </si>
   <si>
     <t xml:space="preserve">0.989706516265869</t>
@@ -620,31 +620,31 @@
     <t xml:space="preserve">0.978994905948639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569768428802</t>
+    <t xml:space="preserve">0.967569947242737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856420040131</t>
+    <t xml:space="preserve">0.966856300830841</t>
   </si>
   <si>
     <t xml:space="preserve">0.954002797603607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430626869202</t>
+    <t xml:space="preserve">0.955430507659912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922583103179932</t>
+    <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296327590942</t>
+    <t xml:space="preserve">0.928296387195587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734621047974</t>
+    <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586569786072</t>
+    <t xml:space="preserve">0.912586450576782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876573562622</t>
   </si>
   <si>
     <t xml:space="preserve">0.879024803638458</t>
@@ -653,31 +653,31 @@
     <t xml:space="preserve">0.879739046096802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725770950317</t>
+    <t xml:space="preserve">0.924725830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.93543666601181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93900728225708</t>
+    <t xml:space="preserve">0.939007163047791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148276329041</t>
+    <t xml:space="preserve">0.946148216724396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000165462494</t>
+    <t xml:space="preserve">0.964000225067139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866228580475</t>
+    <t xml:space="preserve">0.931866049766541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606842517853</t>
+    <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177399158478</t>
+    <t xml:space="preserve">0.846177279949188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318452835083</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
     <t xml:space="preserve">0.83903706073761</t>
@@ -689,73 +689,73 @@
     <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303444385529</t>
+    <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584836483002</t>
+    <t xml:space="preserve">0.917584776878357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090083122253</t>
+    <t xml:space="preserve">0.966090202331543</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92864465713501</t>
+    <t xml:space="preserve">0.928644716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068134307861</t>
+    <t xml:space="preserve">0.981068015098572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323532104492</t>
+    <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
     <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579466342926</t>
+    <t xml:space="preserve">0.973579704761505</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345480918884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134040355682</t>
+    <t xml:space="preserve">0.936134099960327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666725158691</t>
+    <t xml:space="preserve">0.913666665554047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856812953949</t>
+    <t xml:space="preserve">0.954856753349304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921944141388</t>
+    <t xml:space="preserve">0.909921884536743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177282333374</t>
+    <t xml:space="preserve">0.906177222728729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902432560920715</t>
+    <t xml:space="preserve">0.902432501316071</t>
   </si>
   <si>
     <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924899995326996</t>
+    <t xml:space="preserve">0.924900054931641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155214309692</t>
+    <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221239566803</t>
+    <t xml:space="preserve">0.876221418380737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411327362061</t>
+    <t xml:space="preserve">0.917411267757416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894944071769714</t>
+    <t xml:space="preserve">0.89494401216507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709967136383</t>
+    <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
     <t xml:space="preserve">0.879966020584106</t>
@@ -764,13 +764,13 @@
     <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868731915950775</t>
+    <t xml:space="preserve">0.86873197555542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86124324798584</t>
+    <t xml:space="preserve">0.861243367195129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831286489963531</t>
+    <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
     <t xml:space="preserve">0.83503121137619</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753864765167</t>
+    <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797881603241</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850009202957153</t>
+    <t xml:space="preserve">0.850009262561798</t>
   </si>
   <si>
     <t xml:space="preserve">0.797585785388947</t>
@@ -800,13 +800,13 @@
     <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476518154144</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987194538116</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938942551612854</t>
+    <t xml:space="preserve">0.938942611217499</t>
   </si>
   <si>
     <t xml:space="preserve">0.90738171339035</t>
@@ -815,31 +815,31 @@
     <t xml:space="preserve">0.89949107170105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915271520614624</t>
+    <t xml:space="preserve">0.915271580219269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92316210269928</t>
+    <t xml:space="preserve">0.923162221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051969528198</t>
+    <t xml:space="preserve">0.931051850318909</t>
   </si>
   <si>
     <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613582611084</t>
+    <t xml:space="preserve">0.962613523006439</t>
   </si>
   <si>
     <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88371080160141</t>
+    <t xml:space="preserve">0.883710741996765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875820100307465</t>
+    <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930293083191</t>
+    <t xml:space="preserve">0.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -848,19 +848,19 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836368680000305</t>
+    <t xml:space="preserve">0.83636873960495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478991985321</t>
+    <t xml:space="preserve">0.828478932380676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789027452468872</t>
+    <t xml:space="preserve">0.789027512073517</t>
   </si>
   <si>
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917319297791</t>
+    <t xml:space="preserve">0.796917259693146</t>
   </si>
   <si>
     <t xml:space="preserve">0.812698483467102</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191519737244</t>
+    <t xml:space="preserve">0.777191579341888</t>
   </si>
   <si>
     <t xml:space="preserve">0.804807841777802</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082161426544</t>
+    <t xml:space="preserve">0.785082221031189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769301772117615</t>
+    <t xml:space="preserve">0.76930183172226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773247063159943</t>
+    <t xml:space="preserve">0.773247122764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.749576091766357</t>
@@ -899,7 +899,7 @@
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74563080072403</t>
+    <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
     <t xml:space="preserve">0.757465839385986</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729850351810455</t>
+    <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740159034729</t>
@@ -923,13 +923,13 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014478683472</t>
+    <t xml:space="preserve">0.718014419078827</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7219597697258</t>
+    <t xml:space="preserve">0.721959710121155</t>
   </si>
   <si>
     <t xml:space="preserve">0.820588350296021</t>
@@ -938,16 +938,13 @@
     <t xml:space="preserve">0.931479334831238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906528770923615</t>
+    <t xml:space="preserve">0.90652871131897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939795553684235</t>
+    <t xml:space="preserve">0.93979549407959</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -971,13 +968,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063230514526</t>
+    <t xml:space="preserve">0.973063290119171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746057987213</t>
+    <t xml:space="preserve">0.964746117591858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379449367523</t>
+    <t xml:space="preserve">0.981379389762878</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -986,7 +983,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146472454071</t>
+    <t xml:space="preserve">1.01464712619781</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1008,6 +1005,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -37267,7 +37267,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1370" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37293,7 +37293,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1371" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37319,7 +37319,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1372" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37345,7 +37345,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1373" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37371,7 +37371,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1374" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37397,7 +37397,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1375" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37423,7 +37423,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1376" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37449,7 +37449,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1377" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37475,7 +37475,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1378" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37501,7 +37501,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1379" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37527,7 +37527,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1380" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37553,7 +37553,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1381" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -37579,7 +37579,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1382" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -37605,7 +37605,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1383" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -37631,7 +37631,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -37657,7 +37657,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1385" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -37683,7 +37683,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1386" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -37709,7 +37709,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1387" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -37735,7 +37735,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1388" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -37761,7 +37761,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1389" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -37787,7 +37787,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1390" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -37813,7 +37813,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1391" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -37839,7 +37839,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1392" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -37865,7 +37865,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1393" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -37891,7 +37891,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1394" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -37917,7 +37917,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1395" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -37943,7 +37943,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1396" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -37969,7 +37969,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1397" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -37995,7 +37995,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1398" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38021,7 +38021,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1399" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38047,7 +38047,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1400" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38073,7 +38073,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1401" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38099,7 +38099,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1402" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38125,7 +38125,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1403" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38151,7 +38151,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1404" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38177,7 +38177,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1405" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38203,7 +38203,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1406" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38229,7 +38229,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1407" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38255,7 +38255,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1408" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38281,7 +38281,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1409" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38307,7 +38307,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1410" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38333,7 +38333,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1411" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38359,7 +38359,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1412" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38385,7 +38385,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1413" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38411,7 +38411,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1414" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38437,7 +38437,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1415" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38463,7 +38463,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1416" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38489,7 +38489,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1417" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38515,7 +38515,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1418" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38541,7 +38541,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1419" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38593,7 +38593,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1421" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38619,7 +38619,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1422" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38645,7 +38645,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1423" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38671,7 +38671,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1424" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38697,7 +38697,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1425" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -38723,7 +38723,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1426" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -38749,7 +38749,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1427" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -38775,7 +38775,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1428" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -38801,7 +38801,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1429" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -38827,7 +38827,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1430" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -38853,7 +38853,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1431" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -38879,7 +38879,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1432" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -38905,7 +38905,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1433" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -38931,7 +38931,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1434" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -38957,7 +38957,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1435" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -38983,7 +38983,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1436" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39009,7 +39009,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1437" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39035,7 +39035,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1438" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39061,7 +39061,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1439" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39087,7 +39087,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1440" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39113,7 +39113,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1441" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39139,7 +39139,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1442" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39165,7 +39165,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1443" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39191,7 +39191,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1444" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39217,7 +39217,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1445" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39243,7 +39243,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1446" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39269,7 +39269,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1447" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39295,7 +39295,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1448" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39321,7 +39321,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1449" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39347,7 +39347,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1450" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39373,7 +39373,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1451" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39399,7 +39399,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1452" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39425,7 +39425,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1453" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39451,7 +39451,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1454" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39477,7 +39477,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1455" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39503,7 +39503,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1456" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39529,7 +39529,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1457" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39555,7 +39555,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1458" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39581,7 +39581,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1459" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -39607,7 +39607,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1460" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -39633,7 +39633,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1461" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -39659,7 +39659,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1462" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -39685,7 +39685,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1463" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -39737,7 +39737,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1465" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -39763,7 +39763,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1466" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -39789,7 +39789,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1467" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -39815,7 +39815,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1468" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -39841,7 +39841,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1469" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -39867,7 +39867,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1470" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -39893,7 +39893,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1471" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -39919,7 +39919,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1472" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -39945,7 +39945,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1473" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -39971,7 +39971,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1474" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -39997,7 +39997,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1475" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40023,7 +40023,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1476" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40049,7 +40049,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1477" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40075,7 +40075,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1478" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40101,7 +40101,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1479" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40127,7 +40127,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1480" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40153,7 +40153,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1481" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40179,7 +40179,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1482" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40205,7 +40205,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1483" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40231,7 +40231,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1484" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40257,7 +40257,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1485" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40283,7 +40283,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1486" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40309,7 +40309,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1487" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40335,7 +40335,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1488" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40361,7 +40361,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1489" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40387,7 +40387,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1490" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40413,7 +40413,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1491" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40439,7 +40439,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1492" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40465,7 +40465,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1493" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40491,7 +40491,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1494" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40517,7 +40517,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1495" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40543,7 +40543,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1496" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40569,7 +40569,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1497" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -40595,7 +40595,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1498" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -40621,7 +40621,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1499" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -40647,7 +40647,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1500" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -40673,7 +40673,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1501" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -40699,7 +40699,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1502" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -40725,7 +40725,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1503" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -40751,7 +40751,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1504" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -40777,7 +40777,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1505" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -40803,7 +40803,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1506" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -40881,7 +40881,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1509" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -40907,7 +40907,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1510" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -40933,7 +40933,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1511" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -40959,7 +40959,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1512" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -40985,7 +40985,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1513" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41037,7 +41037,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1515" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41063,7 +41063,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1516" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41089,7 +41089,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1517" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41115,7 +41115,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1518" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41141,7 +41141,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1519" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41167,7 +41167,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1520" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41193,7 +41193,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1521" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41219,7 +41219,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1522" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41245,7 +41245,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1523" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41271,7 +41271,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1524" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41297,7 +41297,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1525" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41323,7 +41323,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1526" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41349,7 +41349,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1527" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41375,7 +41375,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1528" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41401,7 +41401,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1529" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41427,7 +41427,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1530" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41453,7 +41453,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1531" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41479,7 +41479,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1532" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41505,7 +41505,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1533" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41531,7 +41531,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1534" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41557,7 +41557,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1535" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41583,7 +41583,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1536" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -41609,7 +41609,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1537" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -41635,7 +41635,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1538" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -41661,7 +41661,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1539" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -41687,7 +41687,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1540" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -41713,7 +41713,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1541" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -41739,7 +41739,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1542" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -41765,7 +41765,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1543" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -41791,7 +41791,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1544" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -41817,7 +41817,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1545" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -41843,7 +41843,7 @@
         <v>1.10685801506042</v>
       </c>
       <c r="G1546" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -41869,7 +41869,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1547" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -41895,7 +41895,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1548" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -41921,7 +41921,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1549" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -41947,7 +41947,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1550" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -41973,7 +41973,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1551" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -41999,7 +41999,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1552" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42025,7 +42025,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1553" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42051,7 +42051,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1554" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42077,7 +42077,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1555" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42103,7 +42103,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42129,7 +42129,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1557" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42155,7 +42155,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1558" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42207,7 +42207,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1560" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42233,7 +42233,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1561" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42259,7 +42259,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1562" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42285,7 +42285,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1563" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42337,7 +42337,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1565" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42363,7 +42363,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1566" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42389,7 +42389,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1567" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42415,7 +42415,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1568" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42441,7 +42441,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1569" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42467,7 +42467,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1570" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42493,7 +42493,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1571" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42519,7 +42519,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1572" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42545,7 +42545,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1573" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42571,7 +42571,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1574" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42597,7 +42597,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1575" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42623,7 +42623,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1576" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42649,7 +42649,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1577" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42675,7 +42675,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1578" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42987,7 +42987,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1590" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43013,7 +43013,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1591" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43039,7 +43039,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1592" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43065,7 +43065,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1593" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43091,7 +43091,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1594" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43117,7 +43117,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1595" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43143,7 +43143,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1596" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43169,7 +43169,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1597" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43195,7 +43195,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1598" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43221,7 +43221,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1599" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43247,7 +43247,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1600" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43273,7 +43273,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1601" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43403,7 +43403,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1606" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43429,7 +43429,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1607" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43455,7 +43455,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1608" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43481,7 +43481,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1609" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43507,7 +43507,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1610" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43533,7 +43533,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1611" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43559,7 +43559,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43585,7 +43585,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1613" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43611,7 +43611,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1614" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43637,7 +43637,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1615" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43663,7 +43663,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1616" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43689,7 +43689,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1617" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43715,7 +43715,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1618" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43741,7 +43741,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1619" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43767,7 +43767,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1620" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43793,7 +43793,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1621" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43819,7 +43819,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1622" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43845,7 +43845,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1623" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43871,7 +43871,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1624" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43897,7 +43897,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1625" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43923,7 +43923,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1626" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43949,7 +43949,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1627" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43975,7 +43975,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1628" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44001,7 +44001,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1629" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44027,7 +44027,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1630" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44053,7 +44053,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1631" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44079,7 +44079,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1632" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44105,7 +44105,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1633" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44131,7 +44131,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1634" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44157,7 +44157,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1635" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44183,7 +44183,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1636" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44209,7 +44209,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1637" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44235,7 +44235,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44755,7 +44755,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1658" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45093,7 +45093,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1671" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45119,7 +45119,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1672" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45249,7 +45249,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1677" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45275,7 +45275,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1678" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45301,7 +45301,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1679" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45327,7 +45327,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1680" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45353,7 +45353,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1681" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45379,7 +45379,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1682" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45405,7 +45405,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1683" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45431,7 +45431,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1684" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45457,7 +45457,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1685" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49383,7 +49383,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1836" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49461,7 +49461,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1839" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49487,7 +49487,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1840" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49539,7 +49539,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1842" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49565,7 +49565,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1843" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49591,7 +49591,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1844" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49929,7 +49929,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1857" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -57394,6 +57394,58 @@
         <v>413</v>
       </c>
       <c r="H2144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" s="1" t="n">
+        <v>45448.2916666667</v>
+      </c>
+      <c r="B2145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2145" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2145" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2145" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2145" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6494675926</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>880</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>0.865000009536743</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>0.865000009536743</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>0.865000009536743</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>0.865000009536743</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>426</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,76 +38,76 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663920879364</t>
+    <t xml:space="preserve">0.816664040088654</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165316581726</t>
+    <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
     <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79641592502594</t>
+    <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790680408478</t>
+    <t xml:space="preserve">0.799790561199188</t>
   </si>
   <si>
     <t xml:space="preserve">0.798441231250763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066475868225</t>
+    <t xml:space="preserve">0.79506641626358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667010307312</t>
+    <t xml:space="preserve">0.789666950702667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716013431549</t>
+    <t xml:space="preserve">0.793716192245483</t>
   </si>
   <si>
     <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057803630829</t>
+    <t xml:space="preserve">0.876057744026184</t>
   </si>
   <si>
     <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908886909485</t>
+    <t xml:space="preserve">0.86390882730484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961933135986</t>
+    <t xml:space="preserve">0.840961873531342</t>
   </si>
   <si>
     <t xml:space="preserve">0.824762880802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236894130707</t>
+    <t xml:space="preserve">0.836236774921417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713818073273</t>
+    <t xml:space="preserve">0.820713758468628</t>
   </si>
   <si>
     <t xml:space="preserve">0.809915065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917380332947</t>
+    <t xml:space="preserve">0.782917439937592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090947628021</t>
+    <t xml:space="preserve">0.797091066837311</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614619731903</t>
+    <t xml:space="preserve">0.812614738941193</t>
   </si>
   <si>
     <t xml:space="preserve">0.811264455318451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115478992462</t>
+    <t xml:space="preserve">0.799115538597107</t>
   </si>
   <si>
     <t xml:space="preserve">0.803840577602386</t>
@@ -116,55 +116,55 @@
     <t xml:space="preserve">0.80923992395401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802490293979645</t>
+    <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140904426575</t>
+    <t xml:space="preserve">0.801140964031219</t>
   </si>
   <si>
     <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741379261017</t>
+    <t xml:space="preserve">0.795741438865662</t>
   </si>
   <si>
     <t xml:space="preserve">0.792366743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78831672668457</t>
+    <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
     <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289105892181</t>
+    <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738409042358</t>
+    <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837428569794</t>
+    <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038557052612</t>
+    <t xml:space="preserve">0.820038676261902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363534450531</t>
+    <t xml:space="preserve">0.819363594055176</t>
   </si>
   <si>
     <t xml:space="preserve">0.814639389514923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988719463348</t>
+    <t xml:space="preserve">0.815988779067993</t>
   </si>
   <si>
     <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964247703552</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886347770691</t>
@@ -173,40 +173,40 @@
     <t xml:space="preserve">0.823572814464569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82700377702713</t>
+    <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827603340149</t>
+    <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820141136646271</t>
+    <t xml:space="preserve">0.820141077041626</t>
   </si>
   <si>
     <t xml:space="preserve">0.824258506298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395865917206</t>
+    <t xml:space="preserve">0.817395925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709280014038</t>
+    <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277721405029</t>
+    <t xml:space="preserve">0.81327760219574</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81190550327301</t>
+    <t xml:space="preserve">0.811905562877655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964068889618</t>
   </si>
   <si>
     <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809846043586731</t>
+    <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257287979126</t>
+    <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
     <t xml:space="preserve">0.802983283996582</t>
@@ -218,40 +218,40 @@
     <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061064720154</t>
+    <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
     <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435454845428</t>
+    <t xml:space="preserve">0.830435574054718</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355502128601</t>
+    <t xml:space="preserve">0.804355442523956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393872737885</t>
+    <t xml:space="preserve">0.78239381313324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766806125641</t>
+    <t xml:space="preserve">0.783766686916351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099435329437</t>
+    <t xml:space="preserve">0.772099494934082</t>
   </si>
   <si>
     <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922605991364</t>
+    <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471772670746</t>
+    <t xml:space="preserve">0.773471593856812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530397891998</t>
+    <t xml:space="preserve">0.775530338287354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216924190521</t>
+    <t xml:space="preserve">0.776216983795166</t>
   </si>
   <si>
     <t xml:space="preserve">0.788570761680603</t>
@@ -263,19 +263,19 @@
     <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335187911987</t>
+    <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236079692841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059190750122</t>
+    <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
     <t xml:space="preserve">0.756313920021057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941642284393</t>
+    <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
@@ -284,22 +284,22 @@
     <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315972805023</t>
+    <t xml:space="preserve">0.791315793991089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.762490749359131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021535396576</t>
+    <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779648542404175</t>
+    <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
     <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788435459137</t>
+    <t xml:space="preserve">0.78788423538208</t>
   </si>
   <si>
     <t xml:space="preserve">0.796119868755341</t>
@@ -308,25 +308,25 @@
     <t xml:space="preserve">0.769354224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627334117889</t>
+    <t xml:space="preserve">0.755627453327179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844646453857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78513902425766</t>
+    <t xml:space="preserve">0.785139083862305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610291004181</t>
+    <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589797973633</t>
+    <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294704914093</t>
+    <t xml:space="preserve">0.767294764518738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686853408813</t>
+    <t xml:space="preserve">0.757686913013458</t>
   </si>
   <si>
     <t xml:space="preserve">0.746706008911133</t>
@@ -335,22 +335,22 @@
     <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276264667511</t>
+    <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
     <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707406044006</t>
+    <t xml:space="preserve">0.781707286834717</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197709083557</t>
+    <t xml:space="preserve">0.787197828292847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867073059082</t>
+    <t xml:space="preserve">0.833867132663727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161570072174</t>
+    <t xml:space="preserve">0.844161450862885</t>
   </si>
   <si>
     <t xml:space="preserve">0.83729887008667</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
     <t xml:space="preserve">0.886712789535522</t>
@@ -368,25 +368,25 @@
     <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279654979706</t>
+    <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
     <t xml:space="preserve">0.849651992321014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555771350861</t>
+    <t xml:space="preserve">0.869555652141571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338518619537</t>
+    <t xml:space="preserve">0.850338399410248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8263179063797</t>
+    <t xml:space="preserve">0.826318085193634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063355922699</t>
+    <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925996303558</t>
+    <t xml:space="preserve">0.835925936698914</t>
   </si>
   <si>
     <t xml:space="preserve">0.842102885246277</t>
@@ -398,34 +398,34 @@
     <t xml:space="preserve">0.809160172939301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591135501862</t>
+    <t xml:space="preserve">0.812591195106506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831808388233185</t>
+    <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475818634033</t>
+    <t xml:space="preserve">0.843475759029388</t>
   </si>
   <si>
     <t xml:space="preserve">0.84553462266922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730488300323</t>
+    <t xml:space="preserve">0.840730547904968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.8736732006073</t>
   </si>
   <si>
     <t xml:space="preserve">0.861319422721863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517519950867</t>
+    <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281826972961</t>
+    <t xml:space="preserve">0.883281767368317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986733913422</t>
+    <t xml:space="preserve">0.872986674308777</t>
   </si>
   <si>
     <t xml:space="preserve">0.859260559082031</t>
@@ -434,49 +434,49 @@
     <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88188099861145</t>
+    <t xml:space="preserve">0.881880939006805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165797710419</t>
+    <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89259260892868</t>
+    <t xml:space="preserve">0.892592549324036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902589201927185</t>
+    <t xml:space="preserve">0.90258914232254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162509918213</t>
+    <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
     <t xml:space="preserve">0.905445456504822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906874001026154</t>
+    <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593626976013</t>
+    <t xml:space="preserve">0.887593507766724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88045334815979</t>
+    <t xml:space="preserve">0.880453288555145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599606513977</t>
+    <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017686843872</t>
+    <t xml:space="preserve">0.904017627239227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168549060822</t>
+    <t xml:space="preserve">0.876168608665466</t>
   </si>
   <si>
     <t xml:space="preserve">0.884023070335388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878306865692</t>
+    <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878310561180115</t>
+    <t xml:space="preserve">0.878310441970825</t>
   </si>
   <si>
     <t xml:space="preserve">0.8890221118927</t>
@@ -485,43 +485,43 @@
     <t xml:space="preserve">0.881166696548462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732828140259</t>
+    <t xml:space="preserve">0.899732768535614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018526077271</t>
+    <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305118083954</t>
+    <t xml:space="preserve">0.898305177688599</t>
   </si>
   <si>
     <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155333518982</t>
+    <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91472852230072</t>
+    <t xml:space="preserve">0.914728581905365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014339447021</t>
+    <t xml:space="preserve">0.914014220237732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444438457489</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904732048511505</t>
+    <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617112159729</t>
+    <t xml:space="preserve">0.866171181201935</t>
   </si>
   <si>
     <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884524822235</t>
+    <t xml:space="preserve">0.87188446521759</t>
   </si>
   <si>
     <t xml:space="preserve">0.866885423660278</t>
@@ -530,49 +530,49 @@
     <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455980300903</t>
+    <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
     <t xml:space="preserve">0.869028210639954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877597033977509</t>
+    <t xml:space="preserve">0.877596974372864</t>
   </si>
   <si>
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575926780701</t>
+    <t xml:space="preserve">0.947575986385345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288435935974</t>
+    <t xml:space="preserve">0.953288555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294594287872</t>
+    <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94257777929306</t>
+    <t xml:space="preserve">0.942577660083771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011647701263</t>
+    <t xml:space="preserve">0.924011766910553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976853013038635</t>
+    <t xml:space="preserve">0.976852834224701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275399208069</t>
+    <t xml:space="preserve">0.998275339603424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709208011627</t>
+    <t xml:space="preserve">0.979709267616272</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143016815186</t>
+    <t xml:space="preserve">0.961142957210541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568869590759</t>
+    <t xml:space="preserve">0.972568809986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956858992576599</t>
+    <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
     <t xml:space="preserve">0.960429549217224</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426082611084</t>
+    <t xml:space="preserve">0.970426023006439</t>
   </si>
   <si>
     <t xml:space="preserve">0.991848528385162</t>
@@ -599,61 +599,61 @@
     <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990480899811</t>
+    <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846675872803</t>
+    <t xml:space="preserve">0.996846735477448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134285926819</t>
+    <t xml:space="preserve">0.991134226322174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137692928314</t>
+    <t xml:space="preserve">0.981137752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706575870514</t>
+    <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133208274841</t>
+    <t xml:space="preserve">0.996133327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994846343994</t>
+    <t xml:space="preserve">0.978994965553284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967570006847382</t>
+    <t xml:space="preserve">0.967569828033447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856300830841</t>
+    <t xml:space="preserve">0.966856360435486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002857208252</t>
+    <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430567264557</t>
+    <t xml:space="preserve">0.955430448055267</t>
   </si>
   <si>
     <t xml:space="preserve">0.922583043575287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296446800232</t>
+    <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
     <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586510181427</t>
+    <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876633167267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024803638458</t>
+    <t xml:space="preserve">0.879024744033813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739105701447</t>
+    <t xml:space="preserve">0.879739046096802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725830554962</t>
+    <t xml:space="preserve">0.924725890159607</t>
   </si>
   <si>
     <t xml:space="preserve">0.935436606407166</t>
@@ -665,49 +665,49 @@
     <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.964000165462494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93186616897583</t>
+    <t xml:space="preserve">0.931866109371185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606782913208</t>
+    <t xml:space="preserve">0.842606723308563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177339553833</t>
+    <t xml:space="preserve">0.846177279949188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318393230438</t>
+    <t xml:space="preserve">0.853318333625793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83903706073761</t>
+    <t xml:space="preserve">0.83903694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170163154602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458672046661</t>
+    <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
     <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584776878357</t>
+    <t xml:space="preserve">0.917584717273712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090083122253</t>
+    <t xml:space="preserve">0.966090202331543</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939877986907959</t>
+    <t xml:space="preserve">0.939877927303314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928644597530365</t>
+    <t xml:space="preserve">0.928644716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068193912506</t>
+    <t xml:space="preserve">0.981068015098572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323532104492</t>
+    <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
     <t xml:space="preserve">0.943622648715973</t>
@@ -716,22 +716,22 @@
     <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962345480918884</t>
+    <t xml:space="preserve">0.962345242500305</t>
   </si>
   <si>
     <t xml:space="preserve">0.936133980751038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666725158691</t>
+    <t xml:space="preserve">0.913666665554047</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921944141388</t>
+    <t xml:space="preserve">0.909922063350677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177282333374</t>
+    <t xml:space="preserve">0.906177222728729</t>
   </si>
   <si>
     <t xml:space="preserve">0.902432560920715</t>
@@ -743,37 +743,37 @@
     <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155214309692</t>
+    <t xml:space="preserve">0.921155154705048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221299171448</t>
+    <t xml:space="preserve">0.876221358776093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411327362061</t>
+    <t xml:space="preserve">0.917411267757416</t>
   </si>
   <si>
     <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709967136383</t>
+    <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879966020584106</t>
+    <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264541149139</t>
+    <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86873185634613</t>
+    <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
     <t xml:space="preserve">0.861243307590485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831286489963531</t>
+    <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83503121137619</t>
+    <t xml:space="preserve">0.835031151771545</t>
   </si>
   <si>
     <t xml:space="preserve">0.842520654201508</t>
@@ -782,7 +782,7 @@
     <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797881603241</t>
+    <t xml:space="preserve">0.823798000812531</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
@@ -794,22 +794,22 @@
     <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585785388947</t>
+    <t xml:space="preserve">0.797585844993591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075287818909</t>
+    <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476518154144</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987134933472</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90738171339035</t>
+    <t xml:space="preserve">0.907381772994995</t>
   </si>
   <si>
     <t xml:space="preserve">0.89949107170105</t>
@@ -818,28 +818,28 @@
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92316210269928</t>
+    <t xml:space="preserve">0.923162221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051969528198</t>
+    <t xml:space="preserve">0.931051850318909</t>
   </si>
   <si>
     <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613582611084</t>
+    <t xml:space="preserve">0.962613523006439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833193302155</t>
+    <t xml:space="preserve">0.946833074092865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88371080160141</t>
+    <t xml:space="preserve">0.883710741996765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875820100307465</t>
+    <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930293083191</t>
+    <t xml:space="preserve">0.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836368680000305</t>
+    <t xml:space="preserve">0.83636873960495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478991985321</t>
+    <t xml:space="preserve">0.828478872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191519737244</t>
+    <t xml:space="preserve">0.777191579341888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807841777802</t>
+    <t xml:space="preserve">0.804807901382446</t>
   </si>
   <si>
     <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082161426544</t>
+    <t xml:space="preserve">0.785082221031189</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -899,31 +899,31 @@
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74563080072403</t>
+    <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465839385986</t>
+    <t xml:space="preserve">0.757465779781342</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729850351810455</t>
+    <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737740159034729</t>
+    <t xml:space="preserve">0.737740099430084</t>
   </si>
   <si>
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.706179320812225</t>
+    <t xml:space="preserve">0.70617938041687</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014478683472</t>
+    <t xml:space="preserve">0.718014419078827</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -932,22 +932,19 @@
     <t xml:space="preserve">0.7219597697258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588350296021</t>
+    <t xml:space="preserve">0.820588290691376</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906528770923615</t>
+    <t xml:space="preserve">0.90652871131897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939795553684235</t>
+    <t xml:space="preserve">0.93979549407959</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -971,13 +968,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063230514526</t>
+    <t xml:space="preserve">0.973063290119171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746057987213</t>
+    <t xml:space="preserve">0.964746117591858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379449367523</t>
+    <t xml:space="preserve">0.981379389762878</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -986,7 +983,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146472454071</t>
+    <t xml:space="preserve">1.01464712619781</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1008,6 +1005,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -37267,7 +37267,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1370" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37293,7 +37293,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1371" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37319,7 +37319,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1372" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37345,7 +37345,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1373" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37371,7 +37371,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1374" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37397,7 +37397,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1375" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37423,7 +37423,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1376" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37449,7 +37449,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1377" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37475,7 +37475,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1378" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37501,7 +37501,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1379" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37527,7 +37527,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1380" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37553,7 +37553,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1381" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -37579,7 +37579,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1382" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -37605,7 +37605,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1383" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -37631,7 +37631,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -37657,7 +37657,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1385" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -37683,7 +37683,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1386" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -37709,7 +37709,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1387" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -37735,7 +37735,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1388" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -37761,7 +37761,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1389" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -37787,7 +37787,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1390" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -37813,7 +37813,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1391" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -37839,7 +37839,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1392" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -37865,7 +37865,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1393" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -37891,7 +37891,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1394" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -37917,7 +37917,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1395" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -37943,7 +37943,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1396" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -37969,7 +37969,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1397" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -37995,7 +37995,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1398" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38021,7 +38021,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1399" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38047,7 +38047,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1400" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38073,7 +38073,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1401" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38099,7 +38099,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1402" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38125,7 +38125,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1403" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38151,7 +38151,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1404" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38177,7 +38177,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1405" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38203,7 +38203,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1406" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38229,7 +38229,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1407" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38255,7 +38255,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1408" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38281,7 +38281,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1409" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38307,7 +38307,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1410" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38333,7 +38333,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1411" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38359,7 +38359,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1412" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38385,7 +38385,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1413" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38411,7 +38411,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1414" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38437,7 +38437,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1415" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38463,7 +38463,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1416" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38489,7 +38489,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1417" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38515,7 +38515,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1418" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38541,7 +38541,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1419" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38593,7 +38593,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1421" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38619,7 +38619,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1422" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38645,7 +38645,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1423" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38671,7 +38671,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1424" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38697,7 +38697,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1425" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -38723,7 +38723,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1426" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -38749,7 +38749,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1427" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -38775,7 +38775,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1428" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -38801,7 +38801,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1429" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -38827,7 +38827,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1430" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -38853,7 +38853,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1431" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -38879,7 +38879,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1432" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -38905,7 +38905,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1433" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -38931,7 +38931,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1434" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -38957,7 +38957,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1435" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -38983,7 +38983,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1436" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39009,7 +39009,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1437" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39035,7 +39035,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1438" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39061,7 +39061,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1439" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39087,7 +39087,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1440" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39113,7 +39113,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1441" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39139,7 +39139,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1442" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39165,7 +39165,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1443" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39191,7 +39191,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1444" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39217,7 +39217,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1445" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39243,7 +39243,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1446" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39269,7 +39269,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1447" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39295,7 +39295,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1448" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39321,7 +39321,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1449" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39347,7 +39347,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1450" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39373,7 +39373,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1451" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39399,7 +39399,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1452" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39425,7 +39425,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1453" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39451,7 +39451,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1454" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39477,7 +39477,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1455" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39503,7 +39503,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1456" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39529,7 +39529,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1457" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39555,7 +39555,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1458" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39581,7 +39581,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1459" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -39607,7 +39607,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1460" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -39633,7 +39633,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1461" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -39659,7 +39659,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1462" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -39685,7 +39685,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1463" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -39737,7 +39737,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1465" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -39763,7 +39763,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1466" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -39789,7 +39789,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1467" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -39815,7 +39815,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1468" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -39841,7 +39841,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1469" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -39867,7 +39867,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1470" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -39893,7 +39893,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1471" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -39919,7 +39919,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1472" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -39945,7 +39945,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1473" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -39971,7 +39971,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1474" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -39997,7 +39997,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1475" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40023,7 +40023,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1476" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40049,7 +40049,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1477" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40075,7 +40075,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1478" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40101,7 +40101,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1479" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40127,7 +40127,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1480" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40153,7 +40153,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1481" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40179,7 +40179,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1482" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40205,7 +40205,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1483" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40231,7 +40231,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1484" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40257,7 +40257,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1485" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40283,7 +40283,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1486" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40309,7 +40309,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1487" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40335,7 +40335,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1488" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40361,7 +40361,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1489" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40387,7 +40387,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1490" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40413,7 +40413,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1491" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40439,7 +40439,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1492" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40465,7 +40465,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1493" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40491,7 +40491,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1494" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40517,7 +40517,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1495" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40543,7 +40543,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1496" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40569,7 +40569,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1497" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -40595,7 +40595,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1498" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -40621,7 +40621,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1499" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -40647,7 +40647,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1500" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -40673,7 +40673,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1501" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -40699,7 +40699,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1502" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -40725,7 +40725,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1503" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -40751,7 +40751,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1504" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -40777,7 +40777,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1505" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -40803,7 +40803,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1506" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -40881,7 +40881,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1509" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -40907,7 +40907,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1510" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -40933,7 +40933,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1511" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -40959,7 +40959,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1512" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -40985,7 +40985,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1513" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41037,7 +41037,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1515" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41063,7 +41063,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1516" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41089,7 +41089,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1517" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41115,7 +41115,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1518" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41141,7 +41141,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1519" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41167,7 +41167,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1520" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41193,7 +41193,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1521" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41219,7 +41219,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1522" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41245,7 +41245,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1523" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41271,7 +41271,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1524" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41297,7 +41297,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1525" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41323,7 +41323,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1526" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41349,7 +41349,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1527" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41375,7 +41375,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1528" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41401,7 +41401,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1529" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41427,7 +41427,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1530" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41453,7 +41453,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1531" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41479,7 +41479,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1532" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41505,7 +41505,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1533" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41531,7 +41531,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1534" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41557,7 +41557,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1535" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41583,7 +41583,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1536" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -41609,7 +41609,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1537" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -41635,7 +41635,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1538" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -41661,7 +41661,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1539" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -41687,7 +41687,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1540" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -41713,7 +41713,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1541" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -41739,7 +41739,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1542" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -41765,7 +41765,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1543" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -41791,7 +41791,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1544" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -41817,7 +41817,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1545" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -41843,7 +41843,7 @@
         <v>1.10685801506042</v>
       </c>
       <c r="G1546" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -41869,7 +41869,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1547" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -41895,7 +41895,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1548" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -41921,7 +41921,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1549" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -41947,7 +41947,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1550" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -41973,7 +41973,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1551" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -41999,7 +41999,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1552" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42025,7 +42025,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1553" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42051,7 +42051,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1554" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42077,7 +42077,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1555" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42103,7 +42103,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42129,7 +42129,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1557" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42155,7 +42155,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1558" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42207,7 +42207,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1560" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42233,7 +42233,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1561" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42259,7 +42259,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1562" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42285,7 +42285,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1563" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42337,7 +42337,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1565" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42363,7 +42363,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1566" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42389,7 +42389,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1567" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42415,7 +42415,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1568" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42441,7 +42441,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1569" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42467,7 +42467,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1570" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42493,7 +42493,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1571" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42519,7 +42519,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1572" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42545,7 +42545,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1573" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42571,7 +42571,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1574" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42597,7 +42597,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1575" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42623,7 +42623,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1576" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42649,7 +42649,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1577" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42675,7 +42675,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1578" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42987,7 +42987,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1590" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43013,7 +43013,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1591" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43039,7 +43039,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1592" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43065,7 +43065,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1593" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43091,7 +43091,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1594" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43117,7 +43117,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1595" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43143,7 +43143,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1596" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43169,7 +43169,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1597" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43195,7 +43195,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1598" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43221,7 +43221,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1599" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43247,7 +43247,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1600" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43273,7 +43273,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1601" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43403,7 +43403,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1606" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43429,7 +43429,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1607" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43455,7 +43455,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1608" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43481,7 +43481,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1609" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43507,7 +43507,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1610" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43533,7 +43533,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1611" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43559,7 +43559,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43585,7 +43585,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1613" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43611,7 +43611,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1614" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43637,7 +43637,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1615" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43663,7 +43663,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1616" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43689,7 +43689,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1617" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43715,7 +43715,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1618" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43741,7 +43741,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1619" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43767,7 +43767,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1620" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43793,7 +43793,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1621" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43819,7 +43819,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1622" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43845,7 +43845,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1623" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43871,7 +43871,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1624" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43897,7 +43897,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1625" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43923,7 +43923,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1626" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43949,7 +43949,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1627" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43975,7 +43975,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1628" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44001,7 +44001,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1629" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44027,7 +44027,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1630" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44053,7 +44053,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1631" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44079,7 +44079,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1632" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44105,7 +44105,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1633" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44131,7 +44131,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1634" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44157,7 +44157,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1635" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44183,7 +44183,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1636" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44209,7 +44209,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1637" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44235,7 +44235,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44755,7 +44755,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1658" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45093,7 +45093,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1671" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45119,7 +45119,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1672" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45249,7 +45249,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1677" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45275,7 +45275,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1678" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45301,7 +45301,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1679" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45327,7 +45327,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1680" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45353,7 +45353,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1681" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45379,7 +45379,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1682" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45405,7 +45405,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1683" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45431,7 +45431,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1684" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45457,7 +45457,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1685" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49383,7 +49383,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1836" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49461,7 +49461,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1839" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49487,7 +49487,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1840" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49539,7 +49539,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1842" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49565,7 +49565,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1843" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49591,7 +49591,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1844" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49929,7 +49929,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1857" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -57477,7 +57477,7 @@
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n">
-        <v>45453.3281365741</v>
+        <v>45453.2916666667</v>
       </c>
       <c r="B2148" t="n">
         <v>3529</v>
@@ -57498,6 +57498,32 @@
         <v>426</v>
       </c>
       <c r="H2148" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" s="1" t="n">
+        <v>45455.6061226852</v>
+      </c>
+      <c r="B2149" t="n">
+        <v>39066</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2149" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,109 +38,109 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816664040088654</t>
+    <t xml:space="preserve">0.816663920879364</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165435791016</t>
+    <t xml:space="preserve">0.80316549539566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815986633301</t>
+    <t xml:space="preserve">0.801816046237946</t>
   </si>
   <si>
     <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790561199188</t>
+    <t xml:space="preserve">0.799790680408478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441231250763</t>
+    <t xml:space="preserve">0.798441112041473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79506641626358</t>
+    <t xml:space="preserve">0.795066475868225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789666950702667</t>
+    <t xml:space="preserve">0.789667069911957</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716192245483</t>
+    <t xml:space="preserve">0.793716013431549</t>
   </si>
   <si>
     <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057744026184</t>
+    <t xml:space="preserve">0.876057684421539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661487102509</t>
+    <t xml:space="preserve">0.843661427497864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390882730484</t>
+    <t xml:space="preserve">0.863908886909485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961873531342</t>
+    <t xml:space="preserve">0.840961813926697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824762880802155</t>
+    <t xml:space="preserve">0.824763000011444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236774921417</t>
+    <t xml:space="preserve">0.836236834526062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713758468628</t>
+    <t xml:space="preserve">0.820713877677917</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915065765381</t>
+    <t xml:space="preserve">0.809915006160736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917439937592</t>
+    <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797091066837311</t>
+    <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614738941193</t>
+    <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264455318451</t>
+    <t xml:space="preserve">0.81126457452774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115538597107</t>
+    <t xml:space="preserve">0.799115478992462</t>
   </si>
   <si>
     <t xml:space="preserve">0.803840577602386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80923992395401</t>
+    <t xml:space="preserve">0.809239983558655</t>
   </si>
   <si>
     <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140964031219</t>
+    <t xml:space="preserve">0.801140785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540250778198</t>
+    <t xml:space="preserve">0.806540191173553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741438865662</t>
+    <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366802692413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7869673371315</t>
+    <t xml:space="preserve">0.786967277526855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788316786289215</t>
+    <t xml:space="preserve">0.78831684589386</t>
   </si>
   <si>
     <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289046287537</t>
+    <t xml:space="preserve">0.813289105892181</t>
   </si>
   <si>
     <t xml:space="preserve">0.822738349437714</t>
@@ -149,13 +149,13 @@
     <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038676261902</t>
+    <t xml:space="preserve">0.820038616657257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363594055176</t>
+    <t xml:space="preserve">0.819363653659821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639389514923</t>
+    <t xml:space="preserve">0.814639270305634</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988779067993</t>
@@ -164,106 +164,106 @@
     <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964247703552</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572814464569</t>
+    <t xml:space="preserve">0.823572754859924</t>
   </si>
   <si>
     <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827543735504</t>
+    <t xml:space="preserve">0.820827603340149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820141077041626</t>
+    <t xml:space="preserve">0.820141196250916</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824258506298065</t>
+    <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
     <t xml:space="preserve">0.817395925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81327760219574</t>
+    <t xml:space="preserve">0.813277661800385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811905562877655</t>
+    <t xml:space="preserve">0.811905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964068889618</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
     <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845924377441</t>
+    <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257287979126</t>
   </si>
   <si>
     <t xml:space="preserve">0.802983283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473825454712</t>
+    <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806415021419525</t>
+    <t xml:space="preserve">0.80641508102417</t>
   </si>
   <si>
     <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553599357605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435574054718</t>
+    <t xml:space="preserve">0.830435514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355442523956</t>
+    <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393753528595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766686916351</t>
+    <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099494934082</t>
+    <t xml:space="preserve">0.772099375724792</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804342269897</t>
+    <t xml:space="preserve">0.761804401874542</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471593856812</t>
+    <t xml:space="preserve">0.773471713066101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530338287354</t>
+    <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216983795166</t>
+    <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570761680603</t>
+    <t xml:space="preserve">0.788570880889893</t>
   </si>
   <si>
     <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667757511139</t>
+    <t xml:space="preserve">0.768667697906494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335128307343</t>
+    <t xml:space="preserve">0.780335068702698</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236079692841</t>
@@ -284,25 +284,25 @@
     <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315793991089</t>
+    <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490749359131</t>
+    <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021535396576</t>
   </si>
   <si>
     <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296817302704</t>
+    <t xml:space="preserve">0.802296757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788423538208</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119868755341</t>
+    <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
@@ -311,10 +311,10 @@
     <t xml:space="preserve">0.755627453327179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844646453857</t>
+    <t xml:space="preserve">0.774844765663147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785139083862305</t>
+    <t xml:space="preserve">0.785139143466949</t>
   </si>
   <si>
     <t xml:space="preserve">0.801610350608826</t>
@@ -323,16 +323,16 @@
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294764518738</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686913013458</t>
+    <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746706008911133</t>
+    <t xml:space="preserve">0.746705949306488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75425511598587</t>
+    <t xml:space="preserve">0.75425523519516</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276324272156</t>
@@ -341,19 +341,19 @@
     <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707286834717</t>
+    <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
     <t xml:space="preserve">0.787197828292847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867073059082</t>
   </si>
   <si>
     <t xml:space="preserve">0.844161450862885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83729887008667</t>
+    <t xml:space="preserve">0.837298929691315</t>
   </si>
   <si>
     <t xml:space="preserve">0.857888340950012</t>
@@ -362,28 +362,28 @@
     <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712789535522</t>
+    <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87916362285614</t>
+    <t xml:space="preserve">0.879163563251495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279774188995</t>
+    <t xml:space="preserve">0.848279714584351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849651992321014</t>
+    <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555652141571</t>
+    <t xml:space="preserve">0.869555711746216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338399410248</t>
+    <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826318085193634</t>
+    <t xml:space="preserve">0.8263179063797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063236713409</t>
+    <t xml:space="preserve">0.829063296318054</t>
   </si>
   <si>
     <t xml:space="preserve">0.835925936698914</t>
@@ -404,19 +404,19 @@
     <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475759029388</t>
+    <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553462266922</t>
+    <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730547904968</t>
+    <t xml:space="preserve">0.840730488300323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8736732006073</t>
+    <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319422721863</t>
+    <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
     <t xml:space="preserve">0.891517400741577</t>
@@ -431,52 +431,52 @@
     <t xml:space="preserve">0.859260559082031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595300674438</t>
+    <t xml:space="preserve">0.882595419883728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881880939006805</t>
+    <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
     <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592549324036</t>
+    <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
     <t xml:space="preserve">0.90258914232254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162390708923</t>
+    <t xml:space="preserve">0.896162450313568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445456504822</t>
+    <t xml:space="preserve">0.905445516109467</t>
   </si>
   <si>
     <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593507766724</t>
+    <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
     <t xml:space="preserve">0.880453288555145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599666118622</t>
+    <t xml:space="preserve">0.867599606513977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017627239227</t>
+    <t xml:space="preserve">0.904017746448517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168608665466</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023070335388</t>
+    <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878366470337</t>
+    <t xml:space="preserve">0.891878306865692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878310441970825</t>
+    <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
     <t xml:space="preserve">0.8890221118927</t>
@@ -488,10 +488,10 @@
     <t xml:space="preserve">0.899732768535614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.899018526077271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305177688599</t>
+    <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
     <t xml:space="preserve">0.906159698963165</t>
@@ -500,13 +500,13 @@
     <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728581905365</t>
+    <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
     <t xml:space="preserve">0.914014220237732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444438457489</t>
+    <t xml:space="preserve">0.910444557666779</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015953540802</t>
@@ -515,13 +515,13 @@
     <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171181201935</t>
+    <t xml:space="preserve">0.86617112159729</t>
   </si>
   <si>
     <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87188446521759</t>
+    <t xml:space="preserve">0.871884524822235</t>
   </si>
   <si>
     <t xml:space="preserve">0.866885423660278</t>
@@ -530,70 +530,70 @@
     <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455920696259</t>
+    <t xml:space="preserve">0.870455980300903</t>
   </si>
   <si>
     <t xml:space="preserve">0.869028210639954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596974372864</t>
+    <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575986385345</t>
+    <t xml:space="preserve">0.947575807571411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288555145264</t>
+    <t xml:space="preserve">0.953288435935974</t>
   </si>
   <si>
     <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577660083771</t>
+    <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011766910553</t>
+    <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976852834224701</t>
+    <t xml:space="preserve">0.97685295343399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275339603424</t>
+    <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709267616272</t>
+    <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961142957210541</t>
+    <t xml:space="preserve">0.961143016815186</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568809986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859052181244</t>
+    <t xml:space="preserve">0.956859111785889</t>
   </si>
   <si>
     <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567255496979</t>
+    <t xml:space="preserve">0.977567315101624</t>
   </si>
   <si>
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426023006439</t>
+    <t xml:space="preserve">0.970426082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848528385162</t>
+    <t xml:space="preserve">0.991848468780518</t>
   </si>
   <si>
     <t xml:space="preserve">0.974710941314697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98899233341217</t>
+    <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.999702990055084</t>
@@ -605,40 +605,40 @@
     <t xml:space="preserve">0.996846735477448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134226322174</t>
+    <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137752532959</t>
+    <t xml:space="preserve">0.981137633323669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706516265869</t>
+    <t xml:space="preserve">0.989706456661224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133327484131</t>
+    <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994965553284</t>
+    <t xml:space="preserve">0.978994905948639</t>
   </si>
   <si>
     <t xml:space="preserve">0.967569828033447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856360435486</t>
+    <t xml:space="preserve">0.966856300830841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002737998962</t>
+    <t xml:space="preserve">0.954002857208252</t>
   </si>
   <si>
     <t xml:space="preserve">0.955430448055267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922583043575287</t>
+    <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296327590942</t>
+    <t xml:space="preserve">0.928296506404877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734680652618</t>
+    <t xml:space="preserve">0.894734621047974</t>
   </si>
   <si>
     <t xml:space="preserve">0.912586569786072</t>
@@ -650,10 +650,10 @@
     <t xml:space="preserve">0.879024744033813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739046096802</t>
+    <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725890159607</t>
+    <t xml:space="preserve">0.924725830554962</t>
   </si>
   <si>
     <t xml:space="preserve">0.935436606407166</t>
@@ -662,28 +662,28 @@
     <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148276329041</t>
+    <t xml:space="preserve">0.94614839553833</t>
   </si>
   <si>
     <t xml:space="preserve">0.964000165462494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866109371185</t>
+    <t xml:space="preserve">0.931866049766541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606723308563</t>
+    <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
     <t xml:space="preserve">0.846177279949188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318333625793</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83903694152832</t>
+    <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170163154602</t>
+    <t xml:space="preserve">0.871170282363892</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458612442017</t>
@@ -692,46 +692,46 @@
     <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584717273712</t>
+    <t xml:space="preserve">0.917584776878357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090202331543</t>
+    <t xml:space="preserve">0.966090083122253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939877927303314</t>
+    <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928644716739655</t>
+    <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068015098572</t>
+    <t xml:space="preserve">0.981068074703217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323412895203</t>
+    <t xml:space="preserve">0.977323472499847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622648715973</t>
+    <t xml:space="preserve">0.943622589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579466342926</t>
+    <t xml:space="preserve">0.973579525947571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962345242500305</t>
+    <t xml:space="preserve">0.962345480918884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936133980751038</t>
+    <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666665554047</t>
+    <t xml:space="preserve">0.913666784763336</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909922063350677</t>
+    <t xml:space="preserve">0.909922003746033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177222728729</t>
+    <t xml:space="preserve">0.906177282333374</t>
   </si>
   <si>
     <t xml:space="preserve">0.902432560920715</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924899995326996</t>
+    <t xml:space="preserve">0.924900054931641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155154705048</t>
+    <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221358776093</t>
+    <t xml:space="preserve">0.876221299171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411267757416</t>
+    <t xml:space="preserve">0.917411386966705</t>
   </si>
   <si>
     <t xml:space="preserve">0.894944071769714</t>
@@ -761,28 +761,28 @@
     <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264481544495</t>
+    <t xml:space="preserve">0.846264541149139</t>
   </si>
   <si>
     <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243307590485</t>
+    <t xml:space="preserve">0.86124324798584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831286549568176</t>
+    <t xml:space="preserve">0.831286489963531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835031151771545</t>
+    <t xml:space="preserve">0.83503121137619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520654201508</t>
+    <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
     <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823798000812531</t>
+    <t xml:space="preserve">0.823797941207886</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
@@ -794,52 +794,52 @@
     <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585844993591</t>
+    <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
     <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476577758789</t>
+    <t xml:space="preserve">0.872476518154144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987134933472</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907381772994995</t>
+    <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89949107170105</t>
+    <t xml:space="preserve">0.899491131305695</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162221908569</t>
+    <t xml:space="preserve">0.923162162303925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051850318909</t>
+    <t xml:space="preserve">0.931051909923553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600489616394</t>
+    <t xml:space="preserve">0.891600549221039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613523006439</t>
+    <t xml:space="preserve">0.962613642215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833074092865</t>
+    <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883710741996765</t>
+    <t xml:space="preserve">0.88371080160141</t>
   </si>
   <si>
     <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86793041229248</t>
+    <t xml:space="preserve">0.867930352687836</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83636873960495</t>
+    <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478872776031</t>
+    <t xml:space="preserve">0.828478932380676</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917319297791</t>
+    <t xml:space="preserve">0.796917259693146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698483467102</t>
+    <t xml:space="preserve">0.812698543071747</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191579341888</t>
+    <t xml:space="preserve">0.777191519737244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807901382446</t>
+    <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356481075287</t>
+    <t xml:space="preserve">0.765356421470642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082221031189</t>
+    <t xml:space="preserve">0.785082161426544</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795702457428</t>
+    <t xml:space="preserve">0.733795642852783</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465779781342</t>
+    <t xml:space="preserve">0.757465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7298504114151</t>
+    <t xml:space="preserve">0.729850351810455</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740099430084</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014419078827</t>
+    <t xml:space="preserve">0.718014478683472</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90652871131897</t>
+    <t xml:space="preserve">0.906528770923615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93979549407959</t>
+    <t xml:space="preserve">0.939795553684235</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063290119171</t>
+    <t xml:space="preserve">0.973063230514526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746117591858</t>
+    <t xml:space="preserve">0.964746057987213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379389762878</t>
+    <t xml:space="preserve">0.981379449367523</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01464712619781</t>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1005,9 +1005,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -44235,7 +44232,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44261,7 +44258,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44287,7 +44284,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44313,7 +44310,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44339,7 +44336,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44365,7 +44362,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44391,7 +44388,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44417,7 +44414,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44443,7 +44440,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44469,7 +44466,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44495,7 +44492,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44521,7 +44518,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44547,7 +44544,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44573,7 +44570,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44599,7 +44596,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44625,7 +44622,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44651,7 +44648,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44677,7 +44674,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44703,7 +44700,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44729,7 +44726,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44781,7 +44778,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44807,7 +44804,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44833,7 +44830,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44859,7 +44856,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44885,7 +44882,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44911,7 +44908,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44937,7 +44934,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44963,7 +44960,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44989,7 +44986,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45015,7 +45012,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45041,7 +45038,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45067,7 +45064,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45145,7 +45142,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45171,7 +45168,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45197,7 +45194,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45223,7 +45220,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45483,7 +45480,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45509,7 +45506,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45535,7 +45532,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45561,7 +45558,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45587,7 +45584,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45613,7 +45610,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45639,7 +45636,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45665,7 +45662,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45691,7 +45688,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45717,7 +45714,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45743,7 +45740,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45769,7 +45766,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45795,7 +45792,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45821,7 +45818,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45847,7 +45844,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45873,7 +45870,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45899,7 +45896,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45925,7 +45922,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45951,7 +45948,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45977,7 +45974,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46003,7 +46000,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46029,7 +46026,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46055,7 +46052,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46081,7 +46078,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46107,7 +46104,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46133,7 +46130,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46159,7 +46156,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46185,7 +46182,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46211,7 +46208,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46237,7 +46234,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46263,7 +46260,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46289,7 +46286,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46315,7 +46312,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46341,7 +46338,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46367,7 +46364,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46393,7 +46390,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46419,7 +46416,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46445,7 +46442,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46471,7 +46468,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46497,7 +46494,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46523,7 +46520,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46549,7 +46546,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46575,7 +46572,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46601,7 +46598,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46627,7 +46624,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46653,7 +46650,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46679,7 +46676,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46705,7 +46702,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46731,7 +46728,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46757,7 +46754,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46783,7 +46780,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46809,7 +46806,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46835,7 +46832,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46861,7 +46858,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46887,7 +46884,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46913,7 +46910,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46939,7 +46936,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46965,7 +46962,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46991,7 +46988,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47017,7 +47014,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47043,7 +47040,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47069,7 +47066,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47095,7 +47092,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47121,7 +47118,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47147,7 +47144,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47173,7 +47170,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47199,7 +47196,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47225,7 +47222,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47251,7 +47248,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47277,7 +47274,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47303,7 +47300,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47329,7 +47326,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47355,7 +47352,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47381,7 +47378,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47407,7 +47404,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47433,7 +47430,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47459,7 +47456,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47485,7 +47482,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47511,7 +47508,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47537,7 +47534,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47563,7 +47560,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47589,7 +47586,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47615,7 +47612,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47641,7 +47638,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47667,7 +47664,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47693,7 +47690,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47719,7 +47716,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47745,7 +47742,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47771,7 +47768,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47797,7 +47794,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47823,7 +47820,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47849,7 +47846,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47875,7 +47872,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47901,7 +47898,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47927,7 +47924,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47953,7 +47950,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47979,7 +47976,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48005,7 +48002,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48031,7 +48028,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48057,7 +48054,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48083,7 +48080,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48109,7 +48106,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48135,7 +48132,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48161,7 +48158,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48187,7 +48184,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48213,7 +48210,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48239,7 +48236,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48265,7 +48262,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48291,7 +48288,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48317,7 +48314,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48343,7 +48340,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48369,7 +48366,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48395,7 +48392,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48421,7 +48418,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48447,7 +48444,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48473,7 +48470,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48499,7 +48496,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48525,7 +48522,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48551,7 +48548,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48577,7 +48574,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48603,7 +48600,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48629,7 +48626,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48655,7 +48652,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48681,7 +48678,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48707,7 +48704,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48733,7 +48730,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48759,7 +48756,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48785,7 +48782,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48811,7 +48808,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48837,7 +48834,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48863,7 +48860,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48889,7 +48886,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48915,7 +48912,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48941,7 +48938,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48967,7 +48964,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48993,7 +48990,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49019,7 +49016,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49045,7 +49042,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49071,7 +49068,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49097,7 +49094,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49123,7 +49120,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49149,7 +49146,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49175,7 +49172,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49201,7 +49198,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49227,7 +49224,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49253,7 +49250,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49279,7 +49276,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49305,7 +49302,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49331,7 +49328,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49357,7 +49354,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49409,7 +49406,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49435,7 +49432,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49513,7 +49510,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49617,7 +49614,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49643,7 +49640,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49669,7 +49666,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49695,7 +49692,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49721,7 +49718,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49747,7 +49744,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49773,7 +49770,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49799,7 +49796,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49825,7 +49822,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49851,7 +49848,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49877,7 +49874,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49903,7 +49900,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49955,7 +49952,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49981,7 +49978,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50007,7 +50004,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50033,7 +50030,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50059,7 +50056,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50085,7 +50082,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50111,7 +50108,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50137,7 +50134,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50163,7 +50160,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50189,7 +50186,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50215,7 +50212,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50241,7 +50238,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50267,7 +50264,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50293,7 +50290,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50319,7 +50316,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50345,7 +50342,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50371,7 +50368,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50397,7 +50394,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50423,7 +50420,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50449,7 +50446,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50475,7 +50472,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50501,7 +50498,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50527,7 +50524,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50553,7 +50550,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50579,7 +50576,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50605,7 +50602,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50631,7 +50628,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50657,7 +50654,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50683,7 +50680,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50709,7 +50706,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50735,7 +50732,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50761,7 +50758,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50787,7 +50784,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50813,7 +50810,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50839,7 +50836,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50865,7 +50862,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50891,7 +50888,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50917,7 +50914,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50943,7 +50940,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50969,7 +50966,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50995,7 +50992,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51021,7 +51018,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51047,7 +51044,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51073,7 +51070,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51099,7 +51096,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51125,7 +51122,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51151,7 +51148,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51177,7 +51174,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51203,7 +51200,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51229,7 +51226,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51255,7 +51252,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51281,7 +51278,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51307,7 +51304,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51333,7 +51330,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51359,7 +51356,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51385,7 +51382,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51411,7 +51408,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51437,7 +51434,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51463,7 +51460,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51489,7 +51486,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51515,7 +51512,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51541,7 +51538,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51567,7 +51564,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51593,7 +51590,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51619,7 +51616,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51645,7 +51642,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51671,7 +51668,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51697,7 +51694,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51723,7 +51720,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51749,7 +51746,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51775,7 +51772,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51801,7 +51798,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51827,7 +51824,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51853,7 +51850,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51879,7 +51876,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51905,7 +51902,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51931,7 +51928,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51957,7 +51954,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51983,7 +51980,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52009,7 +52006,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52035,7 +52032,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52061,7 +52058,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52087,7 +52084,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52113,7 +52110,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52139,7 +52136,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52165,7 +52162,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52191,7 +52188,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52217,7 +52214,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52243,7 +52240,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52269,7 +52266,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52295,7 +52292,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52321,7 +52318,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52347,7 +52344,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52373,7 +52370,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52399,7 +52396,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52425,7 +52422,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52451,7 +52448,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52477,7 +52474,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52503,7 +52500,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52529,7 +52526,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52555,7 +52552,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52581,7 +52578,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52607,7 +52604,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52633,7 +52630,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52659,7 +52656,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52685,7 +52682,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52711,7 +52708,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52737,7 +52734,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52763,7 +52760,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52789,7 +52786,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52815,7 +52812,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52841,7 +52838,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52867,7 +52864,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52893,7 +52890,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52919,7 +52916,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52945,7 +52942,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52971,7 +52968,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52997,7 +52994,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53023,7 +53020,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53049,7 +53046,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53075,7 +53072,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53101,7 +53098,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53127,7 +53124,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53153,7 +53150,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53179,7 +53176,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53205,7 +53202,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53231,7 +53228,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53257,7 +53254,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53283,7 +53280,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53309,7 +53306,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53335,7 +53332,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53361,7 +53358,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53387,7 +53384,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53413,7 +53410,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53439,7 +53436,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53465,7 +53462,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53491,7 +53488,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53517,7 +53514,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53543,7 +53540,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53569,7 +53566,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53595,7 +53592,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53621,7 +53618,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53647,7 +53644,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53673,7 +53670,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53699,7 +53696,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53725,7 +53722,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53751,7 +53748,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53777,7 +53774,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53803,7 +53800,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53829,7 +53826,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53855,7 +53852,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53881,7 +53878,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53907,7 +53904,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53933,7 +53930,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53959,7 +53956,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53985,7 +53982,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54011,7 +54008,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54037,7 +54034,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54063,7 +54060,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54089,7 +54086,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54115,7 +54112,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54141,7 +54138,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54167,7 +54164,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54193,7 +54190,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54219,7 +54216,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54245,7 +54242,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54271,7 +54268,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54297,7 +54294,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54323,7 +54320,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54349,7 +54346,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54375,7 +54372,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54401,7 +54398,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54427,7 +54424,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54453,7 +54450,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54479,7 +54476,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54505,7 +54502,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54531,7 +54528,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54557,7 +54554,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54583,7 +54580,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54609,7 +54606,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54635,7 +54632,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54661,7 +54658,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54687,7 +54684,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54713,7 +54710,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54739,7 +54736,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54765,7 +54762,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54791,7 +54788,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54817,7 +54814,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54843,7 +54840,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54869,7 +54866,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54895,7 +54892,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54921,7 +54918,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54947,7 +54944,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54973,7 +54970,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54999,7 +54996,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55025,7 +55022,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55051,7 +55048,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55077,7 +55074,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55103,7 +55100,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55129,7 +55126,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55155,7 +55152,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55181,7 +55178,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55207,7 +55204,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55233,7 +55230,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55259,7 +55256,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55285,7 +55282,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55311,7 +55308,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55337,7 +55334,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55363,7 +55360,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55389,7 +55386,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55415,7 +55412,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55441,7 +55438,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55467,7 +55464,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55493,7 +55490,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55519,7 +55516,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55545,7 +55542,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55571,7 +55568,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55597,7 +55594,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55623,7 +55620,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55649,7 +55646,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55675,7 +55672,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55701,7 +55698,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55727,7 +55724,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55753,7 +55750,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55779,7 +55776,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55805,7 +55802,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55831,7 +55828,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55857,7 +55854,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55883,7 +55880,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55909,7 +55906,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55935,7 +55932,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55961,7 +55958,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55987,7 +55984,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56013,7 +56010,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56039,7 +56036,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56065,7 +56062,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56091,7 +56088,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56117,7 +56114,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56143,7 +56140,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56169,7 +56166,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56195,7 +56192,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56221,7 +56218,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56247,7 +56244,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56273,7 +56270,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56299,7 +56296,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56325,7 +56322,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56351,7 +56348,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56377,7 +56374,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56403,7 +56400,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56429,7 +56426,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56455,7 +56452,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56481,7 +56478,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56507,7 +56504,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56533,7 +56530,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56559,7 +56556,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56585,7 +56582,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56611,7 +56608,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56637,7 +56634,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56663,7 +56660,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56689,7 +56686,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56715,7 +56712,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56741,7 +56738,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56767,7 +56764,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56793,7 +56790,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56819,7 +56816,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56845,7 +56842,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56871,7 +56868,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56897,7 +56894,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56923,7 +56920,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56949,7 +56946,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56975,7 +56972,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57001,7 +56998,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57027,7 +57024,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57053,7 +57050,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57079,7 +57076,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57105,7 +57102,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57131,7 +57128,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57157,7 +57154,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57183,7 +57180,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57209,7 +57206,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57235,7 +57232,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57261,7 +57258,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57287,7 +57284,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57313,7 +57310,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57339,7 +57336,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57365,7 +57362,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57391,7 +57388,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57417,7 +57414,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57443,7 +57440,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57469,7 +57466,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57495,7 +57492,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57521,7 +57518,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,16 +44,16 @@
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80316549539566</t>
+    <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801816046237946</t>
+    <t xml:space="preserve">0.801815927028656</t>
   </si>
   <si>
     <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790680408478</t>
+    <t xml:space="preserve">0.799790740013123</t>
   </si>
   <si>
     <t xml:space="preserve">0.798441112041473</t>
@@ -62,16 +62,16 @@
     <t xml:space="preserve">0.795066475868225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667069911957</t>
+    <t xml:space="preserve">0.789667010307312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716013431549</t>
+    <t xml:space="preserve">0.793716073036194</t>
   </si>
   <si>
     <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057684421539</t>
+    <t xml:space="preserve">0.876057803630829</t>
   </si>
   <si>
     <t xml:space="preserve">0.843661427497864</t>
@@ -80,25 +80,25 @@
     <t xml:space="preserve">0.863908886909485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961813926697</t>
+    <t xml:space="preserve">0.840961933135986</t>
   </si>
   <si>
     <t xml:space="preserve">0.824763000011444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236834526062</t>
+    <t xml:space="preserve">0.836236774921417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713877677917</t>
+    <t xml:space="preserve">0.820713758468628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915006160736</t>
+    <t xml:space="preserve">0.809915065765381</t>
   </si>
   <si>
     <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797091007232666</t>
+    <t xml:space="preserve">0.797090947628021</t>
   </si>
   <si>
     <t xml:space="preserve">0.812614679336548</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">0.81126457452774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115478992462</t>
+    <t xml:space="preserve">0.799115538597107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840577602386</t>
+    <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
     <t xml:space="preserve">0.809239983558655</t>
@@ -122,31 +122,31 @@
     <t xml:space="preserve">0.801140785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540191173553</t>
+    <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741498470306</t>
+    <t xml:space="preserve">0.795741438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366802692413</t>
+    <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78831684589386</t>
+    <t xml:space="preserve">0.78831672668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289105892181</t>
+    <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
     <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837488174438</t>
+    <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
     <t xml:space="preserve">0.820038616657257</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964247703552</t>
+    <t xml:space="preserve">0.813964307308197</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572754859924</t>
+    <t xml:space="preserve">0.82357269525528</t>
   </si>
   <si>
     <t xml:space="preserve">0.827003717422485</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">0.820827603340149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820141196250916</t>
+    <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82425844669342</t>
+    <t xml:space="preserve">0.824258506298065</t>
   </si>
   <si>
     <t xml:space="preserve">0.817395925521851</t>
@@ -191,52 +191,52 @@
     <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277661800385</t>
+    <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454610347748</t>
+    <t xml:space="preserve">0.819454550743103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845983982086</t>
+    <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257287979126</t>
+    <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983283996582</t>
+    <t xml:space="preserve">0.802983343601227</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641508102417</t>
+    <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
     <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553599357605</t>
+    <t xml:space="preserve">0.834553718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435514450073</t>
+    <t xml:space="preserve">0.830435395240784</t>
   </si>
   <si>
     <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393753528595</t>
+    <t xml:space="preserve">0.78239381313324</t>
   </si>
   <si>
     <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099375724792</t>
+    <t xml:space="preserve">0.772099494934082</t>
   </si>
   <si>
     <t xml:space="preserve">0.761804401874542</t>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570880889893</t>
+    <t xml:space="preserve">0.788570702075958</t>
   </si>
   <si>
     <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667697906494</t>
+    <t xml:space="preserve">0.768667817115784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335068702698</t>
+    <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236079692841</t>
@@ -272,22 +272,22 @@
     <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313860416412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941701889038</t>
+    <t xml:space="preserve">0.754941642284393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748764753341675</t>
+    <t xml:space="preserve">0.74876469373703</t>
   </si>
   <si>
     <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315913200378</t>
+    <t xml:space="preserve">0.791315972805023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.762490749359131</t>
   </si>
   <si>
     <t xml:space="preserve">0.781021535396576</t>
@@ -296,25 +296,25 @@
     <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296757698059</t>
+    <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
     <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119928359985</t>
+    <t xml:space="preserve">0.79611998796463</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627453327179</t>
+    <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844765663147</t>
+    <t xml:space="preserve">0.774844646453857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785139143466949</t>
+    <t xml:space="preserve">0.78513902425766</t>
   </si>
   <si>
     <t xml:space="preserve">0.801610350608826</t>
@@ -323,16 +323,16 @@
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294704914093</t>
+    <t xml:space="preserve">0.767294764518738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686853408813</t>
+    <t xml:space="preserve">0.757686913013458</t>
   </si>
   <si>
     <t xml:space="preserve">0.746705949306488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75425523519516</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276324272156</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197828292847</t>
+    <t xml:space="preserve">0.787197768688202</t>
   </si>
   <si>
     <t xml:space="preserve">0.833867073059082</t>
@@ -353,58 +353,58 @@
     <t xml:space="preserve">0.844161450862885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298929691315</t>
+    <t xml:space="preserve">0.837298810482025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888340950012</t>
+    <t xml:space="preserve">0.857888281345367</t>
   </si>
   <si>
     <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712729930878</t>
+    <t xml:space="preserve">0.886712610721588</t>
   </si>
   <si>
     <t xml:space="preserve">0.879163563251495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279714584351</t>
+    <t xml:space="preserve">0.84827983379364</t>
   </si>
   <si>
     <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555711746216</t>
+    <t xml:space="preserve">0.869555771350861</t>
   </si>
   <si>
     <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8263179063797</t>
+    <t xml:space="preserve">0.826318025588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063296318054</t>
+    <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925936698914</t>
+    <t xml:space="preserve">0.835925877094269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102885246277</t>
+    <t xml:space="preserve">0.842102825641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376829624176</t>
+    <t xml:space="preserve">0.828376770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160172939301</t>
+    <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591195106506</t>
+    <t xml:space="preserve">0.812591135501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831808507442474</t>
+    <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475818634033</t>
+    <t xml:space="preserve">0.843475699424744</t>
   </si>
   <si>
     <t xml:space="preserve">0.845534563064575</t>
@@ -416,79 +416,79 @@
     <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319363117218</t>
+    <t xml:space="preserve">0.861319422721863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517400741577</t>
+    <t xml:space="preserve">0.891517519950867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281767368317</t>
+    <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986674308777</t>
+    <t xml:space="preserve">0.872986733913422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260499477386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595419883728</t>
+    <t xml:space="preserve">0.882595360279083</t>
   </si>
   <si>
     <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165857315063</t>
+    <t xml:space="preserve">0.886165916919708</t>
   </si>
   <si>
     <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90258914232254</t>
+    <t xml:space="preserve">0.902589201927185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162450313568</t>
+    <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445516109467</t>
+    <t xml:space="preserve">0.905445456504822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873941421509</t>
+    <t xml:space="preserve">0.906873881816864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593626976013</t>
+    <t xml:space="preserve">0.887593507766724</t>
   </si>
   <si>
     <t xml:space="preserve">0.880453288555145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599606513977</t>
+    <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017746448517</t>
+    <t xml:space="preserve">0.904017627239227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168549060822</t>
+    <t xml:space="preserve">0.876168429851532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023010730743</t>
+    <t xml:space="preserve">0.884022951126099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878306865692</t>
+    <t xml:space="preserve">0.891878426074982</t>
   </si>
   <si>
     <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8890221118927</t>
+    <t xml:space="preserve">0.889022171497345</t>
   </si>
   <si>
     <t xml:space="preserve">0.881166696548462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732768535614</t>
+    <t xml:space="preserve">0.899732887744904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018526077271</t>
+    <t xml:space="preserve">0.89901864528656</t>
   </si>
   <si>
     <t xml:space="preserve">0.898305118083954</t>
@@ -500,40 +500,40 @@
     <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91472852230072</t>
+    <t xml:space="preserve">0.914728403091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014220237732</t>
+    <t xml:space="preserve">0.914014279842377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444557666779</t>
+    <t xml:space="preserve">0.910444617271423</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90473198890686</t>
+    <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617112159729</t>
+    <t xml:space="preserve">0.866171061992645</t>
   </si>
   <si>
     <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884524822235</t>
+    <t xml:space="preserve">0.871884405612946</t>
   </si>
   <si>
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026477336884</t>
+    <t xml:space="preserve">0.874026596546173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455980300903</t>
+    <t xml:space="preserve">0.870456039905548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028210639954</t>
+    <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
     <t xml:space="preserve">0.877597033977509</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575807571411</t>
+    <t xml:space="preserve">0.947575986385345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288435935974</t>
+    <t xml:space="preserve">0.953288495540619</t>
   </si>
   <si>
     <t xml:space="preserve">0.933294653892517</t>
@@ -557,40 +557,40 @@
     <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97685295343399</t>
+    <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275279998779</t>
+    <t xml:space="preserve">0.998275399208069</t>
   </si>
   <si>
     <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143016815186</t>
+    <t xml:space="preserve">0.96114307641983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568809986115</t>
+    <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859111785889</t>
+    <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429549217224</t>
+    <t xml:space="preserve">0.960429430007935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567315101624</t>
+    <t xml:space="preserve">0.977567195892334</t>
   </si>
   <si>
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426082611084</t>
+    <t xml:space="preserve">0.970426261425018</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848468780518</t>
+    <t xml:space="preserve">0.991848409175873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710941314697</t>
+    <t xml:space="preserve">0.974711000919342</t>
   </si>
   <si>
     <t xml:space="preserve">0.988992214202881</t>
@@ -599,52 +599,52 @@
     <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990540504456</t>
+    <t xml:space="preserve">0.993990421295166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846735477448</t>
+    <t xml:space="preserve">0.996846795082092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134285926819</t>
+    <t xml:space="preserve">0.991134345531464</t>
   </si>
   <si>
     <t xml:space="preserve">0.981137633323669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706456661224</t>
+    <t xml:space="preserve">0.989706635475159</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133208274841</t>
+    <t xml:space="preserve">0.996133267879486</t>
   </si>
   <si>
     <t xml:space="preserve">0.978994905948639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569828033447</t>
+    <t xml:space="preserve">0.967569947242737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856300830841</t>
+    <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002857208252</t>
+    <t xml:space="preserve">0.954002797603607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430448055267</t>
+    <t xml:space="preserve">0.955430507659912</t>
   </si>
   <si>
     <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296506404877</t>
+    <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734621047974</t>
+    <t xml:space="preserve">0.894734561443329</t>
   </si>
   <si>
     <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876633167267</t>
+    <t xml:space="preserve">0.896876573562622</t>
   </si>
   <si>
     <t xml:space="preserve">0.879024744033813</t>
@@ -659,61 +659,61 @@
     <t xml:space="preserve">0.935436606407166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007222652435</t>
+    <t xml:space="preserve">0.939007103443146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94614839553833</t>
+    <t xml:space="preserve">0.946148216724396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000165462494</t>
+    <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866049766541</t>
+    <t xml:space="preserve">0.931866109371185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606782913208</t>
+    <t xml:space="preserve">0.842606723308563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177279949188</t>
+    <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318393230438</t>
+    <t xml:space="preserve">0.853318452835083</t>
   </si>
   <si>
     <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170282363892</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458612442017</t>
+    <t xml:space="preserve">0.860458552837372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303503990173</t>
+    <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584776878357</t>
+    <t xml:space="preserve">0.917584836483002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090083122253</t>
+    <t xml:space="preserve">0.966090202331543</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92864465713501</t>
+    <t xml:space="preserve">0.928644716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068074703217</t>
+    <t xml:space="preserve">0.981068015098572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323472499847</t>
+    <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622589111328</t>
+    <t xml:space="preserve">0.943622708320618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579525947571</t>
+    <t xml:space="preserve">0.973579585552216</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345480918884</t>
@@ -722,55 +722,55 @@
     <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666784763336</t>
+    <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856812953949</t>
+    <t xml:space="preserve">0.954856872558594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909922003746033</t>
+    <t xml:space="preserve">0.909921884536743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177282333374</t>
+    <t xml:space="preserve">0.906177222728729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902432560920715</t>
+    <t xml:space="preserve">0.902432501316071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891199290752411</t>
+    <t xml:space="preserve">0.891199231147766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924900054931641</t>
+    <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221299171448</t>
+    <t xml:space="preserve">0.876221358776093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411386966705</t>
+    <t xml:space="preserve">0.917411267757416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894944071769714</t>
+    <t xml:space="preserve">0.89494401216507</t>
   </si>
   <si>
     <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879965960979462</t>
+    <t xml:space="preserve">0.879966020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264541149139</t>
+    <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868731915950775</t>
+    <t xml:space="preserve">0.86873197555542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86124324798584</t>
+    <t xml:space="preserve">0.861243367195129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831286489963531</t>
+    <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
     <t xml:space="preserve">0.83503121137619</t>
@@ -779,16 +779,16 @@
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753864765167</t>
+    <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797941207886</t>
+    <t xml:space="preserve">0.823797881603241</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775932788849</t>
+    <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
@@ -800,46 +800,46 @@
     <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476518154144</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987194538116</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90738171339035</t>
+    <t xml:space="preserve">0.907381772994995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899491131305695</t>
+    <t xml:space="preserve">0.89949107170105</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
+    <t xml:space="preserve">0.923162221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051909923553</t>
+    <t xml:space="preserve">0.931051850318909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600549221039</t>
+    <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613642215729</t>
+    <t xml:space="preserve">0.962613523006439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833193302155</t>
+    <t xml:space="preserve">0.946833074092865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88371080160141</t>
+    <t xml:space="preserve">0.883710741996765</t>
   </si>
   <si>
     <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930352687836</t>
+    <t xml:space="preserve">0.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836368680000305</t>
+    <t xml:space="preserve">0.83636873960495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478932380676</t>
+    <t xml:space="preserve">0.828478872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917259693146</t>
+    <t xml:space="preserve">0.796917319297791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698543071747</t>
+    <t xml:space="preserve">0.812698483467102</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191519737244</t>
+    <t xml:space="preserve">0.777191579341888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807841777802</t>
+    <t xml:space="preserve">0.804807901382446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356421470642</t>
+    <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082161426544</t>
+    <t xml:space="preserve">0.785082221031189</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795642852783</t>
+    <t xml:space="preserve">0.733795702457428</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465839385986</t>
+    <t xml:space="preserve">0.757465779781342</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729850351810455</t>
+    <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740099430084</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014478683472</t>
+    <t xml:space="preserve">0.718014419078827</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906528770923615</t>
+    <t xml:space="preserve">0.90652871131897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939795553684235</t>
+    <t xml:space="preserve">0.93979549407959</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063230514526</t>
+    <t xml:space="preserve">0.973063290119171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746057987213</t>
+    <t xml:space="preserve">0.964746117591858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379449367523</t>
+    <t xml:space="preserve">0.981379389762878</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146472454071</t>
+    <t xml:space="preserve">1.01464712619781</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -44232,7 +44235,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44258,7 +44261,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44284,7 +44287,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44310,7 +44313,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44336,7 +44339,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44388,7 +44391,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44414,7 +44417,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44440,7 +44443,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44492,7 +44495,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44544,7 +44547,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44570,7 +44573,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44596,7 +44599,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44622,7 +44625,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44700,7 +44703,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44778,7 +44781,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44830,7 +44833,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44882,7 +44885,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44908,7 +44911,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44986,7 +44989,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45012,7 +45015,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45064,7 +45067,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45220,7 +45223,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45480,7 +45483,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45506,7 +45509,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45532,7 +45535,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45558,7 +45561,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45584,7 +45587,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45610,7 +45613,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45636,7 +45639,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45662,7 +45665,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45688,7 +45691,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45714,7 +45717,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45740,7 +45743,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45766,7 +45769,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45792,7 +45795,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45818,7 +45821,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45844,7 +45847,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45870,7 +45873,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45896,7 +45899,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45922,7 +45925,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45948,7 +45951,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45974,7 +45977,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46000,7 +46003,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46026,7 +46029,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46052,7 +46055,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46078,7 +46081,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46104,7 +46107,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46130,7 +46133,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46156,7 +46159,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46182,7 +46185,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46208,7 +46211,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46234,7 +46237,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46260,7 +46263,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46286,7 +46289,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46312,7 +46315,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46338,7 +46341,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46364,7 +46367,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46390,7 +46393,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46416,7 +46419,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46442,7 +46445,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46468,7 +46471,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46494,7 +46497,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46520,7 +46523,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46546,7 +46549,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46572,7 +46575,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46598,7 +46601,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46624,7 +46627,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46650,7 +46653,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46676,7 +46679,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46702,7 +46705,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46728,7 +46731,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46754,7 +46757,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46780,7 +46783,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46806,7 +46809,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46832,7 +46835,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46858,7 +46861,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46884,7 +46887,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46910,7 +46913,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46936,7 +46939,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46962,7 +46965,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46988,7 +46991,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47014,7 +47017,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47040,7 +47043,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47066,7 +47069,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47092,7 +47095,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47118,7 +47121,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47144,7 +47147,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47170,7 +47173,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47196,7 +47199,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47222,7 +47225,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47248,7 +47251,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47274,7 +47277,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47300,7 +47303,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47326,7 +47329,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47352,7 +47355,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47378,7 +47381,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47404,7 +47407,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47430,7 +47433,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47456,7 +47459,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47482,7 +47485,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47508,7 +47511,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47534,7 +47537,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47560,7 +47563,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47586,7 +47589,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47612,7 +47615,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47638,7 +47641,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47664,7 +47667,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47690,7 +47693,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47716,7 +47719,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47742,7 +47745,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47768,7 +47771,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47794,7 +47797,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47820,7 +47823,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47846,7 +47849,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47872,7 +47875,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47898,7 +47901,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47924,7 +47927,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47950,7 +47953,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47976,7 +47979,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48002,7 +48005,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48028,7 +48031,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48054,7 +48057,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48080,7 +48083,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48106,7 +48109,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48132,7 +48135,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48158,7 +48161,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48184,7 +48187,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48210,7 +48213,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48236,7 +48239,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48262,7 +48265,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48288,7 +48291,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48314,7 +48317,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48340,7 +48343,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48366,7 +48369,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48392,7 +48395,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48418,7 +48421,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48444,7 +48447,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48470,7 +48473,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48496,7 +48499,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48522,7 +48525,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48548,7 +48551,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48574,7 +48577,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48600,7 +48603,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48626,7 +48629,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48652,7 +48655,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48678,7 +48681,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48704,7 +48707,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48730,7 +48733,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48756,7 +48759,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48782,7 +48785,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48808,7 +48811,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48834,7 +48837,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48860,7 +48863,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48886,7 +48889,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48912,7 +48915,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48938,7 +48941,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48964,7 +48967,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48990,7 +48993,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49016,7 +49019,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49042,7 +49045,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49068,7 +49071,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49094,7 +49097,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49120,7 +49123,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49146,7 +49149,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49172,7 +49175,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49198,7 +49201,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49224,7 +49227,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49250,7 +49253,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49276,7 +49279,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49302,7 +49305,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49328,7 +49331,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49354,7 +49357,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49406,7 +49409,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49432,7 +49435,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49510,7 +49513,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49614,7 +49617,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49640,7 +49643,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49666,7 +49669,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49692,7 +49695,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49718,7 +49721,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49744,7 +49747,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49770,7 +49773,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49796,7 +49799,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49822,7 +49825,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49848,7 +49851,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49874,7 +49877,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49900,7 +49903,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49952,7 +49955,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49978,7 +49981,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50004,7 +50007,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50030,7 +50033,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50056,7 +50059,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50082,7 +50085,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50108,7 +50111,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50134,7 +50137,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50160,7 +50163,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50186,7 +50189,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50212,7 +50215,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50238,7 +50241,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50264,7 +50267,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50290,7 +50293,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50316,7 +50319,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50342,7 +50345,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50368,7 +50371,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50394,7 +50397,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50420,7 +50423,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50446,7 +50449,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50472,7 +50475,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50498,7 +50501,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50524,7 +50527,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50550,7 +50553,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50576,7 +50579,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50602,7 +50605,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50628,7 +50631,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50654,7 +50657,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50680,7 +50683,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50706,7 +50709,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50732,7 +50735,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50758,7 +50761,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50784,7 +50787,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50810,7 +50813,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50836,7 +50839,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50862,7 +50865,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50888,7 +50891,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50914,7 +50917,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50940,7 +50943,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50966,7 +50969,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50992,7 +50995,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51018,7 +51021,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51044,7 +51047,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51070,7 +51073,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51096,7 +51099,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51122,7 +51125,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51148,7 +51151,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51174,7 +51177,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51200,7 +51203,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51226,7 +51229,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51252,7 +51255,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51278,7 +51281,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51304,7 +51307,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51330,7 +51333,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51356,7 +51359,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51382,7 +51385,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51408,7 +51411,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51434,7 +51437,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51460,7 +51463,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51486,7 +51489,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51512,7 +51515,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51538,7 +51541,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51564,7 +51567,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51590,7 +51593,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51616,7 +51619,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51642,7 +51645,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51668,7 +51671,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51694,7 +51697,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51720,7 +51723,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51746,7 +51749,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51772,7 +51775,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51798,7 +51801,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51824,7 +51827,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51850,7 +51853,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51876,7 +51879,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51902,7 +51905,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51928,7 +51931,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51954,7 +51957,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51980,7 +51983,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52006,7 +52009,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52032,7 +52035,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52058,7 +52061,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52084,7 +52087,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52110,7 +52113,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52136,7 +52139,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52162,7 +52165,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52188,7 +52191,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52214,7 +52217,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52240,7 +52243,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52266,7 +52269,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52292,7 +52295,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52318,7 +52321,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52344,7 +52347,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52370,7 +52373,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52396,7 +52399,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52422,7 +52425,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52448,7 +52451,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52474,7 +52477,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52500,7 +52503,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52526,7 +52529,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52552,7 +52555,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52578,7 +52581,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52604,7 +52607,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52630,7 +52633,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52656,7 +52659,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52682,7 +52685,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52708,7 +52711,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52734,7 +52737,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52760,7 +52763,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52786,7 +52789,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52812,7 +52815,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52838,7 +52841,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52864,7 +52867,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52890,7 +52893,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52916,7 +52919,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52942,7 +52945,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52968,7 +52971,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52994,7 +52997,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53020,7 +53023,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53046,7 +53049,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53072,7 +53075,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53098,7 +53101,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53124,7 +53127,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53150,7 +53153,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53176,7 +53179,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53202,7 +53205,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53228,7 +53231,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53254,7 +53257,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53280,7 +53283,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53306,7 +53309,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53332,7 +53335,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53358,7 +53361,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53384,7 +53387,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53410,7 +53413,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53436,7 +53439,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53462,7 +53465,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53488,7 +53491,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53514,7 +53517,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53540,7 +53543,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53566,7 +53569,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53592,7 +53595,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53618,7 +53621,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53644,7 +53647,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53670,7 +53673,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53696,7 +53699,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53722,7 +53725,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53748,7 +53751,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53774,7 +53777,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53800,7 +53803,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53826,7 +53829,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53852,7 +53855,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53878,7 +53881,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53904,7 +53907,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53930,7 +53933,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53956,7 +53959,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53982,7 +53985,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54008,7 +54011,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54034,7 +54037,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54060,7 +54063,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54086,7 +54089,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54112,7 +54115,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54138,7 +54141,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54164,7 +54167,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54190,7 +54193,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54216,7 +54219,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54242,7 +54245,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54268,7 +54271,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54294,7 +54297,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54320,7 +54323,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54346,7 +54349,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54372,7 +54375,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54398,7 +54401,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54424,7 +54427,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54450,7 +54453,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54476,7 +54479,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54502,7 +54505,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54528,7 +54531,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54554,7 +54557,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54580,7 +54583,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54606,7 +54609,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54632,7 +54635,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54658,7 +54661,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54684,7 +54687,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54710,7 +54713,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54736,7 +54739,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54762,7 +54765,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54788,7 +54791,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54814,7 +54817,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54840,7 +54843,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54866,7 +54869,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54892,7 +54895,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54918,7 +54921,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54944,7 +54947,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54970,7 +54973,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54996,7 +54999,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55022,7 +55025,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55048,7 +55051,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55074,7 +55077,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55100,7 +55103,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55126,7 +55129,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55152,7 +55155,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55178,7 +55181,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55204,7 +55207,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55230,7 +55233,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55256,7 +55259,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55282,7 +55285,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55308,7 +55311,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55334,7 +55337,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55360,7 +55363,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55386,7 +55389,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55412,7 +55415,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55438,7 +55441,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55464,7 +55467,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55490,7 +55493,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55516,7 +55519,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55542,7 +55545,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55568,7 +55571,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55594,7 +55597,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55620,7 +55623,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55646,7 +55649,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55672,7 +55675,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55698,7 +55701,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55724,7 +55727,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55750,7 +55753,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55776,7 +55779,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55802,7 +55805,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55828,7 +55831,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55854,7 +55857,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55880,7 +55883,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55906,7 +55909,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55932,7 +55935,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55958,7 +55961,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55984,7 +55987,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56010,7 +56013,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56036,7 +56039,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56062,7 +56065,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56088,7 +56091,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56114,7 +56117,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56140,7 +56143,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56166,7 +56169,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56192,7 +56195,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56218,7 +56221,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56244,7 +56247,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56270,7 +56273,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56296,7 +56299,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56322,7 +56325,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56348,7 +56351,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56374,7 +56377,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56400,7 +56403,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56426,7 +56429,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56452,7 +56455,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56478,7 +56481,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56504,7 +56507,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56530,7 +56533,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56556,7 +56559,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56582,7 +56585,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56608,7 +56611,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56634,7 +56637,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56660,7 +56663,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56686,7 +56689,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56712,7 +56715,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56738,7 +56741,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56764,7 +56767,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56790,7 +56793,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56816,7 +56819,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56842,7 +56845,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56868,7 +56871,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56894,7 +56897,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56920,7 +56923,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56946,7 +56949,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56972,7 +56975,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56998,7 +57001,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57024,7 +57027,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57050,7 +57053,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57076,7 +57079,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57102,7 +57105,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57128,7 +57131,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57154,7 +57157,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57180,7 +57183,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57206,7 +57209,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57232,7 +57235,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57258,7 +57261,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57284,7 +57287,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57310,7 +57313,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57336,7 +57339,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57362,7 +57365,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57388,7 +57391,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57414,7 +57417,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57440,7 +57443,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57466,7 +57469,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57492,7 +57495,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57500,10 +57503,10 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.6061226852</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
-        <v>39066</v>
+        <v>14000</v>
       </c>
       <c r="C2149" t="n">
         <v>0.860000014305115</v>
@@ -57518,9 +57521,61 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
+        <v>39066</v>
+      </c>
+      <c r="C2150" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2150" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2150" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2150" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6249768518</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>9458</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663920879364</t>
+    <t xml:space="preserve">0.816663801670074</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
@@ -47,70 +47,70 @@
     <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815927028656</t>
+    <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79641580581665</t>
+    <t xml:space="preserve">0.796415865421295</t>
   </si>
   <si>
     <t xml:space="preserve">0.799790740013123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441112041473</t>
+    <t xml:space="preserve">0.798441171646118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066475868225</t>
+    <t xml:space="preserve">0.79506641626358</t>
   </si>
   <si>
     <t xml:space="preserve">0.789667010307312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716073036194</t>
+    <t xml:space="preserve">0.793716132640839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413491249084</t>
+    <t xml:space="preserve">0.82341343164444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057803630829</t>
+    <t xml:space="preserve">0.876057863235474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661427497864</t>
+    <t xml:space="preserve">0.843661546707153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908886909485</t>
+    <t xml:space="preserve">0.86390894651413</t>
   </si>
   <si>
     <t xml:space="preserve">0.840961933135986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824763000011444</t>
+    <t xml:space="preserve">0.824763059616089</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236774921417</t>
+    <t xml:space="preserve">0.836236894130707</t>
   </si>
   <si>
     <t xml:space="preserve">0.820713758468628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915065765381</t>
+    <t xml:space="preserve">0.809915006160736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917380332947</t>
+    <t xml:space="preserve">0.782917499542236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090947628021</t>
+    <t xml:space="preserve">0.797091066837311</t>
   </si>
   <si>
     <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81126457452774</t>
+    <t xml:space="preserve">0.811264514923096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115538597107</t>
+    <t xml:space="preserve">0.799115478992462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840517997742</t>
+    <t xml:space="preserve">0.803840577602386</t>
   </si>
   <si>
     <t xml:space="preserve">0.809239983558655</t>
@@ -119,79 +119,79 @@
     <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140785217285</t>
+    <t xml:space="preserve">0.80114084482193</t>
   </si>
   <si>
     <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741438865662</t>
+    <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
     <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7869673371315</t>
+    <t xml:space="preserve">0.786967277526855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78831672668457</t>
+    <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168525218964</t>
+    <t xml:space="preserve">0.776168584823608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289046287537</t>
+    <t xml:space="preserve">0.813288986682892</t>
   </si>
   <si>
     <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837428569794</t>
+    <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038616657257</t>
+    <t xml:space="preserve">0.820038557052612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363653659821</t>
+    <t xml:space="preserve">0.819363534450531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639270305634</t>
+    <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988779067993</t>
+    <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939656734467</t>
+    <t xml:space="preserve">0.811939716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964307308197</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82357269525528</t>
+    <t xml:space="preserve">0.823572754859924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003717422485</t>
+    <t xml:space="preserve">0.827003657817841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827603340149</t>
+    <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824258506298065</t>
+    <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
     <t xml:space="preserve">0.817395925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709339618683</t>
+    <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277721405029</t>
+    <t xml:space="preserve">0.813277781009674</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905443668365</t>
@@ -200,13 +200,13 @@
     <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454550743103</t>
+    <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845924377441</t>
+    <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257287979126</t>
   </si>
   <si>
     <t xml:space="preserve">0.802983343601227</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553718566895</t>
+    <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
     <t xml:space="preserve">0.830435395240784</t>
@@ -230,22 +230,22 @@
     <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766806125641</t>
+    <t xml:space="preserve">0.783766746520996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099494934082</t>
+    <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804401874542</t>
+    <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471713066101</t>
+    <t xml:space="preserve">0.773471653461456</t>
   </si>
   <si>
     <t xml:space="preserve">0.775530397891998</t>
@@ -254,10 +254,10 @@
     <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570702075958</t>
+    <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903390884399</t>
+    <t xml:space="preserve">0.776903331279755</t>
   </si>
   <si>
     <t xml:space="preserve">0.768667817115784</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313860416412</t>
+    <t xml:space="preserve">0.756314039230347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941642284393</t>
+    <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74876469373703</t>
+    <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078286647797</t>
+    <t xml:space="preserve">0.748078227043152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315972805023</t>
+    <t xml:space="preserve">0.791315853595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490749359131</t>
+    <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021535396576</t>
+    <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
     <t xml:space="preserve">0.77964860200882</t>
@@ -299,22 +299,22 @@
     <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884294986725</t>
+    <t xml:space="preserve">0.78788423538208</t>
   </si>
   <si>
     <t xml:space="preserve">0.79611998796463</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354224205017</t>
+    <t xml:space="preserve">0.769354164600372</t>
   </si>
   <si>
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844646453857</t>
+    <t xml:space="preserve">0.774844706058502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78513902425766</t>
+    <t xml:space="preserve">0.785138964653015</t>
   </si>
   <si>
     <t xml:space="preserve">0.801610350608826</t>
@@ -329,10 +329,10 @@
     <t xml:space="preserve">0.757686913013458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746705949306488</t>
+    <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75425511598587</t>
+    <t xml:space="preserve">0.754255175590515</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276324272156</t>
@@ -350,19 +350,19 @@
     <t xml:space="preserve">0.833867073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161450862885</t>
+    <t xml:space="preserve">0.844161570072174</t>
   </si>
   <si>
     <t xml:space="preserve">0.837298810482025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888281345367</t>
+    <t xml:space="preserve">0.857888400554657</t>
   </si>
   <si>
     <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712610721588</t>
+    <t xml:space="preserve">0.886712670326233</t>
   </si>
   <si>
     <t xml:space="preserve">0.879163563251495</t>
@@ -374,13 +374,13 @@
     <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555771350861</t>
+    <t xml:space="preserve">0.869555830955505</t>
   </si>
   <si>
     <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826318025588989</t>
+    <t xml:space="preserve">0.826317965984344</t>
   </si>
   <si>
     <t xml:space="preserve">0.829063236713409</t>
@@ -404,37 +404,37 @@
     <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475699424744</t>
+    <t xml:space="preserve">0.843475759029388</t>
   </si>
   <si>
     <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730488300323</t>
+    <t xml:space="preserve">0.840730428695679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.87367308139801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319422721863</t>
+    <t xml:space="preserve">0.861319303512573</t>
   </si>
   <si>
     <t xml:space="preserve">0.891517519950867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281826972961</t>
+    <t xml:space="preserve">0.883281648159027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986733913422</t>
+    <t xml:space="preserve">0.872986674308777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260499477386</t>
+    <t xml:space="preserve">0.859260559082031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595360279083</t>
+    <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88188099861145</t>
+    <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
     <t xml:space="preserve">0.886165916919708</t>
@@ -443,31 +443,31 @@
     <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902589201927185</t>
+    <t xml:space="preserve">0.90258926153183</t>
   </si>
   <si>
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445456504822</t>
+    <t xml:space="preserve">0.905445396900177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873881816864</t>
+    <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593507766724</t>
+    <t xml:space="preserve">0.887593567371368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880453288555145</t>
+    <t xml:space="preserve">0.88045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599666118622</t>
+    <t xml:space="preserve">0.867599606513977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017627239227</t>
+    <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168429851532</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
     <t xml:space="preserve">0.884022951126099</t>
@@ -479,46 +479,46 @@
     <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889022171497345</t>
+    <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166696548462</t>
+    <t xml:space="preserve">0.881166756153107</t>
   </si>
   <si>
     <t xml:space="preserve">0.899732887744904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89901864528656</t>
+    <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
     <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159698963165</t>
+    <t xml:space="preserve">0.906159639358521</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728403091431</t>
+    <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014279842377</t>
+    <t xml:space="preserve">0.914014399051666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444617271423</t>
+    <t xml:space="preserve">0.910444438457489</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904732048511505</t>
+    <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
     <t xml:space="preserve">0.866171061992645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885451555252075</t>
+    <t xml:space="preserve">0.88545161485672</t>
   </si>
   <si>
     <t xml:space="preserve">0.871884405612946</t>
@@ -527,10 +527,10 @@
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026596546173</t>
+    <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870456039905548</t>
+    <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
     <t xml:space="preserve">0.869028270244598</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87688285112381</t>
+    <t xml:space="preserve">0.87688273191452</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575986385345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288495540619</t>
+    <t xml:space="preserve">0.953288376331329</t>
   </si>
   <si>
     <t xml:space="preserve">0.933294653892517</t>
@@ -554,13 +554,13 @@
     <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011588096619</t>
+    <t xml:space="preserve">0.924011707305908</t>
   </si>
   <si>
     <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275399208069</t>
+    <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
     <t xml:space="preserve">0.979709208011627</t>
@@ -584,10 +584,10 @@
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426261425018</t>
+    <t xml:space="preserve">0.970426142215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848409175873</t>
+    <t xml:space="preserve">0.991848289966583</t>
   </si>
   <si>
     <t xml:space="preserve">0.974711000919342</t>
@@ -596,10 +596,10 @@
     <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999702990055084</t>
+    <t xml:space="preserve">0.999703109264374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990421295166</t>
+    <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
     <t xml:space="preserve">0.996846795082092</t>
@@ -611,10 +611,10 @@
     <t xml:space="preserve">0.981137633323669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706635475159</t>
+    <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133267879486</t>
+    <t xml:space="preserve">0.996133148670197</t>
   </si>
   <si>
     <t xml:space="preserve">0.978994905948639</t>
@@ -626,34 +626,34 @@
     <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002797603607</t>
+    <t xml:space="preserve">0.954002678394318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430507659912</t>
+    <t xml:space="preserve">0.955430626869202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582983970642</t>
+    <t xml:space="preserve">0.922582924365997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296327590942</t>
+    <t xml:space="preserve">0.928296506404877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734561443329</t>
+    <t xml:space="preserve">0.894734621047974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586569786072</t>
+    <t xml:space="preserve">0.912586510181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876573562622</t>
+    <t xml:space="preserve">0.896876633167267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024744033813</t>
+    <t xml:space="preserve">0.879024863243103</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725830554962</t>
+    <t xml:space="preserve">0.924725890159607</t>
   </si>
   <si>
     <t xml:space="preserve">0.935436606407166</t>
@@ -662,10 +662,10 @@
     <t xml:space="preserve">0.939007103443146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148216724396</t>
+    <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.96399998664856</t>
   </si>
   <si>
     <t xml:space="preserve">0.931866109371185</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318452835083</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
     <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170163154602</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458552837372</t>
@@ -710,22 +710,22 @@
     <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622708320618</t>
+    <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579585552216</t>
+    <t xml:space="preserve">0.973579704761505</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345480918884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134040355682</t>
+    <t xml:space="preserve">0.936134099960327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666725158691</t>
+    <t xml:space="preserve">0.913666665554047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856872558594</t>
+    <t xml:space="preserve">0.954856753349304</t>
   </si>
   <si>
     <t xml:space="preserve">0.909921884536743</t>
@@ -737,16 +737,16 @@
     <t xml:space="preserve">0.902432501316071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891199231147766</t>
+    <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924899995326996</t>
+    <t xml:space="preserve">0.924900054931641</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221358776093</t>
+    <t xml:space="preserve">0.876221418380737</t>
   </si>
   <si>
     <t xml:space="preserve">0.917411267757416</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850009202957153</t>
+    <t xml:space="preserve">0.850009262561798</t>
   </si>
   <si>
     <t xml:space="preserve">0.797585785388947</t>
@@ -803,19 +803,19 @@
     <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987194538116</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938942551612854</t>
+    <t xml:space="preserve">0.938942611217499</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907381772994995</t>
+    <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
     <t xml:space="preserve">0.89949107170105</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915271520614624</t>
+    <t xml:space="preserve">0.915271580219269</t>
   </si>
   <si>
     <t xml:space="preserve">0.923162221908569</t>
@@ -830,7 +830,7 @@
     <t xml:space="preserve">0.962613523006439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833074092865</t>
+    <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
     <t xml:space="preserve">0.883710741996765</t>
@@ -851,16 +851,16 @@
     <t xml:space="preserve">0.83636873960495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478872776031</t>
+    <t xml:space="preserve">0.828478932380676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789027452468872</t>
+    <t xml:space="preserve">0.789027512073517</t>
   </si>
   <si>
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917319297791</t>
+    <t xml:space="preserve">0.796917259693146</t>
   </si>
   <si>
     <t xml:space="preserve">0.812698483467102</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">0.777191579341888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807901382446</t>
+    <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
     <t xml:space="preserve">0.765356481075287</t>
@@ -881,10 +881,10 @@
     <t xml:space="preserve">0.785082221031189</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769301772117615</t>
+    <t xml:space="preserve">0.76930183172226</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773247063159943</t>
+    <t xml:space="preserve">0.773247122764587</t>
   </si>
   <si>
     <t xml:space="preserve">0.749576091766357</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465779781342</t>
+    <t xml:space="preserve">0.757465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737740099430084</t>
+    <t xml:space="preserve">0.737740159034729</t>
   </si>
   <si>
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.70617938041687</t>
+    <t xml:space="preserve">0.706179320812225</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">0.702234029769897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7219597697258</t>
+    <t xml:space="preserve">0.721959710121155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588290691376</t>
+    <t xml:space="preserve">0.820588350296021</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
@@ -57555,7 +57555,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6249768518</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>9458</v>
@@ -57576,6 +57576,32 @@
         <v>413</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6493055556</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>124334</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>0.865000009536743</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>0.865000009536743</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>426</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663801670074</t>
+    <t xml:space="preserve">0.816663861274719</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
@@ -50,16 +50,16 @@
     <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796415865421295</t>
+    <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790740013123</t>
+    <t xml:space="preserve">0.799790620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441171646118</t>
+    <t xml:space="preserve">0.798441231250763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79506641626358</t>
+    <t xml:space="preserve">0.795066475868225</t>
   </si>
   <si>
     <t xml:space="preserve">0.789667010307312</t>
@@ -68,58 +68,58 @@
     <t xml:space="preserve">0.793716132640839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82341343164444</t>
+    <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
     <t xml:space="preserve">0.876057863235474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661546707153</t>
+    <t xml:space="preserve">0.843661427497864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390894651413</t>
+    <t xml:space="preserve">0.863908886909485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961933135986</t>
+    <t xml:space="preserve">0.840961813926697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824763059616089</t>
+    <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236894130707</t>
+    <t xml:space="preserve">0.836236715316772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713758468628</t>
+    <t xml:space="preserve">0.820713818073273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915006160736</t>
+    <t xml:space="preserve">0.809914946556091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917499542236</t>
+    <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797091066837311</t>
+    <t xml:space="preserve">0.797090888023376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614679336548</t>
+    <t xml:space="preserve">0.812614619731903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264514923096</t>
+    <t xml:space="preserve">0.81126457452774</t>
   </si>
   <si>
     <t xml:space="preserve">0.799115478992462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840577602386</t>
+    <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809239983558655</t>
+    <t xml:space="preserve">0.80923992395401</t>
   </si>
   <si>
     <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80114084482193</t>
+    <t xml:space="preserve">0.801140785217285</t>
   </si>
   <si>
     <t xml:space="preserve">0.806540250778198</t>
@@ -131,40 +131,40 @@
     <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
     <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168584823608</t>
+    <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813288986682892</t>
+    <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
     <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837488174438</t>
+    <t xml:space="preserve">0.830837309360504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038557052612</t>
+    <t xml:space="preserve">0.820038676261902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363534450531</t>
+    <t xml:space="preserve">0.819363594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639329910278</t>
+    <t xml:space="preserve">0.814639389514923</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939716339111</t>
+    <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886347770691</t>
@@ -173,10 +173,10 @@
     <t xml:space="preserve">0.823572754859924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003657817841</t>
+    <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827543735504</t>
+    <t xml:space="preserve">0.820827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
@@ -185,28 +185,28 @@
     <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395925521851</t>
+    <t xml:space="preserve">0.817395806312561</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277781009674</t>
+    <t xml:space="preserve">0.813277661800385</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964188098907</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
     <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845983982086</t>
+    <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257287979126</t>
+    <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
     <t xml:space="preserve">0.802983343601227</t>
@@ -215,25 +215,25 @@
     <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806415021419525</t>
+    <t xml:space="preserve">0.80641496181488</t>
   </si>
   <si>
     <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553718566895</t>
   </si>
   <si>
     <t xml:space="preserve">0.830435395240784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355502128601</t>
+    <t xml:space="preserve">0.804355561733246</t>
   </si>
   <si>
     <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766746520996</t>
+    <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
     <t xml:space="preserve">0.772099435329437</t>
@@ -245,46 +245,46 @@
     <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471653461456</t>
+    <t xml:space="preserve">0.773471713066101</t>
   </si>
   <si>
     <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216924190521</t>
+    <t xml:space="preserve">0.776216983795166</t>
   </si>
   <si>
     <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903331279755</t>
+    <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667817115784</t>
+    <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
     <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765236079692841</t>
+    <t xml:space="preserve">0.765236020088196</t>
   </si>
   <si>
     <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756314039230347</t>
+    <t xml:space="preserve">0.756313920021057</t>
   </si>
   <si>
     <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748764753341675</t>
+    <t xml:space="preserve">0.74876469373703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078227043152</t>
+    <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315853595734</t>
+    <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
     <t xml:space="preserve">0.762490808963776</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">0.78788423538208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79611998796463</t>
+    <t xml:space="preserve">0.796119868755341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354164600372</t>
+    <t xml:space="preserve">0.769354283809662</t>
   </si>
   <si>
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">0.785138964653015</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294764518738</t>
+    <t xml:space="preserve">0.767294645309448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686913013458</t>
+    <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746706008911133</t>
+    <t xml:space="preserve">0.746705949306488</t>
   </si>
   <si>
     <t xml:space="preserve">0.754255175590515</t>
@@ -344,19 +344,19 @@
     <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197768688202</t>
+    <t xml:space="preserve">0.787197649478912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867073059082</t>
+    <t xml:space="preserve">0.833867132663727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161570072174</t>
+    <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298810482025</t>
+    <t xml:space="preserve">0.837298929691315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888400554657</t>
+    <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
     <t xml:space="preserve">0.868869245052338</t>
@@ -365,10 +365,10 @@
     <t xml:space="preserve">0.886712670326233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163563251495</t>
+    <t xml:space="preserve">0.879163682460785</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84827983379364</t>
+    <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
     <t xml:space="preserve">0.84965193271637</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">0.869555830955505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338518619537</t>
+    <t xml:space="preserve">0.850338459014893</t>
   </si>
   <si>
     <t xml:space="preserve">0.826317965984344</t>
@@ -386,64 +386,64 @@
     <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925877094269</t>
+    <t xml:space="preserve">0.835925936698914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102825641632</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376770019531</t>
+    <t xml:space="preserve">0.828376829624176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160232543945</t>
+    <t xml:space="preserve">0.80916029214859</t>
   </si>
   <si>
     <t xml:space="preserve">0.812591135501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83180844783783</t>
+    <t xml:space="preserve">0.831808388233185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475759029388</t>
+    <t xml:space="preserve">0.843475878238678</t>
   </si>
   <si>
     <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730428695679</t>
+    <t xml:space="preserve">0.840730488300323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87367308139801</t>
+    <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319303512573</t>
+    <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517519950867</t>
+    <t xml:space="preserve">0.891517341136932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281648159027</t>
+    <t xml:space="preserve">0.883281707763672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986674308777</t>
+    <t xml:space="preserve">0.872986614704132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260618686676</t>
   </si>
   <si>
     <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881881058216095</t>
+    <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165916919708</t>
+    <t xml:space="preserve">0.886165738105774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89259260892868</t>
+    <t xml:space="preserve">0.892592549324036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90258926153183</t>
+    <t xml:space="preserve">0.90258914232254</t>
   </si>
   <si>
     <t xml:space="preserve">0.896162390708923</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593567371368</t>
+    <t xml:space="preserve">0.887593507766724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88045334815979</t>
+    <t xml:space="preserve">0.8804532289505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599606513977</t>
+    <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
     <t xml:space="preserve">0.904017686843872</t>
@@ -473,7 +473,7 @@
     <t xml:space="preserve">0.884022951126099</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878426074982</t>
+    <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
     <t xml:space="preserve">0.87831050157547</t>
@@ -485,49 +485,49 @@
     <t xml:space="preserve">0.881166756153107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732887744904</t>
+    <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.89901864528656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305118083954</t>
+    <t xml:space="preserve">0.898305058479309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159639358521</t>
+    <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155393123627</t>
+    <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91472852230072</t>
+    <t xml:space="preserve">0.91472864151001</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014399051666</t>
+    <t xml:space="preserve">0.914014279842377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444438457489</t>
+    <t xml:space="preserve">0.910444498062134</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90473198890686</t>
+    <t xml:space="preserve">0.90473210811615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171061992645</t>
+    <t xml:space="preserve">0.866171181201935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545161485672</t>
+    <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884405612946</t>
+    <t xml:space="preserve">0.87188446521759</t>
   </si>
   <si>
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026477336884</t>
+    <t xml:space="preserve">0.874026536941528</t>
   </si>
   <si>
     <t xml:space="preserve">0.870455920696259</t>
@@ -539,160 +539,160 @@
     <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87688273191452</t>
+    <t xml:space="preserve">0.876882791519165</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575986385345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288376331329</t>
+    <t xml:space="preserve">0.953288435935974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294653892517</t>
+    <t xml:space="preserve">0.933294594287872</t>
   </si>
   <si>
     <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011707305908</t>
+    <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976852893829346</t>
+    <t xml:space="preserve">0.976853013038635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275279998779</t>
+    <t xml:space="preserve">0.998275399208069</t>
   </si>
   <si>
     <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96114307641983</t>
+    <t xml:space="preserve">0.961142897605896</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859052181244</t>
+    <t xml:space="preserve">0.956858992576599</t>
   </si>
   <si>
     <t xml:space="preserve">0.960429430007935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567195892334</t>
+    <t xml:space="preserve">0.977567255496979</t>
   </si>
   <si>
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426142215729</t>
+    <t xml:space="preserve">0.970426082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848289966583</t>
+    <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974711000919342</t>
+    <t xml:space="preserve">0.974711060523987</t>
   </si>
   <si>
     <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999703109264374</t>
+    <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990540504456</t>
+    <t xml:space="preserve">0.993990480899811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846795082092</t>
+    <t xml:space="preserve">0.996846914291382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134345531464</t>
+    <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137633323669</t>
+    <t xml:space="preserve">0.981137573719025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706516265869</t>
+    <t xml:space="preserve">0.989706456661224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133148670197</t>
+    <t xml:space="preserve">0.996133327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994905948639</t>
+    <t xml:space="preserve">0.978994965553284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569947242737</t>
+    <t xml:space="preserve">0.967569887638092</t>
   </si>
   <si>
     <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002678394318</t>
+    <t xml:space="preserve">0.954002797603607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430626869202</t>
+    <t xml:space="preserve">0.955430507659912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582924365997</t>
+    <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296506404877</t>
+    <t xml:space="preserve">0.928296387195587</t>
   </si>
   <si>
     <t xml:space="preserve">0.894734621047974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586510181427</t>
+    <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876633167267</t>
+    <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024863243103</t>
+    <t xml:space="preserve">0.879024684429169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739105701447</t>
+    <t xml:space="preserve">0.879739046096802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725890159607</t>
+    <t xml:space="preserve">0.924725830554962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436606407166</t>
+    <t xml:space="preserve">0.93543666601181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007103443146</t>
+    <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148276329041</t>
+    <t xml:space="preserve">0.946148216724396</t>
   </si>
   <si>
     <t xml:space="preserve">0.96399998664856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866109371185</t>
+    <t xml:space="preserve">0.93186616897583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606723308563</t>
+    <t xml:space="preserve">0.842606663703918</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177339553833</t>
+    <t xml:space="preserve">0.846177279949188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318393230438</t>
+    <t xml:space="preserve">0.853318333625793</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83903706073761</t>
+    <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170163154602</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458552837372</t>
+    <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
     <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584836483002</t>
+    <t xml:space="preserve">0.917584717273712</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090202331543</t>
@@ -701,52 +701,52 @@
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928644716739655</t>
+    <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068015098572</t>
+    <t xml:space="preserve">0.981068193912506</t>
   </si>
   <si>
     <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622648715973</t>
+    <t xml:space="preserve">0.943622589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579704761505</t>
+    <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962345480918884</t>
+    <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134099960327</t>
+    <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666665554047</t>
+    <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856753349304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921884536743</t>
+    <t xml:space="preserve">0.909921944141388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177222728729</t>
+    <t xml:space="preserve">0.906177282333374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902432501316071</t>
+    <t xml:space="preserve">0.902432560920715</t>
   </si>
   <si>
     <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924900054931641</t>
+    <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155273914337</t>
+    <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221418380737</t>
+    <t xml:space="preserve">0.876221358776093</t>
   </si>
   <si>
     <t xml:space="preserve">0.917411267757416</t>
@@ -755,16 +755,16 @@
     <t xml:space="preserve">0.89494401216507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709847927094</t>
+    <t xml:space="preserve">0.883709907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879966020584106</t>
+    <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
     <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86873197555542</t>
+    <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
     <t xml:space="preserve">0.861243367195129</t>
@@ -776,73 +776,73 @@
     <t xml:space="preserve">0.83503121137619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520594596863</t>
+    <t xml:space="preserve">0.842520654201508</t>
   </si>
   <si>
     <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797881603241</t>
+    <t xml:space="preserve">0.823797941207886</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775992393494</t>
+    <t xml:space="preserve">0.838775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850009262561798</t>
+    <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585785388947</t>
+    <t xml:space="preserve">0.797585844993591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075228214264</t>
+    <t xml:space="preserve">0.805075287818909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476577758789</t>
+    <t xml:space="preserve">0.872476637363434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987194538116</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938942611217499</t>
+    <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
     <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89949107170105</t>
+    <t xml:space="preserve">0.899491131305695</t>
   </si>
   <si>
-    <t xml:space="preserve">0.915271580219269</t>
+    <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162221908569</t>
+    <t xml:space="preserve">0.923162162303925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051850318909</t>
+    <t xml:space="preserve">0.931051909923553</t>
   </si>
   <si>
     <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613523006439</t>
+    <t xml:space="preserve">0.962613582611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833193302155</t>
+    <t xml:space="preserve">0.94683313369751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883710741996765</t>
+    <t xml:space="preserve">0.88371080160141</t>
   </si>
   <si>
     <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86793041229248</t>
+    <t xml:space="preserve">0.867930352687836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860039710998535</t>
+    <t xml:space="preserve">0.86003965139389</t>
   </si>
   <si>
     <t xml:space="preserve">0.852149963378906</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">0.828478932380676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789027512073517</t>
+    <t xml:space="preserve">0.789027452468872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844259321689606</t>
+    <t xml:space="preserve">0.84425938129425</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917259693146</t>
+    <t xml:space="preserve">0.796917319297791</t>
   </si>
   <si>
     <t xml:space="preserve">0.812698483467102</t>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191579341888</t>
+    <t xml:space="preserve">0.777191519737244</t>
   </si>
   <si>
     <t xml:space="preserve">0.804807841777802</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082221031189</t>
+    <t xml:space="preserve">0.785082161426544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76930183172226</t>
+    <t xml:space="preserve">0.769301772117615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773247122764587</t>
+    <t xml:space="preserve">0.773247063159943</t>
   </si>
   <si>
     <t xml:space="preserve">0.749576091766357</t>
@@ -899,10 +899,10 @@
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745630741119385</t>
+    <t xml:space="preserve">0.74563080072403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465839385986</t>
+    <t xml:space="preserve">0.757465779781342</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737740159034729</t>
+    <t xml:space="preserve">0.737740099430084</t>
   </si>
   <si>
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.706179320812225</t>
+    <t xml:space="preserve">0.70617938041687</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">0.702234029769897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.721959710121155</t>
+    <t xml:space="preserve">0.7219597697258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588350296021</t>
+    <t xml:space="preserve">0.820588290691376</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90652871131897</t>
+    <t xml:space="preserve">0.906528770923615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93979549407959</t>
+    <t xml:space="preserve">0.939795553684235</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063290119171</t>
+    <t xml:space="preserve">0.973063230514526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746117591858</t>
+    <t xml:space="preserve">0.964746057987213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379389762878</t>
+    <t xml:space="preserve">0.981379449367523</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01464712619781</t>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1005,9 +1005,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -44235,7 +44232,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44261,7 +44258,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44287,7 +44284,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44313,7 +44310,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44339,7 +44336,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44365,7 +44362,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44391,7 +44388,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44417,7 +44414,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44443,7 +44440,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44469,7 +44466,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44495,7 +44492,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44521,7 +44518,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44547,7 +44544,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44573,7 +44570,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44599,7 +44596,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44625,7 +44622,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44651,7 +44648,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44677,7 +44674,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44703,7 +44700,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44729,7 +44726,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44781,7 +44778,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44807,7 +44804,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44833,7 +44830,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44859,7 +44856,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44885,7 +44882,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44911,7 +44908,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44937,7 +44934,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44963,7 +44960,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44989,7 +44986,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45015,7 +45012,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45041,7 +45038,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45067,7 +45064,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45145,7 +45142,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45171,7 +45168,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45197,7 +45194,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45223,7 +45220,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45483,7 +45480,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45509,7 +45506,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45535,7 +45532,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45561,7 +45558,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45587,7 +45584,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45613,7 +45610,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45639,7 +45636,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45665,7 +45662,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45691,7 +45688,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45717,7 +45714,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45743,7 +45740,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45769,7 +45766,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45795,7 +45792,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45821,7 +45818,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45847,7 +45844,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45873,7 +45870,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45899,7 +45896,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45925,7 +45922,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45951,7 +45948,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45977,7 +45974,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46003,7 +46000,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46029,7 +46026,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46055,7 +46052,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46081,7 +46078,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46107,7 +46104,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46133,7 +46130,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46159,7 +46156,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46185,7 +46182,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46211,7 +46208,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46237,7 +46234,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46263,7 +46260,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46289,7 +46286,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46315,7 +46312,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46341,7 +46338,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46367,7 +46364,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46393,7 +46390,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46419,7 +46416,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46445,7 +46442,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46471,7 +46468,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46497,7 +46494,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46523,7 +46520,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46549,7 +46546,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46575,7 +46572,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46601,7 +46598,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46627,7 +46624,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46653,7 +46650,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46679,7 +46676,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46705,7 +46702,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46731,7 +46728,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46757,7 +46754,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46783,7 +46780,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46809,7 +46806,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46835,7 +46832,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46861,7 +46858,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46887,7 +46884,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46913,7 +46910,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46939,7 +46936,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46965,7 +46962,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46991,7 +46988,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47017,7 +47014,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47043,7 +47040,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47069,7 +47066,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47095,7 +47092,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47121,7 +47118,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47147,7 +47144,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47173,7 +47170,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47199,7 +47196,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47225,7 +47222,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47251,7 +47248,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47277,7 +47274,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47303,7 +47300,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47329,7 +47326,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47355,7 +47352,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47381,7 +47378,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47407,7 +47404,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47433,7 +47430,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47459,7 +47456,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47485,7 +47482,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47511,7 +47508,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47537,7 +47534,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47563,7 +47560,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47589,7 +47586,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47615,7 +47612,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47641,7 +47638,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47667,7 +47664,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47693,7 +47690,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47719,7 +47716,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47745,7 +47742,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47771,7 +47768,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47797,7 +47794,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47823,7 +47820,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47849,7 +47846,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47875,7 +47872,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47901,7 +47898,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47927,7 +47924,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47953,7 +47950,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47979,7 +47976,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48005,7 +48002,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48031,7 +48028,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48057,7 +48054,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48083,7 +48080,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48109,7 +48106,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48135,7 +48132,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48161,7 +48158,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48187,7 +48184,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48213,7 +48210,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48239,7 +48236,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48265,7 +48262,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48291,7 +48288,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48317,7 +48314,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48343,7 +48340,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48369,7 +48366,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48395,7 +48392,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48421,7 +48418,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48447,7 +48444,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48473,7 +48470,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48499,7 +48496,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48525,7 +48522,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48551,7 +48548,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48577,7 +48574,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48603,7 +48600,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48629,7 +48626,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48655,7 +48652,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48681,7 +48678,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48707,7 +48704,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48733,7 +48730,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48759,7 +48756,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48785,7 +48782,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48811,7 +48808,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48837,7 +48834,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48863,7 +48860,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48889,7 +48886,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48915,7 +48912,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48941,7 +48938,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48967,7 +48964,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48993,7 +48990,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49019,7 +49016,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49045,7 +49042,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49071,7 +49068,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49097,7 +49094,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49123,7 +49120,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49149,7 +49146,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49175,7 +49172,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49201,7 +49198,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49227,7 +49224,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49253,7 +49250,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49279,7 +49276,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49305,7 +49302,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49331,7 +49328,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49357,7 +49354,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49409,7 +49406,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49435,7 +49432,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49513,7 +49510,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49617,7 +49614,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49643,7 +49640,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49669,7 +49666,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49695,7 +49692,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49721,7 +49718,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49747,7 +49744,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49773,7 +49770,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49799,7 +49796,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49825,7 +49822,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49851,7 +49848,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49877,7 +49874,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49903,7 +49900,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49955,7 +49952,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49981,7 +49978,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50007,7 +50004,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50033,7 +50030,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50059,7 +50056,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50085,7 +50082,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50111,7 +50108,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50137,7 +50134,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50163,7 +50160,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50189,7 +50186,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50215,7 +50212,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50241,7 +50238,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50267,7 +50264,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50293,7 +50290,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50319,7 +50316,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50345,7 +50342,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50371,7 +50368,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50397,7 +50394,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50423,7 +50420,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50449,7 +50446,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50475,7 +50472,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50501,7 +50498,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50527,7 +50524,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50553,7 +50550,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50579,7 +50576,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50605,7 +50602,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50631,7 +50628,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50657,7 +50654,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50683,7 +50680,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50709,7 +50706,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50735,7 +50732,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50761,7 +50758,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50787,7 +50784,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50813,7 +50810,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50839,7 +50836,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50865,7 +50862,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50891,7 +50888,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50917,7 +50914,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50943,7 +50940,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50969,7 +50966,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50995,7 +50992,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51021,7 +51018,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51047,7 +51044,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51073,7 +51070,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51099,7 +51096,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51125,7 +51122,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51151,7 +51148,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51177,7 +51174,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51203,7 +51200,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51229,7 +51226,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51255,7 +51252,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51281,7 +51278,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51307,7 +51304,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51333,7 +51330,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51359,7 +51356,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51385,7 +51382,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51411,7 +51408,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51437,7 +51434,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51463,7 +51460,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51489,7 +51486,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51515,7 +51512,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51541,7 +51538,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51567,7 +51564,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51593,7 +51590,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51619,7 +51616,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51645,7 +51642,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51671,7 +51668,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51697,7 +51694,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51723,7 +51720,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51749,7 +51746,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51775,7 +51772,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51801,7 +51798,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51827,7 +51824,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51853,7 +51850,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51879,7 +51876,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51905,7 +51902,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51931,7 +51928,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51957,7 +51954,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51983,7 +51980,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52009,7 +52006,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52035,7 +52032,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52061,7 +52058,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52087,7 +52084,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52113,7 +52110,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52139,7 +52136,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52165,7 +52162,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52191,7 +52188,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52217,7 +52214,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52243,7 +52240,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52269,7 +52266,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52295,7 +52292,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52321,7 +52318,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52347,7 +52344,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52373,7 +52370,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52399,7 +52396,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52425,7 +52422,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52451,7 +52448,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52477,7 +52474,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52503,7 +52500,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52529,7 +52526,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52555,7 +52552,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52581,7 +52578,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52607,7 +52604,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52633,7 +52630,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52659,7 +52656,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52685,7 +52682,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52711,7 +52708,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52737,7 +52734,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52763,7 +52760,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52789,7 +52786,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52815,7 +52812,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52841,7 +52838,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52867,7 +52864,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52893,7 +52890,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52919,7 +52916,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52945,7 +52942,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52971,7 +52968,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52997,7 +52994,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53023,7 +53020,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53049,7 +53046,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53075,7 +53072,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53101,7 +53098,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53127,7 +53124,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53153,7 +53150,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53179,7 +53176,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53205,7 +53202,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53231,7 +53228,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53257,7 +53254,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53283,7 +53280,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53309,7 +53306,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53335,7 +53332,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53361,7 +53358,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53387,7 +53384,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53413,7 +53410,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53439,7 +53436,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53465,7 +53462,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53491,7 +53488,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53517,7 +53514,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53543,7 +53540,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53569,7 +53566,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53595,7 +53592,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53621,7 +53618,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53647,7 +53644,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53673,7 +53670,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53699,7 +53696,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53725,7 +53722,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53751,7 +53748,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53777,7 +53774,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53803,7 +53800,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53829,7 +53826,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53855,7 +53852,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53881,7 +53878,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53907,7 +53904,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53933,7 +53930,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53959,7 +53956,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53985,7 +53982,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54011,7 +54008,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54037,7 +54034,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54063,7 +54060,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54089,7 +54086,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54115,7 +54112,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54141,7 +54138,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54167,7 +54164,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54193,7 +54190,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54219,7 +54216,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54245,7 +54242,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54271,7 +54268,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54297,7 +54294,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54323,7 +54320,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54349,7 +54346,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54375,7 +54372,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54401,7 +54398,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54427,7 +54424,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54453,7 +54450,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54479,7 +54476,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54505,7 +54502,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54531,7 +54528,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54557,7 +54554,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54583,7 +54580,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54609,7 +54606,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54635,7 +54632,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54661,7 +54658,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54687,7 +54684,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54713,7 +54710,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54739,7 +54736,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54765,7 +54762,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54791,7 +54788,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54817,7 +54814,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54843,7 +54840,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54869,7 +54866,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54895,7 +54892,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54921,7 +54918,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54947,7 +54944,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54973,7 +54970,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54999,7 +54996,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55025,7 +55022,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55051,7 +55048,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55077,7 +55074,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55103,7 +55100,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55129,7 +55126,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55155,7 +55152,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55181,7 +55178,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55207,7 +55204,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55233,7 +55230,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55259,7 +55256,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55285,7 +55282,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55311,7 +55308,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55337,7 +55334,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55363,7 +55360,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55389,7 +55386,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55415,7 +55412,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55441,7 +55438,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55467,7 +55464,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55493,7 +55490,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55519,7 +55516,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55545,7 +55542,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55571,7 +55568,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55597,7 +55594,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55623,7 +55620,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55649,7 +55646,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55675,7 +55672,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55701,7 +55698,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55727,7 +55724,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55753,7 +55750,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55779,7 +55776,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55805,7 +55802,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55831,7 +55828,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55857,7 +55854,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55883,7 +55880,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55909,7 +55906,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55935,7 +55932,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55961,7 +55958,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55987,7 +55984,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56013,7 +56010,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56039,7 +56036,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56065,7 +56062,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56091,7 +56088,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56117,7 +56114,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56143,7 +56140,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56169,7 +56166,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56195,7 +56192,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56221,7 +56218,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56247,7 +56244,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56273,7 +56270,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56299,7 +56296,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56325,7 +56322,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56351,7 +56348,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56377,7 +56374,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56403,7 +56400,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56429,7 +56426,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56455,7 +56452,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56481,7 +56478,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56507,7 +56504,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56533,7 +56530,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56559,7 +56556,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56585,7 +56582,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56611,7 +56608,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56637,7 +56634,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56663,7 +56660,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56689,7 +56686,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56715,7 +56712,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56741,7 +56738,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56767,7 +56764,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56793,7 +56790,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56819,7 +56816,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56845,7 +56842,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56871,7 +56868,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56897,7 +56894,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56923,7 +56920,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56949,7 +56946,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56975,7 +56972,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57001,7 +56998,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57027,7 +57024,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57053,7 +57050,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57079,7 +57076,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57105,7 +57102,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57131,7 +57128,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57157,7 +57154,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57183,7 +57180,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57209,7 +57206,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57235,7 +57232,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57261,7 +57258,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57287,7 +57284,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57313,7 +57310,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57339,7 +57336,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57365,7 +57362,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57391,7 +57388,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57417,7 +57414,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57443,7 +57440,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57469,7 +57466,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57495,7 +57492,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57521,7 +57518,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57547,7 +57544,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2150" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57573,7 +57570,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2151" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57581,7 +57578,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6493055556</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>124334</v>
@@ -57599,9 +57596,35 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2152" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.2982291667</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -50,34 +50,34 @@
     <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79641580581665</t>
+    <t xml:space="preserve">0.796415865421295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790620803833</t>
+    <t xml:space="preserve">0.799790680408478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441231250763</t>
+    <t xml:space="preserve">0.798441171646118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066475868225</t>
+    <t xml:space="preserve">0.79506641626358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667010307312</t>
+    <t xml:space="preserve">0.789666891098022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716192245483</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413491249084</t>
+    <t xml:space="preserve">0.823413610458374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057863235474</t>
+    <t xml:space="preserve">0.876057744026184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661427497864</t>
+    <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908886909485</t>
+    <t xml:space="preserve">0.86390894651413</t>
   </si>
   <si>
     <t xml:space="preserve">0.840961813926697</t>
@@ -86,28 +86,28 @@
     <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236715316772</t>
+    <t xml:space="preserve">0.836236834526062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713818073273</t>
+    <t xml:space="preserve">0.820713698863983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809914946556091</t>
+    <t xml:space="preserve">0.809915125370026</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917380332947</t>
+    <t xml:space="preserve">0.782917320728302</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090888023376</t>
+    <t xml:space="preserve">0.797090947628021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614619731903</t>
+    <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81126457452774</t>
+    <t xml:space="preserve">0.811264514923096</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115478992462</t>
+    <t xml:space="preserve">0.799115538597107</t>
   </si>
   <si>
     <t xml:space="preserve">0.803840517997742</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140785217285</t>
+    <t xml:space="preserve">0.801140904426575</t>
   </si>
   <si>
     <t xml:space="preserve">0.806540250778198</t>
@@ -134,49 +134,49 @@
     <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788316786289215</t>
+    <t xml:space="preserve">0.78831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168525218964</t>
+    <t xml:space="preserve">0.776168584823608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289046287537</t>
+    <t xml:space="preserve">0.813289105892181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738349437714</t>
+    <t xml:space="preserve">0.822738289833069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837309360504</t>
+    <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038676261902</t>
+    <t xml:space="preserve">0.820038735866547</t>
   </si>
   <si>
     <t xml:space="preserve">0.819363594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639389514923</t>
+    <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939656734467</t>
+    <t xml:space="preserve">0.811939597129822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964188098907</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886347770691</t>
+    <t xml:space="preserve">0.822886288166046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572754859924</t>
+    <t xml:space="preserve">0.823572874069214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003717422485</t>
+    <t xml:space="preserve">0.82700377702713</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827484130859</t>
+    <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
@@ -185,31 +185,31 @@
     <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395806312561</t>
+    <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709339618683</t>
+    <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277661800385</t>
+    <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
     <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845924377441</t>
+    <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257287979126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983343601227</t>
+    <t xml:space="preserve">0.802983224391937</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
@@ -218,43 +218,43 @@
     <t xml:space="preserve">0.80641496181488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061124324799</t>
+    <t xml:space="preserve">0.794061183929443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553718566895</t>
+    <t xml:space="preserve">0.834553599357605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435395240784</t>
+    <t xml:space="preserve">0.830435454845428</t>
   </si>
   <si>
     <t xml:space="preserve">0.804355561733246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393872737885</t>
+    <t xml:space="preserve">0.782393753528595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766806125641</t>
+    <t xml:space="preserve">0.783766686916351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099435329437</t>
+    <t xml:space="preserve">0.772099494934082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804342269897</t>
+    <t xml:space="preserve">0.761804401874542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922546386719</t>
+    <t xml:space="preserve">0.765922605991364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471713066101</t>
+    <t xml:space="preserve">0.773471772670746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530397891998</t>
+    <t xml:space="preserve">0.775530457496643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216983795166</t>
+    <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570761680603</t>
+    <t xml:space="preserve">0.788570821285248</t>
   </si>
   <si>
     <t xml:space="preserve">0.776903390884399</t>
@@ -269,7 +269,7 @@
     <t xml:space="preserve">0.765236020088196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059131145477</t>
+    <t xml:space="preserve">0.759059190750122</t>
   </si>
   <si>
     <t xml:space="preserve">0.756313920021057</t>
@@ -278,19 +278,19 @@
     <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74876469373703</t>
+    <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078286647797</t>
+    <t xml:space="preserve">0.748078346252441</t>
   </si>
   <si>
     <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.76249086856842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021535396576</t>
   </si>
   <si>
     <t xml:space="preserve">0.77964860200882</t>
@@ -302,76 +302,76 @@
     <t xml:space="preserve">0.78788423538208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119868755341</t>
+    <t xml:space="preserve">0.796119809150696</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354283809662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627393722534</t>
+    <t xml:space="preserve">0.755627453327179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844646453857</t>
+    <t xml:space="preserve">0.774844765663147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785138964653015</t>
+    <t xml:space="preserve">0.78513902425766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610350608826</t>
+    <t xml:space="preserve">0.801610291004181</t>
   </si>
   <si>
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294645309448</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686853408813</t>
+    <t xml:space="preserve">0.757686913013458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746705949306488</t>
+    <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754255175590515</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981231212616</t>
+    <t xml:space="preserve">0.767981290817261</t>
   </si>
   <si>
     <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197649478912</t>
+    <t xml:space="preserve">0.787197709083557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867251873016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161510467529</t>
+    <t xml:space="preserve">0.84416139125824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298929691315</t>
+    <t xml:space="preserve">0.837298989295959</t>
   </si>
   <si>
     <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869245052338</t>
+    <t xml:space="preserve">0.868869185447693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712670326233</t>
+    <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163682460785</t>
+    <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279774188995</t>
+    <t xml:space="preserve">0.84827983379364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84965193271637</t>
+    <t xml:space="preserve">0.849651992321014</t>
   </si>
   <si>
     <t xml:space="preserve">0.869555830955505</t>
@@ -383,211 +383,211 @@
     <t xml:space="preserve">0.826317965984344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063236713409</t>
+    <t xml:space="preserve">0.829063177108765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925936698914</t>
+    <t xml:space="preserve">0.835926055908203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102885246277</t>
+    <t xml:space="preserve">0.842102706432343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376829624176</t>
+    <t xml:space="preserve">0.828376770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80916029214859</t>
+    <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591135501862</t>
+    <t xml:space="preserve">0.812591195106506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831808388233185</t>
+    <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475878238678</t>
+    <t xml:space="preserve">0.843475699424744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845534563064575</t>
+    <t xml:space="preserve">0.84553450345993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730488300323</t>
+    <t xml:space="preserve">0.840730667114258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.8736732006073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319363117218</t>
+    <t xml:space="preserve">0.861319303512573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517341136932</t>
+    <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281707763672</t>
+    <t xml:space="preserve">0.883281886577606</t>
   </si>
   <si>
     <t xml:space="preserve">0.872986614704132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260618686676</t>
+    <t xml:space="preserve">0.859260499477386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595300674438</t>
+    <t xml:space="preserve">0.882595360279083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88188099861145</t>
+    <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165738105774</t>
+    <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592549324036</t>
+    <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90258914232254</t>
+    <t xml:space="preserve">0.902589201927185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162390708923</t>
+    <t xml:space="preserve">0.896162331104279</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445396900177</t>
+    <t xml:space="preserve">0.905445516109467</t>
   </si>
   <si>
     <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593507766724</t>
+    <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8804532289505</t>
+    <t xml:space="preserve">0.88045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599666118622</t>
+    <t xml:space="preserve">0.867599725723267</t>
   </si>
   <si>
     <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168549060822</t>
+    <t xml:space="preserve">0.876168429851532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884022951126099</t>
+    <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
     <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87831050157547</t>
+    <t xml:space="preserve">0.87831038236618</t>
   </si>
   <si>
     <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166756153107</t>
+    <t xml:space="preserve">0.881166815757751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732828140259</t>
+    <t xml:space="preserve">0.899732887744904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89901864528656</t>
+    <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305058479309</t>
+    <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159698963165</t>
+    <t xml:space="preserve">0.906159639358521</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91472864151001</t>
+    <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014279842377</t>
+    <t xml:space="preserve">0.914014339447021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444557666779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015953540802</t>
+    <t xml:space="preserve">0.909016013145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90473210811615</t>
+    <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171181201935</t>
+    <t xml:space="preserve">0.86617124080658</t>
   </si>
   <si>
     <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87188446521759</t>
+    <t xml:space="preserve">0.871884405612946</t>
   </si>
   <si>
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026536941528</t>
+    <t xml:space="preserve">0.874026417732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455920696259</t>
+    <t xml:space="preserve">0.870455861091614</t>
   </si>
   <si>
     <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877597033977509</t>
+    <t xml:space="preserve">0.877596914768219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876882791519165</t>
+    <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575986385345</t>
+    <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288435935974</t>
+    <t xml:space="preserve">0.953288555145264</t>
   </si>
   <si>
     <t xml:space="preserve">0.933294594287872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577719688416</t>
+    <t xml:space="preserve">0.94257777929306</t>
   </si>
   <si>
     <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976853013038635</t>
+    <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275399208069</t>
+    <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709208011627</t>
+    <t xml:space="preserve">0.979709088802338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961142897605896</t>
+    <t xml:space="preserve">0.961143016815186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568869590759</t>
+    <t xml:space="preserve">0.972568929195404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956858992576599</t>
+    <t xml:space="preserve">0.956859111785889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429430007935</t>
+    <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567255496979</t>
+    <t xml:space="preserve">0.977567315101624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284130096436</t>
+    <t xml:space="preserve">0.968284010887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426082611084</t>
+    <t xml:space="preserve">0.970426201820374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848528385162</t>
+    <t xml:space="preserve">0.991848468780518</t>
   </si>
   <si>
     <t xml:space="preserve">0.974711060523987</t>
@@ -599,61 +599,61 @@
     <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990480899811</t>
+    <t xml:space="preserve">0.993990659713745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846914291382</t>
+    <t xml:space="preserve">0.996846854686737</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137573719025</t>
+    <t xml:space="preserve">0.981137752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706456661224</t>
+    <t xml:space="preserve">0.989706575870514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133327484131</t>
+    <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994965553284</t>
+    <t xml:space="preserve">0.978995025157928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569887638092</t>
+    <t xml:space="preserve">0.967569828033447</t>
   </si>
   <si>
     <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002797603607</t>
+    <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430507659912</t>
+    <t xml:space="preserve">0.955430686473846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582983970642</t>
+    <t xml:space="preserve">0.922583043575287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296387195587</t>
+    <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734621047974</t>
+    <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
     <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876633167267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024684429169</t>
+    <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739046096802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725830554962</t>
+    <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.93543666601181</t>
@@ -662,40 +662,40 @@
     <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148216724396</t>
+    <t xml:space="preserve">0.946148335933685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96399998664856</t>
+    <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93186616897583</t>
+    <t xml:space="preserve">0.931866109371185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606663703918</t>
+    <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177279949188</t>
+    <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318333625793</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
     <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170282363892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458612442017</t>
+    <t xml:space="preserve">0.860458672046661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303444385529</t>
+    <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584717273712</t>
+    <t xml:space="preserve">0.917584896087646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090202331543</t>
+    <t xml:space="preserve">0.966090083122253</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
@@ -704,34 +704,34 @@
     <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068193912506</t>
+    <t xml:space="preserve">0.981068074703217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323412895203</t>
+    <t xml:space="preserve">0.977323472499847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622589111328</t>
+    <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579466342926</t>
+    <t xml:space="preserve">0.973579525947571</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134040355682</t>
+    <t xml:space="preserve">0.936134099960327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666725158691</t>
+    <t xml:space="preserve">0.913666784763336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856753349304</t>
+    <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921944141388</t>
+    <t xml:space="preserve">0.909922003746033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177282333374</t>
+    <t xml:space="preserve">0.906177341938019</t>
   </si>
   <si>
     <t xml:space="preserve">0.902432560920715</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221358776093</t>
+    <t xml:space="preserve">0.876221299171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411267757416</t>
+    <t xml:space="preserve">0.91741144657135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89494401216507</t>
+    <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709907531738</t>
+    <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
     <t xml:space="preserve">0.879965960979462</t>
@@ -767,19 +767,19 @@
     <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243367195129</t>
+    <t xml:space="preserve">0.861243307590485</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83503121137619</t>
+    <t xml:space="preserve">0.835031151771545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520654201508</t>
+    <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753924369812</t>
+    <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797941207886</t>
@@ -794,16 +794,16 @@
     <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585844993591</t>
+    <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075287818909</t>
+    <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476637363434</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987194538116</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
@@ -824,13 +824,13 @@
     <t xml:space="preserve">0.931051909923553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600489616394</t>
+    <t xml:space="preserve">0.891600549221039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613582611084</t>
+    <t xml:space="preserve">0.962613642215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94683313369751</t>
+    <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
     <t xml:space="preserve">0.88371080160141</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">0.867930352687836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86003965139389</t>
+    <t xml:space="preserve">0.860039710998535</t>
   </si>
   <si>
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83636873960495</t>
+    <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
     <t xml:space="preserve">0.828478932380676</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">0.789027452468872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84425938129425</t>
+    <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917319297791</t>
+    <t xml:space="preserve">0.796917259693146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698483467102</t>
+    <t xml:space="preserve">0.812698543071747</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356481075287</t>
+    <t xml:space="preserve">0.765356421470642</t>
   </si>
   <si>
     <t xml:space="preserve">0.785082161426544</t>
@@ -893,22 +893,22 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795702457428</t>
+    <t xml:space="preserve">0.733795642852783</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74563080072403</t>
+    <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465779781342</t>
+    <t xml:space="preserve">0.757465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7298504114151</t>
+    <t xml:space="preserve">0.729850351810455</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740099430084</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014419078827</t>
+    <t xml:space="preserve">0.718014478683472</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -57604,7 +57604,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.2982291667</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>1500</v>
@@ -57625,6 +57625,32 @@
         <v>412</v>
       </c>
       <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.5913888889</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>47066</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>0.865000009536743</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>0.865000009536743</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663861274719</t>
+    <t xml:space="preserve">0.816663920879364</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80316549539566</t>
+    <t xml:space="preserve">0.803165376186371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801816046237946</t>
+    <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796415865421295</t>
+    <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790561199188</t>
+    <t xml:space="preserve">0.799790680408478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441112041473</t>
+    <t xml:space="preserve">0.798441231250763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066475868225</t>
+    <t xml:space="preserve">0.79506641626358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667069911957</t>
+    <t xml:space="preserve">0.789667010307312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716073036194</t>
   </si>
   <si>
     <t xml:space="preserve">0.823413491249084</t>
@@ -74,37 +74,37 @@
     <t xml:space="preserve">0.876057863235474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661487102509</t>
+    <t xml:space="preserve">0.843661427497864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390882730484</t>
+    <t xml:space="preserve">0.863908767700195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961873531342</t>
+    <t xml:space="preserve">0.840961813926697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824763000011444</t>
+    <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236774921417</t>
+    <t xml:space="preserve">0.836236894130707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713818073273</t>
+    <t xml:space="preserve">0.820713698863983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915006160736</t>
+    <t xml:space="preserve">0.809915065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917439937592</t>
+    <t xml:space="preserve">0.782917499542236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090947628021</t>
+    <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614679336548</t>
+    <t xml:space="preserve">0.812614738941193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81126457452774</t>
+    <t xml:space="preserve">0.811264514923096</t>
   </si>
   <si>
     <t xml:space="preserve">0.799115538597107</t>
@@ -113,43 +113,43 @@
     <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8092400431633</t>
+    <t xml:space="preserve">0.809239983558655</t>
   </si>
   <si>
     <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80114084482193</t>
+    <t xml:space="preserve">0.801140904426575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540191173553</t>
+    <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
     <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366623878479</t>
+    <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
     <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168584823608</t>
+    <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
     <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738349437714</t>
+    <t xml:space="preserve">0.822738289833069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837368965149</t>
+    <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038676261902</t>
+    <t xml:space="preserve">0.820038557052612</t>
   </si>
   <si>
     <t xml:space="preserve">0.819363534450531</t>
@@ -161,25 +161,25 @@
     <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939656734467</t>
+    <t xml:space="preserve">0.811939716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964188098907</t>
+    <t xml:space="preserve">0.813964247703552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886407375336</t>
+    <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572754859924</t>
+    <t xml:space="preserve">0.823572814464569</t>
   </si>
   <si>
     <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827484130859</t>
+    <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820141077041626</t>
+    <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
     <t xml:space="preserve">0.82425844669342</t>
@@ -188,52 +188,52 @@
     <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709458827972</t>
+    <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81327760219574</t>
+    <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811905384063721</t>
+    <t xml:space="preserve">0.81190550327301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964068889618</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
     <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845983982086</t>
+    <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257287979126</t>
+    <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983403205872</t>
+    <t xml:space="preserve">0.802983343601227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473825454712</t>
+    <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641496181488</t>
+    <t xml:space="preserve">0.80641508102417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061124324799</t>
+    <t xml:space="preserve">0.794061064720154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553718566895</t>
+    <t xml:space="preserve">0.83455353975296</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435454845428</t>
+    <t xml:space="preserve">0.830435514450073</t>
   </si>
   <si>
     <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766746520996</t>
+    <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
     <t xml:space="preserve">0.772099435329437</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922605991364</t>
+    <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
     <t xml:space="preserve">0.773471713066101</t>
@@ -251,13 +251,13 @@
     <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216924190521</t>
+    <t xml:space="preserve">0.776216864585876</t>
   </si>
   <si>
     <t xml:space="preserve">0.788570821285248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903331279755</t>
+    <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
     <t xml:space="preserve">0.768667757511139</t>
@@ -269,46 +269,46 @@
     <t xml:space="preserve">0.765236079692841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059190750122</t>
+    <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313860416412</t>
   </si>
   <si>
     <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74876469373703</t>
+    <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078227043152</t>
+    <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315972805023</t>
+    <t xml:space="preserve">0.791315853595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.762490928173065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021535396576</t>
   </si>
   <si>
     <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296876907349</t>
+    <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788423538208</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119928359985</t>
+    <t xml:space="preserve">0.79611998796463</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627334117889</t>
+    <t xml:space="preserve">0.755627453327179</t>
   </si>
   <si>
     <t xml:space="preserve">0.774844646453857</t>
@@ -320,19 +320,19 @@
     <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589857578278</t>
+    <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
     <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686913013458</t>
+    <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746705949306488</t>
+    <t xml:space="preserve">0.746706068515778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754255175590515</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276324272156</t>
@@ -341,55 +341,55 @@
     <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707406044006</t>
+    <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
     <t xml:space="preserve">0.787197709083557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867192268372</t>
+    <t xml:space="preserve">0.833867073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161570072174</t>
+    <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
     <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888340950012</t>
+    <t xml:space="preserve">0.857888281345367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
     <t xml:space="preserve">0.886712670326233</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163682460785</t>
+    <t xml:space="preserve">0.879163503646851</t>
   </si>
   <si>
     <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849651873111725</t>
+    <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555830955505</t>
+    <t xml:space="preserve">0.869555771350861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338399410248</t>
+    <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826317965984344</t>
+    <t xml:space="preserve">0.826318025588989</t>
   </si>
   <si>
     <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925936698914</t>
+    <t xml:space="preserve">0.835925996303558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102825641632</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
     <t xml:space="preserve">0.828376829624176</t>
@@ -404,10 +404,10 @@
     <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475759029388</t>
+    <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845534563064575</t>
+    <t xml:space="preserve">0.84553462266922</t>
   </si>
   <si>
     <t xml:space="preserve">0.840730547904968</t>
@@ -419,25 +419,25 @@
     <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517400741577</t>
+    <t xml:space="preserve">0.891517460346222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281648159027</t>
+    <t xml:space="preserve">0.883281767368317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986614704132</t>
+    <t xml:space="preserve">0.872986733913422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260618686676</t>
+    <t xml:space="preserve">0.859260559082031</t>
   </si>
   <si>
     <t xml:space="preserve">0.882595360279083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881881058216095</t>
+    <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165797710419</t>
+    <t xml:space="preserve">0.886165916919708</t>
   </si>
   <si>
     <t xml:space="preserve">0.892592549324036</t>
@@ -449,19 +449,19 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445396900177</t>
+    <t xml:space="preserve">0.905445456504822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873881816864</t>
+    <t xml:space="preserve">0.906874001026154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593567371368</t>
+    <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
     <t xml:space="preserve">0.880453288555145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599666118622</t>
+    <t xml:space="preserve">0.867599606513977</t>
   </si>
   <si>
     <t xml:space="preserve">0.904017686843872</t>
@@ -473,10 +473,10 @@
     <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878366470337</t>
+    <t xml:space="preserve">0.891878306865692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878310441970825</t>
+    <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
     <t xml:space="preserve">0.8890221118927</t>
@@ -488,70 +488,70 @@
     <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.899018526077271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305058479309</t>
+    <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
     <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155393123627</t>
+    <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728581905365</t>
+    <t xml:space="preserve">0.914728403091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014279842377</t>
+    <t xml:space="preserve">0.914014160633087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444438457489</t>
+    <t xml:space="preserve">0.910444617271423</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015953540802</t>
+    <t xml:space="preserve">0.909016013145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904732048511505</t>
+    <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171181201935</t>
+    <t xml:space="preserve">0.86617112159729</t>
   </si>
   <si>
     <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884405612946</t>
+    <t xml:space="preserve">0.87188446521759</t>
   </si>
   <si>
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026477336884</t>
+    <t xml:space="preserve">0.874026536941528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455920696259</t>
+    <t xml:space="preserve">0.870455861091614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028270244598</t>
+    <t xml:space="preserve">0.869028151035309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596974372864</t>
+    <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876882791519165</t>
+    <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575986385345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288495540619</t>
+    <t xml:space="preserve">0.953288435935974</t>
   </si>
   <si>
     <t xml:space="preserve">0.933294594287872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94257777929306</t>
+    <t xml:space="preserve">0.942577838897705</t>
   </si>
   <si>
     <t xml:space="preserve">0.924011588096619</t>
@@ -560,127 +560,127 @@
     <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275399208069</t>
+    <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709029197693</t>
+    <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961142957210541</t>
+    <t xml:space="preserve">0.961142897605896</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859052181244</t>
+    <t xml:space="preserve">0.956858992576599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429489612579</t>
+    <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
     <t xml:space="preserve">0.977567255496979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96828418970108</t>
+    <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426082611084</t>
+    <t xml:space="preserve">0.970426201820374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848528385162</t>
+    <t xml:space="preserve">0.991848409175873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974711000919342</t>
+    <t xml:space="preserve">0.974711060523987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992273807526</t>
+    <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990540504456</t>
+    <t xml:space="preserve">0.993990480899811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846973896027</t>
+    <t xml:space="preserve">0.996846795082092</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137692928314</t>
+    <t xml:space="preserve">0.981137573719025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706516265869</t>
+    <t xml:space="preserve">0.989706456661224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133267879486</t>
+    <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994905948639</t>
+    <t xml:space="preserve">0.978994965553284</t>
   </si>
   <si>
     <t xml:space="preserve">0.967569887638092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856420040131</t>
+    <t xml:space="preserve">0.966856300830841</t>
   </si>
   <si>
     <t xml:space="preserve">0.954002797603607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430626869202</t>
+    <t xml:space="preserve">0.955430507659912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922583043575287</t>
+    <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296327590942</t>
+    <t xml:space="preserve">0.928296387195587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734621047974</t>
+    <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
     <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876573562622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024684429169</t>
+    <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725770950317</t>
+    <t xml:space="preserve">0.924725830554962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436725616455</t>
+    <t xml:space="preserve">0.935436546802521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93900728225708</t>
+    <t xml:space="preserve">0.939007163047791</t>
   </si>
   <si>
     <t xml:space="preserve">0.946148216724396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000165462494</t>
+    <t xml:space="preserve">0.964000225067139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866109371185</t>
+    <t xml:space="preserve">0.931866049766541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606782913208</t>
+    <t xml:space="preserve">0.842606723308563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177279949188</t>
+    <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
     <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839037001132965</t>
+    <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
     <t xml:space="preserve">0.871170222759247</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303444385529</t>
+    <t xml:space="preserve">0.903303563594818</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584717273712</t>
+    <t xml:space="preserve">0.917584836483002</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090202331543</t>
@@ -704,19 +704,19 @@
     <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068193912506</t>
+    <t xml:space="preserve">0.981068074703217</t>
   </si>
   <si>
     <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622589111328</t>
+    <t xml:space="preserve">0.943622708320618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579466342926</t>
+    <t xml:space="preserve">0.973579585552216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962345361709595</t>
+    <t xml:space="preserve">0.962345480918884</t>
   </si>
   <si>
     <t xml:space="preserve">0.936134040355682</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856753349304</t>
+    <t xml:space="preserve">0.954856872558594</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921944141388</t>
+    <t xml:space="preserve">0.909921884536743</t>
   </si>
   <si>
     <t xml:space="preserve">0.906177282333374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902432560920715</t>
+    <t xml:space="preserve">0.902432501316071</t>
   </si>
   <si>
     <t xml:space="preserve">0.891199290752411</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">0.883709907531738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879965960979462</t>
+    <t xml:space="preserve">0.879966020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264481544495</t>
+    <t xml:space="preserve">0.846264541149139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868731915950775</t>
+    <t xml:space="preserve">0.86873197555542</t>
   </si>
   <si>
     <t xml:space="preserve">0.861243367195129</t>
@@ -773,7 +773,7 @@
     <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83503121137619</t>
+    <t xml:space="preserve">0.835031270980835</t>
   </si>
   <si>
     <t xml:space="preserve">0.842520654201508</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.797585844993591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075287818909</t>
+    <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
     <t xml:space="preserve">0.872476637363434</t>
@@ -57734,7 +57734,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6396643519</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>75010</v>
@@ -57755,6 +57755,32 @@
         <v>412</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.4434027778</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663801670074</t>
+    <t xml:space="preserve">0.816663920879364</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80316549539566</t>
+    <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
     <t xml:space="preserve">0.801815927028656</t>
@@ -53,34 +53,34 @@
     <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790680408478</t>
+    <t xml:space="preserve">0.799790620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441231250763</t>
+    <t xml:space="preserve">0.798441171646118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79506641626358</t>
+    <t xml:space="preserve">0.795066356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667069911957</t>
+    <t xml:space="preserve">0.789667010307312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716192245483</t>
+    <t xml:space="preserve">0.793716132640839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82341343164444</t>
+    <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
     <t xml:space="preserve">0.876057684421539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661427497864</t>
+    <t xml:space="preserve">0.843661546707153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908886909485</t>
+    <t xml:space="preserve">0.86390882730484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961933135986</t>
+    <t xml:space="preserve">0.840961873531342</t>
   </si>
   <si>
     <t xml:space="preserve">0.824763000011444</t>
@@ -89,10 +89,10 @@
     <t xml:space="preserve">0.836236834526062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713877677917</t>
+    <t xml:space="preserve">0.820713818073273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915006160736</t>
+    <t xml:space="preserve">0.809915125370026</t>
   </si>
   <si>
     <t xml:space="preserve">0.782917439937592</t>
@@ -101,10 +101,10 @@
     <t xml:space="preserve">0.797090947628021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614619731903</t>
+    <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264514923096</t>
+    <t xml:space="preserve">0.81126457452774</t>
   </si>
   <si>
     <t xml:space="preserve">0.799115538597107</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809239983558655</t>
+    <t xml:space="preserve">0.80923992395401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802490413188934</t>
+    <t xml:space="preserve">0.802490472793579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140904426575</t>
+    <t xml:space="preserve">0.801140964031219</t>
   </si>
   <si>
     <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741438865662</t>
+    <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366802692413</t>
   </si>
   <si>
     <t xml:space="preserve">0.786967277526855</t>
@@ -137,25 +137,25 @@
     <t xml:space="preserve">0.78831684589386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168525218964</t>
+    <t xml:space="preserve">0.776168465614319</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289165496826</t>
+    <t xml:space="preserve">0.813289105892181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738409042358</t>
+    <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837547779083</t>
+    <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038676261902</t>
+    <t xml:space="preserve">0.820038735866547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363653659821</t>
+    <t xml:space="preserve">0.819363594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639270305634</t>
+    <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988719463348</t>
@@ -164,16 +164,16 @@
     <t xml:space="preserve">0.811939716339111</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964068889618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886347770691</t>
+    <t xml:space="preserve">0.822886407375336</t>
   </si>
   <si>
     <t xml:space="preserve">0.823572874069214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82700377702713</t>
+    <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
     <t xml:space="preserve">0.820827543735504</t>
@@ -185,10 +185,10 @@
     <t xml:space="preserve">0.82425856590271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395806312561</t>
+    <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
     <t xml:space="preserve">0.813277661800385</t>
@@ -197,19 +197,19 @@
     <t xml:space="preserve">0.811905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454610347748</t>
+    <t xml:space="preserve">0.819454550743103</t>
   </si>
   <si>
     <t xml:space="preserve">0.809845864772797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257168769836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983283996582</t>
+    <t xml:space="preserve">0.802983343601227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473825454712</t>
+    <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
     <t xml:space="preserve">0.806414902210236</t>
@@ -221,13 +221,13 @@
     <t xml:space="preserve">0.834553718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435395240784</t>
+    <t xml:space="preserve">0.830435454845428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355502128601</t>
+    <t xml:space="preserve">0.804355561733246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393753528595</t>
   </si>
   <si>
     <t xml:space="preserve">0.783766806125641</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922605991364</t>
+    <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471713066101</t>
+    <t xml:space="preserve">0.773471653461456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530397891998</t>
+    <t xml:space="preserve">0.775530338287354</t>
   </si>
   <si>
     <t xml:space="preserve">0.776216983795166</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903331279755</t>
+    <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
     <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335068702698</t>
+    <t xml:space="preserve">0.780335187911987</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236020088196</t>
@@ -272,25 +272,25 @@
     <t xml:space="preserve">0.756313979625702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941701889038</t>
+    <t xml:space="preserve">0.754941642284393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74876481294632</t>
+    <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
     <t xml:space="preserve">0.748078227043152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315913200378</t>
+    <t xml:space="preserve">0.791315853595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490749359131</t>
+    <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021535396576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77964860200882</t>
+    <t xml:space="preserve">0.779648661613464</t>
   </si>
   <si>
     <t xml:space="preserve">0.802296817302704</t>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354224205017</t>
+    <t xml:space="preserve">0.769354283809662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627393722534</t>
+    <t xml:space="preserve">0.755627453327179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844646453857</t>
+    <t xml:space="preserve">0.774844706058502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78513902425766</t>
+    <t xml:space="preserve">0.785139083862305</t>
   </si>
   <si>
     <t xml:space="preserve">0.80161041021347</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294764518738</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686793804169</t>
+    <t xml:space="preserve">0.757686913013458</t>
   </si>
   <si>
     <t xml:space="preserve">0.746705949306488</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276383876801</t>
+    <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
     <t xml:space="preserve">0.767981231212616</t>
@@ -341,7 +341,7 @@
     <t xml:space="preserve">0.781707406044006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197828292847</t>
+    <t xml:space="preserve">0.787197768688202</t>
   </si>
   <si>
     <t xml:space="preserve">0.833867192268372</t>
@@ -350,19 +350,19 @@
     <t xml:space="preserve">0.844161450862885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298810482025</t>
+    <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888400554657</t>
+    <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712551116943</t>
+    <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163503646851</t>
+    <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
     <t xml:space="preserve">0.84827983379364</t>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555830955505</t>
+    <t xml:space="preserve">0.869555771350861</t>
   </si>
   <si>
     <t xml:space="preserve">0.850338459014893</t>
@@ -389,43 +389,43 @@
     <t xml:space="preserve">0.842102825641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376770019531</t>
+    <t xml:space="preserve">0.828376829624176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160232543945</t>
+    <t xml:space="preserve">0.809160172939301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591195106506</t>
+    <t xml:space="preserve">0.812591135501862</t>
   </si>
   <si>
     <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475818634033</t>
+    <t xml:space="preserve">0.843475759029388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845534563064575</t>
+    <t xml:space="preserve">0.845534682273865</t>
   </si>
   <si>
     <t xml:space="preserve">0.840730607509613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87367308139801</t>
+    <t xml:space="preserve">0.8736732006073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319363117218</t>
+    <t xml:space="preserve">0.861319303512573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517519950867</t>
+    <t xml:space="preserve">0.891517460346222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281826972961</t>
+    <t xml:space="preserve">0.883281767368317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986793518066</t>
+    <t xml:space="preserve">0.872986733913422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260499477386</t>
   </si>
   <si>
     <t xml:space="preserve">0.882595419883728</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165857315063</t>
+    <t xml:space="preserve">0.886165797710419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592668533325</t>
+    <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
     <t xml:space="preserve">0.90258914232254</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445456504822</t>
+    <t xml:space="preserve">0.905445516109467</t>
   </si>
   <si>
     <t xml:space="preserve">0.906873941421509</t>
@@ -458,10 +458,10 @@
     <t xml:space="preserve">0.880453169345856</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599725723267</t>
+    <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017627239227</t>
+    <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
     <t xml:space="preserve">0.876168489456177</t>
@@ -476,7 +476,7 @@
     <t xml:space="preserve">0.878310441970825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8890221118927</t>
+    <t xml:space="preserve">0.889022171497345</t>
   </si>
   <si>
     <t xml:space="preserve">0.881166756153107</t>
@@ -491,28 +491,28 @@
     <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159579753876</t>
+    <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728403091431</t>
+    <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014160633087</t>
+    <t xml:space="preserve">0.914014220237732</t>
   </si>
   <si>
     <t xml:space="preserve">0.910444498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015893936157</t>
+    <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904732048511505</t>
+    <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617112159729</t>
+    <t xml:space="preserve">0.866171061992645</t>
   </si>
   <si>
     <t xml:space="preserve">0.88545161485672</t>
@@ -521,43 +521,43 @@
     <t xml:space="preserve">0.87188446521759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885423660278</t>
+    <t xml:space="preserve">0.866885483264923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026477336884</t>
+    <t xml:space="preserve">0.874026536941528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455980300903</t>
+    <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
     <t xml:space="preserve">0.869028210639954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877597033977509</t>
+    <t xml:space="preserve">0.877596974372864</t>
   </si>
   <si>
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575926780701</t>
+    <t xml:space="preserve">0.947575986385345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288376331329</t>
+    <t xml:space="preserve">0.953288435935974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294713497162</t>
+    <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577660083771</t>
+    <t xml:space="preserve">0.942577600479126</t>
   </si>
   <si>
     <t xml:space="preserve">0.924011647701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976852893829346</t>
+    <t xml:space="preserve">0.97685295343399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275399208069</t>
+    <t xml:space="preserve">0.998275339603424</t>
   </si>
   <si>
     <t xml:space="preserve">0.979709148406982</t>
@@ -566,28 +566,28 @@
     <t xml:space="preserve">0.96114307641983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568869590759</t>
+    <t xml:space="preserve">0.972568809986115</t>
   </si>
   <si>
     <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429549217224</t>
+    <t xml:space="preserve">0.960429430007935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567195892334</t>
+    <t xml:space="preserve">0.977567255496979</t>
   </si>
   <si>
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426142215729</t>
+    <t xml:space="preserve">0.970426261425018</t>
   </si>
   <si>
     <t xml:space="preserve">0.991848409175873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710881710052</t>
+    <t xml:space="preserve">0.974710941314697</t>
   </si>
   <si>
     <t xml:space="preserve">0.988992214202881</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846795082092</t>
+    <t xml:space="preserve">0.996846854686737</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134345531464</t>
@@ -611,28 +611,28 @@
     <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133387088776</t>
+    <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978995025157928</t>
+    <t xml:space="preserve">0.978995084762573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569947242737</t>
+    <t xml:space="preserve">0.967569828033447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856420040131</t>
+    <t xml:space="preserve">0.966856479644775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002797603607</t>
+    <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430507659912</t>
+    <t xml:space="preserve">0.955430448055267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582864761353</t>
+    <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296387195587</t>
+    <t xml:space="preserve">0.928296446800232</t>
   </si>
   <si>
     <t xml:space="preserve">0.894734680652618</t>
@@ -647,22 +647,22 @@
     <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739105701447</t>
+    <t xml:space="preserve">0.879739165306091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725830554962</t>
+    <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93543666601181</t>
+    <t xml:space="preserve">0.935436546802521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007163047791</t>
+    <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
     <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.964000046253204</t>
   </si>
   <si>
     <t xml:space="preserve">0.931866049766541</t>
@@ -680,16 +680,16 @@
     <t xml:space="preserve">0.83903694152832</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170163154602</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458672046661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303384780884</t>
+    <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584776878357</t>
+    <t xml:space="preserve">0.917584717273712</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090083122253</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928644716739655</t>
+    <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068015098572</t>
+    <t xml:space="preserve">0.981068134307861</t>
   </si>
   <si>
     <t xml:space="preserve">0.977323412895203</t>
@@ -710,31 +710,31 @@
     <t xml:space="preserve">0.943622767925262</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579704761505</t>
+    <t xml:space="preserve">0.973579585552216</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936133980751038</t>
+    <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
     <t xml:space="preserve">0.913666665554047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856753349304</t>
+    <t xml:space="preserve">0.954856932163239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921944141388</t>
+    <t xml:space="preserve">0.909922063350677</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177341938019</t>
+    <t xml:space="preserve">0.906177282333374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90243262052536</t>
+    <t xml:space="preserve">0.902432560920715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891199350357056</t>
+    <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
     <t xml:space="preserve">0.924899935722351</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">0.917411386966705</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89494401216507</t>
+    <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709788322449</t>
+    <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879965901374817</t>
+    <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
     <t xml:space="preserve">0.846264481544495</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">0.86873197555542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243307590485</t>
+    <t xml:space="preserve">0.86124324798584</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286549568176</t>
@@ -773,40 +773,40 @@
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753864765167</t>
+    <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797941207886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857498645782471</t>
+    <t xml:space="preserve">0.857498705387115</t>
   </si>
   <si>
     <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850009202957153</t>
+    <t xml:space="preserve">0.850009262561798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585844993591</t>
+    <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
     <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476518154144</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987194538116</t>
+    <t xml:space="preserve">0.864987134933472</t>
   </si>
   <si>
-    <t xml:space="preserve">0.938942611217499</t>
+    <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
     <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89949107170105</t>
+    <t xml:space="preserve">0.899491131305695</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271580219269</t>
@@ -827,13 +827,13 @@
     <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883710741996765</t>
+    <t xml:space="preserve">0.88371080160141</t>
   </si>
   <si>
     <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86793041229248</t>
+    <t xml:space="preserve">0.867930352687836</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83636873960495</t>
+    <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
     <t xml:space="preserve">0.828478932380676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789027512073517</t>
+    <t xml:space="preserve">0.789027452468872</t>
   </si>
   <si>
     <t xml:space="preserve">0.844259321689606</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">0.796917259693146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698483467102</t>
+    <t xml:space="preserve">0.812698543071747</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
@@ -869,19 +869,19 @@
     <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356481075287</t>
+    <t xml:space="preserve">0.765356421470642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082221031189</t>
+    <t xml:space="preserve">0.785082161426544</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76930183172226</t>
+    <t xml:space="preserve">0.769301772117615</t>
   </si>
   <si>
     <t xml:space="preserve">0.773247122764587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.749576091766357</t>
+    <t xml:space="preserve">0.749576032161713</t>
   </si>
   <si>
     <t xml:space="preserve">0.753521382808685</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.706179320812225</t>
+    <t xml:space="preserve">0.70617938041687</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">0.721959710121155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588350296021</t>
+    <t xml:space="preserve">0.820588290691376</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
@@ -57809,7 +57809,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.3228587963</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>2000</v>
@@ -57830,6 +57830,32 @@
         <v>411</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.344212963</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663801670074</t>
+    <t xml:space="preserve">0.816663861274719</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
@@ -47,64 +47,64 @@
     <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801816046237946</t>
+    <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796415865421295</t>
+    <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790620803833</t>
+    <t xml:space="preserve">0.799790680408478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441171646118</t>
+    <t xml:space="preserve">0.798441112041473</t>
   </si>
   <si>
     <t xml:space="preserve">0.795066356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667010307312</t>
+    <t xml:space="preserve">0.789667069911957</t>
   </si>
   <si>
     <t xml:space="preserve">0.793716132640839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413491249084</t>
+    <t xml:space="preserve">0.82341343164444</t>
   </si>
   <si>
     <t xml:space="preserve">0.876057744026184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661427497864</t>
+    <t xml:space="preserve">0.843661546707153</t>
   </si>
   <si>
     <t xml:space="preserve">0.86390882730484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961813926697</t>
+    <t xml:space="preserve">0.840961992740631</t>
   </si>
   <si>
     <t xml:space="preserve">0.824763000011444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236774921417</t>
+    <t xml:space="preserve">0.836236715316772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713758468628</t>
+    <t xml:space="preserve">0.820713698863983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809914886951447</t>
+    <t xml:space="preserve">0.809915065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917320728302</t>
+    <t xml:space="preserve">0.782917499542236</t>
   </si>
   <si>
     <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614738941193</t>
+    <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264634132385</t>
+    <t xml:space="preserve">0.811264455318451</t>
   </si>
   <si>
     <t xml:space="preserve">0.799115538597107</t>
@@ -113,22 +113,22 @@
     <t xml:space="preserve">0.803840577602386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809239983558655</t>
+    <t xml:space="preserve">0.80923992395401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80249035358429</t>
+    <t xml:space="preserve">0.802490413188934</t>
   </si>
   <si>
     <t xml:space="preserve">0.801140904426575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540191173553</t>
+    <t xml:space="preserve">0.806540310382843</t>
   </si>
   <si>
     <t xml:space="preserve">0.795741438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
     <t xml:space="preserve">0.786967277526855</t>
@@ -137,31 +137,31 @@
     <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168584823608</t>
+    <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289105892181</t>
+    <t xml:space="preserve">0.813288986682892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738409042358</t>
+    <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
     <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038616657257</t>
+    <t xml:space="preserve">0.820038557052612</t>
   </si>
   <si>
     <t xml:space="preserve">0.819363594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639329910278</t>
+    <t xml:space="preserve">0.814639270305634</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939656734467</t>
+    <t xml:space="preserve">0.811939775943756</t>
   </si>
   <si>
     <t xml:space="preserve">0.813964128494263</t>
@@ -173,94 +173,94 @@
     <t xml:space="preserve">0.823572754859924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82700377702713</t>
+    <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827484130859</t>
+    <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820141077041626</t>
+    <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82425844669342</t>
+    <t xml:space="preserve">0.824258506298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395865917206</t>
+    <t xml:space="preserve">0.817395925521851</t>
   </si>
   <si>
     <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277661800385</t>
+    <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905384063721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454610347748</t>
+    <t xml:space="preserve">0.819454491138458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845983982086</t>
+    <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257287979126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983343601227</t>
+    <t xml:space="preserve">0.802983403205872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473765850067</t>
+    <t xml:space="preserve">0.808473706245422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641508102417</t>
+    <t xml:space="preserve">0.80641496181488</t>
   </si>
   <si>
     <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553718566895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435395240784</t>
+    <t xml:space="preserve">0.830435454845428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355442523956</t>
+    <t xml:space="preserve">0.804355561733246</t>
   </si>
   <si>
     <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766746520996</t>
+    <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099494934082</t>
+    <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804342269897</t>
+    <t xml:space="preserve">0.761804401874542</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471713066101</t>
+    <t xml:space="preserve">0.773471653461456</t>
   </si>
   <si>
     <t xml:space="preserve">0.775530457496643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216864585876</t>
+    <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570821285248</t>
+    <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903331279755</t>
+    <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667757511139</t>
+    <t xml:space="preserve">0.768667817115784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335128307343</t>
+    <t xml:space="preserve">0.780335068702698</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236020088196</t>
@@ -275,52 +275,52 @@
     <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748764753341675</t>
+    <t xml:space="preserve">0.74876469373703</t>
   </si>
   <si>
     <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315913200378</t>
+    <t xml:space="preserve">0.791315972805023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76249086856842</t>
+    <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021535396576</t>
+    <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77964860200882</t>
+    <t xml:space="preserve">0.779648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296876907349</t>
+    <t xml:space="preserve">0.802296757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788423538208</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119868755341</t>
+    <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627453327179</t>
+    <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844646453857</t>
+    <t xml:space="preserve">0.774844706058502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78513902425766</t>
+    <t xml:space="preserve">0.785138964653015</t>
   </si>
   <si>
     <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589857578278</t>
+    <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294645309448</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
     <t xml:space="preserve">0.757686853408813</t>
@@ -332,49 +332,49 @@
     <t xml:space="preserve">0.754255175590515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276383876801</t>
+    <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
     <t xml:space="preserve">0.767981290817261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707406044006</t>
+    <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
     <t xml:space="preserve">0.787197649478912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867073059082</t>
   </si>
   <si>
     <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83729887008667</t>
+    <t xml:space="preserve">0.837298810482025</t>
   </si>
   <si>
     <t xml:space="preserve">0.857888281345367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712729930878</t>
+    <t xml:space="preserve">0.886712551116943</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163682460785</t>
+    <t xml:space="preserve">0.879163503646851</t>
   </si>
   <si>
     <t xml:space="preserve">0.84827983379364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849651992321014</t>
+    <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
     <t xml:space="preserve">0.869555771350861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338459014893</t>
+    <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
     <t xml:space="preserve">0.826318025588989</t>
@@ -383,7 +383,7 @@
     <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925877094269</t>
+    <t xml:space="preserve">0.835925817489624</t>
   </si>
   <si>
     <t xml:space="preserve">0.842102825641632</t>
@@ -395,19 +395,19 @@
     <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591195106506</t>
+    <t xml:space="preserve">0.812591075897217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83180844783783</t>
+    <t xml:space="preserve">0.831808388233185</t>
   </si>
   <si>
     <t xml:space="preserve">0.843475759029388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845534563064575</t>
+    <t xml:space="preserve">0.84553450345993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730547904968</t>
+    <t xml:space="preserve">0.840730488300323</t>
   </si>
   <si>
     <t xml:space="preserve">0.873673141002655</t>
@@ -416,28 +416,28 @@
     <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517400741577</t>
+    <t xml:space="preserve">0.891517460346222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281767368317</t>
+    <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986614704132</t>
+    <t xml:space="preserve">0.872986733913422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260618686676</t>
+    <t xml:space="preserve">0.859260559082031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595419883728</t>
+    <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
     <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165797710419</t>
+    <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592489719391</t>
+    <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
     <t xml:space="preserve">0.902589201927185</t>
@@ -446,58 +446,58 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445456504822</t>
+    <t xml:space="preserve">0.905445516109467</t>
   </si>
   <si>
     <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593507766724</t>
+    <t xml:space="preserve">0.887593567371368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880453288555145</t>
+    <t xml:space="preserve">0.8804532289505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599666118622</t>
+    <t xml:space="preserve">0.867599606513977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017627239227</t>
+    <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168549060822</t>
+    <t xml:space="preserve">0.876168489456177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023070335388</t>
+    <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
     <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878310441970825</t>
+    <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889022052288055</t>
+    <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166756153107</t>
+    <t xml:space="preserve">0.881166696548462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732887744904</t>
+    <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.89901864528656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305118083954</t>
+    <t xml:space="preserve">0.898304998874664</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159639358521</t>
+    <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728581905365</t>
+    <t xml:space="preserve">0.914728462696075</t>
   </si>
   <si>
     <t xml:space="preserve">0.914014279842377</t>
@@ -506,31 +506,31 @@
     <t xml:space="preserve">0.910444498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015953540802</t>
+    <t xml:space="preserve">0.909015893936157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90473198890686</t>
+    <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
     <t xml:space="preserve">0.86617124080658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545149564743</t>
+    <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884405612946</t>
+    <t xml:space="preserve">0.871884524822235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885483264923</t>
+    <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.874026536941528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455980300903</t>
+    <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028210639954</t>
+    <t xml:space="preserve">0.869028329849243</t>
   </si>
   <si>
     <t xml:space="preserve">0.877596974372864</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">0.876882791519165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575926780701</t>
+    <t xml:space="preserve">0.94757604598999</t>
   </si>
   <si>
     <t xml:space="preserve">0.953288495540619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294713497162</t>
+    <t xml:space="preserve">0.933294594287872</t>
   </si>
   <si>
     <t xml:space="preserve">0.942577660083771</t>
@@ -557,49 +557,49 @@
     <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275279998779</t>
+    <t xml:space="preserve">0.998275399208069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709148406982</t>
+    <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96114307641983</t>
+    <t xml:space="preserve">0.961143016815186</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859171390533</t>
+    <t xml:space="preserve">0.956859111785889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429489612579</t>
+    <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
     <t xml:space="preserve">0.977567255496979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284070491791</t>
+    <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
     <t xml:space="preserve">0.970426082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848528385162</t>
+    <t xml:space="preserve">0.991848409175873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974711000919342</t>
+    <t xml:space="preserve">0.974710941314697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992273807526</t>
+    <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.999703109264374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990540504456</t>
+    <t xml:space="preserve">0.9939906001091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846854686737</t>
+    <t xml:space="preserve">0.996846795082092</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134285926819</t>
@@ -608,79 +608,79 @@
     <t xml:space="preserve">0.981137692928314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706516265869</t>
+    <t xml:space="preserve">0.989706575870514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133267879486</t>
+    <t xml:space="preserve">0.996133327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978995025157928</t>
+    <t xml:space="preserve">0.978995084762573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569768428802</t>
+    <t xml:space="preserve">0.967569887638092</t>
   </si>
   <si>
     <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002797603607</t>
+    <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430626869202</t>
+    <t xml:space="preserve">0.955430448055267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922583043575287</t>
+    <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296327590942</t>
+    <t xml:space="preserve">0.928296446800232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734680652618</t>
+    <t xml:space="preserve">0.894734561443329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586569786072</t>
+    <t xml:space="preserve">0.912586450576782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876633167267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024744033813</t>
+    <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725770950317</t>
+    <t xml:space="preserve">0.924725890159607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436725616455</t>
+    <t xml:space="preserve">0.935436606407166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93900728225708</t>
+    <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148216724396</t>
+    <t xml:space="preserve">0.946148335933685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000165462494</t>
+    <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866109371185</t>
+    <t xml:space="preserve">0.93186616897583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606782913208</t>
+    <t xml:space="preserve">0.842606723308563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177279949188</t>
+    <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318393230438</t>
+    <t xml:space="preserve">0.853318333625793</t>
   </si>
   <si>
     <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170163154602</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458612442017</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584717273712</t>
+    <t xml:space="preserve">0.917584836483002</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090202331543</t>
@@ -698,10 +698,10 @@
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928644597530365</t>
+    <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068193912506</t>
+    <t xml:space="preserve">0.981068074703217</t>
   </si>
   <si>
     <t xml:space="preserve">0.977323412895203</t>
@@ -710,16 +710,16 @@
     <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579466342926</t>
+    <t xml:space="preserve">0.973579585552216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962345361709595</t>
+    <t xml:space="preserve">0.962345480918884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936133980751038</t>
+    <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666725158691</t>
+    <t xml:space="preserve">0.913666665554047</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">0.846264541149139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86873185634613</t>
+    <t xml:space="preserve">0.86873197555542</t>
   </si>
   <si>
     <t xml:space="preserve">0.861243307590485</t>
@@ -770,13 +770,13 @@
     <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835031151771545</t>
+    <t xml:space="preserve">0.835031270980835</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520654201508</t>
+    <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753924369812</t>
+    <t xml:space="preserve">0.853753983974457</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797941207886</t>
@@ -791,16 +791,16 @@
     <t xml:space="preserve">0.850009262561798</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585785388947</t>
+    <t xml:space="preserve">0.797585844993591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075287818909</t>
+    <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
     <t xml:space="preserve">0.872476637363434</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987194538116</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
@@ -809,16 +809,16 @@
     <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899491131305695</t>
+    <t xml:space="preserve">0.89949107170105</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
+    <t xml:space="preserve">0.92316210269928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051909923553</t>
+    <t xml:space="preserve">0.931051969528198</t>
   </si>
   <si>
     <t xml:space="preserve">0.891600489616394</t>
@@ -827,34 +827,34 @@
     <t xml:space="preserve">0.962613582611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94683313369751</t>
+    <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
     <t xml:space="preserve">0.88371080160141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875820159912109</t>
+    <t xml:space="preserve">0.875820100307465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930352687836</t>
+    <t xml:space="preserve">0.867930293083191</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86003965139389</t>
+    <t xml:space="preserve">0.860039710998535</t>
   </si>
   <si>
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83636873960495</t>
+    <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478932380676</t>
+    <t xml:space="preserve">0.828478991985321</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84425938129425</t>
+    <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
     <t xml:space="preserve">0.796917319297791</t>
@@ -899,28 +899,28 @@
     <t xml:space="preserve">0.74563080072403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465779781342</t>
+    <t xml:space="preserve">0.757465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7298504114151</t>
+    <t xml:space="preserve">0.729850351810455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737740099430084</t>
+    <t xml:space="preserve">0.737740159034729</t>
   </si>
   <si>
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.70617938041687</t>
+    <t xml:space="preserve">0.706179320812225</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014419078827</t>
+    <t xml:space="preserve">0.718014478683472</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -929,10 +929,13 @@
     <t xml:space="preserve">0.7219597697258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588290691376</t>
+    <t xml:space="preserve">0.820588350296021</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923162162303925</t>
   </si>
   <si>
     <t xml:space="preserve">0.898212492465973</t>
@@ -37261,7 +37264,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1370" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37287,7 +37290,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1371" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37313,7 +37316,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1372" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37339,7 +37342,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1373" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37365,7 +37368,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1374" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37391,7 +37394,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1375" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37417,7 +37420,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1376" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37443,7 +37446,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1377" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37469,7 +37472,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1378" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37495,7 +37498,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1379" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37521,7 +37524,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1380" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37547,7 +37550,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1381" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -37573,7 +37576,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1382" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -37599,7 +37602,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1383" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -37625,7 +37628,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1384" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -37651,7 +37654,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1385" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -37677,7 +37680,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1386" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -37703,7 +37706,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1387" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -37729,7 +37732,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1388" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -37755,7 +37758,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1389" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -37781,7 +37784,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1390" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -37807,7 +37810,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1391" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -37833,7 +37836,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1392" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -37859,7 +37862,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1393" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -37885,7 +37888,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1394" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -37911,7 +37914,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1395" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -37937,7 +37940,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1396" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -37963,7 +37966,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1397" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -37989,7 +37992,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1398" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38015,7 +38018,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1399" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38041,7 +38044,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1400" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38067,7 +38070,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1401" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38093,7 +38096,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1402" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38119,7 +38122,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1403" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38145,7 +38148,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1404" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38171,7 +38174,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1405" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38197,7 +38200,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1406" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38223,7 +38226,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1407" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38249,7 +38252,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1408" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38275,7 +38278,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1409" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38301,7 +38304,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1410" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38327,7 +38330,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1411" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38353,7 +38356,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1412" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38379,7 +38382,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1413" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38405,7 +38408,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1414" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38431,7 +38434,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1415" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38457,7 +38460,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1416" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38483,7 +38486,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1417" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38509,7 +38512,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1418" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38535,7 +38538,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1419" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38587,7 +38590,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1421" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38613,7 +38616,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1422" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38639,7 +38642,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1423" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38665,7 +38668,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1424" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38691,7 +38694,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1425" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -38717,7 +38720,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1426" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -38743,7 +38746,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1427" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -38769,7 +38772,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1428" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -38795,7 +38798,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1429" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -38821,7 +38824,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1430" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -38847,7 +38850,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1431" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -38873,7 +38876,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1432" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -38899,7 +38902,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1433" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -38925,7 +38928,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1434" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -38951,7 +38954,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1435" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -38977,7 +38980,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1436" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39003,7 +39006,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1437" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39029,7 +39032,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1438" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39055,7 +39058,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1439" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39081,7 +39084,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1440" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39107,7 +39110,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1441" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39133,7 +39136,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1442" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39159,7 +39162,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1443" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39185,7 +39188,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1444" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39211,7 +39214,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1445" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39237,7 +39240,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1446" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39263,7 +39266,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1447" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39289,7 +39292,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1448" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39315,7 +39318,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1449" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39341,7 +39344,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1450" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39367,7 +39370,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1451" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39393,7 +39396,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1452" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39419,7 +39422,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1453" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39445,7 +39448,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1454" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39471,7 +39474,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1455" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39497,7 +39500,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1456" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39523,7 +39526,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1457" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39549,7 +39552,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1458" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39575,7 +39578,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1459" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -39601,7 +39604,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1460" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -39627,7 +39630,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1461" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -39653,7 +39656,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1462" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -39679,7 +39682,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1463" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -39731,7 +39734,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1465" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -39757,7 +39760,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1466" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -39783,7 +39786,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1467" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -39809,7 +39812,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1468" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -39835,7 +39838,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1469" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -39861,7 +39864,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1470" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -39887,7 +39890,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1471" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -39913,7 +39916,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1472" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -39939,7 +39942,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1473" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -39965,7 +39968,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1474" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -39991,7 +39994,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1475" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40017,7 +40020,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1476" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40043,7 +40046,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1477" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40069,7 +40072,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1478" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40095,7 +40098,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1479" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40121,7 +40124,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1480" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40147,7 +40150,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1481" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40173,7 +40176,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1482" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40199,7 +40202,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1483" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40225,7 +40228,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1484" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40251,7 +40254,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1485" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40277,7 +40280,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1486" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40303,7 +40306,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1487" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40329,7 +40332,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1488" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40355,7 +40358,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1489" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40381,7 +40384,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1490" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40407,7 +40410,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1491" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40433,7 +40436,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1492" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40459,7 +40462,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1493" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40485,7 +40488,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1494" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40511,7 +40514,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1495" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40537,7 +40540,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1496" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40563,7 +40566,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1497" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -40589,7 +40592,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1498" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -40615,7 +40618,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1499" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -40641,7 +40644,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1500" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -40667,7 +40670,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1501" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -40693,7 +40696,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1502" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -40719,7 +40722,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1503" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -40745,7 +40748,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1504" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -40771,7 +40774,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1505" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -40797,7 +40800,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1506" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -40875,7 +40878,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1509" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -40901,7 +40904,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1510" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -40927,7 +40930,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1511" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -40953,7 +40956,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1512" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -40979,7 +40982,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1513" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41031,7 +41034,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1515" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41057,7 +41060,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1516" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41083,7 +41086,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1517" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41109,7 +41112,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1518" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41135,7 +41138,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1519" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41161,7 +41164,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1520" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41187,7 +41190,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1521" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41213,7 +41216,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1522" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41239,7 +41242,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1523" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41265,7 +41268,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1524" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41291,7 +41294,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1525" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41317,7 +41320,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1526" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41343,7 +41346,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1527" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41369,7 +41372,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1528" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41395,7 +41398,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1529" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41421,7 +41424,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1530" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41447,7 +41450,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1531" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41473,7 +41476,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1532" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41499,7 +41502,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1533" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41525,7 +41528,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1534" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41551,7 +41554,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1535" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41577,7 +41580,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1536" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -41603,7 +41606,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1537" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -41629,7 +41632,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1538" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -41655,7 +41658,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1539" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -41681,7 +41684,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1540" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -41707,7 +41710,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1541" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -41733,7 +41736,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1542" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -41759,7 +41762,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1543" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -41785,7 +41788,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1544" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -41811,7 +41814,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1545" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -41837,7 +41840,7 @@
         <v>1.10685801506042</v>
       </c>
       <c r="G1546" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -41863,7 +41866,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1547" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -41889,7 +41892,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1548" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -41915,7 +41918,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1549" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -41941,7 +41944,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1550" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -41967,7 +41970,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1551" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -41993,7 +41996,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1552" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42019,7 +42022,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1553" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42045,7 +42048,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1554" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42071,7 +42074,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1555" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42097,7 +42100,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1556" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42123,7 +42126,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1557" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42149,7 +42152,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1558" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42201,7 +42204,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1560" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42227,7 +42230,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1561" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42253,7 +42256,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1562" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42279,7 +42282,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1563" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42331,7 +42334,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1565" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42357,7 +42360,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1566" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42383,7 +42386,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1567" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42409,7 +42412,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1568" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42435,7 +42438,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1569" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42461,7 +42464,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1570" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42487,7 +42490,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1571" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42513,7 +42516,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1572" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42539,7 +42542,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1573" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42565,7 +42568,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1574" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42591,7 +42594,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1575" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42617,7 +42620,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1576" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42643,7 +42646,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1577" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42669,7 +42672,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1578" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42981,7 +42984,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1590" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43007,7 +43010,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1591" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43033,7 +43036,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1592" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43059,7 +43062,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1593" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43085,7 +43088,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1594" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43111,7 +43114,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1595" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43137,7 +43140,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1596" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43163,7 +43166,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1597" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43189,7 +43192,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1598" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43215,7 +43218,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1599" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43241,7 +43244,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1600" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43267,7 +43270,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1601" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43397,7 +43400,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1606" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43423,7 +43426,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1607" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43449,7 +43452,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1608" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43475,7 +43478,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1609" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43501,7 +43504,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1610" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43527,7 +43530,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1611" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43553,7 +43556,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1612" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43579,7 +43582,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1613" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43605,7 +43608,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1614" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43631,7 +43634,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1615" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43657,7 +43660,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1616" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43683,7 +43686,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1617" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43709,7 +43712,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1618" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43735,7 +43738,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1619" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43761,7 +43764,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1620" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43787,7 +43790,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1621" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43813,7 +43816,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1622" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43839,7 +43842,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1623" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43865,7 +43868,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1624" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43891,7 +43894,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1625" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43917,7 +43920,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1626" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43943,7 +43946,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1627" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43969,7 +43972,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1628" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43995,7 +43998,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1629" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44021,7 +44024,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1630" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44047,7 +44050,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1631" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44073,7 +44076,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1632" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44099,7 +44102,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1633" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44125,7 +44128,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1634" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44151,7 +44154,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1635" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44177,7 +44180,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1636" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44203,7 +44206,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1637" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44229,7 +44232,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44255,7 +44258,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44281,7 +44284,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44307,7 +44310,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44333,7 +44336,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44359,7 +44362,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44385,7 +44388,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44411,7 +44414,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44437,7 +44440,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44463,7 +44466,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44489,7 +44492,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44515,7 +44518,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44541,7 +44544,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44567,7 +44570,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44593,7 +44596,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44619,7 +44622,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44645,7 +44648,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44671,7 +44674,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44697,7 +44700,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44723,7 +44726,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44749,7 +44752,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1658" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44775,7 +44778,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44801,7 +44804,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44827,7 +44830,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44853,7 +44856,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44879,7 +44882,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44905,7 +44908,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44931,7 +44934,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44957,7 +44960,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44983,7 +44986,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45009,7 +45012,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45035,7 +45038,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45061,7 +45064,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45087,7 +45090,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1671" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45113,7 +45116,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1672" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45139,7 +45142,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45165,7 +45168,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45191,7 +45194,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45217,7 +45220,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45243,7 +45246,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1677" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45269,7 +45272,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1678" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45295,7 +45298,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1679" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45321,7 +45324,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1680" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45347,7 +45350,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1681" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45373,7 +45376,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1682" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45399,7 +45402,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1683" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45425,7 +45428,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1684" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45451,7 +45454,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1685" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45477,7 +45480,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45503,7 +45506,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45529,7 +45532,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45555,7 +45558,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45581,7 +45584,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45607,7 +45610,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45633,7 +45636,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45659,7 +45662,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45685,7 +45688,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45711,7 +45714,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45737,7 +45740,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45763,7 +45766,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45789,7 +45792,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45815,7 +45818,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45841,7 +45844,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45867,7 +45870,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45893,7 +45896,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45919,7 +45922,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45945,7 +45948,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45971,7 +45974,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45997,7 +46000,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46023,7 +46026,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46049,7 +46052,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46075,7 +46078,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46101,7 +46104,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46127,7 +46130,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46153,7 +46156,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46179,7 +46182,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46205,7 +46208,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46231,7 +46234,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46257,7 +46260,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46283,7 +46286,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46309,7 +46312,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46335,7 +46338,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46361,7 +46364,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46387,7 +46390,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46413,7 +46416,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46439,7 +46442,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46465,7 +46468,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46491,7 +46494,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46517,7 +46520,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46543,7 +46546,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46569,7 +46572,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46595,7 +46598,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46621,7 +46624,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46647,7 +46650,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46673,7 +46676,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46699,7 +46702,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46725,7 +46728,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46751,7 +46754,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46777,7 +46780,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46803,7 +46806,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46829,7 +46832,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46855,7 +46858,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46881,7 +46884,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46907,7 +46910,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46933,7 +46936,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46959,7 +46962,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46985,7 +46988,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47011,7 +47014,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47037,7 +47040,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47063,7 +47066,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47089,7 +47092,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47115,7 +47118,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47141,7 +47144,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47167,7 +47170,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47193,7 +47196,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47219,7 +47222,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47245,7 +47248,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47271,7 +47274,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47297,7 +47300,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47323,7 +47326,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47349,7 +47352,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47375,7 +47378,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47401,7 +47404,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47427,7 +47430,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47453,7 +47456,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47479,7 +47482,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47505,7 +47508,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47531,7 +47534,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47557,7 +47560,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47583,7 +47586,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47609,7 +47612,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47635,7 +47638,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47661,7 +47664,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47687,7 +47690,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47713,7 +47716,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47739,7 +47742,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47765,7 +47768,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47791,7 +47794,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47817,7 +47820,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47843,7 +47846,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47869,7 +47872,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47895,7 +47898,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47921,7 +47924,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47947,7 +47950,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47973,7 +47976,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47999,7 +48002,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48025,7 +48028,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48051,7 +48054,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48077,7 +48080,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48103,7 +48106,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48129,7 +48132,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48155,7 +48158,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48181,7 +48184,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48207,7 +48210,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48233,7 +48236,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48259,7 +48262,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48285,7 +48288,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48311,7 +48314,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48337,7 +48340,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48363,7 +48366,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48389,7 +48392,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48415,7 +48418,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48441,7 +48444,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48467,7 +48470,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48493,7 +48496,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48519,7 +48522,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48545,7 +48548,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48571,7 +48574,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48597,7 +48600,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48623,7 +48626,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48649,7 +48652,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48675,7 +48678,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48701,7 +48704,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48727,7 +48730,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48753,7 +48756,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48779,7 +48782,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48805,7 +48808,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48831,7 +48834,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48857,7 +48860,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48883,7 +48886,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48909,7 +48912,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48935,7 +48938,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48961,7 +48964,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48987,7 +48990,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49013,7 +49016,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49039,7 +49042,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49065,7 +49068,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49091,7 +49094,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49117,7 +49120,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49143,7 +49146,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49169,7 +49172,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49195,7 +49198,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49221,7 +49224,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49247,7 +49250,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49273,7 +49276,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49299,7 +49302,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49325,7 +49328,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49351,7 +49354,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49377,7 +49380,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1836" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49403,7 +49406,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49429,7 +49432,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49455,7 +49458,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1839" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49481,7 +49484,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1840" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49507,7 +49510,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49533,7 +49536,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1842" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49559,7 +49562,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1843" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49585,7 +49588,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1844" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49611,7 +49614,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49637,7 +49640,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49663,7 +49666,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49689,7 +49692,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49715,7 +49718,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49741,7 +49744,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49767,7 +49770,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49793,7 +49796,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49819,7 +49822,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49845,7 +49848,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49871,7 +49874,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49897,7 +49900,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49923,7 +49926,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1857" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49949,7 +49952,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49975,7 +49978,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50001,7 +50004,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50027,7 +50030,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50053,7 +50056,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50079,7 +50082,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50105,7 +50108,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50131,7 +50134,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50157,7 +50160,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50183,7 +50186,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50209,7 +50212,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50235,7 +50238,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50261,7 +50264,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50287,7 +50290,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50313,7 +50316,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50339,7 +50342,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50365,7 +50368,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50391,7 +50394,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50417,7 +50420,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50443,7 +50446,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50469,7 +50472,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50495,7 +50498,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50521,7 +50524,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50547,7 +50550,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50573,7 +50576,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50599,7 +50602,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50625,7 +50628,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50651,7 +50654,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50677,7 +50680,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50703,7 +50706,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50729,7 +50732,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50755,7 +50758,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50781,7 +50784,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50807,7 +50810,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50833,7 +50836,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50859,7 +50862,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50885,7 +50888,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50911,7 +50914,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50937,7 +50940,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50963,7 +50966,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50989,7 +50992,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51015,7 +51018,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51041,7 +51044,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51067,7 +51070,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51093,7 +51096,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51119,7 +51122,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51145,7 +51148,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51171,7 +51174,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51197,7 +51200,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51223,7 +51226,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51249,7 +51252,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51275,7 +51278,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51301,7 +51304,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51327,7 +51330,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51353,7 +51356,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51379,7 +51382,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51405,7 +51408,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51431,7 +51434,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51457,7 +51460,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51483,7 +51486,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51509,7 +51512,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51535,7 +51538,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51561,7 +51564,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51587,7 +51590,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51613,7 +51616,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51639,7 +51642,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51665,7 +51668,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51691,7 +51694,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51717,7 +51720,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51743,7 +51746,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51769,7 +51772,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51795,7 +51798,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51821,7 +51824,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51847,7 +51850,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51873,7 +51876,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51899,7 +51902,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51925,7 +51928,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51951,7 +51954,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51977,7 +51980,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52003,7 +52006,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52029,7 +52032,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52055,7 +52058,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52081,7 +52084,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52107,7 +52110,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52133,7 +52136,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52159,7 +52162,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52185,7 +52188,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52211,7 +52214,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52237,7 +52240,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52263,7 +52266,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52289,7 +52292,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52315,7 +52318,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52341,7 +52344,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52367,7 +52370,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52393,7 +52396,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52419,7 +52422,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52445,7 +52448,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52471,7 +52474,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52497,7 +52500,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52523,7 +52526,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52549,7 +52552,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52575,7 +52578,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52601,7 +52604,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52627,7 +52630,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52653,7 +52656,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52679,7 +52682,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52705,7 +52708,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52731,7 +52734,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52757,7 +52760,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52783,7 +52786,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52809,7 +52812,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52835,7 +52838,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52861,7 +52864,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52887,7 +52890,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52913,7 +52916,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52939,7 +52942,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52965,7 +52968,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52991,7 +52994,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53017,7 +53020,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53043,7 +53046,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53069,7 +53072,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53095,7 +53098,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53121,7 +53124,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53147,7 +53150,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53173,7 +53176,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53199,7 +53202,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53225,7 +53228,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53251,7 +53254,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53277,7 +53280,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53303,7 +53306,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53329,7 +53332,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53355,7 +53358,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53381,7 +53384,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53407,7 +53410,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53433,7 +53436,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53459,7 +53462,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53485,7 +53488,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53511,7 +53514,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53537,7 +53540,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53563,7 +53566,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53589,7 +53592,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53615,7 +53618,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53641,7 +53644,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53667,7 +53670,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53693,7 +53696,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53719,7 +53722,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53745,7 +53748,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53771,7 +53774,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53797,7 +53800,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53823,7 +53826,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53849,7 +53852,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53875,7 +53878,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53901,7 +53904,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53927,7 +53930,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53953,7 +53956,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53979,7 +53982,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54005,7 +54008,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54031,7 +54034,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54057,7 +54060,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54083,7 +54086,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54109,7 +54112,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54135,7 +54138,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54161,7 +54164,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54187,7 +54190,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54213,7 +54216,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54239,7 +54242,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54265,7 +54268,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54291,7 +54294,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54317,7 +54320,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54343,7 +54346,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54369,7 +54372,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54395,7 +54398,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54421,7 +54424,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54447,7 +54450,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54473,7 +54476,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54499,7 +54502,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54525,7 +54528,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54551,7 +54554,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54577,7 +54580,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54603,7 +54606,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54629,7 +54632,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54655,7 +54658,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54681,7 +54684,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54707,7 +54710,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54733,7 +54736,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54759,7 +54762,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54785,7 +54788,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54811,7 +54814,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54837,7 +54840,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54863,7 +54866,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54889,7 +54892,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54915,7 +54918,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54941,7 +54944,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54967,7 +54970,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54993,7 +54996,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55019,7 +55022,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55045,7 +55048,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55071,7 +55074,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55097,7 +55100,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55123,7 +55126,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55149,7 +55152,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55175,7 +55178,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55201,7 +55204,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55227,7 +55230,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55253,7 +55256,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55279,7 +55282,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55305,7 +55308,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55331,7 +55334,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55357,7 +55360,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55383,7 +55386,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55409,7 +55412,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55435,7 +55438,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55461,7 +55464,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55487,7 +55490,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55513,7 +55516,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55539,7 +55542,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55565,7 +55568,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55591,7 +55594,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55617,7 +55620,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55643,7 +55646,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55669,7 +55672,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55695,7 +55698,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55721,7 +55724,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55747,7 +55750,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55773,7 +55776,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55799,7 +55802,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55825,7 +55828,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55851,7 +55854,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55877,7 +55880,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55903,7 +55906,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55929,7 +55932,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55955,7 +55958,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55981,7 +55984,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56007,7 +56010,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56033,7 +56036,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56059,7 +56062,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56085,7 +56088,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56111,7 +56114,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56137,7 +56140,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56163,7 +56166,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56189,7 +56192,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56215,7 +56218,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56241,7 +56244,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56267,7 +56270,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56293,7 +56296,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56319,7 +56322,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56345,7 +56348,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56371,7 +56374,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56397,7 +56400,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56423,7 +56426,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56449,7 +56452,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56475,7 +56478,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56501,7 +56504,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56527,7 +56530,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56553,7 +56556,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56579,7 +56582,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56605,7 +56608,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56631,7 +56634,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56657,7 +56660,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56683,7 +56686,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56709,7 +56712,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56735,7 +56738,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56761,7 +56764,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56787,7 +56790,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56813,7 +56816,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56839,7 +56842,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56865,7 +56868,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56891,7 +56894,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56917,7 +56920,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56943,7 +56946,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56969,7 +56972,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56995,7 +56998,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57021,7 +57024,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57047,7 +57050,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57073,7 +57076,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57099,7 +57102,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57125,7 +57128,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57151,7 +57154,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57177,7 +57180,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57203,7 +57206,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57229,7 +57232,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57255,7 +57258,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57281,7 +57284,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57307,7 +57310,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57333,7 +57336,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57359,7 +57362,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57385,7 +57388,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57411,7 +57414,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57437,7 +57440,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57463,7 +57466,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57489,7 +57492,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57515,7 +57518,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57541,7 +57544,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2150" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57567,7 +57570,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2151" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57593,7 +57596,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2152" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57619,7 +57622,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2153" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57645,7 +57648,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2154" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57671,7 +57674,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2155" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57697,7 +57700,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2156" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57723,7 +57726,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2157" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57749,7 +57752,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2158" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57775,7 +57778,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2159" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57801,7 +57804,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2160" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57827,7 +57830,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2161" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57853,7 +57856,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2162" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57879,7 +57882,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2163" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57887,7 +57890,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6224768519</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>2080</v>
@@ -57905,7 +57908,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2164" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -47,100 +47,100 @@
     <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815986633301</t>
+    <t xml:space="preserve">0.801816046237946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79641580581665</t>
+    <t xml:space="preserve">0.796415746212006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790680408478</t>
+    <t xml:space="preserve">0.799790561199188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441112041473</t>
+    <t xml:space="preserve">0.798441231250763</t>
   </si>
   <si>
     <t xml:space="preserve">0.795066356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667069911957</t>
+    <t xml:space="preserve">0.789667010307312</t>
   </si>
   <si>
     <t xml:space="preserve">0.793716132640839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82341343164444</t>
+    <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
     <t xml:space="preserve">0.876057744026184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661546707153</t>
+    <t xml:space="preserve">0.843661427497864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390882730484</t>
+    <t xml:space="preserve">0.863908886909485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961992740631</t>
+    <t xml:space="preserve">0.840961754322052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824763000011444</t>
+    <t xml:space="preserve">0.824762880802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236715316772</t>
+    <t xml:space="preserve">0.836236774921417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713698863983</t>
+    <t xml:space="preserve">0.820713818073273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915065765381</t>
+    <t xml:space="preserve">0.809915006160736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917499542236</t>
+    <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797091007232666</t>
+    <t xml:space="preserve">0.797090888023376</t>
   </si>
   <si>
     <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264455318451</t>
+    <t xml:space="preserve">0.811264634132385</t>
   </si>
   <si>
     <t xml:space="preserve">0.799115538597107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840577602386</t>
+    <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80923992395401</t>
+    <t xml:space="preserve">0.809239983558655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802490413188934</t>
+    <t xml:space="preserve">0.802490293979645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140904426575</t>
+    <t xml:space="preserve">0.80114084482193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540310382843</t>
+    <t xml:space="preserve">0.806540191173553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741438865662</t>
+    <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
     <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788316786289215</t>
+    <t xml:space="preserve">0.78831672668457</t>
   </si>
   <si>
     <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813288986682892</t>
+    <t xml:space="preserve">0.813289105892181</t>
   </si>
   <si>
     <t xml:space="preserve">0.822738349437714</t>
@@ -149,22 +149,22 @@
     <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038557052612</t>
+    <t xml:space="preserve">0.820038616657257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363594055176</t>
+    <t xml:space="preserve">0.819363534450531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639270305634</t>
+    <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939775943756</t>
+    <t xml:space="preserve">0.811939597129822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886288166046</t>
@@ -176,100 +176,100 @@
     <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827543735504</t>
+    <t xml:space="preserve">0.820827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824258506298065</t>
+    <t xml:space="preserve">0.824258387088776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395925521851</t>
+    <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
     <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277721405029</t>
+    <t xml:space="preserve">0.81327760219574</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905384063721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454491138458</t>
+    <t xml:space="preserve">0.819454669952393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845924377441</t>
+    <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257287979126</t>
+    <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983403205872</t>
+    <t xml:space="preserve">0.802983343601227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473706245422</t>
+    <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
     <t xml:space="preserve">0.80641496181488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061124324799</t>
+    <t xml:space="preserve">0.794061183929443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553718566895</t>
+    <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
     <t xml:space="preserve">0.830435454845428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355561733246</t>
+    <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393872737885</t>
+    <t xml:space="preserve">0.78239381313324</t>
   </si>
   <si>
     <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099435329437</t>
+    <t xml:space="preserve">0.772099494934082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804401874542</t>
+    <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471653461456</t>
+    <t xml:space="preserve">0.773471772670746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530457496643</t>
+    <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
     <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570761680603</t>
+    <t xml:space="preserve">0.788570821285248</t>
   </si>
   <si>
     <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667817115784</t>
+    <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335068702698</t>
+    <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765236020088196</t>
+    <t xml:space="preserve">0.765235960483551</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059131145477</t>
+    <t xml:space="preserve">0.759059190750122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313979625702</t>
   </si>
   <si>
     <t xml:space="preserve">0.754941701889038</t>
@@ -278,46 +278,46 @@
     <t xml:space="preserve">0.74876469373703</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078286647797</t>
+    <t xml:space="preserve">0.748078227043152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315972805023</t>
+    <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
     <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021535396576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779648542404175</t>
+    <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296757698059</t>
+    <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
     <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119928359985</t>
+    <t xml:space="preserve">0.796119868755341</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627393722534</t>
+    <t xml:space="preserve">0.755627453327179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844586849213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785138964653015</t>
+    <t xml:space="preserve">0.78513902425766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610350608826</t>
+    <t xml:space="preserve">0.80161041021347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589917182922</t>
+    <t xml:space="preserve">0.777589857578278</t>
   </si>
   <si>
     <t xml:space="preserve">0.767294704914093</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">0.746705949306488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754255175590515</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276324272156</t>
@@ -338,52 +338,52 @@
     <t xml:space="preserve">0.767981290817261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707346439362</t>
+    <t xml:space="preserve">0.781707406044006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197649478912</t>
+    <t xml:space="preserve">0.787197709083557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867073059082</t>
+    <t xml:space="preserve">0.833867132663727</t>
   </si>
   <si>
     <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298810482025</t>
+    <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888281345367</t>
+    <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
     <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712551116943</t>
+    <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163503646851</t>
+    <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84827983379364</t>
+    <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84965193271637</t>
+    <t xml:space="preserve">0.849651873111725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555771350861</t>
+    <t xml:space="preserve">0.869555830955505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338518619537</t>
+    <t xml:space="preserve">0.850338399410248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826318025588989</t>
+    <t xml:space="preserve">0.826317965984344</t>
   </si>
   <si>
     <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925817489624</t>
+    <t xml:space="preserve">0.835925936698914</t>
   </si>
   <si>
     <t xml:space="preserve">0.842102825641632</t>
@@ -392,40 +392,40 @@
     <t xml:space="preserve">0.828376770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160232543945</t>
+    <t xml:space="preserve">0.809160172939301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591075897217</t>
+    <t xml:space="preserve">0.812591135501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831808388233185</t>
+    <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
     <t xml:space="preserve">0.843475759029388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553450345993</t>
+    <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730488300323</t>
+    <t xml:space="preserve">0.840730547904968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.873673260211945</t>
   </si>
   <si>
     <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517460346222</t>
+    <t xml:space="preserve">0.891517341136932</t>
   </si>
   <si>
     <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986733913422</t>
+    <t xml:space="preserve">0.872986793518066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260618686676</t>
   </si>
   <si>
     <t xml:space="preserve">0.882595300674438</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165857315063</t>
+    <t xml:space="preserve">0.886165738105774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89259260892868</t>
+    <t xml:space="preserve">0.892592549324036</t>
   </si>
   <si>
     <t xml:space="preserve">0.902589201927185</t>
@@ -446,10 +446,10 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445516109467</t>
+    <t xml:space="preserve">0.905445396900177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873941421509</t>
+    <t xml:space="preserve">0.906873881816864</t>
   </si>
   <si>
     <t xml:space="preserve">0.887593567371368</t>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">0.8804532289505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599606513977</t>
+    <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017686843872</t>
+    <t xml:space="preserve">0.904017627239227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168489456177</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
     <t xml:space="preserve">0.884023010730743</t>
@@ -476,34 +476,34 @@
     <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8890221118927</t>
+    <t xml:space="preserve">0.889022052288055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166696548462</t>
+    <t xml:space="preserve">0.881166756153107</t>
   </si>
   <si>
     <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89901864528656</t>
+    <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898304998874664</t>
+    <t xml:space="preserve">0.898305058479309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159698963165</t>
+    <t xml:space="preserve">0.90615975856781</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728462696075</t>
+    <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
     <t xml:space="preserve">0.914014279842377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444438457489</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015893936157</t>
@@ -512,43 +512,43 @@
     <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617124080658</t>
+    <t xml:space="preserve">0.866171181201935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885451555252075</t>
+    <t xml:space="preserve">0.88545161485672</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884524822235</t>
+    <t xml:space="preserve">0.871884405612946</t>
   </si>
   <si>
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026536941528</t>
+    <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
     <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028329849243</t>
+    <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596974372864</t>
+    <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876882791519165</t>
+    <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
     <t xml:space="preserve">0.94757604598999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288495540619</t>
+    <t xml:space="preserve">0.953288555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294594287872</t>
+    <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577660083771</t>
+    <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
     <t xml:space="preserve">0.924011588096619</t>
@@ -560,112 +560,112 @@
     <t xml:space="preserve">0.998275399208069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709208011627</t>
+    <t xml:space="preserve">0.979709148406982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143016815186</t>
+    <t xml:space="preserve">0.961142957210541</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859111785889</t>
+    <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429549217224</t>
+    <t xml:space="preserve">0.960429489612579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567255496979</t>
+    <t xml:space="preserve">0.977567136287689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284130096436</t>
+    <t xml:space="preserve">0.968284070491791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426082611084</t>
+    <t xml:space="preserve">0.970426201820374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848409175873</t>
+    <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710941314697</t>
+    <t xml:space="preserve">0.974711000919342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992214202881</t>
+    <t xml:space="preserve">0.988992154598236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999703109264374</t>
+    <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9939906001091</t>
+    <t xml:space="preserve">0.993990421295166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846795082092</t>
+    <t xml:space="preserve">0.996846973896027</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137692928314</t>
+    <t xml:space="preserve">0.981137573719025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706575870514</t>
+    <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133327484131</t>
+    <t xml:space="preserve">0.996133267879486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978995084762573</t>
+    <t xml:space="preserve">0.978994905948639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569887638092</t>
+    <t xml:space="preserve">0.967569768428802</t>
   </si>
   <si>
     <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002737998962</t>
+    <t xml:space="preserve">0.954002797603607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430448055267</t>
+    <t xml:space="preserve">0.955430626869202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582983970642</t>
+    <t xml:space="preserve">0.922583103179932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296446800232</t>
+    <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734561443329</t>
+    <t xml:space="preserve">0.894734621047974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586450576782</t>
+    <t xml:space="preserve">0.912586510181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876633167267</t>
+    <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024803638458</t>
+    <t xml:space="preserve">0.879024624824524</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725890159607</t>
+    <t xml:space="preserve">0.924725711345673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436606407166</t>
+    <t xml:space="preserve">0.93543666601181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007222652435</t>
+    <t xml:space="preserve">0.93900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148335933685</t>
+    <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.964000046253204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93186616897583</t>
+    <t xml:space="preserve">0.931866109371185</t>
   </si>
   <si>
     <t xml:space="preserve">0.842606723308563</t>
@@ -674,13 +674,13 @@
     <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318333625793</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83903706073761</t>
+    <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170163154602</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458612442017</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584836483002</t>
+    <t xml:space="preserve">0.917584717273712</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090202331543</t>
@@ -698,31 +698,31 @@
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92864465713501</t>
+    <t xml:space="preserve">0.928644716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068074703217</t>
+    <t xml:space="preserve">0.981068134307861</t>
   </si>
   <si>
     <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622648715973</t>
+    <t xml:space="preserve">0.943622589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579585552216</t>
+    <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962345480918884</t>
+    <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
     <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666665554047</t>
+    <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856812953949</t>
+    <t xml:space="preserve">0.954856753349304</t>
   </si>
   <si>
     <t xml:space="preserve">0.909921944141388</t>
@@ -740,73 +740,73 @@
     <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155214309692</t>
+    <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
     <t xml:space="preserve">0.876221358776093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411327362061</t>
+    <t xml:space="preserve">0.917411267757416</t>
   </si>
   <si>
     <t xml:space="preserve">0.89494401216507</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709907531738</t>
+    <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879966020584106</t>
+    <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264541149139</t>
+    <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86873197555542</t>
+    <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243307590485</t>
+    <t xml:space="preserve">0.861243367195129</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835031270980835</t>
+    <t xml:space="preserve">0.835031151771545</t>
   </si>
   <si>
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753983974457</t>
+    <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797941207886</t>
+    <t xml:space="preserve">0.823797881603241</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775932788849</t>
+    <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850009262561798</t>
+    <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585844993591</t>
+    <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075228214264</t>
+    <t xml:space="preserve">0.805075287818909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476637363434</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987194538116</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90738171339035</t>
+    <t xml:space="preserve">0.907381772994995</t>
   </si>
   <si>
     <t xml:space="preserve">0.89949107170105</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92316210269928</t>
+    <t xml:space="preserve">0.923162221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051969528198</t>
+    <t xml:space="preserve">0.931051850318909</t>
   </si>
   <si>
     <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613582611084</t>
+    <t xml:space="preserve">0.962613523006439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833193302155</t>
+    <t xml:space="preserve">0.946833074092865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88371080160141</t>
+    <t xml:space="preserve">0.883710741996765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875820100307465</t>
+    <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930293083191</t>
+    <t xml:space="preserve">0.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836368680000305</t>
+    <t xml:space="preserve">0.83636873960495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478991985321</t>
+    <t xml:space="preserve">0.828478872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -866,16 +866,16 @@
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191519737244</t>
+    <t xml:space="preserve">0.777191579341888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807841777802</t>
+    <t xml:space="preserve">0.804807901382446</t>
   </si>
   <si>
     <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082161426544</t>
+    <t xml:space="preserve">0.785082221031189</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -896,31 +896,31 @@
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74563080072403</t>
+    <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465839385986</t>
+    <t xml:space="preserve">0.757465779781342</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729850351810455</t>
+    <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737740159034729</t>
+    <t xml:space="preserve">0.737740099430084</t>
   </si>
   <si>
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.706179320812225</t>
+    <t xml:space="preserve">0.70617938041687</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014478683472</t>
+    <t xml:space="preserve">0.718014419078827</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -929,22 +929,19 @@
     <t xml:space="preserve">0.7219597697258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588350296021</t>
+    <t xml:space="preserve">0.820588290691376</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906528770923615</t>
+    <t xml:space="preserve">0.90652871131897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939795553684235</t>
+    <t xml:space="preserve">0.93979549407959</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -968,13 +965,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063230514526</t>
+    <t xml:space="preserve">0.973063290119171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746057987213</t>
+    <t xml:space="preserve">0.964746117591858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379449367523</t>
+    <t xml:space="preserve">0.981379389762878</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -983,7 +980,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146472454071</t>
+    <t xml:space="preserve">1.01464712619781</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1005,6 +1002,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -37264,7 +37264,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1370" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37290,7 +37290,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1371" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37316,7 +37316,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1372" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37342,7 +37342,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1373" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37368,7 +37368,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1374" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37394,7 +37394,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1375" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37420,7 +37420,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1376" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37446,7 +37446,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1377" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37472,7 +37472,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1378" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37498,7 +37498,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1379" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37524,7 +37524,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1380" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37550,7 +37550,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1381" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -37576,7 +37576,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1382" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -37602,7 +37602,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1383" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -37628,7 +37628,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1384" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -37654,7 +37654,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1385" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -37680,7 +37680,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1386" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -37706,7 +37706,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1387" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -37732,7 +37732,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1388" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -37758,7 +37758,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1389" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -37784,7 +37784,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1390" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -37810,7 +37810,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1391" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -37836,7 +37836,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1392" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -37862,7 +37862,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1393" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -37888,7 +37888,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1394" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -37914,7 +37914,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1395" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -37940,7 +37940,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1396" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -37966,7 +37966,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1397" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -37992,7 +37992,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1398" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38018,7 +38018,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1399" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38044,7 +38044,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1400" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38070,7 +38070,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1401" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38096,7 +38096,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1402" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38122,7 +38122,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1403" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38148,7 +38148,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1404" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38174,7 +38174,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1405" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38200,7 +38200,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1406" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38226,7 +38226,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1407" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38252,7 +38252,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1408" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38278,7 +38278,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1409" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38304,7 +38304,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1410" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38330,7 +38330,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1411" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38356,7 +38356,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1412" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38382,7 +38382,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1413" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38408,7 +38408,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1414" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38434,7 +38434,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1415" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38460,7 +38460,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1416" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38486,7 +38486,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1417" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38512,7 +38512,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1418" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38538,7 +38538,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1419" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38590,7 +38590,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1421" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38616,7 +38616,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1422" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38642,7 +38642,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1423" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38668,7 +38668,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1424" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38694,7 +38694,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1425" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -38720,7 +38720,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1426" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -38746,7 +38746,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1427" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -38772,7 +38772,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1428" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -38798,7 +38798,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1429" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -38824,7 +38824,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1430" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -38850,7 +38850,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1431" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -38876,7 +38876,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1432" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -38902,7 +38902,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1433" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -38928,7 +38928,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1434" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -38954,7 +38954,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1435" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -38980,7 +38980,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1436" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39006,7 +39006,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1437" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39032,7 +39032,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1438" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39058,7 +39058,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1439" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39084,7 +39084,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1440" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39110,7 +39110,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1441" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39136,7 +39136,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1442" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39162,7 +39162,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1443" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39188,7 +39188,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1444" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39214,7 +39214,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1445" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39240,7 +39240,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1446" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39266,7 +39266,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1447" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39292,7 +39292,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1448" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39318,7 +39318,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1449" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39344,7 +39344,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1450" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39370,7 +39370,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1451" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39396,7 +39396,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1452" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39422,7 +39422,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1453" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39448,7 +39448,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1454" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39474,7 +39474,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1455" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39500,7 +39500,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1456" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39526,7 +39526,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1457" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39552,7 +39552,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1458" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39578,7 +39578,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1459" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -39604,7 +39604,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1460" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -39630,7 +39630,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1461" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -39656,7 +39656,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1462" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -39682,7 +39682,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1463" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -39734,7 +39734,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1465" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -39760,7 +39760,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1466" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -39786,7 +39786,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1467" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -39812,7 +39812,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1468" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -39838,7 +39838,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1469" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -39864,7 +39864,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1470" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -39890,7 +39890,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1471" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -39916,7 +39916,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1472" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -39942,7 +39942,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1473" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -39968,7 +39968,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1474" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -39994,7 +39994,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1475" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40020,7 +40020,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1476" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40046,7 +40046,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1477" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40072,7 +40072,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1478" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40098,7 +40098,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1479" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40124,7 +40124,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1480" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40150,7 +40150,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1481" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40176,7 +40176,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1482" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40202,7 +40202,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1483" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40228,7 +40228,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1484" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40254,7 +40254,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1485" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40280,7 +40280,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1486" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40306,7 +40306,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1487" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40332,7 +40332,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1488" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40358,7 +40358,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1489" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40384,7 +40384,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1490" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40410,7 +40410,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1491" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40436,7 +40436,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1492" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40462,7 +40462,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1493" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40488,7 +40488,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1494" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40514,7 +40514,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1495" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40540,7 +40540,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1496" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40566,7 +40566,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1497" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -40592,7 +40592,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1498" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -40618,7 +40618,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1499" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -40644,7 +40644,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1500" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -40670,7 +40670,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1501" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -40696,7 +40696,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1502" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -40722,7 +40722,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1503" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -40748,7 +40748,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1504" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -40774,7 +40774,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1505" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -40800,7 +40800,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1506" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -40878,7 +40878,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1509" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -40904,7 +40904,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1510" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -40930,7 +40930,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1511" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -40956,7 +40956,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1512" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -40982,7 +40982,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1513" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41034,7 +41034,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1515" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41060,7 +41060,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1516" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41086,7 +41086,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1517" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41112,7 +41112,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1518" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41138,7 +41138,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1519" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41164,7 +41164,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1520" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41190,7 +41190,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1521" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41216,7 +41216,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1522" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41242,7 +41242,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1523" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41268,7 +41268,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1524" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41294,7 +41294,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1525" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41320,7 +41320,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1526" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41346,7 +41346,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1527" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41372,7 +41372,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1528" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41398,7 +41398,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1529" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41424,7 +41424,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1530" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41450,7 +41450,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1531" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41476,7 +41476,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1532" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41502,7 +41502,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1533" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41528,7 +41528,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1534" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41554,7 +41554,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1535" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41580,7 +41580,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1536" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -41606,7 +41606,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1537" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -41632,7 +41632,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1538" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -41658,7 +41658,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1539" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -41684,7 +41684,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1540" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -41710,7 +41710,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1541" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -41736,7 +41736,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1542" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -41762,7 +41762,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1543" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -41788,7 +41788,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1544" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -41814,7 +41814,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1545" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -41840,7 +41840,7 @@
         <v>1.10685801506042</v>
       </c>
       <c r="G1546" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -41866,7 +41866,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1547" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -41892,7 +41892,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1548" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -41918,7 +41918,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1549" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -41944,7 +41944,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1550" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -41970,7 +41970,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1551" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -41996,7 +41996,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1552" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42022,7 +42022,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1553" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42048,7 +42048,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1554" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42074,7 +42074,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1555" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42100,7 +42100,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1556" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42126,7 +42126,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1557" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42152,7 +42152,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1558" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42204,7 +42204,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1560" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42230,7 +42230,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1561" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42256,7 +42256,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1562" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42282,7 +42282,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1563" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42334,7 +42334,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1565" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42360,7 +42360,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1566" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42386,7 +42386,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1567" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42412,7 +42412,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1568" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42438,7 +42438,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1569" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42464,7 +42464,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1570" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42490,7 +42490,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1571" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42516,7 +42516,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1572" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42542,7 +42542,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1573" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42568,7 +42568,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1574" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42594,7 +42594,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1575" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42620,7 +42620,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1576" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42646,7 +42646,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1577" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42672,7 +42672,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1578" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42984,7 +42984,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1590" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43010,7 +43010,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1591" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43036,7 +43036,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1592" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43062,7 +43062,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1593" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43088,7 +43088,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1594" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43114,7 +43114,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1595" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43140,7 +43140,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1596" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43166,7 +43166,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1597" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43192,7 +43192,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1598" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43218,7 +43218,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1599" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43244,7 +43244,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1600" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43270,7 +43270,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1601" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43400,7 +43400,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1606" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43426,7 +43426,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1607" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43452,7 +43452,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1608" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43478,7 +43478,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1609" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43504,7 +43504,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1610" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43530,7 +43530,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1611" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43556,7 +43556,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1612" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43582,7 +43582,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1613" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43608,7 +43608,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1614" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43634,7 +43634,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1615" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43660,7 +43660,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1616" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43686,7 +43686,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1617" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43712,7 +43712,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1618" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43738,7 +43738,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1619" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43764,7 +43764,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1620" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43790,7 +43790,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1621" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43816,7 +43816,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1622" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43842,7 +43842,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1623" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43868,7 +43868,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1624" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43894,7 +43894,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1625" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43920,7 +43920,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1626" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43946,7 +43946,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1627" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43972,7 +43972,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1628" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43998,7 +43998,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1629" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44024,7 +44024,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1630" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44050,7 +44050,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1631" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44076,7 +44076,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1632" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44102,7 +44102,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1633" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44128,7 +44128,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1634" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44154,7 +44154,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1635" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44180,7 +44180,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1636" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44206,7 +44206,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1637" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44232,7 +44232,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44752,7 +44752,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1658" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45090,7 +45090,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1671" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45116,7 +45116,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1672" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45246,7 +45246,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1677" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45272,7 +45272,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1678" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45298,7 +45298,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1679" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45324,7 +45324,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1680" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45350,7 +45350,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1681" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45376,7 +45376,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1682" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45402,7 +45402,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1683" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45428,7 +45428,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1684" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45454,7 +45454,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1685" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49380,7 +49380,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1836" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49458,7 +49458,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1839" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49484,7 +49484,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1840" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49536,7 +49536,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1842" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49562,7 +49562,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1843" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49588,7 +49588,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1844" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49926,7 +49926,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1857" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -57911,6 +57911,58 @@
         <v>412</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.2916666667</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.3296527778</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165435791016</t>
+    <t xml:space="preserve">0.803165376186371</t>
   </si>
   <si>
     <t xml:space="preserve">0.801815986633301</t>
@@ -53,7 +53,7 @@
     <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790620803833</t>
+    <t xml:space="preserve">0.799790680408478</t>
   </si>
   <si>
     <t xml:space="preserve">0.798441171646118</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">0.79506641626358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667069911957</t>
+    <t xml:space="preserve">0.789667010307312</t>
   </si>
   <si>
     <t xml:space="preserve">0.793716132640839</t>
@@ -71,64 +71,64 @@
     <t xml:space="preserve">0.82341343164444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057744026184</t>
+    <t xml:space="preserve">0.876057803630829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661427497864</t>
+    <t xml:space="preserve">0.843661367893219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908886909485</t>
+    <t xml:space="preserve">0.863908767700195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961873531342</t>
+    <t xml:space="preserve">0.840961933135986</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824762940406799</t>
+    <t xml:space="preserve">0.824763000011444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236834526062</t>
+    <t xml:space="preserve">0.836236894130707</t>
   </si>
   <si>
     <t xml:space="preserve">0.820713818073273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915006160736</t>
+    <t xml:space="preserve">0.809914946556091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917439937592</t>
+    <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
     <t xml:space="preserve">0.797090947628021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614738941193</t>
+    <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264455318451</t>
+    <t xml:space="preserve">0.81126457452774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115478992462</t>
+    <t xml:space="preserve">0.799115538597107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840637207031</t>
+    <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80923992395401</t>
+    <t xml:space="preserve">0.809239983558655</t>
   </si>
   <si>
     <t xml:space="preserve">0.802490293979645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140964031219</t>
+    <t xml:space="preserve">0.801140785217285</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540310382843</t>
+    <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
     <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
     <t xml:space="preserve">0.786967277526855</t>
@@ -137,19 +137,19 @@
     <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168584823608</t>
+    <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
     <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738409042358</t>
+    <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837488174438</t>
+    <t xml:space="preserve">0.830837368965149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038676261902</t>
+    <t xml:space="preserve">0.820038735866547</t>
   </si>
   <si>
     <t xml:space="preserve">0.819363594055176</t>
@@ -158,25 +158,25 @@
     <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988719463348</t>
+    <t xml:space="preserve">0.815988779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939716339111</t>
+    <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964247703552</t>
+    <t xml:space="preserve">0.813964068889618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886288166046</t>
+    <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572754859924</t>
+    <t xml:space="preserve">0.82357269525528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003657817841</t>
+    <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827543735504</t>
+    <t xml:space="preserve">0.820827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
@@ -185,13 +185,13 @@
     <t xml:space="preserve">0.824258506298065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395925521851</t>
+    <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277661800385</t>
+    <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905443668365</t>
@@ -200,34 +200,34 @@
     <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454550743103</t>
+    <t xml:space="preserve">0.819454669952393</t>
   </si>
   <si>
     <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257287979126</t>
   </si>
   <si>
     <t xml:space="preserve">0.802983343601227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473765850067</t>
+    <t xml:space="preserve">0.808473825454712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806415021419525</t>
+    <t xml:space="preserve">0.80641496181488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061124324799</t>
+    <t xml:space="preserve">0.794061183929443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553718566895</t>
   </si>
   <si>
     <t xml:space="preserve">0.830435454845428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355561733246</t>
+    <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
     <t xml:space="preserve">0.78239381313324</t>
@@ -236,25 +236,25 @@
     <t xml:space="preserve">0.783766746520996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099435329437</t>
+    <t xml:space="preserve">0.772099494934082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804461479187</t>
+    <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471713066101</t>
+    <t xml:space="preserve">0.773471653461456</t>
   </si>
   <si>
     <t xml:space="preserve">0.775530457496643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216924190521</t>
+    <t xml:space="preserve">0.776216983795166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570761680603</t>
+    <t xml:space="preserve">0.788570821285248</t>
   </si>
   <si>
     <t xml:space="preserve">0.776903390884399</t>
@@ -263,55 +263,55 @@
     <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335068702698</t>
+    <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765236079692841</t>
+    <t xml:space="preserve">0.765236020088196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059131145477</t>
+    <t xml:space="preserve">0.759059190750122</t>
   </si>
   <si>
     <t xml:space="preserve">0.756313920021057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941642284393</t>
+    <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078346252441</t>
+    <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
     <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.762490749359131</t>
   </si>
   <si>
     <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779648542404175</t>
+    <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
     <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788423538208</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119928359985</t>
+    <t xml:space="preserve">0.796119868755341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354164600372</t>
+    <t xml:space="preserve">0.769354224205017</t>
   </si>
   <si>
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">0.78513902425766</t>
@@ -326,10 +326,10 @@
     <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686913013458</t>
+    <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746705949306488</t>
+    <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
     <t xml:space="preserve">0.754255175590515</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981290817261</t>
+    <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
     <t xml:space="preserve">0.781707406044006</t>
@@ -347,25 +347,25 @@
     <t xml:space="preserve">0.787197768688202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867192268372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161450862885</t>
+    <t xml:space="preserve">0.84416139125824</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83729887008667</t>
+    <t xml:space="preserve">0.837298810482025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888340950012</t>
+    <t xml:space="preserve">0.857888221740723</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869245052338</t>
+    <t xml:space="preserve">0.868869185447693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712610721588</t>
+    <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163503646851</t>
+    <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
     <t xml:space="preserve">0.848279774188995</t>
@@ -383,13 +383,13 @@
     <t xml:space="preserve">0.826318025588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063296318054</t>
+    <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
     <t xml:space="preserve">0.835925877094269</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102766036987</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
     <t xml:space="preserve">0.828376770019531</t>
@@ -398,7 +398,7 @@
     <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591075897217</t>
+    <t xml:space="preserve">0.812591195106506</t>
   </si>
   <si>
     <t xml:space="preserve">0.831808388233185</t>
@@ -410,37 +410,37 @@
     <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730547904968</t>
+    <t xml:space="preserve">0.840730428695679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8736732006073</t>
+    <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
     <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517460346222</t>
+    <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281826972961</t>
+    <t xml:space="preserve">0.883281767368317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986733913422</t>
+    <t xml:space="preserve">0.872986674308777</t>
   </si>
   <si>
     <t xml:space="preserve">0.859260618686676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595300674438</t>
+    <t xml:space="preserve">0.882595360279083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88188099861145</t>
+    <t xml:space="preserve">0.881880939006805</t>
   </si>
   <si>
     <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89259260892868</t>
+    <t xml:space="preserve">0.892592489719391</t>
   </si>
   <si>
     <t xml:space="preserve">0.902589201927185</t>
@@ -449,25 +449,25 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445516109467</t>
+    <t xml:space="preserve">0.905445456504822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873941421509</t>
+    <t xml:space="preserve">0.906874001026154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593626976013</t>
+    <t xml:space="preserve">0.887593507766724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8804532289505</t>
+    <t xml:space="preserve">0.880453288555145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599606513977</t>
+    <t xml:space="preserve">0.867599725723267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017746448517</t>
+    <t xml:space="preserve">0.904017627239227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168489456177</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
     <t xml:space="preserve">0.884023010730743</t>
@@ -476,49 +476,49 @@
     <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878310441970825</t>
+    <t xml:space="preserve">0.87831038236618</t>
   </si>
   <si>
     <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166696548462</t>
+    <t xml:space="preserve">0.881166756153107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732887744904</t>
+    <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.899018526077271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898304998874664</t>
+    <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
     <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155452728271</t>
+    <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
     <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014339447021</t>
+    <t xml:space="preserve">0.914014160633087</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444438457489</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904731929302216</t>
+    <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
     <t xml:space="preserve">0.866171181201935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545149564743</t>
+    <t xml:space="preserve">0.88545161485672</t>
   </si>
   <si>
     <t xml:space="preserve">0.87188446521759</t>
@@ -527,34 +527,34 @@
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026536941528</t>
+    <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
     <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028329849243</t>
+    <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596974372864</t>
+    <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87688273191452</t>
+    <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575986385345</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288555145264</t>
+    <t xml:space="preserve">0.953288376331329</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294713497162</t>
+    <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
     <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011647701263</t>
+    <t xml:space="preserve">0.924011707305908</t>
   </si>
   <si>
     <t xml:space="preserve">0.976852893829346</t>
@@ -563,16 +563,16 @@
     <t xml:space="preserve">0.998275399208069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709327220917</t>
+    <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143136024475</t>
+    <t xml:space="preserve">0.961142957210541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568809986115</t>
+    <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956858992576599</t>
+    <t xml:space="preserve">0.956859171390533</t>
   </si>
   <si>
     <t xml:space="preserve">0.960429549217224</t>
@@ -584,70 +584,70 @@
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426201820374</t>
+    <t xml:space="preserve">0.970426023006439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848468780518</t>
+    <t xml:space="preserve">0.991848409175873</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974711060523987</t>
+    <t xml:space="preserve">0.974710881710052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992214202881</t>
+    <t xml:space="preserve">0.98899233341217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999703109264374</t>
+    <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990659713745</t>
+    <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846854686737</t>
+    <t xml:space="preserve">0.996846795082092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134285926819</t>
+    <t xml:space="preserve">0.991134345531464</t>
   </si>
   <si>
     <t xml:space="preserve">0.981137752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706575870514</t>
+    <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133327484131</t>
+    <t xml:space="preserve">0.996133267879486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978995025157928</t>
+    <t xml:space="preserve">0.978994905948639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569947242737</t>
+    <t xml:space="preserve">0.967569828033447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856420040131</t>
+    <t xml:space="preserve">0.966856300830841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002737998962</t>
+    <t xml:space="preserve">0.954002678394318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430567264557</t>
+    <t xml:space="preserve">0.955430626869202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582924365997</t>
+    <t xml:space="preserve">0.922583043575287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296506404877</t>
+    <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734501838684</t>
+    <t xml:space="preserve">0.894734621047974</t>
   </si>
   <si>
     <t xml:space="preserve">0.912586510181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876633167267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024803638458</t>
+    <t xml:space="preserve">0.879024684429169</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739046096802</t>
@@ -656,10 +656,10 @@
     <t xml:space="preserve">0.924725890159607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436606407166</t>
+    <t xml:space="preserve">0.935436725616455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007163047791</t>
+    <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
     <t xml:space="preserve">0.946148276329041</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93186616897583</t>
+    <t xml:space="preserve">0.931866109371185</t>
   </si>
   <si>
     <t xml:space="preserve">0.842606723308563</t>
@@ -680,19 +680,19 @@
     <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83903706073761</t>
+    <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
     <t xml:space="preserve">0.871170163154602</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458552837372</t>
+    <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303444385529</t>
+    <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584776878357</t>
+    <t xml:space="preserve">0.917584717273712</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090202331543</t>
@@ -701,55 +701,55 @@
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92864465713501</t>
+    <t xml:space="preserve">0.928644716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068074703217</t>
+    <t xml:space="preserve">0.981068134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323472499847</t>
+    <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622648715973</t>
+    <t xml:space="preserve">0.943622589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97357964515686</t>
+    <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134099960327</t>
+    <t xml:space="preserve">0.936133980751038</t>
   </si>
   <si>
     <t xml:space="preserve">0.913666665554047</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856812953949</t>
+    <t xml:space="preserve">0.954856753349304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921884536743</t>
+    <t xml:space="preserve">0.909922003746033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177222728729</t>
+    <t xml:space="preserve">0.906177282333374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902432501316071</t>
+    <t xml:space="preserve">0.902432560920715</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891199231147766</t>
+    <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924899995326996</t>
+    <t xml:space="preserve">0.924899935722351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155214309692</t>
+    <t xml:space="preserve">0.921155154705048</t>
   </si>
   <si>
     <t xml:space="preserve">0.876221358776093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411327362061</t>
+    <t xml:space="preserve">0.917411267757416</t>
   </si>
   <si>
     <t xml:space="preserve">0.89494401216507</t>
@@ -758,88 +758,88 @@
     <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879966020584106</t>
+    <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
     <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86873197555542</t>
+    <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243307590485</t>
+    <t xml:space="preserve">0.861243367195129</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83503121137619</t>
+    <t xml:space="preserve">0.835031151771545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520594596863</t>
+    <t xml:space="preserve">0.842520654201508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753924369812</t>
+    <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797941207886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857498645782471</t>
+    <t xml:space="preserve">0.857498586177826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775932788849</t>
+    <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850009262561798</t>
+    <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585785388947</t>
+    <t xml:space="preserve">0.797585844993591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075228214264</t>
+    <t xml:space="preserve">0.805075287818909</t>
   </si>
   <si>
     <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987194538116</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90738171339035</t>
+    <t xml:space="preserve">0.907381772994995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899491131305695</t>
+    <t xml:space="preserve">0.89949107170105</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
+    <t xml:space="preserve">0.923162221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051909923553</t>
+    <t xml:space="preserve">0.931051850318909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600549221039</t>
+    <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613642215729</t>
+    <t xml:space="preserve">0.962613523006439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833193302155</t>
+    <t xml:space="preserve">0.946833074092865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88371080160141</t>
+    <t xml:space="preserve">0.883710741996765</t>
   </si>
   <si>
     <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930352687836</t>
+    <t xml:space="preserve">0.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836368680000305</t>
+    <t xml:space="preserve">0.83636873960495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478932380676</t>
+    <t xml:space="preserve">0.828478872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917259693146</t>
+    <t xml:space="preserve">0.796917319297791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698543071747</t>
+    <t xml:space="preserve">0.812698483467102</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191519737244</t>
+    <t xml:space="preserve">0.777191579341888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807841777802</t>
+    <t xml:space="preserve">0.804807901382446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356421470642</t>
+    <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082161426544</t>
+    <t xml:space="preserve">0.785082221031189</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795642852783</t>
+    <t xml:space="preserve">0.733795702457428</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465839385986</t>
+    <t xml:space="preserve">0.757465779781342</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729850351810455</t>
+    <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740099430084</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014478683472</t>
+    <t xml:space="preserve">0.718014419078827</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906528770923615</t>
+    <t xml:space="preserve">0.90652871131897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939795553684235</t>
+    <t xml:space="preserve">0.93979549407959</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063230514526</t>
+    <t xml:space="preserve">0.973063290119171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746057987213</t>
+    <t xml:space="preserve">0.964746117591858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379449367523</t>
+    <t xml:space="preserve">0.981379389762878</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146472454071</t>
+    <t xml:space="preserve">1.01464712619781</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -44232,7 +44235,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44258,7 +44261,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44284,7 +44287,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44310,7 +44313,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44336,7 +44339,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44388,7 +44391,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44414,7 +44417,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44440,7 +44443,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44492,7 +44495,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44544,7 +44547,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44570,7 +44573,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44596,7 +44599,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44622,7 +44625,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44700,7 +44703,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44778,7 +44781,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44830,7 +44833,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44882,7 +44885,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44908,7 +44911,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44986,7 +44989,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45012,7 +45015,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45064,7 +45067,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45220,7 +45223,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45480,7 +45483,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45506,7 +45509,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45532,7 +45535,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45558,7 +45561,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45584,7 +45587,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45610,7 +45613,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45636,7 +45639,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45662,7 +45665,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45688,7 +45691,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45714,7 +45717,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45740,7 +45743,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45766,7 +45769,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45792,7 +45795,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45818,7 +45821,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45844,7 +45847,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45870,7 +45873,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45896,7 +45899,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45922,7 +45925,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45948,7 +45951,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45974,7 +45977,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46000,7 +46003,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46026,7 +46029,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46052,7 +46055,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46078,7 +46081,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46104,7 +46107,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46130,7 +46133,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46156,7 +46159,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46182,7 +46185,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46208,7 +46211,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46234,7 +46237,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46260,7 +46263,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46286,7 +46289,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46312,7 +46315,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46338,7 +46341,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46364,7 +46367,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46390,7 +46393,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46416,7 +46419,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46442,7 +46445,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46468,7 +46471,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46494,7 +46497,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46520,7 +46523,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46546,7 +46549,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46572,7 +46575,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46598,7 +46601,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46624,7 +46627,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46650,7 +46653,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46676,7 +46679,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46702,7 +46705,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46728,7 +46731,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46754,7 +46757,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46780,7 +46783,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46806,7 +46809,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46832,7 +46835,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46858,7 +46861,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46884,7 +46887,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46910,7 +46913,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46936,7 +46939,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46962,7 +46965,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46988,7 +46991,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47014,7 +47017,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47040,7 +47043,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47066,7 +47069,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47092,7 +47095,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47118,7 +47121,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47144,7 +47147,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47170,7 +47173,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47196,7 +47199,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47222,7 +47225,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47248,7 +47251,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47274,7 +47277,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47300,7 +47303,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47326,7 +47329,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47352,7 +47355,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47378,7 +47381,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47404,7 +47407,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47430,7 +47433,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47456,7 +47459,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47482,7 +47485,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47508,7 +47511,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47534,7 +47537,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47560,7 +47563,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47586,7 +47589,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47612,7 +47615,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47638,7 +47641,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47664,7 +47667,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47690,7 +47693,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47716,7 +47719,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47742,7 +47745,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47768,7 +47771,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47794,7 +47797,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47820,7 +47823,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47846,7 +47849,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47872,7 +47875,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47898,7 +47901,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47924,7 +47927,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47950,7 +47953,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47976,7 +47979,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48002,7 +48005,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48028,7 +48031,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48054,7 +48057,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48080,7 +48083,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48106,7 +48109,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48132,7 +48135,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48158,7 +48161,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48184,7 +48187,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48210,7 +48213,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48236,7 +48239,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48262,7 +48265,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48288,7 +48291,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48314,7 +48317,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48340,7 +48343,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48366,7 +48369,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48392,7 +48395,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48418,7 +48421,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48444,7 +48447,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48470,7 +48473,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48496,7 +48499,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48522,7 +48525,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48548,7 +48551,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48574,7 +48577,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48600,7 +48603,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48626,7 +48629,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48652,7 +48655,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48678,7 +48681,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48704,7 +48707,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48730,7 +48733,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48756,7 +48759,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48782,7 +48785,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48808,7 +48811,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48834,7 +48837,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48860,7 +48863,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48886,7 +48889,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48912,7 +48915,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48938,7 +48941,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48964,7 +48967,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48990,7 +48993,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49016,7 +49019,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49042,7 +49045,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49068,7 +49071,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49094,7 +49097,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49120,7 +49123,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49146,7 +49149,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49172,7 +49175,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49198,7 +49201,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49224,7 +49227,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49250,7 +49253,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49276,7 +49279,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49302,7 +49305,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49328,7 +49331,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49354,7 +49357,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49406,7 +49409,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49432,7 +49435,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49510,7 +49513,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49614,7 +49617,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49640,7 +49643,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49666,7 +49669,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49692,7 +49695,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49718,7 +49721,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49744,7 +49747,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49770,7 +49773,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49796,7 +49799,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49822,7 +49825,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49848,7 +49851,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49874,7 +49877,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49900,7 +49903,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49952,7 +49955,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49978,7 +49981,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50004,7 +50007,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50030,7 +50033,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50056,7 +50059,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50082,7 +50085,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50108,7 +50111,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50134,7 +50137,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50160,7 +50163,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50186,7 +50189,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50212,7 +50215,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50238,7 +50241,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50264,7 +50267,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50290,7 +50293,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50316,7 +50319,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50342,7 +50345,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50368,7 +50371,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50394,7 +50397,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50420,7 +50423,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50446,7 +50449,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50472,7 +50475,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50498,7 +50501,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50524,7 +50527,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50550,7 +50553,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50576,7 +50579,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50602,7 +50605,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50628,7 +50631,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50654,7 +50657,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50680,7 +50683,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50706,7 +50709,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50732,7 +50735,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50758,7 +50761,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50784,7 +50787,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50810,7 +50813,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50836,7 +50839,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50862,7 +50865,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50888,7 +50891,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50914,7 +50917,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50940,7 +50943,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50966,7 +50969,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50992,7 +50995,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51018,7 +51021,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51044,7 +51047,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51070,7 +51073,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51096,7 +51099,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51122,7 +51125,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51148,7 +51151,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51174,7 +51177,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51200,7 +51203,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51226,7 +51229,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51252,7 +51255,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51278,7 +51281,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51304,7 +51307,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51330,7 +51333,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51356,7 +51359,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51382,7 +51385,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51408,7 +51411,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51434,7 +51437,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51460,7 +51463,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51486,7 +51489,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51512,7 +51515,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51538,7 +51541,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51564,7 +51567,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51590,7 +51593,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51616,7 +51619,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51642,7 +51645,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51668,7 +51671,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51694,7 +51697,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51720,7 +51723,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51746,7 +51749,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51772,7 +51775,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51798,7 +51801,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51824,7 +51827,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51850,7 +51853,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51876,7 +51879,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51902,7 +51905,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51928,7 +51931,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51954,7 +51957,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51980,7 +51983,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52006,7 +52009,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52032,7 +52035,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52058,7 +52061,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52084,7 +52087,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52110,7 +52113,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52136,7 +52139,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52162,7 +52165,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52188,7 +52191,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52214,7 +52217,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52240,7 +52243,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52266,7 +52269,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52292,7 +52295,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52318,7 +52321,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52344,7 +52347,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52370,7 +52373,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52396,7 +52399,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52422,7 +52425,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52448,7 +52451,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52474,7 +52477,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52500,7 +52503,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52526,7 +52529,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52552,7 +52555,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52578,7 +52581,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52604,7 +52607,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52630,7 +52633,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52656,7 +52659,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52682,7 +52685,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52708,7 +52711,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52734,7 +52737,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52760,7 +52763,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52786,7 +52789,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52812,7 +52815,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52838,7 +52841,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52864,7 +52867,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52890,7 +52893,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52916,7 +52919,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52942,7 +52945,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52968,7 +52971,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52994,7 +52997,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53020,7 +53023,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53046,7 +53049,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53072,7 +53075,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53098,7 +53101,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53124,7 +53127,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53150,7 +53153,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53176,7 +53179,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53202,7 +53205,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53228,7 +53231,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53254,7 +53257,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53280,7 +53283,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53306,7 +53309,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53332,7 +53335,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53358,7 +53361,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53384,7 +53387,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53410,7 +53413,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53436,7 +53439,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53462,7 +53465,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53488,7 +53491,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53514,7 +53517,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53540,7 +53543,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53566,7 +53569,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53592,7 +53595,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53618,7 +53621,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53644,7 +53647,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53670,7 +53673,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53696,7 +53699,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53722,7 +53725,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53748,7 +53751,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53774,7 +53777,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53800,7 +53803,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53826,7 +53829,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53852,7 +53855,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53878,7 +53881,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53904,7 +53907,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53930,7 +53933,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53956,7 +53959,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53982,7 +53985,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54008,7 +54011,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54034,7 +54037,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54060,7 +54063,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54086,7 +54089,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54112,7 +54115,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54138,7 +54141,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54164,7 +54167,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54190,7 +54193,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54216,7 +54219,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54242,7 +54245,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54268,7 +54271,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54294,7 +54297,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54320,7 +54323,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54346,7 +54349,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54372,7 +54375,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54398,7 +54401,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54424,7 +54427,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54450,7 +54453,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54476,7 +54479,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54502,7 +54505,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54528,7 +54531,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54554,7 +54557,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54580,7 +54583,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54606,7 +54609,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54632,7 +54635,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54658,7 +54661,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54684,7 +54687,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54710,7 +54713,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54736,7 +54739,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54762,7 +54765,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54788,7 +54791,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54814,7 +54817,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54840,7 +54843,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54866,7 +54869,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54892,7 +54895,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54918,7 +54921,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54944,7 +54947,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54970,7 +54973,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54996,7 +54999,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55022,7 +55025,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55048,7 +55051,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55074,7 +55077,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55100,7 +55103,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55126,7 +55129,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55152,7 +55155,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55178,7 +55181,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55204,7 +55207,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55230,7 +55233,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55256,7 +55259,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55282,7 +55285,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55308,7 +55311,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55334,7 +55337,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55360,7 +55363,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55386,7 +55389,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55412,7 +55415,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55438,7 +55441,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55464,7 +55467,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55490,7 +55493,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55516,7 +55519,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55542,7 +55545,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55568,7 +55571,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55594,7 +55597,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55620,7 +55623,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55646,7 +55649,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55672,7 +55675,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55698,7 +55701,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55724,7 +55727,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55750,7 +55753,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55776,7 +55779,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55802,7 +55805,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55828,7 +55831,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55854,7 +55857,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55880,7 +55883,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55906,7 +55909,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55932,7 +55935,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55958,7 +55961,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55984,7 +55987,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56010,7 +56013,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56036,7 +56039,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56062,7 +56065,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56088,7 +56091,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56114,7 +56117,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56140,7 +56143,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56166,7 +56169,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56192,7 +56195,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56218,7 +56221,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56244,7 +56247,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56270,7 +56273,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56296,7 +56299,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56322,7 +56325,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56348,7 +56351,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56374,7 +56377,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56400,7 +56403,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56426,7 +56429,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56452,7 +56455,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56478,7 +56481,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56504,7 +56507,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56530,7 +56533,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56556,7 +56559,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56582,7 +56585,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56608,7 +56611,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56634,7 +56637,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56660,7 +56663,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56686,7 +56689,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56712,7 +56715,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56738,7 +56741,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56764,7 +56767,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56790,7 +56793,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56816,7 +56819,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56842,7 +56845,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56868,7 +56871,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56894,7 +56897,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56920,7 +56923,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56946,7 +56949,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56972,7 +56975,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56998,7 +57001,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57024,7 +57027,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57050,7 +57053,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57076,7 +57079,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57102,7 +57105,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57128,7 +57131,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57154,7 +57157,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57180,7 +57183,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57206,7 +57209,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57232,7 +57235,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57258,7 +57261,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57284,7 +57287,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57310,7 +57313,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57336,7 +57339,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57362,7 +57365,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57388,7 +57391,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57414,7 +57417,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57440,7 +57443,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57466,7 +57469,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57492,7 +57495,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57518,7 +57521,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57544,7 +57547,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2150" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57570,7 +57573,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2151" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57596,7 +57599,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2152" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57622,7 +57625,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2153" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57648,7 +57651,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2154" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57674,7 +57677,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2155" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57700,7 +57703,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2156" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57726,7 +57729,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2157" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57752,7 +57755,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2158" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57778,7 +57781,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2159" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57804,7 +57807,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2160" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57830,7 +57833,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2161" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57856,7 +57859,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2162" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57882,7 +57885,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2163" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57908,7 +57911,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2164" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57934,7 +57937,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2165" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57960,7 +57963,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2166" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57986,7 +57989,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2167" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58012,7 +58015,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2168" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58020,7 +58023,7 @@
     </row>
     <row r="2169">
       <c r="A2169" s="1" t="n">
-        <v>45482.4811805556</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B2169" t="n">
         <v>50077</v>
@@ -58038,9 +58041,35 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2169" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2169" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="n">
+        <v>45483.6392476852</v>
+      </c>
+      <c r="B2170" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C2170" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2170" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2170" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2170" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2170" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663861274719</t>
+    <t xml:space="preserve">0.816663920879364</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165376186371</t>
+    <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815986633301</t>
+    <t xml:space="preserve">0.801816046237946</t>
   </si>
   <si>
     <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790680408478</t>
+    <t xml:space="preserve">0.799790620803833</t>
   </si>
   <si>
     <t xml:space="preserve">0.798441171646118</t>
@@ -65,34 +65,34 @@
     <t xml:space="preserve">0.789667010307312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716013431549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82341343164444</t>
+    <t xml:space="preserve">0.823413550853729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057803630829</t>
+    <t xml:space="preserve">0.876057624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661367893219</t>
+    <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908767700195</t>
+    <t xml:space="preserve">0.863908886909485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961933135986</t>
+    <t xml:space="preserve">0.840961813926697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824763000011444</t>
+    <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236894130707</t>
+    <t xml:space="preserve">0.836236834526062</t>
   </si>
   <si>
     <t xml:space="preserve">0.820713818073273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809914946556091</t>
+    <t xml:space="preserve">0.809915125370026</t>
   </si>
   <si>
     <t xml:space="preserve">0.782917380332947</t>
@@ -101,94 +101,94 @@
     <t xml:space="preserve">0.797090947628021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614679336548</t>
+    <t xml:space="preserve">0.812614738941193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81126457452774</t>
+    <t xml:space="preserve">0.811264455318451</t>
   </si>
   <si>
     <t xml:space="preserve">0.799115538597107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840517997742</t>
+    <t xml:space="preserve">0.803840577602386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809239983558655</t>
+    <t xml:space="preserve">0.80923992395401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802490293979645</t>
+    <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140785217285</t>
+    <t xml:space="preserve">0.801140904426575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540250778198</t>
+    <t xml:space="preserve">0.806540310382843</t>
   </si>
   <si>
     <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366683483124</t>
+    <t xml:space="preserve">0.792366802692413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788316786289215</t>
+    <t xml:space="preserve">0.78831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168525218964</t>
+    <t xml:space="preserve">0.776168584823608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289046287537</t>
+    <t xml:space="preserve">0.813289105892181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738349437714</t>
+    <t xml:space="preserve">0.822738409042358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837368965149</t>
+    <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
     <t xml:space="preserve">0.820038735866547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363594055176</t>
+    <t xml:space="preserve">0.819363534450531</t>
   </si>
   <si>
     <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988779067993</t>
+    <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939656734467</t>
+    <t xml:space="preserve">0.811939597129822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964068889618</t>
+    <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886347770691</t>
+    <t xml:space="preserve">0.822886288166046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82357269525528</t>
+    <t xml:space="preserve">0.823572874069214</t>
   </si>
   <si>
     <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827484130859</t>
+    <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824258506298065</t>
+    <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
     <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709339618683</t>
+    <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
     <t xml:space="preserve">0.813277721405029</t>
@@ -197,22 +197,22 @@
     <t xml:space="preserve">0.811905443668365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964188098907</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454669952393</t>
+    <t xml:space="preserve">0.819454550743103</t>
   </si>
   <si>
     <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257287979126</t>
+    <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983343601227</t>
+    <t xml:space="preserve">0.802983283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473825454712</t>
+    <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
     <t xml:space="preserve">0.80641496181488</t>
@@ -221,37 +221,37 @@
     <t xml:space="preserve">0.794061183929443</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553718566895</t>
+    <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435454845428</t>
+    <t xml:space="preserve">0.830435514450073</t>
   </si>
   <si>
     <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393753528595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766746520996</t>
+    <t xml:space="preserve">0.783766686916351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099494934082</t>
+    <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804342269897</t>
+    <t xml:space="preserve">0.761804461479187</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471653461456</t>
+    <t xml:space="preserve">0.773471713066101</t>
   </si>
   <si>
     <t xml:space="preserve">0.775530457496643</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216983795166</t>
+    <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
     <t xml:space="preserve">0.788570821285248</t>
@@ -269,25 +269,25 @@
     <t xml:space="preserve">0.765236020088196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059190750122</t>
+    <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
     <t xml:space="preserve">0.756313920021057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941701889038</t>
+    <t xml:space="preserve">0.754941582679749</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078286647797</t>
+    <t xml:space="preserve">0.748078346252441</t>
   </si>
   <si>
     <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490749359131</t>
+    <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
     <t xml:space="preserve">0.781021595001221</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296817302704</t>
+    <t xml:space="preserve">0.802296876907349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884294986725</t>
+    <t xml:space="preserve">0.787884175777435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119868755341</t>
+    <t xml:space="preserve">0.796119809150696</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
@@ -311,19 +311,19 @@
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844646453857</t>
+    <t xml:space="preserve">0.774844706058502</t>
   </si>
   <si>
     <t xml:space="preserve">0.78513902425766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610350608826</t>
+    <t xml:space="preserve">0.801610291004181</t>
   </si>
   <si>
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294704914093</t>
+    <t xml:space="preserve">0.767294764518738</t>
   </si>
   <si>
     <t xml:space="preserve">0.757686853408813</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981231212616</t>
+    <t xml:space="preserve">0.767981350421906</t>
   </si>
   <si>
     <t xml:space="preserve">0.781707406044006</t>
@@ -347,28 +347,28 @@
     <t xml:space="preserve">0.787197768688202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867192268372</t>
+    <t xml:space="preserve">0.833867132663727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84416139125824</t>
+    <t xml:space="preserve">0.844161450862885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298810482025</t>
+    <t xml:space="preserve">0.837298989295959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888221740723</t>
+    <t xml:space="preserve">0.857888400554657</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712729930878</t>
+    <t xml:space="preserve">0.886712670326233</t>
   </si>
   <si>
     <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279774188995</t>
+    <t xml:space="preserve">0.84827983379364</t>
   </si>
   <si>
     <t xml:space="preserve">0.84965193271637</t>
@@ -386,10 +386,10 @@
     <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925877094269</t>
+    <t xml:space="preserve">0.835925936698914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102885246277</t>
+    <t xml:space="preserve">0.842102766036987</t>
   </si>
   <si>
     <t xml:space="preserve">0.828376770019531</t>
@@ -398,49 +398,49 @@
     <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591195106506</t>
+    <t xml:space="preserve">0.812591135501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831808388233185</t>
+    <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
     <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845534563064575</t>
+    <t xml:space="preserve">0.84553462266922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730428695679</t>
+    <t xml:space="preserve">0.840730667114258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.8736732006073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319363117218</t>
+    <t xml:space="preserve">0.861319303512573</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517400741577</t>
+    <t xml:space="preserve">0.891517460346222</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281767368317</t>
+    <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986674308777</t>
+    <t xml:space="preserve">0.872986733913422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260618686676</t>
+    <t xml:space="preserve">0.859260559082031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595360279083</t>
+    <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881880939006805</t>
+    <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
     <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592489719391</t>
+    <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
     <t xml:space="preserve">0.902589201927185</t>
@@ -449,25 +449,25 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445456504822</t>
+    <t xml:space="preserve">0.905445396900177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906874001026154</t>
+    <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593507766724</t>
+    <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880453288555145</t>
+    <t xml:space="preserve">0.88045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599725723267</t>
+    <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017627239227</t>
+    <t xml:space="preserve">0.904017746448517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168549060822</t>
+    <t xml:space="preserve">0.876168489456177</t>
   </si>
   <si>
     <t xml:space="preserve">0.884023010730743</t>
@@ -476,19 +476,19 @@
     <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87831038236618</t>
+    <t xml:space="preserve">0.878310441970825</t>
   </si>
   <si>
     <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166756153107</t>
+    <t xml:space="preserve">0.881166815757751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732828140259</t>
+    <t xml:space="preserve">0.899732887744904</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018526077271</t>
+    <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
     <t xml:space="preserve">0.898305118083954</t>
@@ -497,28 +497,28 @@
     <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155393123627</t>
+    <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
     <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014160633087</t>
+    <t xml:space="preserve">0.914014339447021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444438457489</t>
+    <t xml:space="preserve">0.910444498062134</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90473198890686</t>
+    <t xml:space="preserve">0.904731929302216</t>
   </si>
   <si>
     <t xml:space="preserve">0.866171181201935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545161485672</t>
+    <t xml:space="preserve">0.88545149564743</t>
   </si>
   <si>
     <t xml:space="preserve">0.87188446521759</t>
@@ -527,37 +527,37 @@
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026477336884</t>
+    <t xml:space="preserve">0.874026536941528</t>
   </si>
   <si>
     <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028270244598</t>
+    <t xml:space="preserve">0.869028329849243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877597033977509</t>
+    <t xml:space="preserve">0.877596974372864</t>
   </si>
   <si>
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575986385345</t>
+    <t xml:space="preserve">0.947575867176056</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288376331329</t>
+    <t xml:space="preserve">0.953288555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294653892517</t>
+    <t xml:space="preserve">0.933294713497162</t>
   </si>
   <si>
     <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011707305908</t>
+    <t xml:space="preserve">0.924011647701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976852893829346</t>
+    <t xml:space="preserve">0.97685295343399</t>
   </si>
   <si>
     <t xml:space="preserve">0.998275399208069</t>
@@ -566,13 +566,13 @@
     <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961142957210541</t>
+    <t xml:space="preserve">0.961143136024475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568869590759</t>
+    <t xml:space="preserve">0.972568809986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859171390533</t>
+    <t xml:space="preserve">0.956858992576599</t>
   </si>
   <si>
     <t xml:space="preserve">0.960429549217224</t>
@@ -584,58 +584,58 @@
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426023006439</t>
+    <t xml:space="preserve">0.970426321029663</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848409175873</t>
+    <t xml:space="preserve">0.991848587989807</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710881710052</t>
+    <t xml:space="preserve">0.974711060523987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.98899233341217</t>
+    <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999702990055084</t>
+    <t xml:space="preserve">0.999703109264374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990540504456</t>
+    <t xml:space="preserve">0.993990659713745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846795082092</t>
+    <t xml:space="preserve">0.996846854686737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134345531464</t>
+    <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
     <t xml:space="preserve">0.981137752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706516265869</t>
+    <t xml:space="preserve">0.989706575870514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133267879486</t>
+    <t xml:space="preserve">0.996133327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994905948639</t>
+    <t xml:space="preserve">0.978995025157928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569828033447</t>
+    <t xml:space="preserve">0.967569947242737</t>
   </si>
   <si>
     <t xml:space="preserve">0.966856300830841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002678394318</t>
+    <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430626869202</t>
+    <t xml:space="preserve">0.955430686473846</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922583043575287</t>
+    <t xml:space="preserve">0.922582924365997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296327590942</t>
+    <t xml:space="preserve">0.928296387195587</t>
   </si>
   <si>
     <t xml:space="preserve">0.894734621047974</t>
@@ -644,22 +644,22 @@
     <t xml:space="preserve">0.912586510181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876633167267</t>
+    <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024684429169</t>
+    <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739046096802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725890159607</t>
+    <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436725616455</t>
+    <t xml:space="preserve">0.935436606407166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007222652435</t>
+    <t xml:space="preserve">0.939007163047791</t>
   </si>
   <si>
     <t xml:space="preserve">0.946148276329041</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866109371185</t>
+    <t xml:space="preserve">0.93186616897583</t>
   </si>
   <si>
     <t xml:space="preserve">0.842606723308563</t>
@@ -677,61 +677,61 @@
     <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318393230438</t>
+    <t xml:space="preserve">0.853318452835083</t>
   </si>
   <si>
     <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170163154602</t>
+    <t xml:space="preserve">0.871170282363892</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303503990173</t>
+    <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584717273712</t>
+    <t xml:space="preserve">0.917584776878357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090202331543</t>
+    <t xml:space="preserve">0.966090083122253</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928644716739655</t>
+    <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068134307861</t>
+    <t xml:space="preserve">0.981068074703217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323412895203</t>
+    <t xml:space="preserve">0.977323472499847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622589111328</t>
+    <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579466342926</t>
+    <t xml:space="preserve">0.973579525947571</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936133980751038</t>
+    <t xml:space="preserve">0.936134099960327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666665554047</t>
+    <t xml:space="preserve">0.913666784763336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856753349304</t>
+    <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
     <t xml:space="preserve">0.909922003746033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177282333374</t>
+    <t xml:space="preserve">0.906177341938019</t>
   </si>
   <si>
     <t xml:space="preserve">0.902432560920715</t>
@@ -740,19 +740,19 @@
     <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924899935722351</t>
+    <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155154705048</t>
+    <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221358776093</t>
+    <t xml:space="preserve">0.876221299171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411267757416</t>
+    <t xml:space="preserve">0.91741144657135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89494401216507</t>
+    <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
     <t xml:space="preserve">0.883709847927094</t>
@@ -767,7 +767,7 @@
     <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243367195129</t>
+    <t xml:space="preserve">0.861243307590485</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286549568176</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">0.835031151771545</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520654201508</t>
+    <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
     <t xml:space="preserve">0.853753864765167</t>
@@ -785,61 +785,61 @@
     <t xml:space="preserve">0.823797941207886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857498586177826</t>
+    <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775992393494</t>
+    <t xml:space="preserve">0.838775932788849</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585844993591</t>
+    <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075287818909</t>
+    <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
     <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987194538116</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907381772994995</t>
+    <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89949107170105</t>
+    <t xml:space="preserve">0.899491131305695</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162221908569</t>
+    <t xml:space="preserve">0.923162162303925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051850318909</t>
+    <t xml:space="preserve">0.931051909923553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600489616394</t>
+    <t xml:space="preserve">0.891600549221039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613523006439</t>
+    <t xml:space="preserve">0.962613642215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833074092865</t>
+    <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883710741996765</t>
+    <t xml:space="preserve">0.88371080160141</t>
   </si>
   <si>
     <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86793041229248</t>
+    <t xml:space="preserve">0.867930352687836</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83636873960495</t>
+    <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478872776031</t>
+    <t xml:space="preserve">0.828478932380676</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917319297791</t>
+    <t xml:space="preserve">0.796917259693146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698483467102</t>
+    <t xml:space="preserve">0.812698543071747</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191579341888</t>
+    <t xml:space="preserve">0.777191519737244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807901382446</t>
+    <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356481075287</t>
+    <t xml:space="preserve">0.765356421470642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082221031189</t>
+    <t xml:space="preserve">0.785082161426544</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795702457428</t>
+    <t xml:space="preserve">0.733795642852783</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465779781342</t>
+    <t xml:space="preserve">0.757465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7298504114151</t>
+    <t xml:space="preserve">0.729850351810455</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740099430084</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014419078827</t>
+    <t xml:space="preserve">0.718014478683472</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90652871131897</t>
+    <t xml:space="preserve">0.906528770923615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93979549407959</t>
+    <t xml:space="preserve">0.939795553684235</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063290119171</t>
+    <t xml:space="preserve">0.973063230514526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746117591858</t>
+    <t xml:space="preserve">0.964746057987213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379389762878</t>
+    <t xml:space="preserve">0.981379449367523</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01464712619781</t>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1005,9 +1005,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -44235,7 +44232,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44261,7 +44258,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44287,7 +44284,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44313,7 +44310,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44339,7 +44336,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44365,7 +44362,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44391,7 +44388,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44417,7 +44414,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44443,7 +44440,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44469,7 +44466,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44495,7 +44492,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44521,7 +44518,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44547,7 +44544,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44573,7 +44570,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44599,7 +44596,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44625,7 +44622,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44651,7 +44648,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44677,7 +44674,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44703,7 +44700,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44729,7 +44726,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44781,7 +44778,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44807,7 +44804,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44833,7 +44830,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44859,7 +44856,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44885,7 +44882,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44911,7 +44908,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44937,7 +44934,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44963,7 +44960,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44989,7 +44986,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45015,7 +45012,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45041,7 +45038,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45067,7 +45064,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45145,7 +45142,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45171,7 +45168,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45197,7 +45194,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45223,7 +45220,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45483,7 +45480,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45509,7 +45506,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45535,7 +45532,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45561,7 +45558,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45587,7 +45584,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45613,7 +45610,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45639,7 +45636,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45665,7 +45662,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45691,7 +45688,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45717,7 +45714,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45743,7 +45740,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45769,7 +45766,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45795,7 +45792,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45821,7 +45818,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45847,7 +45844,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45873,7 +45870,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45899,7 +45896,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45925,7 +45922,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45951,7 +45948,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45977,7 +45974,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46003,7 +46000,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46029,7 +46026,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46055,7 +46052,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46081,7 +46078,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46107,7 +46104,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46133,7 +46130,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46159,7 +46156,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46185,7 +46182,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46211,7 +46208,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46237,7 +46234,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46263,7 +46260,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46289,7 +46286,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46315,7 +46312,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46341,7 +46338,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46367,7 +46364,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46393,7 +46390,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46419,7 +46416,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46445,7 +46442,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46471,7 +46468,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46497,7 +46494,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46523,7 +46520,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46549,7 +46546,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46575,7 +46572,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46601,7 +46598,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46627,7 +46624,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46653,7 +46650,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46679,7 +46676,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46705,7 +46702,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46731,7 +46728,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46757,7 +46754,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46783,7 +46780,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46809,7 +46806,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46835,7 +46832,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46861,7 +46858,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46887,7 +46884,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46913,7 +46910,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46939,7 +46936,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46965,7 +46962,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46991,7 +46988,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47017,7 +47014,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47043,7 +47040,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47069,7 +47066,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47095,7 +47092,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47121,7 +47118,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47147,7 +47144,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47173,7 +47170,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47199,7 +47196,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47225,7 +47222,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47251,7 +47248,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47277,7 +47274,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47303,7 +47300,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47329,7 +47326,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47355,7 +47352,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47381,7 +47378,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47407,7 +47404,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47433,7 +47430,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47459,7 +47456,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47485,7 +47482,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47511,7 +47508,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47537,7 +47534,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47563,7 +47560,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47589,7 +47586,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47615,7 +47612,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47641,7 +47638,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47667,7 +47664,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47693,7 +47690,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47719,7 +47716,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47745,7 +47742,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47771,7 +47768,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47797,7 +47794,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47823,7 +47820,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47849,7 +47846,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47875,7 +47872,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47901,7 +47898,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47927,7 +47924,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47953,7 +47950,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47979,7 +47976,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48005,7 +48002,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48031,7 +48028,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48057,7 +48054,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48083,7 +48080,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48109,7 +48106,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48135,7 +48132,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48161,7 +48158,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48187,7 +48184,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48213,7 +48210,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48239,7 +48236,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48265,7 +48262,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48291,7 +48288,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48317,7 +48314,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48343,7 +48340,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48369,7 +48366,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48395,7 +48392,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48421,7 +48418,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48447,7 +48444,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48473,7 +48470,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48499,7 +48496,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48525,7 +48522,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48551,7 +48548,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48577,7 +48574,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48603,7 +48600,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48629,7 +48626,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48655,7 +48652,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48681,7 +48678,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48707,7 +48704,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48733,7 +48730,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48759,7 +48756,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48785,7 +48782,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48811,7 +48808,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48837,7 +48834,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48863,7 +48860,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48889,7 +48886,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48915,7 +48912,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48941,7 +48938,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48967,7 +48964,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48993,7 +48990,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49019,7 +49016,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49045,7 +49042,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49071,7 +49068,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49097,7 +49094,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49123,7 +49120,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49149,7 +49146,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49175,7 +49172,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49201,7 +49198,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49227,7 +49224,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49253,7 +49250,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49279,7 +49276,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49305,7 +49302,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49331,7 +49328,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49357,7 +49354,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49409,7 +49406,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49435,7 +49432,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49513,7 +49510,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49617,7 +49614,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49643,7 +49640,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49669,7 +49666,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49695,7 +49692,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49721,7 +49718,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49747,7 +49744,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49773,7 +49770,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49799,7 +49796,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49825,7 +49822,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49851,7 +49848,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49877,7 +49874,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49903,7 +49900,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49955,7 +49952,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49981,7 +49978,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50007,7 +50004,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50033,7 +50030,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50059,7 +50056,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50085,7 +50082,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50111,7 +50108,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50137,7 +50134,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50163,7 +50160,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50189,7 +50186,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50215,7 +50212,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50241,7 +50238,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50267,7 +50264,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50293,7 +50290,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50319,7 +50316,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50345,7 +50342,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50371,7 +50368,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50397,7 +50394,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50423,7 +50420,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50449,7 +50446,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50475,7 +50472,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50501,7 +50498,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50527,7 +50524,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50553,7 +50550,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50579,7 +50576,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50605,7 +50602,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50631,7 +50628,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50657,7 +50654,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50683,7 +50680,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50709,7 +50706,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50735,7 +50732,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50761,7 +50758,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50787,7 +50784,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50813,7 +50810,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50839,7 +50836,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50865,7 +50862,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50891,7 +50888,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50917,7 +50914,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50943,7 +50940,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50969,7 +50966,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50995,7 +50992,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51021,7 +51018,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51047,7 +51044,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51073,7 +51070,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51099,7 +51096,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51125,7 +51122,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51151,7 +51148,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51177,7 +51174,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51203,7 +51200,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51229,7 +51226,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51255,7 +51252,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51281,7 +51278,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51307,7 +51304,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51333,7 +51330,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51359,7 +51356,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51385,7 +51382,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51411,7 +51408,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51437,7 +51434,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51463,7 +51460,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51489,7 +51486,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51515,7 +51512,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51541,7 +51538,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51567,7 +51564,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51593,7 +51590,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51619,7 +51616,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51645,7 +51642,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51671,7 +51668,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51697,7 +51694,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51723,7 +51720,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51749,7 +51746,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51775,7 +51772,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51801,7 +51798,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51827,7 +51824,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51853,7 +51850,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51879,7 +51876,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51905,7 +51902,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51931,7 +51928,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51957,7 +51954,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51983,7 +51980,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52009,7 +52006,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52035,7 +52032,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52061,7 +52058,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52087,7 +52084,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52113,7 +52110,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52139,7 +52136,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52165,7 +52162,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52191,7 +52188,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52217,7 +52214,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52243,7 +52240,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52269,7 +52266,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52295,7 +52292,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52321,7 +52318,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52347,7 +52344,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52373,7 +52370,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52399,7 +52396,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52425,7 +52422,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52451,7 +52448,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52477,7 +52474,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52503,7 +52500,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52529,7 +52526,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52555,7 +52552,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52581,7 +52578,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52607,7 +52604,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52633,7 +52630,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52659,7 +52656,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52685,7 +52682,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52711,7 +52708,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52737,7 +52734,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52763,7 +52760,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52789,7 +52786,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52815,7 +52812,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52841,7 +52838,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52867,7 +52864,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52893,7 +52890,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52919,7 +52916,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52945,7 +52942,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52971,7 +52968,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52997,7 +52994,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53023,7 +53020,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53049,7 +53046,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53075,7 +53072,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53101,7 +53098,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53127,7 +53124,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53153,7 +53150,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53179,7 +53176,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53205,7 +53202,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53231,7 +53228,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53257,7 +53254,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53283,7 +53280,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53309,7 +53306,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53335,7 +53332,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53361,7 +53358,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53387,7 +53384,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53413,7 +53410,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53439,7 +53436,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53465,7 +53462,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53491,7 +53488,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53517,7 +53514,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53543,7 +53540,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53569,7 +53566,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53595,7 +53592,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53621,7 +53618,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53647,7 +53644,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53673,7 +53670,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53699,7 +53696,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53725,7 +53722,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53751,7 +53748,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53777,7 +53774,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53803,7 +53800,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53829,7 +53826,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53855,7 +53852,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53881,7 +53878,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53907,7 +53904,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53933,7 +53930,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53959,7 +53956,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53985,7 +53982,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54011,7 +54008,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54037,7 +54034,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54063,7 +54060,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54089,7 +54086,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54115,7 +54112,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54141,7 +54138,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54167,7 +54164,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54193,7 +54190,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54219,7 +54216,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54245,7 +54242,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54271,7 +54268,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54297,7 +54294,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54323,7 +54320,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54349,7 +54346,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54375,7 +54372,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54401,7 +54398,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54427,7 +54424,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54453,7 +54450,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54479,7 +54476,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54505,7 +54502,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54531,7 +54528,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54557,7 +54554,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54583,7 +54580,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54609,7 +54606,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54635,7 +54632,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54661,7 +54658,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54687,7 +54684,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54713,7 +54710,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54739,7 +54736,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54765,7 +54762,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54791,7 +54788,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54817,7 +54814,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54843,7 +54840,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54869,7 +54866,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54895,7 +54892,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54921,7 +54918,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54947,7 +54944,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54973,7 +54970,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54999,7 +54996,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55025,7 +55022,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55051,7 +55048,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55077,7 +55074,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55103,7 +55100,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55129,7 +55126,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55155,7 +55152,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55181,7 +55178,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55207,7 +55204,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55233,7 +55230,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55259,7 +55256,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55285,7 +55282,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55311,7 +55308,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55337,7 +55334,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55363,7 +55360,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55389,7 +55386,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55415,7 +55412,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55441,7 +55438,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55467,7 +55464,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55493,7 +55490,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55519,7 +55516,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55545,7 +55542,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55571,7 +55568,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55597,7 +55594,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55623,7 +55620,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55649,7 +55646,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55675,7 +55672,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55701,7 +55698,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55727,7 +55724,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55753,7 +55750,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55779,7 +55776,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55805,7 +55802,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55831,7 +55828,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55857,7 +55854,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55883,7 +55880,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55909,7 +55906,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55935,7 +55932,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55961,7 +55958,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55987,7 +55984,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56013,7 +56010,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56039,7 +56036,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56065,7 +56062,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56091,7 +56088,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56117,7 +56114,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56143,7 +56140,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56169,7 +56166,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56195,7 +56192,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56221,7 +56218,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56247,7 +56244,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56273,7 +56270,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56299,7 +56296,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56325,7 +56322,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56351,7 +56348,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56377,7 +56374,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56403,7 +56400,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56429,7 +56426,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56455,7 +56452,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56481,7 +56478,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56507,7 +56504,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56533,7 +56530,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56559,7 +56556,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56585,7 +56582,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56611,7 +56608,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56637,7 +56634,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56663,7 +56660,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56689,7 +56686,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56715,7 +56712,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56741,7 +56738,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56767,7 +56764,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56793,7 +56790,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56819,7 +56816,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56845,7 +56842,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56871,7 +56868,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56897,7 +56894,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56923,7 +56920,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56949,7 +56946,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56975,7 +56972,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57001,7 +56998,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57027,7 +57024,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57053,7 +57050,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57079,7 +57076,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57105,7 +57102,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57131,7 +57128,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57157,7 +57154,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57183,7 +57180,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57209,7 +57206,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57235,7 +57232,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57261,7 +57258,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57287,7 +57284,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57313,7 +57310,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57339,7 +57336,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57365,7 +57362,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57391,7 +57388,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57417,7 +57414,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57443,7 +57440,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57469,7 +57466,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57495,7 +57492,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57521,7 +57518,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57547,7 +57544,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2150" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57573,7 +57570,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2151" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57599,7 +57596,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2152" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57625,7 +57622,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57651,7 +57648,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57677,7 +57674,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57703,7 +57700,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57729,7 +57726,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57755,7 +57752,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2158" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57781,7 +57778,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57807,7 +57804,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57833,7 +57830,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2161" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57859,7 +57856,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2162" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57885,7 +57882,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2163" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57911,7 +57908,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2164" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57937,7 +57934,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57963,7 +57960,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2166" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57989,7 +57986,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2167" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58015,7 +58012,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2168" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58041,7 +58038,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2169" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58049,7 +58046,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.6392476852</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>70000</v>
@@ -58067,9 +58064,35 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2170" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6070486111</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>228610</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663920879364</t>
+    <t xml:space="preserve">0.816663861274719</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165435791016</t>
+    <t xml:space="preserve">0.803165376186371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801816046237946</t>
+    <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79641580581665</t>
+    <t xml:space="preserve">0.796415865421295</t>
   </si>
   <si>
     <t xml:space="preserve">0.799790620803833</t>
@@ -62,43 +62,43 @@
     <t xml:space="preserve">0.79506641626358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667010307312</t>
+    <t xml:space="preserve">0.789666891098022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716013431549</t>
+    <t xml:space="preserve">0.793716073036194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413550853729</t>
+    <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057624816895</t>
+    <t xml:space="preserve">0.876057803630829</t>
   </si>
   <si>
     <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908886909485</t>
+    <t xml:space="preserve">0.86390882730484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961813926697</t>
+    <t xml:space="preserve">0.840961873531342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824762940406799</t>
+    <t xml:space="preserve">0.824762880802155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236834526062</t>
+    <t xml:space="preserve">0.836236894130707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713818073273</t>
+    <t xml:space="preserve">0.820713758468628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915125370026</t>
+    <t xml:space="preserve">0.809915006160736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917380332947</t>
+    <t xml:space="preserve">0.782917439937592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090947628021</t>
+    <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
     <t xml:space="preserve">0.812614738941193</t>
@@ -107,10 +107,10 @@
     <t xml:space="preserve">0.811264455318451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115538597107</t>
+    <t xml:space="preserve">0.799115598201752</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840577602386</t>
+    <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
     <t xml:space="preserve">0.80923992395401</t>
@@ -122,58 +122,58 @@
     <t xml:space="preserve">0.801140904426575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540310382843</t>
+    <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741498470306</t>
+    <t xml:space="preserve">0.795741438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366802692413</t>
+    <t xml:space="preserve">0.792366743087769</t>
   </si>
   <si>
     <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78831672668457</t>
+    <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168584823608</t>
+    <t xml:space="preserve">0.776168644428253</t>
   </si>
   <si>
     <t xml:space="preserve">0.813289105892181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738409042358</t>
+    <t xml:space="preserve">0.822738289833069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837488174438</t>
+    <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038735866547</t>
+    <t xml:space="preserve">0.820038676261902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363534450531</t>
+    <t xml:space="preserve">0.819363594055176</t>
   </si>
   <si>
     <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988719463348</t>
+    <t xml:space="preserve">0.815988779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939597129822</t>
+    <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964188098907</t>
+    <t xml:space="preserve">0.813964307308197</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886288166046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572874069214</t>
+    <t xml:space="preserve">0.823572814464569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003717422485</t>
+    <t xml:space="preserve">0.82700377702713</t>
   </si>
   <si>
     <t xml:space="preserve">0.820827543735504</t>
@@ -188,73 +188,73 @@
     <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277721405029</t>
+    <t xml:space="preserve">0.813277661800385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811905443668365</t>
+    <t xml:space="preserve">0.81190550327301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454550743103</t>
+    <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845924377441</t>
+    <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257287979126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983283996582</t>
+    <t xml:space="preserve">0.802983224391937</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641496181488</t>
+    <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061183929443</t>
+    <t xml:space="preserve">0.794061064720154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553599357605</t>
   </si>
   <si>
     <t xml:space="preserve">0.830435514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355502128601</t>
+    <t xml:space="preserve">0.804355561733246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393753528595</t>
+    <t xml:space="preserve">0.78239381313324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766686916351</t>
+    <t xml:space="preserve">0.783766746520996</t>
   </si>
   <si>
     <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804461479187</t>
+    <t xml:space="preserve">0.761804401874542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922546386719</t>
+    <t xml:space="preserve">0.765922605991364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471713066101</t>
+    <t xml:space="preserve">0.773471772670746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530457496643</t>
+    <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216924190521</t>
+    <t xml:space="preserve">0.776216864585876</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570821285248</t>
+    <t xml:space="preserve">0.788570880889893</t>
   </si>
   <si>
     <t xml:space="preserve">0.776903390884399</t>
@@ -269,76 +269,76 @@
     <t xml:space="preserve">0.765236020088196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059131145477</t>
+    <t xml:space="preserve">0.759059190750122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313860416412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941582679749</t>
+    <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078346252441</t>
+    <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315913200378</t>
+    <t xml:space="preserve">0.791315972805023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.76249086856842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021535396576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77964860200882</t>
+    <t xml:space="preserve">0.779648542404175</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296876907349</t>
+    <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884175777435</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119809150696</t>
+    <t xml:space="preserve">0.796119868755341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354224205017</t>
+    <t xml:space="preserve">0.769354283809662</t>
   </si>
   <si>
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844765663147</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78513902425766</t>
+    <t xml:space="preserve">0.785139083862305</t>
   </si>
   <si>
     <t xml:space="preserve">0.801610291004181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589917182922</t>
+    <t xml:space="preserve">0.777589857578278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294764518738</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686853408813</t>
+    <t xml:space="preserve">0.757686913013458</t>
   </si>
   <si>
     <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754255175590515</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981350421906</t>
+    <t xml:space="preserve">0.767981290817261</t>
   </si>
   <si>
     <t xml:space="preserve">0.781707406044006</t>
@@ -347,31 +347,31 @@
     <t xml:space="preserve">0.787197768688202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867192268372</t>
   </si>
   <si>
     <t xml:space="preserve">0.844161450862885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298989295959</t>
+    <t xml:space="preserve">0.837298929691315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888400554657</t>
+    <t xml:space="preserve">0.857888281345367</t>
   </si>
   <si>
     <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712670326233</t>
+    <t xml:space="preserve">0.886712610721588</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87916362285614</t>
+    <t xml:space="preserve">0.879163503646851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84827983379364</t>
+    <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84965193271637</t>
+    <t xml:space="preserve">0.849651992321014</t>
   </si>
   <si>
     <t xml:space="preserve">0.869555771350861</t>
@@ -380,67 +380,67 @@
     <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826318025588989</t>
+    <t xml:space="preserve">0.826317965984344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063236713409</t>
+    <t xml:space="preserve">0.829063296318054</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925936698914</t>
+    <t xml:space="preserve">0.835926055908203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102766036987</t>
+    <t xml:space="preserve">0.842102825641632</t>
   </si>
   <si>
     <t xml:space="preserve">0.828376770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160232543945</t>
+    <t xml:space="preserve">0.809160113334656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591135501862</t>
+    <t xml:space="preserve">0.812591254711151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831808507442474</t>
+    <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
     <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553462266922</t>
+    <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730667114258</t>
+    <t xml:space="preserve">0.840730607509613</t>
   </si>
   <si>
     <t xml:space="preserve">0.8736732006073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319303512573</t>
+    <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517460346222</t>
+    <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281826972961</t>
+    <t xml:space="preserve">0.883281886577606</t>
   </si>
   <si>
     <t xml:space="preserve">0.872986733913422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260618686676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595300674438</t>
+    <t xml:space="preserve">0.882595360279083</t>
   </si>
   <si>
     <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165857315063</t>
+    <t xml:space="preserve">0.886165916919708</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89259260892868</t>
+    <t xml:space="preserve">0.892592549324036</t>
   </si>
   <si>
     <t xml:space="preserve">0.902589201927185</t>
@@ -449,10 +449,10 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445396900177</t>
+    <t xml:space="preserve">0.905445516109467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873941421509</t>
+    <t xml:space="preserve">0.906874001026154</t>
   </si>
   <si>
     <t xml:space="preserve">0.887593626976013</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">0.904017746448517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168489456177</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
     <t xml:space="preserve">0.884023010730743</t>
@@ -479,46 +479,46 @@
     <t xml:space="preserve">0.878310441970825</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8890221118927</t>
+    <t xml:space="preserve">0.889022052288055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166815757751</t>
+    <t xml:space="preserve">0.881166756153107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732887744904</t>
+    <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.899018466472626</t>
   </si>
   <si>
     <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159698963165</t>
+    <t xml:space="preserve">0.906159639358521</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91472852230072</t>
+    <t xml:space="preserve">0.914728403091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014339447021</t>
+    <t xml:space="preserve">0.914014220237732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444557666779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015953540802</t>
+    <t xml:space="preserve">0.909016013145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904731929302216</t>
+    <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171181201935</t>
+    <t xml:space="preserve">0.86617112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545149564743</t>
+    <t xml:space="preserve">0.88545161485672</t>
   </si>
   <si>
     <t xml:space="preserve">0.87188446521759</t>
@@ -527,46 +527,46 @@
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026536941528</t>
+    <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455920696259</t>
+    <t xml:space="preserve">0.870455861091614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028329849243</t>
+    <t xml:space="preserve">0.869028210639954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596974372864</t>
+    <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575867176056</t>
+    <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288555145264</t>
+    <t xml:space="preserve">0.953288435935974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294713497162</t>
+    <t xml:space="preserve">0.933294594287872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577719688416</t>
+    <t xml:space="preserve">0.94257777929306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011647701263</t>
+    <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97685295343399</t>
+    <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275399208069</t>
+    <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709208011627</t>
+    <t xml:space="preserve">0.979709088802338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143136024475</t>
+    <t xml:space="preserve">0.961142957210541</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568809986115</t>
@@ -578,16 +578,16 @@
     <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567315101624</t>
+    <t xml:space="preserve">0.977567195892334</t>
   </si>
   <si>
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426321029663</t>
+    <t xml:space="preserve">0.970426201820374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848587989807</t>
+    <t xml:space="preserve">0.991848468780518</t>
   </si>
   <si>
     <t xml:space="preserve">0.974711060523987</t>
@@ -596,25 +596,25 @@
     <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999703109264374</t>
+    <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990659713745</t>
+    <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846854686737</t>
+    <t xml:space="preserve">0.996846735477448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134285926819</t>
+    <t xml:space="preserve">0.991134166717529</t>
   </si>
   <si>
     <t xml:space="preserve">0.981137752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706575870514</t>
+    <t xml:space="preserve">0.989706456661224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133327484131</t>
+    <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
     <t xml:space="preserve">0.978995025157928</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430686473846</t>
+    <t xml:space="preserve">0.955430448055267</t>
   </si>
   <si>
     <t xml:space="preserve">0.922582924365997</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296387195587</t>
+    <t xml:space="preserve">0.928296446800232</t>
   </si>
   <si>
     <t xml:space="preserve">0.894734621047974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586510181427</t>
+    <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876573562622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024803638458</t>
+    <t xml:space="preserve">0.879024744033813</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739046096802</t>
@@ -656,46 +656,46 @@
     <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436606407166</t>
+    <t xml:space="preserve">0.93543666601181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007163047791</t>
+    <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148276329041</t>
+    <t xml:space="preserve">0.946148216724396</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.964000165462494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93186616897583</t>
+    <t xml:space="preserve">0.931865990161896</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606723308563</t>
+    <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177339553833</t>
+    <t xml:space="preserve">0.846177279949188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318452835083</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839037001132965</t>
+    <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170282363892</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458612442017</t>
+    <t xml:space="preserve">0.860458672046661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303444385529</t>
+    <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
     <t xml:space="preserve">0.917584776878357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090083122253</t>
+    <t xml:space="preserve">0.966090202331543</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579525947571</t>
+    <t xml:space="preserve">0.97357964515686</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345361709595</t>
@@ -722,22 +722,22 @@
     <t xml:space="preserve">0.936134099960327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666784763336</t>
+    <t xml:space="preserve">0.913666665554047</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909922003746033</t>
+    <t xml:space="preserve">0.909921884536743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177341938019</t>
+    <t xml:space="preserve">0.906177222728729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902432560920715</t>
+    <t xml:space="preserve">0.902432501316071</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891199290752411</t>
+    <t xml:space="preserve">0.891199231147766</t>
   </si>
   <si>
     <t xml:space="preserve">0.924899995326996</t>
@@ -746,25 +746,25 @@
     <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221299171448</t>
+    <t xml:space="preserve">0.876221358776093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91741144657135</t>
+    <t xml:space="preserve">0.917411327362061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894944071769714</t>
+    <t xml:space="preserve">0.89494401216507</t>
   </si>
   <si>
     <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879965960979462</t>
+    <t xml:space="preserve">0.879966020584106</t>
   </si>
   <si>
     <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868731915950775</t>
+    <t xml:space="preserve">0.86873197555542</t>
   </si>
   <si>
     <t xml:space="preserve">0.861243307590485</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835031151771545</t>
+    <t xml:space="preserve">0.83503121137619</t>
   </si>
   <si>
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753864765167</t>
+    <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797941207886</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">0.838775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850009202957153</t>
+    <t xml:space="preserve">0.850009262561798</t>
   </si>
   <si>
     <t xml:space="preserve">0.797585785388947</t>
@@ -58072,7 +58072,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6070486111</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>228610</v>
@@ -58093,6 +58093,32 @@
         <v>414</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.5133680556</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>5266</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,19 +38,19 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663920879364</t>
+    <t xml:space="preserve">0.816663861274719</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165435791016</t>
+    <t xml:space="preserve">0.803165376186371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801816046237946</t>
+    <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79641580581665</t>
+    <t xml:space="preserve">0.796415746212006</t>
   </si>
   <si>
     <t xml:space="preserve">0.799790620803833</t>
@@ -62,22 +62,22 @@
     <t xml:space="preserve">0.795066356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667010307312</t>
+    <t xml:space="preserve">0.789666950702667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716013431549</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413491249084</t>
+    <t xml:space="preserve">0.82341343164444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057744026184</t>
+    <t xml:space="preserve">0.876057803630829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661427497864</t>
+    <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908767700195</t>
+    <t xml:space="preserve">0.863909006118774</t>
   </si>
   <si>
     <t xml:space="preserve">0.840961813926697</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236834526062</t>
+    <t xml:space="preserve">0.836236953735352</t>
   </si>
   <si>
     <t xml:space="preserve">0.820713758468628</t>
@@ -95,22 +95,22 @@
     <t xml:space="preserve">0.809915006160736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917439937592</t>
+    <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090947628021</t>
+    <t xml:space="preserve">0.797090888023376</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614679336548</t>
+    <t xml:space="preserve">0.812614738941193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81126457452774</t>
+    <t xml:space="preserve">0.811264455318451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115538597107</t>
+    <t xml:space="preserve">0.799115478992462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840577602386</t>
+    <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
     <t xml:space="preserve">0.80923992395401</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">0.792366743087769</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7869673371315</t>
+    <t xml:space="preserve">0.786967277526855</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78831684589386</t>
+    <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
     <t xml:space="preserve">0.776168525218964</t>
@@ -149,40 +149,40 @@
     <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038676261902</t>
+    <t xml:space="preserve">0.820038616657257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363653659821</t>
+    <t xml:space="preserve">0.819363474845886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639329910278</t>
+    <t xml:space="preserve">0.814639270305634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988779067993</t>
+    <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939775943756</t>
+    <t xml:space="preserve">0.811939537525177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572754859924</t>
+    <t xml:space="preserve">0.823572874069214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003657817841</t>
+    <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
     <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820141077041626</t>
+    <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82425844669342</t>
+    <t xml:space="preserve">0.824258506298065</t>
   </si>
   <si>
     <t xml:space="preserve">0.817395925521851</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277661800385</t>
+    <t xml:space="preserve">0.813277781009674</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905443668365</t>
@@ -206,31 +206,31 @@
     <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983343601227</t>
+    <t xml:space="preserve">0.802983283996582</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473765850067</t>
+    <t xml:space="preserve">0.808473825454712</t>
   </si>
   <si>
     <t xml:space="preserve">0.80641496181488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061183929443</t>
+    <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553599357605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435454845428</t>
+    <t xml:space="preserve">0.830435395240784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355442523956</t>
+    <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393753528595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766746520996</t>
+    <t xml:space="preserve">0.783766686916351</t>
   </si>
   <si>
     <t xml:space="preserve">0.772099494934082</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">0.761804401874542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922546386719</t>
+    <t xml:space="preserve">0.765922605991364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471653461456</t>
+    <t xml:space="preserve">0.773471772670746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530397891998</t>
+    <t xml:space="preserve">0.775530517101288</t>
   </si>
   <si>
     <t xml:space="preserve">0.776216983795166</t>
@@ -257,7 +257,7 @@
     <t xml:space="preserve">0.776903450489044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667817115784</t>
+    <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
     <t xml:space="preserve">0.780335128307343</t>
@@ -269,16 +269,16 @@
     <t xml:space="preserve">0.759059190750122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313979625702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941701889038</t>
+    <t xml:space="preserve">0.754941642284393</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078227043152</t>
+    <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
     <t xml:space="preserve">0.791315913200378</t>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884294986725</t>
+    <t xml:space="preserve">0.787884175777435</t>
   </si>
   <si>
     <t xml:space="preserve">0.796119868755341</t>
@@ -308,19 +308,19 @@
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844646453857</t>
+    <t xml:space="preserve">0.774844706058502</t>
   </si>
   <si>
     <t xml:space="preserve">0.78513902425766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80161041021347</t>
+    <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589917182922</t>
+    <t xml:space="preserve">0.777589857578278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294645309448</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
     <t xml:space="preserve">0.757686853408813</t>
@@ -329,52 +329,52 @@
     <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754255175590515</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276383876801</t>
+    <t xml:space="preserve">0.778276264667511</t>
   </si>
   <si>
     <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707406044006</t>
+    <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
     <t xml:space="preserve">0.787197709083557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867192268372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161510467529</t>
+    <t xml:space="preserve">0.844161450862885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83729887008667</t>
+    <t xml:space="preserve">0.837298929691315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888281345367</t>
+    <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
     <t xml:space="preserve">0.868869185447693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712789535522</t>
+    <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87916362285614</t>
+    <t xml:space="preserve">0.879163563251495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279893398285</t>
+    <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84965193271637</t>
+    <t xml:space="preserve">0.849652051925659</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555771350861</t>
+    <t xml:space="preserve">0.869555711746216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338459014893</t>
+    <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
     <t xml:space="preserve">0.826317965984344</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">0.829063177108765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925817489624</t>
+    <t xml:space="preserve">0.835925996303558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102885246277</t>
+    <t xml:space="preserve">0.842102706432343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376770019531</t>
+    <t xml:space="preserve">0.828376710414886</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160172939301</t>
+    <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
     <t xml:space="preserve">0.812591195106506</t>
@@ -401,49 +401,49 @@
     <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475818634033</t>
+    <t xml:space="preserve">0.843475699424744</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845534563064575</t>
+    <t xml:space="preserve">0.84553450345993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730547904968</t>
+    <t xml:space="preserve">0.840730667114258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8736732006073</t>
+    <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319363117218</t>
+    <t xml:space="preserve">0.861319303512573</t>
   </si>
   <si>
     <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281826972961</t>
+    <t xml:space="preserve">0.883281946182251</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986614704132</t>
+    <t xml:space="preserve">0.872986674308777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260499477386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595419883728</t>
+    <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88188099861145</t>
+    <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165738105774</t>
+    <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592549324036</t>
+    <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90258914232254</t>
+    <t xml:space="preserve">0.902589201927185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162390708923</t>
+    <t xml:space="preserve">0.896162331104279</t>
   </si>
   <si>
     <t xml:space="preserve">0.905445516109467</t>
@@ -452,19 +452,19 @@
     <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593507766724</t>
+    <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880453288555145</t>
+    <t xml:space="preserve">0.88045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599606513977</t>
+    <t xml:space="preserve">0.867599725723267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017627239227</t>
+    <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168549060822</t>
+    <t xml:space="preserve">0.876168429851532</t>
   </si>
   <si>
     <t xml:space="preserve">0.884023010730743</t>
@@ -473,67 +473,67 @@
     <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87831050157547</t>
+    <t xml:space="preserve">0.87831038236618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889022052288055</t>
+    <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166756153107</t>
+    <t xml:space="preserve">0.881166815757751</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732828140259</t>
+    <t xml:space="preserve">0.899732887744904</t>
   </si>
   <si>
     <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305177688599</t>
+    <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
     <t xml:space="preserve">0.906159639358521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155452728271</t>
+    <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
     <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014220237732</t>
+    <t xml:space="preserve">0.914014339447021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444557666779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015953540802</t>
+    <t xml:space="preserve">0.909016013145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90473198890686</t>
+    <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171181201935</t>
+    <t xml:space="preserve">0.86617124080658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545149564743</t>
+    <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884346008301</t>
+    <t xml:space="preserve">0.871884405612946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885483264923</t>
+    <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026536941528</t>
+    <t xml:space="preserve">0.874026417732239</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455920696259</t>
+    <t xml:space="preserve">0.870455861091614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028210639954</t>
+    <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877597033977509</t>
+    <t xml:space="preserve">0.877596914768219</t>
   </si>
   <si>
     <t xml:space="preserve">0.87688285112381</t>
@@ -545,124 +545,124 @@
     <t xml:space="preserve">0.953288555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294653892517</t>
+    <t xml:space="preserve">0.933294594287872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577660083771</t>
+    <t xml:space="preserve">0.94257777929306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011647701263</t>
+    <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976852834224701</t>
+    <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275339603424</t>
+    <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709148406982</t>
+    <t xml:space="preserve">0.979709088802338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96114307641983</t>
+    <t xml:space="preserve">0.961143016815186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568809986115</t>
+    <t xml:space="preserve">0.972568929195404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859171390533</t>
+    <t xml:space="preserve">0.956859111785889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429430007935</t>
+    <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567255496979</t>
+    <t xml:space="preserve">0.977567315101624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284130096436</t>
+    <t xml:space="preserve">0.968284010887146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426142215729</t>
+    <t xml:space="preserve">0.970426201820374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848528385162</t>
+    <t xml:space="preserve">0.991848468780518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710941314697</t>
+    <t xml:space="preserve">0.974711060523987</t>
   </si>
   <si>
     <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999703109264374</t>
+    <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990540504456</t>
+    <t xml:space="preserve">0.993990659713745</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846914291382</t>
+    <t xml:space="preserve">0.996846854686737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134226322174</t>
+    <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137633323669</t>
+    <t xml:space="preserve">0.981137752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706516265869</t>
+    <t xml:space="preserve">0.989706575870514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133327484131</t>
+    <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994965553284</t>
+    <t xml:space="preserve">0.978995025157928</t>
   </si>
   <si>
     <t xml:space="preserve">0.967569828033447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856360435486</t>
+    <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002857208252</t>
+    <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430567264557</t>
+    <t xml:space="preserve">0.955430686473846</t>
   </si>
   <si>
     <t xml:space="preserve">0.922583043575287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296387195587</t>
+    <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
     <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586510181427</t>
+    <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876633167267</t>
   </si>
   <si>
     <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739105701447</t>
+    <t xml:space="preserve">0.879739046096802</t>
   </si>
   <si>
     <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436725616455</t>
+    <t xml:space="preserve">0.93543666601181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93900728225708</t>
+    <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148216724396</t>
+    <t xml:space="preserve">0.946148335933685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000046253204</t>
+    <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
     <t xml:space="preserve">0.931866109371185</t>
@@ -671,28 +671,28 @@
     <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177279949188</t>
+    <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318333625793</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
     <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170282363892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458612442017</t>
+    <t xml:space="preserve">0.860458672046661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303444385529</t>
+    <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584776878357</t>
+    <t xml:space="preserve">0.917584896087646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090202331543</t>
+    <t xml:space="preserve">0.966090083122253</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
@@ -701,34 +701,34 @@
     <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068134307861</t>
+    <t xml:space="preserve">0.981068074703217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323412895203</t>
+    <t xml:space="preserve">0.977323472499847</t>
   </si>
   <si>
     <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579466342926</t>
+    <t xml:space="preserve">0.973579525947571</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134040355682</t>
+    <t xml:space="preserve">0.936134099960327</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666725158691</t>
+    <t xml:space="preserve">0.913666784763336</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921944141388</t>
+    <t xml:space="preserve">0.909922003746033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177222728729</t>
+    <t xml:space="preserve">0.906177341938019</t>
   </si>
   <si>
     <t xml:space="preserve">0.902432560920715</t>
@@ -746,16 +746,16 @@
     <t xml:space="preserve">0.876221299171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411327362061</t>
+    <t xml:space="preserve">0.91741144657135</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89494401216507</t>
+    <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709907531738</t>
+    <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879966020584106</t>
+    <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
     <t xml:space="preserve">0.846264481544495</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86124324798584</t>
+    <t xml:space="preserve">0.861243307590485</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286549568176</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753924369812</t>
+    <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797941207886</t>
@@ -785,7 +785,7 @@
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775992393494</t>
+    <t xml:space="preserve">0.838775932788849</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
@@ -797,10 +797,10 @@
     <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476637363434</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987134933472</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
@@ -821,13 +821,13 @@
     <t xml:space="preserve">0.931051909923553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600489616394</t>
+    <t xml:space="preserve">0.891600549221039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613582611084</t>
+    <t xml:space="preserve">0.962613642215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94683313369751</t>
+    <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
     <t xml:space="preserve">0.88371080160141</t>
@@ -839,13 +839,13 @@
     <t xml:space="preserve">0.867930352687836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86003965139389</t>
+    <t xml:space="preserve">0.860039710998535</t>
   </si>
   <si>
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83636873960495</t>
+    <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
     <t xml:space="preserve">0.828478932380676</t>
@@ -854,13 +854,13 @@
     <t xml:space="preserve">0.789027452468872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84425938129425</t>
+    <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917319297791</t>
+    <t xml:space="preserve">0.796917259693146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698483467102</t>
+    <t xml:space="preserve">0.812698543071747</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
@@ -872,7 +872,7 @@
     <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356481075287</t>
+    <t xml:space="preserve">0.765356421470642</t>
   </si>
   <si>
     <t xml:space="preserve">0.785082161426544</t>
@@ -890,22 +890,22 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795702457428</t>
+    <t xml:space="preserve">0.733795642852783</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74563080072403</t>
+    <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465779781342</t>
+    <t xml:space="preserve">0.757465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7298504114151</t>
+    <t xml:space="preserve">0.729850351810455</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740099430084</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014419078827</t>
+    <t xml:space="preserve">0.718014478683472</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -58121,7 +58121,7 @@
     </row>
     <row r="2173">
       <c r="A2173" s="1" t="n">
-        <v>45488.6429398148</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B2173" t="n">
         <v>10100</v>
@@ -58142,6 +58142,32 @@
         <v>411</v>
       </c>
       <c r="H2173" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" s="1" t="n">
+        <v>45489.6018171296</v>
+      </c>
+      <c r="B2174" t="n">
+        <v>7525</v>
+      </c>
+      <c r="C2174" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2174" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2174" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2174" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2174" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,37 +38,37 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663861274719</t>
+    <t xml:space="preserve">0.816663920879364</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165376186371</t>
+    <t xml:space="preserve">0.80316549539566</t>
   </si>
   <si>
     <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796415746212006</t>
+    <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
     <t xml:space="preserve">0.799790620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441112041473</t>
+    <t xml:space="preserve">0.798441231250763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066356658936</t>
+    <t xml:space="preserve">0.795066475868225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789666950702667</t>
+    <t xml:space="preserve">0.789666891098022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716013431549</t>
+    <t xml:space="preserve">0.793716132640839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82341343164444</t>
+    <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
     <t xml:space="preserve">0.876057803630829</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863909006118774</t>
+    <t xml:space="preserve">0.863908767700195</t>
   </si>
   <si>
     <t xml:space="preserve">0.840961813926697</t>
@@ -86,7 +86,7 @@
     <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236953735352</t>
+    <t xml:space="preserve">0.836236774921417</t>
   </si>
   <si>
     <t xml:space="preserve">0.820713758468628</t>
@@ -98,16 +98,16 @@
     <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090888023376</t>
+    <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
     <t xml:space="preserve">0.812614738941193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264455318451</t>
+    <t xml:space="preserve">0.811264395713806</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115478992462</t>
+    <t xml:space="preserve">0.799115598201752</t>
   </si>
   <si>
     <t xml:space="preserve">0.803840517997742</t>
@@ -116,145 +116,145 @@
     <t xml:space="preserve">0.80923992395401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802490293979645</t>
+    <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140904426575</t>
+    <t xml:space="preserve">0.801140964031219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540250778198</t>
+    <t xml:space="preserve">0.806540310382843</t>
   </si>
   <si>
     <t xml:space="preserve">0.795741438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788316786289215</t>
+    <t xml:space="preserve">0.78831684589386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168525218964</t>
+    <t xml:space="preserve">0.776168465614319</t>
   </si>
   <si>
     <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738349437714</t>
+    <t xml:space="preserve">0.822738409042358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837488174438</t>
+    <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038616657257</t>
+    <t xml:space="preserve">0.820038676261902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363474845886</t>
+    <t xml:space="preserve">0.819363653659821</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639270305634</t>
+    <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939537525177</t>
+    <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964188098907</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572874069214</t>
+    <t xml:space="preserve">0.823572814464569</t>
   </si>
   <si>
     <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827543735504</t>
+    <t xml:space="preserve">0.820827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824258506298065</t>
+    <t xml:space="preserve">0.82425856590271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395925521851</t>
+    <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709458827972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277781009674</t>
+    <t xml:space="preserve">0.813277661800385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811905443668365</t>
+    <t xml:space="preserve">0.81190550327301</t>
   </si>
   <si>
     <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845983982086</t>
+    <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257168769836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983283996582</t>
+    <t xml:space="preserve">0.802983224391937</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473825454712</t>
+    <t xml:space="preserve">0.808473885059357</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641496181488</t>
+    <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
     <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553599357605</t>
+    <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435395240784</t>
+    <t xml:space="preserve">0.830435514450073</t>
   </si>
   <si>
     <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393753528595</t>
+    <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766686916351</t>
+    <t xml:space="preserve">0.783766746520996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099494934082</t>
+    <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804401874542</t>
+    <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922605991364</t>
+    <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471772670746</t>
+    <t xml:space="preserve">0.773471653461456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530517101288</t>
+    <t xml:space="preserve">0.775530338287354</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216983795166</t>
+    <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570821285248</t>
+    <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903450489044</t>
+    <t xml:space="preserve">0.776903331279755</t>
   </si>
   <si>
     <t xml:space="preserve">0.768667757511139</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">0.756313979625702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941642284393</t>
+    <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
@@ -281,10 +281,10 @@
     <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315913200378</t>
+    <t xml:space="preserve">0.791315853595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.762490749359131</t>
   </si>
   <si>
     <t xml:space="preserve">0.781021595001221</t>
@@ -296,67 +296,67 @@
     <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884175777435</t>
+    <t xml:space="preserve">0.78788423538208</t>
   </si>
   <si>
     <t xml:space="preserve">0.796119868755341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354283809662</t>
+    <t xml:space="preserve">0.769354224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627393722534</t>
+    <t xml:space="preserve">0.755627453327179</t>
   </si>
   <si>
     <t xml:space="preserve">0.774844706058502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78513902425766</t>
+    <t xml:space="preserve">0.785139083862305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610350608826</t>
+    <t xml:space="preserve">0.80161041021347</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589857578278</t>
+    <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294704914093</t>
+    <t xml:space="preserve">0.767294764518738</t>
   </si>
   <si>
     <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746706008911133</t>
+    <t xml:space="preserve">0.746705949306488</t>
   </si>
   <si>
     <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276264667511</t>
+    <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981231212616</t>
+    <t xml:space="preserve">0.767981290817261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707346439362</t>
+    <t xml:space="preserve">0.781707286834717</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197709083557</t>
+    <t xml:space="preserve">0.787197828292847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867192268372</t>
+    <t xml:space="preserve">0.833867132663727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161450862885</t>
+    <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298929691315</t>
+    <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
     <t xml:space="preserve">0.886712729930878</t>
@@ -368,61 +368,61 @@
     <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849652051925659</t>
+    <t xml:space="preserve">0.849651992321014</t>
   </si>
   <si>
     <t xml:space="preserve">0.869555711746216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338518619537</t>
+    <t xml:space="preserve">0.850338459014893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826317965984344</t>
+    <t xml:space="preserve">0.826318025588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063177108765</t>
+    <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925996303558</t>
+    <t xml:space="preserve">0.835925936698914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102706432343</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376710414886</t>
+    <t xml:space="preserve">0.828376770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160232543945</t>
+    <t xml:space="preserve">0.809160172939301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591195106506</t>
+    <t xml:space="preserve">0.812591254711151</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83180844783783</t>
+    <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475699424744</t>
+    <t xml:space="preserve">0.843475759029388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553450345993</t>
+    <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730667114258</t>
+    <t xml:space="preserve">0.840730488300323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.873673260211945</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319303512573</t>
+    <t xml:space="preserve">0.861319422721863</t>
   </si>
   <si>
     <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281946182251</t>
+    <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986674308777</t>
+    <t xml:space="preserve">0.872986793518066</t>
   </si>
   <si>
     <t xml:space="preserve">0.859260499477386</t>
@@ -431,127 +431,127 @@
     <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881881058216095</t>
+    <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165857315063</t>
+    <t xml:space="preserve">0.886165738105774</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89259260892868</t>
+    <t xml:space="preserve">0.892592549324036</t>
   </si>
   <si>
     <t xml:space="preserve">0.902589201927185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162331104279</t>
+    <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445516109467</t>
+    <t xml:space="preserve">0.905445396900177</t>
   </si>
   <si>
     <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593626976013</t>
+    <t xml:space="preserve">0.887593507766724</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88045334815979</t>
+    <t xml:space="preserve">0.8804532289505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599725723267</t>
+    <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017686843872</t>
+    <t xml:space="preserve">0.904017627239227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168429851532</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023010730743</t>
+    <t xml:space="preserve">0.884022951126099</t>
   </si>
   <si>
     <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87831038236618</t>
+    <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8890221118927</t>
+    <t xml:space="preserve">0.889022052288055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166815757751</t>
+    <t xml:space="preserve">0.881166756153107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732887744904</t>
+    <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
     <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305118083954</t>
+    <t xml:space="preserve">0.898305058479309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159639358521</t>
+    <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155333518982</t>
+    <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
     <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014339447021</t>
+    <t xml:space="preserve">0.914014279842377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444557666779</t>
+    <t xml:space="preserve">0.910444438457489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909016013145447</t>
+    <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
     <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617124080658</t>
+    <t xml:space="preserve">0.86617112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885451555252075</t>
+    <t xml:space="preserve">0.88545161485672</t>
   </si>
   <si>
     <t xml:space="preserve">0.871884405612946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885423660278</t>
+    <t xml:space="preserve">0.866885364055634</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026417732239</t>
+    <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455861091614</t>
+    <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
     <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596914768219</t>
+    <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575926780701</t>
+    <t xml:space="preserve">0.94757604598999</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288555145264</t>
+    <t xml:space="preserve">0.953288495540619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294594287872</t>
+    <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94257777929306</t>
+    <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011588096619</t>
+    <t xml:space="preserve">0.924011647701263</t>
   </si>
   <si>
     <t xml:space="preserve">0.976852893829346</t>
@@ -560,34 +560,34 @@
     <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709088802338</t>
+    <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143016815186</t>
+    <t xml:space="preserve">0.961142957210541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568929195404</t>
+    <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859111785889</t>
+    <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429549217224</t>
+    <t xml:space="preserve">0.960429430007935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567315101624</t>
+    <t xml:space="preserve">0.977567195892334</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284010887146</t>
+    <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426201820374</t>
+    <t xml:space="preserve">0.970426142215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848468780518</t>
+    <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974711060523987</t>
+    <t xml:space="preserve">0.974711000919342</t>
   </si>
   <si>
     <t xml:space="preserve">0.988992214202881</t>
@@ -596,25 +596,25 @@
     <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990659713745</t>
+    <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
     <t xml:space="preserve">0.996846854686737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134285926819</t>
+    <t xml:space="preserve">0.991134345531464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137752532959</t>
+    <t xml:space="preserve">0.981137633323669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706575870514</t>
+    <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133208274841</t>
+    <t xml:space="preserve">0.996133267879486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978995025157928</t>
+    <t xml:space="preserve">0.978994905948639</t>
   </si>
   <si>
     <t xml:space="preserve">0.967569828033447</t>
@@ -623,10 +623,10 @@
     <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002737998962</t>
+    <t xml:space="preserve">0.954002797603607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430686473846</t>
+    <t xml:space="preserve">0.955430626869202</t>
   </si>
   <si>
     <t xml:space="preserve">0.922583043575287</t>
@@ -635,40 +635,40 @@
     <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734680652618</t>
+    <t xml:space="preserve">0.894734621047974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586569786072</t>
+    <t xml:space="preserve">0.912586510181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876633167267</t>
+    <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024803638458</t>
+    <t xml:space="preserve">0.879024684429169</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739046096802</t>
+    <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
     <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93543666601181</t>
+    <t xml:space="preserve">0.935436725616455</t>
   </si>
   <si>
     <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148335933685</t>
+    <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.96399998664856</t>
   </si>
   <si>
     <t xml:space="preserve">0.931866109371185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606782913208</t>
+    <t xml:space="preserve">0.842606723308563</t>
   </si>
   <si>
     <t xml:space="preserve">0.846177339553833</t>
@@ -680,55 +680,55 @@
     <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170282363892</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458672046661</t>
+    <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
     <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584896087646</t>
+    <t xml:space="preserve">0.917584717273712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090083122253</t>
+    <t xml:space="preserve">0.966090202331543</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92864465713501</t>
+    <t xml:space="preserve">0.928644716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068074703217</t>
+    <t xml:space="preserve">0.981068134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323472499847</t>
+    <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622648715973</t>
+    <t xml:space="preserve">0.943622589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579525947571</t>
+    <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134099960327</t>
+    <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666784763336</t>
+    <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856812953949</t>
+    <t xml:space="preserve">0.954856753349304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909922003746033</t>
+    <t xml:space="preserve">0.909921944141388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177341938019</t>
+    <t xml:space="preserve">0.906177222728729</t>
   </si>
   <si>
     <t xml:space="preserve">0.902432560920715</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155214309692</t>
+    <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221299171448</t>
+    <t xml:space="preserve">0.876221358776093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91741144657135</t>
+    <t xml:space="preserve">0.917411267757416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894944071769714</t>
+    <t xml:space="preserve">0.89494401216507</t>
   </si>
   <si>
     <t xml:space="preserve">0.883709847927094</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243307590485</t>
+    <t xml:space="preserve">0.861243367195129</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286549568176</t>
@@ -776,16 +776,16 @@
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753864765167</t>
+    <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797941207886</t>
+    <t xml:space="preserve">0.823797881603241</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775932788849</t>
+    <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
@@ -794,49 +794,49 @@
     <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075228214264</t>
+    <t xml:space="preserve">0.805075287818909</t>
   </si>
   <si>
     <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987194538116</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90738171339035</t>
+    <t xml:space="preserve">0.907381772994995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899491131305695</t>
+    <t xml:space="preserve">0.89949107170105</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
+    <t xml:space="preserve">0.923162221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051909923553</t>
+    <t xml:space="preserve">0.931051850318909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600549221039</t>
+    <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613642215729</t>
+    <t xml:space="preserve">0.962613523006439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833193302155</t>
+    <t xml:space="preserve">0.946833074092865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88371080160141</t>
+    <t xml:space="preserve">0.883710741996765</t>
   </si>
   <si>
     <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930352687836</t>
+    <t xml:space="preserve">0.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -845,10 +845,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836368680000305</t>
+    <t xml:space="preserve">0.83636873960495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478932380676</t>
+    <t xml:space="preserve">0.828478872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -857,25 +857,25 @@
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917259693146</t>
+    <t xml:space="preserve">0.796917319297791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698543071747</t>
+    <t xml:space="preserve">0.812698483467102</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191519737244</t>
+    <t xml:space="preserve">0.777191579341888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807841777802</t>
+    <t xml:space="preserve">0.804807901382446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356421470642</t>
+    <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082161426544</t>
+    <t xml:space="preserve">0.785082221031189</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795642852783</t>
+    <t xml:space="preserve">0.733795702457428</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465839385986</t>
+    <t xml:space="preserve">0.757465779781342</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729850351810455</t>
+    <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740099430084</t>
@@ -920,7 +920,7 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014478683472</t>
+    <t xml:space="preserve">0.718014419078827</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906528770923615</t>
+    <t xml:space="preserve">0.90652871131897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939795553684235</t>
+    <t xml:space="preserve">0.93979549407959</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063230514526</t>
+    <t xml:space="preserve">0.973063290119171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746057987213</t>
+    <t xml:space="preserve">0.964746117591858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379449367523</t>
+    <t xml:space="preserve">0.981379389762878</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146472454071</t>
+    <t xml:space="preserve">1.01464712619781</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1002,6 +1002,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -44229,7 +44232,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44255,7 +44258,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44281,7 +44284,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44307,7 +44310,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44333,7 +44336,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44359,7 +44362,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44385,7 +44388,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44411,7 +44414,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44437,7 +44440,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44463,7 +44466,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44489,7 +44492,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44515,7 +44518,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44541,7 +44544,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44567,7 +44570,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44593,7 +44596,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44619,7 +44622,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44645,7 +44648,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44671,7 +44674,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44697,7 +44700,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44723,7 +44726,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44775,7 +44778,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44801,7 +44804,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44827,7 +44830,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44853,7 +44856,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44879,7 +44882,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44905,7 +44908,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44931,7 +44934,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44957,7 +44960,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44983,7 +44986,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45009,7 +45012,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45035,7 +45038,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45061,7 +45064,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45139,7 +45142,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45165,7 +45168,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45191,7 +45194,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45217,7 +45220,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45477,7 +45480,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45503,7 +45506,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45529,7 +45532,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45555,7 +45558,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45581,7 +45584,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45607,7 +45610,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45633,7 +45636,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45659,7 +45662,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45685,7 +45688,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45711,7 +45714,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45737,7 +45740,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45763,7 +45766,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45789,7 +45792,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45815,7 +45818,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45841,7 +45844,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45867,7 +45870,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45893,7 +45896,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45919,7 +45922,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45945,7 +45948,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45971,7 +45974,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -45997,7 +46000,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46023,7 +46026,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46049,7 +46052,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46075,7 +46078,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46101,7 +46104,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46127,7 +46130,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46153,7 +46156,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46179,7 +46182,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46205,7 +46208,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46231,7 +46234,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46257,7 +46260,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46283,7 +46286,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46309,7 +46312,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46335,7 +46338,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46361,7 +46364,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46387,7 +46390,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46413,7 +46416,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46439,7 +46442,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46465,7 +46468,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46491,7 +46494,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46517,7 +46520,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46543,7 +46546,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46569,7 +46572,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46595,7 +46598,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46621,7 +46624,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46647,7 +46650,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46673,7 +46676,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46699,7 +46702,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46725,7 +46728,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46751,7 +46754,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46777,7 +46780,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46803,7 +46806,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46829,7 +46832,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46855,7 +46858,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46881,7 +46884,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46907,7 +46910,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46933,7 +46936,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46959,7 +46962,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46985,7 +46988,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47011,7 +47014,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47037,7 +47040,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47063,7 +47066,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47089,7 +47092,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47115,7 +47118,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47141,7 +47144,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47167,7 +47170,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47193,7 +47196,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47219,7 +47222,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47245,7 +47248,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47271,7 +47274,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47297,7 +47300,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47323,7 +47326,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47349,7 +47352,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47375,7 +47378,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47401,7 +47404,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47427,7 +47430,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47453,7 +47456,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47479,7 +47482,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47505,7 +47508,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47531,7 +47534,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47557,7 +47560,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47583,7 +47586,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47609,7 +47612,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47635,7 +47638,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47661,7 +47664,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47687,7 +47690,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47713,7 +47716,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47739,7 +47742,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47765,7 +47768,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47791,7 +47794,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47817,7 +47820,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47843,7 +47846,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47869,7 +47872,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47895,7 +47898,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47921,7 +47924,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47947,7 +47950,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47973,7 +47976,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -47999,7 +48002,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48025,7 +48028,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48051,7 +48054,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48077,7 +48080,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48103,7 +48106,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48129,7 +48132,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48155,7 +48158,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48181,7 +48184,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48207,7 +48210,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48233,7 +48236,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48259,7 +48262,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48285,7 +48288,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48311,7 +48314,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48337,7 +48340,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48363,7 +48366,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48389,7 +48392,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48415,7 +48418,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48441,7 +48444,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48467,7 +48470,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48493,7 +48496,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48519,7 +48522,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48545,7 +48548,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48571,7 +48574,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48597,7 +48600,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48623,7 +48626,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48649,7 +48652,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48675,7 +48678,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48701,7 +48704,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48727,7 +48730,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48753,7 +48756,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48779,7 +48782,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48805,7 +48808,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48831,7 +48834,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48857,7 +48860,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48883,7 +48886,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48909,7 +48912,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48935,7 +48938,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48961,7 +48964,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48987,7 +48990,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49013,7 +49016,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49039,7 +49042,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49065,7 +49068,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49091,7 +49094,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49117,7 +49120,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49143,7 +49146,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49169,7 +49172,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49195,7 +49198,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49221,7 +49224,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49247,7 +49250,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49273,7 +49276,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49299,7 +49302,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49325,7 +49328,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49351,7 +49354,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49403,7 +49406,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49429,7 +49432,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49507,7 +49510,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49611,7 +49614,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49637,7 +49640,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49663,7 +49666,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49689,7 +49692,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49715,7 +49718,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49741,7 +49744,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49767,7 +49770,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49793,7 +49796,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49819,7 +49822,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49845,7 +49848,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49871,7 +49874,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49897,7 +49900,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49949,7 +49952,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49975,7 +49978,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50001,7 +50004,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50027,7 +50030,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50053,7 +50056,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50079,7 +50082,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50105,7 +50108,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50131,7 +50134,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50157,7 +50160,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50183,7 +50186,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50209,7 +50212,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50235,7 +50238,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50261,7 +50264,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50287,7 +50290,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50313,7 +50316,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50339,7 +50342,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50365,7 +50368,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50391,7 +50394,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50417,7 +50420,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50443,7 +50446,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50469,7 +50472,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50495,7 +50498,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50521,7 +50524,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50547,7 +50550,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50573,7 +50576,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50599,7 +50602,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50625,7 +50628,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50651,7 +50654,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50677,7 +50680,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50703,7 +50706,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50729,7 +50732,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50755,7 +50758,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50781,7 +50784,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50807,7 +50810,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50833,7 +50836,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50859,7 +50862,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50885,7 +50888,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50911,7 +50914,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50937,7 +50940,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50963,7 +50966,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50989,7 +50992,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51015,7 +51018,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51041,7 +51044,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51067,7 +51070,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51093,7 +51096,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51119,7 +51122,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51145,7 +51148,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51171,7 +51174,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51197,7 +51200,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51223,7 +51226,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51249,7 +51252,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51275,7 +51278,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51301,7 +51304,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51327,7 +51330,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51353,7 +51356,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51379,7 +51382,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51405,7 +51408,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51431,7 +51434,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51457,7 +51460,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51483,7 +51486,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51509,7 +51512,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51535,7 +51538,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51561,7 +51564,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51587,7 +51590,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51613,7 +51616,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51639,7 +51642,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51665,7 +51668,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51691,7 +51694,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51717,7 +51720,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51743,7 +51746,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51769,7 +51772,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51795,7 +51798,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51821,7 +51824,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51847,7 +51850,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51873,7 +51876,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51899,7 +51902,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51925,7 +51928,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51951,7 +51954,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51977,7 +51980,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52003,7 +52006,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52029,7 +52032,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52055,7 +52058,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52081,7 +52084,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52107,7 +52110,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52133,7 +52136,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52159,7 +52162,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52185,7 +52188,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52211,7 +52214,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52237,7 +52240,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52263,7 +52266,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52289,7 +52292,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52315,7 +52318,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52341,7 +52344,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52367,7 +52370,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52393,7 +52396,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52419,7 +52422,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52445,7 +52448,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52471,7 +52474,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52497,7 +52500,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52523,7 +52526,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52549,7 +52552,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52575,7 +52578,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52601,7 +52604,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52627,7 +52630,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52653,7 +52656,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52679,7 +52682,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52705,7 +52708,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52731,7 +52734,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52757,7 +52760,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52783,7 +52786,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52809,7 +52812,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52835,7 +52838,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52861,7 +52864,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52887,7 +52890,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52913,7 +52916,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52939,7 +52942,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52965,7 +52968,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52991,7 +52994,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53017,7 +53020,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53043,7 +53046,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53069,7 +53072,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53095,7 +53098,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53121,7 +53124,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53147,7 +53150,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53173,7 +53176,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53199,7 +53202,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53225,7 +53228,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53251,7 +53254,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53277,7 +53280,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53303,7 +53306,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53329,7 +53332,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53355,7 +53358,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53381,7 +53384,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53407,7 +53410,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53433,7 +53436,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53459,7 +53462,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53485,7 +53488,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53511,7 +53514,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53537,7 +53540,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53563,7 +53566,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53589,7 +53592,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53615,7 +53618,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53641,7 +53644,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53667,7 +53670,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53693,7 +53696,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53719,7 +53722,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53745,7 +53748,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53771,7 +53774,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53797,7 +53800,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53823,7 +53826,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53849,7 +53852,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53875,7 +53878,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53901,7 +53904,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53927,7 +53930,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53953,7 +53956,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53979,7 +53982,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54005,7 +54008,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54031,7 +54034,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54057,7 +54060,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54083,7 +54086,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54109,7 +54112,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54135,7 +54138,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54161,7 +54164,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54187,7 +54190,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54213,7 +54216,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54239,7 +54242,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54265,7 +54268,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54291,7 +54294,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54317,7 +54320,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54343,7 +54346,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54369,7 +54372,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54395,7 +54398,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54421,7 +54424,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54447,7 +54450,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54473,7 +54476,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54499,7 +54502,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54525,7 +54528,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54551,7 +54554,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54577,7 +54580,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54603,7 +54606,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54629,7 +54632,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54655,7 +54658,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54681,7 +54684,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54707,7 +54710,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54733,7 +54736,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54759,7 +54762,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54785,7 +54788,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54811,7 +54814,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54837,7 +54840,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54863,7 +54866,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54889,7 +54892,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54915,7 +54918,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54941,7 +54944,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54967,7 +54970,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54993,7 +54996,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55019,7 +55022,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55045,7 +55048,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55071,7 +55074,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55097,7 +55100,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55123,7 +55126,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55149,7 +55152,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55175,7 +55178,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55201,7 +55204,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55227,7 +55230,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55253,7 +55256,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55279,7 +55282,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55305,7 +55308,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55331,7 +55334,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55357,7 +55360,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55383,7 +55386,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55409,7 +55412,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55435,7 +55438,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55461,7 +55464,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55487,7 +55490,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55513,7 +55516,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55539,7 +55542,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55565,7 +55568,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55591,7 +55594,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55617,7 +55620,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55643,7 +55646,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55669,7 +55672,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55695,7 +55698,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55721,7 +55724,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55747,7 +55750,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55773,7 +55776,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55799,7 +55802,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55825,7 +55828,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55851,7 +55854,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55877,7 +55880,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55903,7 +55906,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55929,7 +55932,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55955,7 +55958,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55981,7 +55984,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56007,7 +56010,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56033,7 +56036,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56059,7 +56062,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56085,7 +56088,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56111,7 +56114,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56137,7 +56140,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56163,7 +56166,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56189,7 +56192,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56215,7 +56218,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56241,7 +56244,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56267,7 +56270,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56293,7 +56296,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56319,7 +56322,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56345,7 +56348,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56371,7 +56374,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56397,7 +56400,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56423,7 +56426,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56449,7 +56452,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56475,7 +56478,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56501,7 +56504,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56527,7 +56530,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56553,7 +56556,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56579,7 +56582,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56605,7 +56608,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56631,7 +56634,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56657,7 +56660,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56683,7 +56686,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56709,7 +56712,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56735,7 +56738,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56761,7 +56764,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56787,7 +56790,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56813,7 +56816,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56839,7 +56842,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56865,7 +56868,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56891,7 +56894,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56917,7 +56920,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56943,7 +56946,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56969,7 +56972,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56995,7 +56998,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57021,7 +57024,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57047,7 +57050,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57073,7 +57076,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57099,7 +57102,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57125,7 +57128,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57151,7 +57154,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57177,7 +57180,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57203,7 +57206,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57229,7 +57232,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57255,7 +57258,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57281,7 +57284,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57307,7 +57310,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57333,7 +57336,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57359,7 +57362,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57385,7 +57388,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57411,7 +57414,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57437,7 +57440,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57463,7 +57466,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57489,7 +57492,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57515,7 +57518,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57541,7 +57544,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2150" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57567,7 +57570,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2151" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57593,7 +57596,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2152" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57619,7 +57622,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2153" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57645,7 +57648,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2154" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57671,7 +57674,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2155" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57697,7 +57700,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2156" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57723,7 +57726,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2157" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57749,7 +57752,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2158" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57775,7 +57778,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2159" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57801,7 +57804,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2160" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57827,7 +57830,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2161" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57853,7 +57856,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2162" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57879,7 +57882,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2163" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57905,7 +57908,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2164" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57931,7 +57934,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2165" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57957,7 +57960,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2166" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57983,7 +57986,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2167" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58009,7 +58012,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2168" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58035,7 +58038,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2169" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58061,7 +58064,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2170" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58087,7 +58090,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2171" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58113,7 +58116,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2172" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58139,7 +58142,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2173" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58147,7 +58150,7 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n">
-        <v>45489.6018171296</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B2174" t="n">
         <v>7525</v>
@@ -58165,9 +58168,35 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2174" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2174" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" s="1" t="n">
+        <v>45490.642962963</v>
+      </c>
+      <c r="B2175" t="n">
+        <v>33940</v>
+      </c>
+      <c r="C2175" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2175" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2175" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2175" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>412</v>
+      </c>
+      <c r="H2175" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -47,55 +47,55 @@
     <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815986633301</t>
+    <t xml:space="preserve">0.801816046237946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796415865421295</t>
+    <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790620803833</t>
+    <t xml:space="preserve">0.799790680408478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441171646118</t>
+    <t xml:space="preserve">0.798441112041473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066356658936</t>
+    <t xml:space="preserve">0.795066475868225</t>
   </si>
   <si>
     <t xml:space="preserve">0.789667010307312</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716073036194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413550853729</t>
+    <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057744026184</t>
+    <t xml:space="preserve">0.876057922840118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661427497864</t>
+    <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390894651413</t>
+    <t xml:space="preserve">0.86390882730484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961933135986</t>
+    <t xml:space="preserve">0.840961873531342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824762940406799</t>
+    <t xml:space="preserve">0.824763000011444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236894130707</t>
+    <t xml:space="preserve">0.836236774921417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713758468628</t>
+    <t xml:space="preserve">0.820713818073273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915065765381</t>
+    <t xml:space="preserve">0.809914946556091</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917439937592</t>
+    <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
     <t xml:space="preserve">0.797090947628021</t>
@@ -113,46 +113,46 @@
     <t xml:space="preserve">0.803840577602386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80923992395401</t>
+    <t xml:space="preserve">0.809239983558655</t>
   </si>
   <si>
     <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140904426575</t>
+    <t xml:space="preserve">0.80114084482193</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540310382843</t>
+    <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
     <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967277526855</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
     <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168465614319</t>
+    <t xml:space="preserve">0.776168644428253</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289105892181</t>
+    <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738289833069</t>
+    <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837547779083</t>
+    <t xml:space="preserve">0.830837309360504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038735866547</t>
+    <t xml:space="preserve">0.820038616657257</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363534450531</t>
+    <t xml:space="preserve">0.819363594055176</t>
   </si>
   <si>
     <t xml:space="preserve">0.814639329910278</t>
@@ -164,13 +164,13 @@
     <t xml:space="preserve">0.811939597129822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964247703552</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886288166046</t>
+    <t xml:space="preserve">0.822886407375336</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572814464569</t>
+    <t xml:space="preserve">0.823572754859924</t>
   </si>
   <si>
     <t xml:space="preserve">0.827003717422485</t>
@@ -179,10 +179,10 @@
     <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820141196250916</t>
+    <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824258506298065</t>
+    <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
     <t xml:space="preserve">0.817395865917206</t>
@@ -194,10 +194,10 @@
     <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81190550327301</t>
+    <t xml:space="preserve">0.811905384063721</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964188098907</t>
+    <t xml:space="preserve">0.813964068889618</t>
   </si>
   <si>
     <t xml:space="preserve">0.819454610347748</t>
@@ -206,34 +206,34 @@
     <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257168769836</t>
+    <t xml:space="preserve">0.789257287979126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983283996582</t>
+    <t xml:space="preserve">0.802983403205872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473706245422</t>
+    <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641496181488</t>
+    <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061183929443</t>
+    <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553599357605</t>
+    <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435454845428</t>
+    <t xml:space="preserve">0.830435395240784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355561733246</t>
+    <t xml:space="preserve">0.804355442523956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393753528595</t>
+    <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766686916351</t>
+    <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
     <t xml:space="preserve">0.772099435329437</t>
@@ -248,25 +248,25 @@
     <t xml:space="preserve">0.773471713066101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530457496643</t>
+    <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216924190521</t>
+    <t xml:space="preserve">0.776216983795166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570821285248</t>
+    <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
     <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667757511139</t>
+    <t xml:space="preserve">0.768667817115784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335187911987</t>
+    <t xml:space="preserve">0.780335068702698</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765236020088196</t>
+    <t xml:space="preserve">0.765235960483551</t>
   </si>
   <si>
     <t xml:space="preserve">0.759059131145477</t>
@@ -281,16 +281,16 @@
     <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078346252441</t>
+    <t xml:space="preserve">0.748078227043152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315853595734</t>
+    <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.76249086856842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021535396576</t>
   </si>
   <si>
     <t xml:space="preserve">0.77964860200882</t>
@@ -299,10 +299,10 @@
     <t xml:space="preserve">0.802296876907349</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884175777435</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119868755341</t>
+    <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
@@ -311,40 +311,40 @@
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844646453857</t>
+    <t xml:space="preserve">0.774844586849213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78513902425766</t>
+    <t xml:space="preserve">0.785138964653015</t>
   </si>
   <si>
     <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589976787567</t>
+    <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294704914093</t>
+    <t xml:space="preserve">0.767294645309448</t>
   </si>
   <si>
     <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746706068515778</t>
+    <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
     <t xml:space="preserve">0.754255175590515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276383876801</t>
+    <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981290817261</t>
+    <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707406044006</t>
+    <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197709083557</t>
+    <t xml:space="preserve">0.787197649478912</t>
   </si>
   <si>
     <t xml:space="preserve">0.833867132663727</t>
@@ -353,34 +353,34 @@
     <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298989295959</t>
+    <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888340950012</t>
+    <t xml:space="preserve">0.857888281345367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869245052338</t>
+    <t xml:space="preserve">0.868869185447693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712729930878</t>
+    <t xml:space="preserve">0.886712789535522</t>
   </si>
   <si>
     <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279774188995</t>
+    <t xml:space="preserve">0.848279714584351</t>
   </si>
   <si>
     <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555711746216</t>
+    <t xml:space="preserve">0.869555830955505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338518619537</t>
+    <t xml:space="preserve">0.850338399410248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826317965984344</t>
+    <t xml:space="preserve">0.826318025588989</t>
   </si>
   <si>
     <t xml:space="preserve">0.829063236713409</t>
@@ -389,10 +389,10 @@
     <t xml:space="preserve">0.835925936698914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102766036987</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376829624176</t>
+    <t xml:space="preserve">0.828376770019531</t>
   </si>
   <si>
     <t xml:space="preserve">0.809160232543945</t>
@@ -404,40 +404,40 @@
     <t xml:space="preserve">0.83180844783783</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475759029388</t>
+    <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845534563064575</t>
+    <t xml:space="preserve">0.84553462266922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730607509613</t>
+    <t xml:space="preserve">0.840730428695679</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.87367308139801</t>
   </si>
   <si>
     <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517460346222</t>
+    <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281767368317</t>
+    <t xml:space="preserve">0.883281648159027</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986793518066</t>
+    <t xml:space="preserve">0.872986614704132</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260678291321</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595300674438</t>
+    <t xml:space="preserve">0.882595419883728</t>
   </si>
   <si>
     <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165797710419</t>
+    <t xml:space="preserve">0.886165738105774</t>
   </si>
   <si>
     <t xml:space="preserve">0.892592549324036</t>
@@ -449,31 +449,31 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445516109467</t>
+    <t xml:space="preserve">0.905445396900177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873941421509</t>
+    <t xml:space="preserve">0.906873881816864</t>
   </si>
   <si>
     <t xml:space="preserve">0.887593567371368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88045334815979</t>
+    <t xml:space="preserve">0.8804532289505</t>
   </si>
   <si>
     <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017746448517</t>
+    <t xml:space="preserve">0.904017627239227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168489456177</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884022951126099</t>
+    <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878306865692</t>
+    <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
     <t xml:space="preserve">0.87831050157547</t>
@@ -488,109 +488,109 @@
     <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89901864528656</t>
+    <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305118083954</t>
+    <t xml:space="preserve">0.898305058479309</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159698963165</t>
+    <t xml:space="preserve">0.90615975856781</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155333518982</t>
+    <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
     <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014339447021</t>
+    <t xml:space="preserve">0.914014279842377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444438457489</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015953540802</t>
+    <t xml:space="preserve">0.909015893936157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904731929302216</t>
+    <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617124080658</t>
+    <t xml:space="preserve">0.866171181201935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545149564743</t>
+    <t xml:space="preserve">0.88545161485672</t>
   </si>
   <si>
     <t xml:space="preserve">0.871884405612946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885364055634</t>
+    <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026536941528</t>
+    <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455801486969</t>
+    <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
     <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596974372864</t>
+    <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876882791519165</t>
+    <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575986385345</t>
+    <t xml:space="preserve">0.94757604598999</t>
   </si>
   <si>
     <t xml:space="preserve">0.953288555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294713497162</t>
+    <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
     <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011647701263</t>
+    <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97685295343399</t>
+    <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
     <t xml:space="preserve">0.998275399208069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709088802338</t>
+    <t xml:space="preserve">0.979709148406982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143136024475</t>
+    <t xml:space="preserve">0.961142957210541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568809986115</t>
+    <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859111785889</t>
+    <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429549217224</t>
+    <t xml:space="preserve">0.960429489612579</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567315101624</t>
+    <t xml:space="preserve">0.977567136287689</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284130096436</t>
+    <t xml:space="preserve">0.968284070491791</t>
   </si>
   <si>
     <t xml:space="preserve">0.970426201820374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848468780518</t>
+    <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710941314697</t>
+    <t xml:space="preserve">0.974711000919342</t>
   </si>
   <si>
     <t xml:space="preserve">0.988992154598236</t>
@@ -599,43 +599,43 @@
     <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990659713745</t>
+    <t xml:space="preserve">0.993990421295166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846735477448</t>
+    <t xml:space="preserve">0.996846973896027</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137752532959</t>
+    <t xml:space="preserve">0.981137573719025</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706575870514</t>
+    <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133327484131</t>
+    <t xml:space="preserve">0.996133267879486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978995025157928</t>
+    <t xml:space="preserve">0.978994905948639</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569947242737</t>
+    <t xml:space="preserve">0.967569768428802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856300830841</t>
+    <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002737998962</t>
+    <t xml:space="preserve">0.954002797603607</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430567264557</t>
+    <t xml:space="preserve">0.955430626869202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922583043575287</t>
+    <t xml:space="preserve">0.922583103179932</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296387195587</t>
+    <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
     <t xml:space="preserve">0.894734621047974</t>
@@ -644,31 +644,31 @@
     <t xml:space="preserve">0.912586510181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876633167267</t>
+    <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024803638458</t>
+    <t xml:space="preserve">0.879024624824524</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739046096802</t>
+    <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725770950317</t>
+    <t xml:space="preserve">0.924725711345673</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436606407166</t>
+    <t xml:space="preserve">0.93543666601181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007163047791</t>
+    <t xml:space="preserve">0.93900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148335933685</t>
+    <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.964000046253204</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93186616897583</t>
+    <t xml:space="preserve">0.931866109371185</t>
   </si>
   <si>
     <t xml:space="preserve">0.842606723308563</t>
@@ -677,13 +677,13 @@
     <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318452835083</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
     <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170282363892</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458612442017</t>
@@ -692,46 +692,46 @@
     <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584896087646</t>
+    <t xml:space="preserve">0.917584717273712</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090083122253</t>
+    <t xml:space="preserve">0.966090202331543</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92864465713501</t>
+    <t xml:space="preserve">0.928644716739655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068074703217</t>
+    <t xml:space="preserve">0.981068134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323472499847</t>
+    <t xml:space="preserve">0.977323412895203</t>
   </si>
   <si>
     <t xml:space="preserve">0.943622589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579525947571</t>
+    <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962345480918884</t>
+    <t xml:space="preserve">0.962345361709595</t>
   </si>
   <si>
     <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666784763336</t>
+    <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856812953949</t>
+    <t xml:space="preserve">0.954856753349304</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909922003746033</t>
+    <t xml:space="preserve">0.909921944141388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177282333374</t>
+    <t xml:space="preserve">0.906177222728729</t>
   </si>
   <si>
     <t xml:space="preserve">0.902432560920715</t>
@@ -740,19 +740,19 @@
     <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924900054931641</t>
+    <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221299171448</t>
+    <t xml:space="preserve">0.876221358776093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411386966705</t>
+    <t xml:space="preserve">0.917411267757416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894944071769714</t>
+    <t xml:space="preserve">0.89494401216507</t>
   </si>
   <si>
     <t xml:space="preserve">0.883709847927094</t>
@@ -761,34 +761,34 @@
     <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264541149139</t>
+    <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
     <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86124324798584</t>
+    <t xml:space="preserve">0.861243367195129</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831286489963531</t>
+    <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83503121137619</t>
+    <t xml:space="preserve">0.835031151771545</t>
   </si>
   <si>
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753864765167</t>
+    <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797941207886</t>
+    <t xml:space="preserve">0.823797881603241</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775932788849</t>
+    <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
@@ -797,49 +797,49 @@
     <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075228214264</t>
+    <t xml:space="preserve">0.805075287818909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476518154144</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987194538116</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90738171339035</t>
+    <t xml:space="preserve">0.907381772994995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899491131305695</t>
+    <t xml:space="preserve">0.89949107170105</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
+    <t xml:space="preserve">0.923162221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051909923553</t>
+    <t xml:space="preserve">0.931051850318909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600549221039</t>
+    <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613642215729</t>
+    <t xml:space="preserve">0.962613523006439</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833193302155</t>
+    <t xml:space="preserve">0.946833074092865</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88371080160141</t>
+    <t xml:space="preserve">0.883710741996765</t>
   </si>
   <si>
     <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930352687836</t>
+    <t xml:space="preserve">0.86793041229248</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836368680000305</t>
+    <t xml:space="preserve">0.83636873960495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478932380676</t>
+    <t xml:space="preserve">0.828478872776031</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917259693146</t>
+    <t xml:space="preserve">0.796917319297791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698543071747</t>
+    <t xml:space="preserve">0.812698483467102</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191519737244</t>
+    <t xml:space="preserve">0.777191579341888</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807841777802</t>
+    <t xml:space="preserve">0.804807901382446</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356421470642</t>
+    <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082161426544</t>
+    <t xml:space="preserve">0.785082221031189</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -893,7 +893,7 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795642852783</t>
+    <t xml:space="preserve">0.733795702457428</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
@@ -902,13 +902,13 @@
     <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465839385986</t>
+    <t xml:space="preserve">0.757465779781342</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.729850351810455</t>
+    <t xml:space="preserve">0.7298504114151</t>
   </si>
   <si>
     <t xml:space="preserve">0.737740099430084</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014478683472</t>
+    <t xml:space="preserve">0.718014419078827</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -941,10 +941,10 @@
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906528770923615</t>
+    <t xml:space="preserve">0.90652871131897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939795553684235</t>
+    <t xml:space="preserve">0.93979549407959</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -968,13 +968,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063230514526</t>
+    <t xml:space="preserve">0.973063290119171</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746057987213</t>
+    <t xml:space="preserve">0.964746117591858</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379449367523</t>
+    <t xml:space="preserve">0.981379389762878</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0146472454071</t>
+    <t xml:space="preserve">1.01464712619781</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -44232,7 +44235,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44258,7 +44261,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44284,7 +44287,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44310,7 +44313,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44336,7 +44339,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44388,7 +44391,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44414,7 +44417,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44440,7 +44443,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44492,7 +44495,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44544,7 +44547,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44570,7 +44573,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44596,7 +44599,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44622,7 +44625,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44700,7 +44703,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44778,7 +44781,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44830,7 +44833,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44882,7 +44885,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44908,7 +44911,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44986,7 +44989,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45012,7 +45015,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45064,7 +45067,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45220,7 +45223,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45480,7 +45483,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45506,7 +45509,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45532,7 +45535,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45558,7 +45561,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45584,7 +45587,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45610,7 +45613,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45636,7 +45639,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45662,7 +45665,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45688,7 +45691,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45714,7 +45717,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45740,7 +45743,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45766,7 +45769,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45792,7 +45795,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45818,7 +45821,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45844,7 +45847,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45870,7 +45873,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45896,7 +45899,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45922,7 +45925,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45948,7 +45951,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45974,7 +45977,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46000,7 +46003,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46026,7 +46029,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46052,7 +46055,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46078,7 +46081,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46104,7 +46107,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46130,7 +46133,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46156,7 +46159,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46182,7 +46185,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46208,7 +46211,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46234,7 +46237,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46260,7 +46263,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46286,7 +46289,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46312,7 +46315,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46338,7 +46341,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46364,7 +46367,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46390,7 +46393,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46416,7 +46419,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46442,7 +46445,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46468,7 +46471,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46494,7 +46497,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46520,7 +46523,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46546,7 +46549,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46572,7 +46575,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46598,7 +46601,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46624,7 +46627,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46650,7 +46653,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46676,7 +46679,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46702,7 +46705,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46728,7 +46731,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46754,7 +46757,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46780,7 +46783,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46806,7 +46809,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46832,7 +46835,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46858,7 +46861,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46884,7 +46887,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46910,7 +46913,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46936,7 +46939,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46962,7 +46965,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46988,7 +46991,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47014,7 +47017,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47040,7 +47043,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47066,7 +47069,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47092,7 +47095,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47118,7 +47121,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47144,7 +47147,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47170,7 +47173,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47196,7 +47199,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47222,7 +47225,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47248,7 +47251,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47274,7 +47277,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47300,7 +47303,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47326,7 +47329,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47352,7 +47355,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47378,7 +47381,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47404,7 +47407,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47430,7 +47433,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47456,7 +47459,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47482,7 +47485,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47508,7 +47511,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47534,7 +47537,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47560,7 +47563,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47586,7 +47589,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47612,7 +47615,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47638,7 +47641,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47664,7 +47667,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47690,7 +47693,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47716,7 +47719,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47742,7 +47745,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47768,7 +47771,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47794,7 +47797,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47820,7 +47823,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47846,7 +47849,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47872,7 +47875,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47898,7 +47901,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47924,7 +47927,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47950,7 +47953,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47976,7 +47979,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48002,7 +48005,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48028,7 +48031,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48054,7 +48057,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48080,7 +48083,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48106,7 +48109,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48132,7 +48135,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48158,7 +48161,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48184,7 +48187,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48210,7 +48213,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48236,7 +48239,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48262,7 +48265,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48288,7 +48291,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48314,7 +48317,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48340,7 +48343,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48366,7 +48369,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48392,7 +48395,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48418,7 +48421,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48444,7 +48447,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48470,7 +48473,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48496,7 +48499,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48522,7 +48525,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48548,7 +48551,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48574,7 +48577,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48600,7 +48603,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48626,7 +48629,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48652,7 +48655,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48678,7 +48681,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48704,7 +48707,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48730,7 +48733,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48756,7 +48759,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48782,7 +48785,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48808,7 +48811,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48834,7 +48837,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48860,7 +48863,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48886,7 +48889,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48912,7 +48915,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48938,7 +48941,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48964,7 +48967,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48990,7 +48993,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49016,7 +49019,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49042,7 +49045,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49068,7 +49071,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49094,7 +49097,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49120,7 +49123,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49146,7 +49149,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49172,7 +49175,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49198,7 +49201,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49224,7 +49227,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49250,7 +49253,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49276,7 +49279,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49302,7 +49305,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49328,7 +49331,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49354,7 +49357,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49406,7 +49409,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49432,7 +49435,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49510,7 +49513,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49614,7 +49617,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49640,7 +49643,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49666,7 +49669,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49692,7 +49695,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49718,7 +49721,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49744,7 +49747,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49770,7 +49773,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49796,7 +49799,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49822,7 +49825,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49848,7 +49851,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49874,7 +49877,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49900,7 +49903,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49952,7 +49955,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49978,7 +49981,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50004,7 +50007,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50030,7 +50033,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50056,7 +50059,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50082,7 +50085,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50108,7 +50111,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50134,7 +50137,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50160,7 +50163,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50186,7 +50189,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50212,7 +50215,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50238,7 +50241,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50264,7 +50267,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50290,7 +50293,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50316,7 +50319,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50342,7 +50345,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50368,7 +50371,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50394,7 +50397,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50420,7 +50423,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50446,7 +50449,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50472,7 +50475,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50498,7 +50501,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50524,7 +50527,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50550,7 +50553,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50576,7 +50579,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50602,7 +50605,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50628,7 +50631,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50654,7 +50657,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50680,7 +50683,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50706,7 +50709,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50732,7 +50735,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50758,7 +50761,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50784,7 +50787,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50810,7 +50813,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50836,7 +50839,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50862,7 +50865,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50888,7 +50891,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50914,7 +50917,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50940,7 +50943,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50966,7 +50969,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50992,7 +50995,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51018,7 +51021,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51044,7 +51047,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51070,7 +51073,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51096,7 +51099,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51122,7 +51125,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51148,7 +51151,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51174,7 +51177,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51200,7 +51203,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51226,7 +51229,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51252,7 +51255,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51278,7 +51281,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51304,7 +51307,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51330,7 +51333,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51356,7 +51359,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51382,7 +51385,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51408,7 +51411,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51434,7 +51437,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51460,7 +51463,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51486,7 +51489,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51512,7 +51515,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51538,7 +51541,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51564,7 +51567,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51590,7 +51593,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51616,7 +51619,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51642,7 +51645,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51668,7 +51671,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51694,7 +51697,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51720,7 +51723,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51746,7 +51749,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51772,7 +51775,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51798,7 +51801,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51824,7 +51827,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51850,7 +51853,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51876,7 +51879,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51902,7 +51905,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51928,7 +51931,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51954,7 +51957,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51980,7 +51983,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52006,7 +52009,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52032,7 +52035,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52058,7 +52061,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52084,7 +52087,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52110,7 +52113,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52136,7 +52139,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52162,7 +52165,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52188,7 +52191,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52214,7 +52217,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52240,7 +52243,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52266,7 +52269,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52292,7 +52295,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52318,7 +52321,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52344,7 +52347,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52370,7 +52373,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52396,7 +52399,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52422,7 +52425,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52448,7 +52451,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52474,7 +52477,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52500,7 +52503,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52526,7 +52529,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52552,7 +52555,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52578,7 +52581,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52604,7 +52607,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52630,7 +52633,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52656,7 +52659,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52682,7 +52685,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52708,7 +52711,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52734,7 +52737,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52760,7 +52763,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52786,7 +52789,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52812,7 +52815,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52838,7 +52841,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52864,7 +52867,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52890,7 +52893,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52916,7 +52919,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52942,7 +52945,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52968,7 +52971,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52994,7 +52997,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53020,7 +53023,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53046,7 +53049,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53072,7 +53075,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53098,7 +53101,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53124,7 +53127,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53150,7 +53153,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53176,7 +53179,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53202,7 +53205,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53228,7 +53231,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53254,7 +53257,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53280,7 +53283,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53306,7 +53309,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53332,7 +53335,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53358,7 +53361,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53384,7 +53387,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53410,7 +53413,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53436,7 +53439,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53462,7 +53465,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53488,7 +53491,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53514,7 +53517,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53540,7 +53543,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53566,7 +53569,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53592,7 +53595,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53618,7 +53621,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53644,7 +53647,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53670,7 +53673,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53696,7 +53699,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53722,7 +53725,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53748,7 +53751,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53774,7 +53777,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53800,7 +53803,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53826,7 +53829,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53852,7 +53855,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53878,7 +53881,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53904,7 +53907,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53930,7 +53933,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53956,7 +53959,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53982,7 +53985,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54008,7 +54011,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54034,7 +54037,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54060,7 +54063,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54086,7 +54089,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54112,7 +54115,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54138,7 +54141,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54164,7 +54167,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54190,7 +54193,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54216,7 +54219,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54242,7 +54245,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54268,7 +54271,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54294,7 +54297,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54320,7 +54323,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54346,7 +54349,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54372,7 +54375,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54398,7 +54401,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54424,7 +54427,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54450,7 +54453,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54476,7 +54479,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54502,7 +54505,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54528,7 +54531,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54554,7 +54557,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54580,7 +54583,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54606,7 +54609,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54632,7 +54635,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54658,7 +54661,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54684,7 +54687,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54710,7 +54713,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54736,7 +54739,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54762,7 +54765,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54788,7 +54791,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54814,7 +54817,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54840,7 +54843,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54866,7 +54869,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54892,7 +54895,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54918,7 +54921,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54944,7 +54947,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54970,7 +54973,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54996,7 +54999,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55022,7 +55025,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55048,7 +55051,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55074,7 +55077,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55100,7 +55103,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55126,7 +55129,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55152,7 +55155,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55178,7 +55181,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55204,7 +55207,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55230,7 +55233,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55256,7 +55259,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55282,7 +55285,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55308,7 +55311,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55334,7 +55337,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55360,7 +55363,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55386,7 +55389,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55412,7 +55415,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55438,7 +55441,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55464,7 +55467,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55490,7 +55493,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55516,7 +55519,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55542,7 +55545,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55568,7 +55571,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55594,7 +55597,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55620,7 +55623,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55646,7 +55649,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55672,7 +55675,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55698,7 +55701,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55724,7 +55727,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55750,7 +55753,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55776,7 +55779,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55802,7 +55805,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55828,7 +55831,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55854,7 +55857,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55880,7 +55883,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55906,7 +55909,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55932,7 +55935,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55958,7 +55961,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55984,7 +55987,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56010,7 +56013,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56036,7 +56039,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56062,7 +56065,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56088,7 +56091,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56114,7 +56117,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56140,7 +56143,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56166,7 +56169,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56192,7 +56195,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56218,7 +56221,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56244,7 +56247,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56270,7 +56273,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56296,7 +56299,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56322,7 +56325,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56348,7 +56351,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56374,7 +56377,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56400,7 +56403,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56426,7 +56429,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56452,7 +56455,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56478,7 +56481,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56504,7 +56507,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56530,7 +56533,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56556,7 +56559,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56582,7 +56585,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56608,7 +56611,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56634,7 +56637,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56660,7 +56663,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56686,7 +56689,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56712,7 +56715,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56738,7 +56741,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56764,7 +56767,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56790,7 +56793,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56816,7 +56819,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56842,7 +56845,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56868,7 +56871,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56894,7 +56897,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56920,7 +56923,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56946,7 +56949,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56972,7 +56975,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -56998,7 +57001,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57024,7 +57027,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57050,7 +57053,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57076,7 +57079,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57102,7 +57105,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57128,7 +57131,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57154,7 +57157,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57180,7 +57183,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57206,7 +57209,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57232,7 +57235,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57258,7 +57261,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57284,7 +57287,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57310,7 +57313,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57336,7 +57339,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57362,7 +57365,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57388,7 +57391,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57414,7 +57417,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57440,7 +57443,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57466,7 +57469,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57492,7 +57495,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57518,7 +57521,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57544,7 +57547,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2150" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57570,7 +57573,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2151" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57596,7 +57599,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2152" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57622,7 +57625,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2153" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57648,7 +57651,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2154" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57674,7 +57677,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2155" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57700,7 +57703,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2156" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57726,7 +57729,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2157" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57752,7 +57755,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2158" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57778,7 +57781,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2159" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57804,7 +57807,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2160" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57830,7 +57833,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2161" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57856,7 +57859,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2162" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57882,7 +57885,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2163" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57908,7 +57911,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2164" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57934,7 +57937,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2165" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57960,7 +57963,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2166" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57986,7 +57989,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2167" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58012,7 +58015,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2168" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58038,7 +58041,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2169" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58064,7 +58067,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2170" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58090,7 +58093,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2171" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58116,7 +58119,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2172" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58142,7 +58145,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2173" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58168,7 +58171,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2174" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58194,7 +58197,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2175" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58202,7 +58205,7 @@
     </row>
     <row r="2176">
       <c r="A2176" s="1" t="n">
-        <v>45491.644224537</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B2176" t="n">
         <v>10952</v>
@@ -58220,9 +58223,35 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2176" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H2176" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" s="1" t="n">
+        <v>45492.4058564815</v>
+      </c>
+      <c r="B2177" t="n">
+        <v>7500</v>
+      </c>
+      <c r="C2177" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2177" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2177" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2177" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2177" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -44,58 +44,58 @@
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165435791016</t>
+    <t xml:space="preserve">0.80316549539566</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801816046237946</t>
+    <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79641580581665</t>
+    <t xml:space="preserve">0.796415865421295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790680408478</t>
+    <t xml:space="preserve">0.799790740013123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441112041473</t>
+    <t xml:space="preserve">0.798441171646118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066475868225</t>
+    <t xml:space="preserve">0.79506641626358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667010307312</t>
+    <t xml:space="preserve">0.789666950702667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716073036194</t>
+    <t xml:space="preserve">0.793716132640839</t>
   </si>
   <si>
     <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057922840118</t>
+    <t xml:space="preserve">0.876057803630829</t>
   </si>
   <si>
     <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390882730484</t>
+    <t xml:space="preserve">0.86390894651413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961873531342</t>
+    <t xml:space="preserve">0.840961813926697</t>
   </si>
   <si>
     <t xml:space="preserve">0.824763000011444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236774921417</t>
+    <t xml:space="preserve">0.836236834526062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713818073273</t>
+    <t xml:space="preserve">0.820713758468628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809914946556091</t>
+    <t xml:space="preserve">0.809915065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917380332947</t>
+    <t xml:space="preserve">0.782917320728302</t>
   </si>
   <si>
     <t xml:space="preserve">0.797090947628021</t>
@@ -110,22 +110,22 @@
     <t xml:space="preserve">0.799115478992462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840577602386</t>
+    <t xml:space="preserve">0.803840517997742</t>
   </si>
   <si>
     <t xml:space="preserve">0.809239983558655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80249035358429</t>
+    <t xml:space="preserve">0.802490293979645</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80114084482193</t>
+    <t xml:space="preserve">0.801140904426575</t>
   </si>
   <si>
     <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741498470306</t>
+    <t xml:space="preserve">0.795741558074951</t>
   </si>
   <si>
     <t xml:space="preserve">0.792366683483124</t>
@@ -134,10 +134,10 @@
     <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788316786289215</t>
+    <t xml:space="preserve">0.78831672668457</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168644428253</t>
+    <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
     <t xml:space="preserve">0.813289046287537</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837309360504</t>
+    <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
     <t xml:space="preserve">0.820038616657257</t>
@@ -161,16 +161,16 @@
     <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939597129822</t>
+    <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886407375336</t>
+    <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572754859924</t>
+    <t xml:space="preserve">0.823572814464569</t>
   </si>
   <si>
     <t xml:space="preserve">0.827003717422485</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709458827972</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277721405029</t>
+    <t xml:space="preserve">0.813277781009674</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811905384063721</t>
+    <t xml:space="preserve">0.811905443668365</t>
   </si>
   <si>
     <t xml:space="preserve">0.813964068889618</t>
@@ -203,37 +203,37 @@
     <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845924377441</t>
+    <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257287979126</t>
+    <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983403205872</t>
+    <t xml:space="preserve">0.802983283996582</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806415021419525</t>
+    <t xml:space="preserve">0.80641496181488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061124324799</t>
+    <t xml:space="preserve">0.794061183929443</t>
   </si>
   <si>
     <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435395240784</t>
+    <t xml:space="preserve">0.830435454845428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355442523956</t>
+    <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393872737885</t>
+    <t xml:space="preserve">0.782393753528595</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766806125641</t>
+    <t xml:space="preserve">0.783766746520996</t>
   </si>
   <si>
     <t xml:space="preserve">0.772099435329437</t>
@@ -251,58 +251,58 @@
     <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216983795166</t>
+    <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
     <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903390884399</t>
+    <t xml:space="preserve">0.776903450489044</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667817115784</t>
+    <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335068702698</t>
+    <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765235960483551</t>
+    <t xml:space="preserve">0.765236020088196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059131145477</t>
+    <t xml:space="preserve">0.759059190750122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313860416412</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941642284393</t>
+    <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078227043152</t>
+    <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315913200378</t>
+    <t xml:space="preserve">0.791315972805023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.76249086856842</t>
+    <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021535396576</t>
+    <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
     <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296876907349</t>
+    <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884294986725</t>
+    <t xml:space="preserve">0.78788423538208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119928359985</t>
+    <t xml:space="preserve">0.796119809150696</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
@@ -311,19 +311,19 @@
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844586849213</t>
+    <t xml:space="preserve">0.774844706058502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785138964653015</t>
+    <t xml:space="preserve">0.78513902425766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610350608826</t>
+    <t xml:space="preserve">0.801610291004181</t>
   </si>
   <si>
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294645309448</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
     <t xml:space="preserve">0.757686853408813</t>
@@ -332,16 +332,16 @@
     <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754255175590515</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276324272156</t>
+    <t xml:space="preserve">0.778276383876801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981231212616</t>
+    <t xml:space="preserve">0.767981290817261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707346439362</t>
+    <t xml:space="preserve">0.781707286834717</t>
   </si>
   <si>
     <t xml:space="preserve">0.787197649478912</t>
@@ -356,64 +356,64 @@
     <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888281345367</t>
+    <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712789535522</t>
+    <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87916362285614</t>
+    <t xml:space="preserve">0.879163444042206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279714584351</t>
+    <t xml:space="preserve">0.84827983379364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84965193271637</t>
+    <t xml:space="preserve">0.849651992321014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555830955505</t>
+    <t xml:space="preserve">0.869555652141571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338399410248</t>
+    <t xml:space="preserve">0.850338459014893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826318025588989</t>
+    <t xml:space="preserve">0.826317965984344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063236713409</t>
+    <t xml:space="preserve">0.829063177108765</t>
   </si>
   <si>
     <t xml:space="preserve">0.835925936698914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102885246277</t>
+    <t xml:space="preserve">0.842102706432343</t>
   </si>
   <si>
     <t xml:space="preserve">0.828376770019531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160232543945</t>
+    <t xml:space="preserve">0.80916029214859</t>
   </si>
   <si>
     <t xml:space="preserve">0.812591135501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83180844783783</t>
+    <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
     <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553462266922</t>
+    <t xml:space="preserve">0.84553450345993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730428695679</t>
+    <t xml:space="preserve">0.840730547904968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87367308139801</t>
+    <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
     <t xml:space="preserve">0.861319363117218</t>
@@ -422,58 +422,58 @@
     <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281648159027</t>
+    <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986614704132</t>
+    <t xml:space="preserve">0.872986733913422</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260678291321</t>
+    <t xml:space="preserve">0.859260499477386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595419883728</t>
+    <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
     <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165738105774</t>
+    <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
     <t xml:space="preserve">0.892592549324036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902589201927185</t>
+    <t xml:space="preserve">0.90258914232254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162390708923</t>
+    <t xml:space="preserve">0.896162450313568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445396900177</t>
+    <t xml:space="preserve">0.905445456504822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873881816864</t>
+    <t xml:space="preserve">0.906874001026154</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593567371368</t>
+    <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8804532289505</t>
+    <t xml:space="preserve">0.880453288555145</t>
   </si>
   <si>
     <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017627239227</t>
+    <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168549060822</t>
+    <t xml:space="preserve">0.876168429851532</t>
   </si>
   <si>
     <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878366470337</t>
+    <t xml:space="preserve">0.891878426074982</t>
   </si>
   <si>
     <t xml:space="preserve">0.87831050157547</t>
@@ -485,103 +485,103 @@
     <t xml:space="preserve">0.881166756153107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732828140259</t>
+    <t xml:space="preserve">0.899732887744904</t>
   </si>
   <si>
     <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305058479309</t>
+    <t xml:space="preserve">0.898305177688599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90615975856781</t>
+    <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155393123627</t>
+    <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.91472852230072</t>
+    <t xml:space="preserve">0.914728403091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014279842377</t>
+    <t xml:space="preserve">0.914014339447021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444438457489</t>
+    <t xml:space="preserve">0.910444498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015893936157</t>
+    <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904732048511505</t>
+    <t xml:space="preserve">0.904731929302216</t>
   </si>
   <si>
     <t xml:space="preserve">0.866171181201935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545161485672</t>
+    <t xml:space="preserve">0.88545149564743</t>
   </si>
   <si>
     <t xml:space="preserve">0.871884405612946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885423660278</t>
+    <t xml:space="preserve">0.866885483264923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026477336884</t>
+    <t xml:space="preserve">0.874026596546173</t>
   </si>
   <si>
     <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028270244598</t>
+    <t xml:space="preserve">0.869028329849243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877597033977509</t>
+    <t xml:space="preserve">0.877596974372864</t>
   </si>
   <si>
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94757604598999</t>
+    <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
     <t xml:space="preserve">0.953288555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294653892517</t>
+    <t xml:space="preserve">0.933294594287872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577719688416</t>
+    <t xml:space="preserve">0.94257777929306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011588096619</t>
+    <t xml:space="preserve">0.924011647701263</t>
   </si>
   <si>
     <t xml:space="preserve">0.976852893829346</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275399208069</t>
+    <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709148406982</t>
+    <t xml:space="preserve">0.979708969593048</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961142957210541</t>
+    <t xml:space="preserve">0.961143016815186</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859052181244</t>
+    <t xml:space="preserve">0.956859111785889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429489612579</t>
+    <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567136287689</t>
+    <t xml:space="preserve">0.977567255496979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284070491791</t>
+    <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
     <t xml:space="preserve">0.970426201820374</t>
@@ -590,55 +590,55 @@
     <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974711000919342</t>
+    <t xml:space="preserve">0.974710822105408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992154598236</t>
+    <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999702990055084</t>
+    <t xml:space="preserve">0.999703109264374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990421295166</t>
+    <t xml:space="preserve">0.993990480899811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846973896027</t>
+    <t xml:space="preserve">0.996846914291382</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137573719025</t>
+    <t xml:space="preserve">0.981137692928314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706516265869</t>
+    <t xml:space="preserve">0.989706575870514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133267879486</t>
+    <t xml:space="preserve">0.996133089065552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994905948639</t>
+    <t xml:space="preserve">0.978994965553284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569768428802</t>
+    <t xml:space="preserve">0.967569887638092</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856420040131</t>
+    <t xml:space="preserve">0.966856300830841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002797603607</t>
+    <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430626869202</t>
+    <t xml:space="preserve">0.955430567264557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922583103179932</t>
+    <t xml:space="preserve">0.922583043575287</t>
   </si>
   <si>
     <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734621047974</t>
+    <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
     <t xml:space="preserve">0.912586510181427</t>
@@ -647,16 +647,16 @@
     <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024624824524</t>
+    <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739105701447</t>
+    <t xml:space="preserve">0.879738986492157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725711345673</t>
+    <t xml:space="preserve">0.924725830554962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93543666601181</t>
+    <t xml:space="preserve">0.935436725616455</t>
   </si>
   <si>
     <t xml:space="preserve">0.93900728225708</t>
@@ -665,16 +665,16 @@
     <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000046253204</t>
+    <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866109371185</t>
+    <t xml:space="preserve">0.93186616897583</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606723308563</t>
+    <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177339553833</t>
+    <t xml:space="preserve">0.846177399158478</t>
   </si>
   <si>
     <t xml:space="preserve">0.853318393230438</t>
@@ -683,7 +683,7 @@
     <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170163154602</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458612442017</t>
@@ -692,46 +692,46 @@
     <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584717273712</t>
+    <t xml:space="preserve">0.917584896087646</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090202331543</t>
+    <t xml:space="preserve">0.966090083122253</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928644716739655</t>
+    <t xml:space="preserve">0.928644597530365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068134307861</t>
+    <t xml:space="preserve">0.981068193912506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323412895203</t>
+    <t xml:space="preserve">0.977323532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622589111328</t>
+    <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
     <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962345361709595</t>
+    <t xml:space="preserve">0.962345480918884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134040355682</t>
+    <t xml:space="preserve">0.936133980751038</t>
   </si>
   <si>
     <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954856753349304</t>
+    <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
     <t xml:space="preserve">0.909921944141388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177222728729</t>
+    <t xml:space="preserve">0.906177282333374</t>
   </si>
   <si>
     <t xml:space="preserve">0.902432560920715</t>
@@ -743,43 +743,43 @@
     <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155273914337</t>
+    <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221358776093</t>
+    <t xml:space="preserve">0.876221299171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411267757416</t>
+    <t xml:space="preserve">0.917411327362061</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89494401216507</t>
+    <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709847927094</t>
+    <t xml:space="preserve">0.883709967136383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879965960979462</t>
+    <t xml:space="preserve">0.879966020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264481544495</t>
+    <t xml:space="preserve">0.846264541149139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868731915950775</t>
+    <t xml:space="preserve">0.86873185634613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243367195129</t>
+    <t xml:space="preserve">0.861243307590485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831286549568176</t>
+    <t xml:space="preserve">0.831286489963531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835031151771545</t>
+    <t xml:space="preserve">0.83503121137619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520594596863</t>
+    <t xml:space="preserve">0.842520654201508</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753924369812</t>
+    <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797881603241</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775992393494</t>
+    <t xml:space="preserve">0.838775932788849</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
@@ -800,16 +800,16 @@
     <t xml:space="preserve">0.805075287818909</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476577758789</t>
+    <t xml:space="preserve">0.872476518154144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987194538116</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
   </si>
   <si>
-    <t xml:space="preserve">0.907381772994995</t>
+    <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
     <t xml:space="preserve">0.89949107170105</t>
@@ -818,28 +818,28 @@
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162221908569</t>
+    <t xml:space="preserve">0.92316210269928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051850318909</t>
+    <t xml:space="preserve">0.931051969528198</t>
   </si>
   <si>
     <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613523006439</t>
+    <t xml:space="preserve">0.962613582611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946833074092865</t>
+    <t xml:space="preserve">0.946833193302155</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883710741996765</t>
+    <t xml:space="preserve">0.88371080160141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875820159912109</t>
+    <t xml:space="preserve">0.875820100307465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86793041229248</t>
+    <t xml:space="preserve">0.867930293083191</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -848,10 +848,10 @@
     <t xml:space="preserve">0.852149963378906</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83636873960495</t>
+    <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478872776031</t>
+    <t xml:space="preserve">0.828478991985321</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -869,16 +869,16 @@
     <t xml:space="preserve">0.781136870384216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777191579341888</t>
+    <t xml:space="preserve">0.777191519737244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804807901382446</t>
+    <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
     <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785082221031189</t>
+    <t xml:space="preserve">0.785082161426544</t>
   </si>
   <si>
     <t xml:space="preserve">0.769301772117615</t>
@@ -899,31 +899,31 @@
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745630741119385</t>
+    <t xml:space="preserve">0.74563080072403</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757465779781342</t>
+    <t xml:space="preserve">0.757465839385986</t>
   </si>
   <si>
     <t xml:space="preserve">0.741685450077057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7298504114151</t>
+    <t xml:space="preserve">0.729850351810455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737740099430084</t>
+    <t xml:space="preserve">0.737740159034729</t>
   </si>
   <si>
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.70617938041687</t>
+    <t xml:space="preserve">0.706179320812225</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
   </si>
   <si>
-    <t xml:space="preserve">0.718014419078827</t>
+    <t xml:space="preserve">0.718014478683472</t>
   </si>
   <si>
     <t xml:space="preserve">0.702234029769897</t>
@@ -932,19 +932,22 @@
     <t xml:space="preserve">0.7219597697258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588290691376</t>
+    <t xml:space="preserve">0.820588350296021</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
   </si>
   <si>
+    <t xml:space="preserve">0.923162162303925</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.898212492465973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90652871131897</t>
+    <t xml:space="preserve">0.906528770923615</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93979549407959</t>
+    <t xml:space="preserve">0.939795553684235</t>
   </si>
   <si>
     <t xml:space="preserve">0.914845883846283</t>
@@ -968,13 +971,13 @@
     <t xml:space="preserve">0.956429779529572</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973063290119171</t>
+    <t xml:space="preserve">0.973063230514526</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964746117591858</t>
+    <t xml:space="preserve">0.964746057987213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981379389762878</t>
+    <t xml:space="preserve">0.981379449367523</t>
   </si>
   <si>
     <t xml:space="preserve">0.989696621894836</t>
@@ -983,7 +986,7 @@
     <t xml:space="preserve">1.00633001327515</t>
   </si>
   <si>
-    <t xml:space="preserve">1.01464712619781</t>
+    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">0.99801379442215</t>
@@ -1005,9 +1008,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.03214085102081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0146472454071</t>
   </si>
   <si>
     <t xml:space="preserve">1.00590074062347</t>
@@ -37267,7 +37267,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1370" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37293,7 +37293,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1371" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37319,7 +37319,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1372" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37345,7 +37345,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1373" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37371,7 +37371,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1374" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37397,7 +37397,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1375" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37423,7 +37423,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1376" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37449,7 +37449,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1377" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37475,7 +37475,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1378" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37501,7 +37501,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1379" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37527,7 +37527,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1380" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37553,7 +37553,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1381" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -37579,7 +37579,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1382" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -37605,7 +37605,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1383" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -37631,7 +37631,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1384" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -37657,7 +37657,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1385" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -37683,7 +37683,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1386" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -37709,7 +37709,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1387" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -37735,7 +37735,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1388" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -37761,7 +37761,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1389" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -37787,7 +37787,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1390" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -37813,7 +37813,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1391" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -37839,7 +37839,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1392" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -37865,7 +37865,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1393" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -37891,7 +37891,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1394" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -37917,7 +37917,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1395" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -37943,7 +37943,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1396" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -37969,7 +37969,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1397" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -37995,7 +37995,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1398" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38021,7 +38021,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1399" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38047,7 +38047,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1400" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38073,7 +38073,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1401" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38099,7 +38099,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1402" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38125,7 +38125,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1403" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38151,7 +38151,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1404" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38177,7 +38177,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1405" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38203,7 +38203,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1406" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38229,7 +38229,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1407" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38255,7 +38255,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1408" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38281,7 +38281,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1409" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38307,7 +38307,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1410" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38333,7 +38333,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1411" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38359,7 +38359,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1412" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38385,7 +38385,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1413" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38411,7 +38411,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1414" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38437,7 +38437,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1415" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38463,7 +38463,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1416" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38489,7 +38489,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1417" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38515,7 +38515,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1418" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38541,7 +38541,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1419" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38593,7 +38593,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1421" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38619,7 +38619,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1422" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38645,7 +38645,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1423" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38671,7 +38671,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1424" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38697,7 +38697,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1425" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -38723,7 +38723,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1426" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -38749,7 +38749,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1427" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -38775,7 +38775,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1428" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -38801,7 +38801,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1429" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -38827,7 +38827,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1430" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -38853,7 +38853,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1431" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -38879,7 +38879,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1432" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -38905,7 +38905,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1433" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -38931,7 +38931,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1434" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -38957,7 +38957,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1435" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -38983,7 +38983,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1436" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39009,7 +39009,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1437" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39035,7 +39035,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1438" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39061,7 +39061,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1439" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39087,7 +39087,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1440" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39113,7 +39113,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1441" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39139,7 +39139,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1442" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39165,7 +39165,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1443" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39191,7 +39191,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1444" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39217,7 +39217,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1445" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39243,7 +39243,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1446" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39269,7 +39269,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1447" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39295,7 +39295,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1448" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39321,7 +39321,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1449" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39347,7 +39347,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1450" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39373,7 +39373,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1451" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39399,7 +39399,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1452" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39425,7 +39425,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1453" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39451,7 +39451,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1454" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39477,7 +39477,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1455" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39503,7 +39503,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1456" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39529,7 +39529,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1457" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39555,7 +39555,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1458" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39581,7 +39581,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1459" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -39607,7 +39607,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1460" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -39633,7 +39633,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1461" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -39659,7 +39659,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1462" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -39685,7 +39685,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1463" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -39737,7 +39737,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1465" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -39763,7 +39763,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1466" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -39789,7 +39789,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1467" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -39815,7 +39815,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1468" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -39841,7 +39841,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1469" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -39867,7 +39867,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1470" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -39893,7 +39893,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1471" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -39919,7 +39919,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1472" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -39945,7 +39945,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1473" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -39971,7 +39971,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1474" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -39997,7 +39997,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1475" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40023,7 +40023,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1476" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40049,7 +40049,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1477" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40075,7 +40075,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1478" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40101,7 +40101,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1479" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40127,7 +40127,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1480" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40153,7 +40153,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1481" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40179,7 +40179,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1482" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40205,7 +40205,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1483" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40231,7 +40231,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1484" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40257,7 +40257,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1485" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40283,7 +40283,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1486" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40309,7 +40309,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1487" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40335,7 +40335,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1488" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40361,7 +40361,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1489" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40387,7 +40387,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1490" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40413,7 +40413,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1491" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40439,7 +40439,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1492" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40465,7 +40465,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1493" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40491,7 +40491,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1494" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40517,7 +40517,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1495" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40543,7 +40543,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1496" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40569,7 +40569,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1497" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -40595,7 +40595,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1498" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -40621,7 +40621,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1499" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -40647,7 +40647,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1500" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -40673,7 +40673,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1501" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -40699,7 +40699,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1502" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -40725,7 +40725,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1503" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -40751,7 +40751,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1504" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -40777,7 +40777,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1505" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -40803,7 +40803,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1506" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -40881,7 +40881,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1509" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -40907,7 +40907,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1510" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -40933,7 +40933,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1511" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -40959,7 +40959,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1512" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -40985,7 +40985,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1513" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41037,7 +41037,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1515" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41063,7 +41063,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1516" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41089,7 +41089,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1517" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41115,7 +41115,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1518" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41141,7 +41141,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1519" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41167,7 +41167,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1520" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41193,7 +41193,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1521" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41219,7 +41219,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1522" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41245,7 +41245,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1523" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41271,7 +41271,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1524" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41297,7 +41297,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1525" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41323,7 +41323,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1526" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41349,7 +41349,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1527" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41375,7 +41375,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1528" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41401,7 +41401,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1529" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41427,7 +41427,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1530" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41453,7 +41453,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1531" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41479,7 +41479,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1532" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41505,7 +41505,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1533" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41531,7 +41531,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1534" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41557,7 +41557,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1535" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41583,7 +41583,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1536" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -41609,7 +41609,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1537" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -41635,7 +41635,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1538" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -41661,7 +41661,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1539" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -41687,7 +41687,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1540" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -41713,7 +41713,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1541" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -41739,7 +41739,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1542" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -41765,7 +41765,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1543" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -41791,7 +41791,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1544" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -41817,7 +41817,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1545" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -41843,7 +41843,7 @@
         <v>1.10685801506042</v>
       </c>
       <c r="G1546" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -41869,7 +41869,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1547" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -41895,7 +41895,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1548" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -41921,7 +41921,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1549" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -41947,7 +41947,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1550" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -41973,7 +41973,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1551" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -41999,7 +41999,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1552" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42025,7 +42025,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1553" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42051,7 +42051,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1554" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42077,7 +42077,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1555" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42103,7 +42103,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1556" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42129,7 +42129,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1557" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42155,7 +42155,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1558" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42207,7 +42207,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1560" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42233,7 +42233,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1561" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42259,7 +42259,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1562" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42285,7 +42285,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1563" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42337,7 +42337,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1565" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42363,7 +42363,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1566" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42389,7 +42389,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1567" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42415,7 +42415,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1568" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42441,7 +42441,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1569" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42467,7 +42467,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1570" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42493,7 +42493,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1571" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42519,7 +42519,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1572" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42545,7 +42545,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1573" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42571,7 +42571,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1574" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42597,7 +42597,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1575" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42623,7 +42623,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1576" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42649,7 +42649,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1577" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42675,7 +42675,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1578" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42987,7 +42987,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1590" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43013,7 +43013,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1591" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43039,7 +43039,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1592" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43065,7 +43065,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1593" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43091,7 +43091,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1594" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43117,7 +43117,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1595" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43143,7 +43143,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1596" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43169,7 +43169,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1597" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43195,7 +43195,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1598" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43221,7 +43221,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1599" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43247,7 +43247,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1600" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43273,7 +43273,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1601" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43403,7 +43403,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1606" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43429,7 +43429,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1607" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43455,7 +43455,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1608" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43481,7 +43481,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1609" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43507,7 +43507,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1610" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43533,7 +43533,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1611" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43559,7 +43559,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1612" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43585,7 +43585,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1613" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43611,7 +43611,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1614" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43637,7 +43637,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1615" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43663,7 +43663,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1616" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43689,7 +43689,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1617" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43715,7 +43715,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1618" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43741,7 +43741,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1619" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43767,7 +43767,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1620" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43793,7 +43793,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1621" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43819,7 +43819,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1622" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43845,7 +43845,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1623" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43871,7 +43871,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1624" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43897,7 +43897,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1625" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43923,7 +43923,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1626" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43949,7 +43949,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1627" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43975,7 +43975,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1628" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44001,7 +44001,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1629" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44027,7 +44027,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1630" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44053,7 +44053,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1631" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44079,7 +44079,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1632" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44105,7 +44105,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1633" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44131,7 +44131,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1634" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44157,7 +44157,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1635" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44183,7 +44183,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1636" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44209,7 +44209,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1637" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44235,7 +44235,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44755,7 +44755,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1658" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45093,7 +45093,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1671" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45119,7 +45119,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1672" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45249,7 +45249,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1677" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45275,7 +45275,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1678" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45301,7 +45301,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1679" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45327,7 +45327,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1680" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45353,7 +45353,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1681" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45379,7 +45379,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1682" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45405,7 +45405,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1683" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45431,7 +45431,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1684" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45457,7 +45457,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1685" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -49383,7 +49383,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1836" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49461,7 +49461,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1839" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49487,7 +49487,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1840" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49539,7 +49539,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1842" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49565,7 +49565,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1843" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49591,7 +49591,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1844" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49929,7 +49929,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1857" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -58231,7 +58231,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.4058564815</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>7500</v>
@@ -58252,6 +58252,32 @@
         <v>415</v>
       </c>
       <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.4285185185</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>23395</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663861274719</t>
+    <t xml:space="preserve">0.816663920879364</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80316549539566</t>
+    <t xml:space="preserve">0.803165376186371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815986633301</t>
+    <t xml:space="preserve">0.801815927028656</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796415865421295</t>
+    <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
     <t xml:space="preserve">0.799790740013123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441171646118</t>
+    <t xml:space="preserve">0.798441112041473</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79506641626358</t>
+    <t xml:space="preserve">0.795066356658936</t>
   </si>
   <si>
     <t xml:space="preserve">0.789666950702667</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057803630829</t>
+    <t xml:space="preserve">0.876057624816895</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661487102509</t>
+    <t xml:space="preserve">0.843661546707153</t>
   </si>
   <si>
     <t xml:space="preserve">0.86390894651413</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961813926697</t>
+    <t xml:space="preserve">0.840961754322052</t>
   </si>
   <si>
     <t xml:space="preserve">0.824763000011444</t>
@@ -89,19 +89,19 @@
     <t xml:space="preserve">0.836236834526062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713758468628</t>
+    <t xml:space="preserve">0.820713698863983</t>
   </si>
   <si>
     <t xml:space="preserve">0.809915065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917320728302</t>
+    <t xml:space="preserve">0.782917439937592</t>
   </si>
   <si>
     <t xml:space="preserve">0.797090947628021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614679336548</t>
+    <t xml:space="preserve">0.812614738941193</t>
   </si>
   <si>
     <t xml:space="preserve">0.811264514923096</t>
@@ -110,13 +110,13 @@
     <t xml:space="preserve">0.799115478992462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840517997742</t>
+    <t xml:space="preserve">0.803840637207031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809239983558655</t>
+    <t xml:space="preserve">0.80923992395401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802490293979645</t>
+    <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
     <t xml:space="preserve">0.801140904426575</t>
@@ -125,37 +125,37 @@
     <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741558074951</t>
+    <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366683483124</t>
+    <t xml:space="preserve">0.792366743087769</t>
   </si>
   <si>
     <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78831672668457</t>
+    <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
     <t xml:space="preserve">0.776168525218964</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289046287537</t>
+    <t xml:space="preserve">0.813288986682892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738349437714</t>
+    <t xml:space="preserve">0.822738409042358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837488174438</t>
+    <t xml:space="preserve">0.830837547779083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038616657257</t>
+    <t xml:space="preserve">0.820038676261902</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363594055176</t>
+    <t xml:space="preserve">0.819363534450531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639329910278</t>
+    <t xml:space="preserve">0.814639389514923</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988719463348</t>
@@ -167,16 +167,16 @@
     <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886347770691</t>
+    <t xml:space="preserve">0.822886288166046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572814464569</t>
+    <t xml:space="preserve">0.823572874069214</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003717422485</t>
+    <t xml:space="preserve">0.827003657817841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827543735504</t>
+    <t xml:space="preserve">0.820827603340149</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
@@ -185,22 +185,22 @@
     <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395865917206</t>
+    <t xml:space="preserve">0.817395925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709458827972</t>
+    <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277781009674</t>
+    <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811905443668365</t>
+    <t xml:space="preserve">0.811905384063721</t>
   </si>
   <si>
     <t xml:space="preserve">0.813964068889618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454610347748</t>
+    <t xml:space="preserve">0.819454550743103</t>
   </si>
   <si>
     <t xml:space="preserve">0.809845983982086</t>
@@ -209,13 +209,13 @@
     <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983283996582</t>
+    <t xml:space="preserve">0.802983343601227</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641496181488</t>
+    <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
     <t xml:space="preserve">0.794061183929443</t>
@@ -224,13 +224,13 @@
     <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435454845428</t>
+    <t xml:space="preserve">0.830435514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355502128601</t>
+    <t xml:space="preserve">0.804355561733246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393753528595</t>
+    <t xml:space="preserve">0.78239381313324</t>
   </si>
   <si>
     <t xml:space="preserve">0.783766746520996</t>
@@ -239,7 +239,7 @@
     <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804342269897</t>
+    <t xml:space="preserve">0.761804282665253</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
@@ -248,43 +248,43 @@
     <t xml:space="preserve">0.773471713066101</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530397891998</t>
+    <t xml:space="preserve">0.775530457496643</t>
   </si>
   <si>
     <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570761680603</t>
+    <t xml:space="preserve">0.788570821285248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903450489044</t>
+    <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667757511139</t>
+    <t xml:space="preserve">0.768667817115784</t>
   </si>
   <si>
     <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765236020088196</t>
+    <t xml:space="preserve">0.765236079692841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059190750122</t>
+    <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313860416412</t>
+    <t xml:space="preserve">0.756313920021057</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941701889038</t>
+    <t xml:space="preserve">0.754941642284393</t>
   </si>
   <si>
     <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078286647797</t>
+    <t xml:space="preserve">0.748078227043152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315972805023</t>
+    <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
     <t xml:space="preserve">0.762490808963776</t>
@@ -296,13 +296,13 @@
     <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296817302704</t>
+    <t xml:space="preserve">0.802296757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788423538208</t>
+    <t xml:space="preserve">0.787884175777435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119809150696</t>
+    <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354224205017</t>
@@ -311,19 +311,19 @@
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844646453857</t>
   </si>
   <si>
     <t xml:space="preserve">0.78513902425766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610291004181</t>
+    <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294704914093</t>
+    <t xml:space="preserve">0.767294824123383</t>
   </si>
   <si>
     <t xml:space="preserve">0.757686853408813</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">0.778276383876801</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981290817261</t>
+    <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707286834717</t>
+    <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197649478912</t>
+    <t xml:space="preserve">0.787197709083557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867192268372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161510467529</t>
+    <t xml:space="preserve">0.844161570072174</t>
   </si>
   <si>
     <t xml:space="preserve">0.83729887008667</t>
@@ -365,13 +365,13 @@
     <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163444042206</t>
+    <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84827983379364</t>
+    <t xml:space="preserve">0.848279774188995</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849651992321014</t>
+    <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
     <t xml:space="preserve">0.869555652141571</t>
@@ -380,19 +380,19 @@
     <t xml:space="preserve">0.850338459014893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826317965984344</t>
+    <t xml:space="preserve">0.826318025588989</t>
   </si>
   <si>
     <t xml:space="preserve">0.829063177108765</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925936698914</t>
+    <t xml:space="preserve">0.835926055908203</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102706432343</t>
+    <t xml:space="preserve">0.842102825641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376770019531</t>
+    <t xml:space="preserve">0.828376829624176</t>
   </si>
   <si>
     <t xml:space="preserve">0.80916029214859</t>
@@ -404,31 +404,31 @@
     <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475818634033</t>
+    <t xml:space="preserve">0.843475759029388</t>
   </si>
   <si>
     <t xml:space="preserve">0.84553450345993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730547904968</t>
+    <t xml:space="preserve">0.840730607509613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.87367308139801</t>
   </si>
   <si>
     <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517400741577</t>
+    <t xml:space="preserve">0.891517519950867</t>
   </si>
   <si>
     <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986733913422</t>
+    <t xml:space="preserve">0.872986793518066</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260499477386</t>
+    <t xml:space="preserve">0.859260559082031</t>
   </si>
   <si>
     <t xml:space="preserve">0.882595300674438</t>
@@ -437,25 +437,25 @@
     <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165857315063</t>
+    <t xml:space="preserve">0.886165916919708</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592549324036</t>
+    <t xml:space="preserve">0.892592489719391</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90258914232254</t>
+    <t xml:space="preserve">0.902589201927185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162450313568</t>
+    <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
     <t xml:space="preserve">0.905445456504822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906874001026154</t>
+    <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593626976013</t>
+    <t xml:space="preserve">0.887593567371368</t>
   </si>
   <si>
     <t xml:space="preserve">0.880453288555145</t>
@@ -464,19 +464,19 @@
     <t xml:space="preserve">0.867599666118622</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017686843872</t>
+    <t xml:space="preserve">0.904017746448517</t>
   </si>
   <si>
     <t xml:space="preserve">0.876168429851532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023010730743</t>
+    <t xml:space="preserve">0.884023070335388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878426074982</t>
+    <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87831050157547</t>
+    <t xml:space="preserve">0.878310441970825</t>
   </si>
   <si>
     <t xml:space="preserve">0.889022052288055</t>
@@ -491,19 +491,19 @@
     <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305177688599</t>
+    <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159698963165</t>
+    <t xml:space="preserve">0.906159639358521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155333518982</t>
+    <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728403091431</t>
+    <t xml:space="preserve">0.914728462696075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014339447021</t>
+    <t xml:space="preserve">0.914014399051666</t>
   </si>
   <si>
     <t xml:space="preserve">0.910444498062134</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904731929302216</t>
+    <t xml:space="preserve">0.904731869697571</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171181201935</t>
+    <t xml:space="preserve">0.86617124080658</t>
   </si>
   <si>
     <t xml:space="preserve">0.88545149564743</t>
@@ -527,34 +527,34 @@
     <t xml:space="preserve">0.866885483264923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026596546173</t>
+    <t xml:space="preserve">0.874026536941528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455920696259</t>
+    <t xml:space="preserve">0.870455980300903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028329849243</t>
+    <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
     <t xml:space="preserve">0.877596974372864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87688285112381</t>
+    <t xml:space="preserve">0.876882791519165</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288555145264</t>
+    <t xml:space="preserve">0.953288495540619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294594287872</t>
+    <t xml:space="preserve">0.933294713497162</t>
   </si>
   <si>
     <t xml:space="preserve">0.94257777929306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011647701263</t>
+    <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
     <t xml:space="preserve">0.976852893829346</t>
@@ -563,25 +563,25 @@
     <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979708969593048</t>
+    <t xml:space="preserve">0.979709029197693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143016815186</t>
+    <t xml:space="preserve">0.96114307641983</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859111785889</t>
+    <t xml:space="preserve">0.956859171390533</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429549217224</t>
+    <t xml:space="preserve">0.960429608821869</t>
   </si>
   <si>
     <t xml:space="preserve">0.977567255496979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284130096436</t>
+    <t xml:space="preserve">0.968284070491791</t>
   </si>
   <si>
     <t xml:space="preserve">0.970426201820374</t>
@@ -590,46 +590,46 @@
     <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710822105408</t>
+    <t xml:space="preserve">0.974710881710052</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992214202881</t>
+    <t xml:space="preserve">0.988992154598236</t>
   </si>
   <si>
     <t xml:space="preserve">0.999703109264374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990480899811</t>
+    <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846914291382</t>
+    <t xml:space="preserve">0.996846854686737</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137692928314</t>
+    <t xml:space="preserve">0.981137812137604</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706575870514</t>
+    <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133089065552</t>
+    <t xml:space="preserve">0.996133148670197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994965553284</t>
+    <t xml:space="preserve">0.978995025157928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569887638092</t>
+    <t xml:space="preserve">0.967569768428802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856300830841</t>
+    <t xml:space="preserve">0.966856420040131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002737998962</t>
+    <t xml:space="preserve">0.954002678394318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430567264557</t>
+    <t xml:space="preserve">0.955430626869202</t>
   </si>
   <si>
     <t xml:space="preserve">0.922583043575287</t>
@@ -641,19 +641,19 @@
     <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586510181427</t>
+    <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
     <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024803638458</t>
+    <t xml:space="preserve">0.879024863243103</t>
   </si>
   <si>
     <t xml:space="preserve">0.879738986492157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725830554962</t>
+    <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
     <t xml:space="preserve">0.935436725616455</t>
@@ -662,28 +662,28 @@
     <t xml:space="preserve">0.93900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148276329041</t>
+    <t xml:space="preserve">0.946148335933685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.964000165462494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93186616897583</t>
+    <t xml:space="preserve">0.931866228580475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606782913208</t>
+    <t xml:space="preserve">0.842606842517853</t>
   </si>
   <si>
     <t xml:space="preserve">0.846177399158478</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318393230438</t>
+    <t xml:space="preserve">0.853318452835083</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839037001132965</t>
+    <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170163154602</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458612442017</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584896087646</t>
+    <t xml:space="preserve">0.917584836483002</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090083122253</t>
@@ -58257,7 +58257,7 @@
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n">
-        <v>45495.4285185185</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B2178" t="n">
         <v>23395</v>
@@ -58278,6 +58278,32 @@
         <v>415</v>
       </c>
       <c r="H2178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" s="1" t="n">
+        <v>45496.6495601852</v>
+      </c>
+      <c r="B2179" t="n">
+        <v>86079</v>
+      </c>
+      <c r="C2179" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2179" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2179" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2179" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2179" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,25 +38,25 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663920879364</t>
+    <t xml:space="preserve">0.816663980484009</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165376186371</t>
+    <t xml:space="preserve">0.803165316581726</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815927028656</t>
+    <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
     <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790740013123</t>
+    <t xml:space="preserve">0.799790620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441112041473</t>
+    <t xml:space="preserve">0.798441290855408</t>
   </si>
   <si>
     <t xml:space="preserve">0.795066356658936</t>
@@ -65,28 +65,28 @@
     <t xml:space="preserve">0.789666950702667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716073036194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413491249084</t>
+    <t xml:space="preserve">0.82341343164444</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057624816895</t>
+    <t xml:space="preserve">0.876057803630829</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661546707153</t>
+    <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390894651413</t>
+    <t xml:space="preserve">0.86390882730484</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961754322052</t>
+    <t xml:space="preserve">0.840961813926697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824763000011444</t>
+    <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236834526062</t>
+    <t xml:space="preserve">0.836236953735352</t>
   </si>
   <si>
     <t xml:space="preserve">0.820713698863983</t>
@@ -95,40 +95,40 @@
     <t xml:space="preserve">0.809915065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917439937592</t>
+    <t xml:space="preserve">0.782917499542236</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090947628021</t>
+    <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614738941193</t>
+    <t xml:space="preserve">0.812614619731903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264514923096</t>
+    <t xml:space="preserve">0.811264455318451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115478992462</t>
+    <t xml:space="preserve">0.799115538597107</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803840637207031</t>
+    <t xml:space="preserve">0.803840458393097</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80923992395401</t>
+    <t xml:space="preserve">0.809239864349365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80249035358429</t>
+    <t xml:space="preserve">0.802490413188934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140904426575</t>
+    <t xml:space="preserve">0.80114084482193</t>
   </si>
   <si>
     <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741498470306</t>
+    <t xml:space="preserve">0.795741438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366802692413</t>
   </si>
   <si>
     <t xml:space="preserve">0.7869673371315</t>
@@ -137,16 +137,16 @@
     <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168525218964</t>
+    <t xml:space="preserve">0.776168584823608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813288986682892</t>
+    <t xml:space="preserve">0.813289105892181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738409042358</t>
+    <t xml:space="preserve">0.822738289833069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837547779083</t>
+    <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
     <t xml:space="preserve">0.820038676261902</t>
@@ -155,25 +155,25 @@
     <t xml:space="preserve">0.819363534450531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639389514923</t>
+    <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988719463348</t>
+    <t xml:space="preserve">0.815988779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939656734467</t>
+    <t xml:space="preserve">0.811939597129822</t>
   </si>
   <si>
     <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886288166046</t>
+    <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572874069214</t>
+    <t xml:space="preserve">0.823572754859924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003657817841</t>
+    <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
     <t xml:space="preserve">0.820827603340149</t>
@@ -185,31 +185,31 @@
     <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395925521851</t>
+    <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277721405029</t>
+    <t xml:space="preserve">0.813277661800385</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811905384063721</t>
+    <t xml:space="preserve">0.81190550327301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964068889618</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454550743103</t>
+    <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845983982086</t>
+    <t xml:space="preserve">0.809846043586731</t>
   </si>
   <si>
     <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983343601227</t>
+    <t xml:space="preserve">0.802983283996582</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
@@ -218,79 +218,79 @@
     <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061183929443</t>
+    <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553599357605</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435514450073</t>
+    <t xml:space="preserve">0.830435395240784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355561733246</t>
+    <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766746520996</t>
+    <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099435329437</t>
+    <t xml:space="preserve">0.772099494934082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804282665253</t>
+    <t xml:space="preserve">0.761804401874542</t>
   </si>
   <si>
     <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471713066101</t>
+    <t xml:space="preserve">0.773471772670746</t>
   </si>
   <si>
-    <t xml:space="preserve">0.775530457496643</t>
+    <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
     <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570821285248</t>
+    <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
     <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667817115784</t>
+    <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335128307343</t>
+    <t xml:space="preserve">0.780335187911987</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765236079692841</t>
+    <t xml:space="preserve">0.765236020088196</t>
   </si>
   <si>
     <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313979625702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941642284393</t>
+    <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748764753341675</t>
+    <t xml:space="preserve">0.74876481294632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078227043152</t>
+    <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315913200378</t>
+    <t xml:space="preserve">0.791315853595734</t>
   </si>
   <si>
     <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021654605865</t>
   </si>
   <si>
     <t xml:space="preserve">0.77964860200882</t>
@@ -299,13 +299,13 @@
     <t xml:space="preserve">0.802296757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884175777435</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
     <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354224205017</t>
+    <t xml:space="preserve">0.769354164600372</t>
   </si>
   <si>
     <t xml:space="preserve">0.755627393722534</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294824123383</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686853408813</t>
+    <t xml:space="preserve">0.757686913013458</t>
   </si>
   <si>
     <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75425511598587</t>
+    <t xml:space="preserve">0.754255175590515</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276383876801</t>
+    <t xml:space="preserve">0.778276264667511</t>
   </si>
   <si>
     <t xml:space="preserve">0.767981231212616</t>
@@ -347,13 +347,13 @@
     <t xml:space="preserve">0.787197709083557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867192268372</t>
+    <t xml:space="preserve">0.833867132663727</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161570072174</t>
+    <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83729887008667</t>
+    <t xml:space="preserve">0.837298929691315</t>
   </si>
   <si>
     <t xml:space="preserve">0.857888340950012</t>
@@ -365,58 +365,58 @@
     <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87916362285614</t>
+    <t xml:space="preserve">0.879163563251495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279774188995</t>
+    <t xml:space="preserve">0.848279714584351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84965193271637</t>
+    <t xml:space="preserve">0.849651992321014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555652141571</t>
+    <t xml:space="preserve">0.869555711746216</t>
   </si>
   <si>
     <t xml:space="preserve">0.850338459014893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826318025588989</t>
+    <t xml:space="preserve">0.826317965984344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063177108765</t>
+    <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835926055908203</t>
+    <t xml:space="preserve">0.835925996303558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102825641632</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
     <t xml:space="preserve">0.828376829624176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80916029214859</t>
+    <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
     <t xml:space="preserve">0.812591135501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831808507442474</t>
+    <t xml:space="preserve">0.831808388233185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475759029388</t>
+    <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553450345993</t>
+    <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730607509613</t>
+    <t xml:space="preserve">0.840730488300323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87367308139801</t>
+    <t xml:space="preserve">0.8736732006073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319363117218</t>
+    <t xml:space="preserve">0.861319482326508</t>
   </si>
   <si>
     <t xml:space="preserve">0.891517519950867</t>
@@ -425,70 +425,70 @@
     <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986793518066</t>
+    <t xml:space="preserve">0.872986674308777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260618686676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595300674438</t>
+    <t xml:space="preserve">0.882595241069794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881881058216095</t>
+    <t xml:space="preserve">0.881880939006805</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165916919708</t>
+    <t xml:space="preserve">0.886165797710419</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592489719391</t>
+    <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
     <t xml:space="preserve">0.902589201927185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162390708923</t>
+    <t xml:space="preserve">0.896162450313568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445456504822</t>
+    <t xml:space="preserve">0.905445516109467</t>
   </si>
   <si>
     <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593567371368</t>
+    <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880453288555145</t>
+    <t xml:space="preserve">0.88045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599666118622</t>
+    <t xml:space="preserve">0.867599546909332</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017746448517</t>
+    <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168429851532</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
     <t xml:space="preserve">0.884023070335388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878366470337</t>
+    <t xml:space="preserve">0.891878306865692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.878310441970825</t>
+    <t xml:space="preserve">0.878310561180115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889022052288055</t>
+    <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166756153107</t>
+    <t xml:space="preserve">0.881166696548462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732887744904</t>
+    <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.899018526077271</t>
   </si>
   <si>
     <t xml:space="preserve">0.898305118083954</t>
@@ -497,13 +497,13 @@
     <t xml:space="preserve">0.906159639358521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155273914337</t>
+    <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728462696075</t>
+    <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014399051666</t>
+    <t xml:space="preserve">0.914014279842377</t>
   </si>
   <si>
     <t xml:space="preserve">0.910444498062134</t>
@@ -512,136 +512,136 @@
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904731869697571</t>
+    <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617124080658</t>
+    <t xml:space="preserve">0.86617112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545149564743</t>
+    <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884405612946</t>
+    <t xml:space="preserve">0.87188446521759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885483264923</t>
+    <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026536941528</t>
+    <t xml:space="preserve">0.874026417732239</t>
   </si>
   <si>
     <t xml:space="preserve">0.870455980300903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028270244598</t>
+    <t xml:space="preserve">0.869028210639954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596974372864</t>
+    <t xml:space="preserve">0.877597093582153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876882791519165</t>
+    <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288495540619</t>
+    <t xml:space="preserve">0.953288435935974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294713497162</t>
+    <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94257777929306</t>
+    <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011588096619</t>
+    <t xml:space="preserve">0.924011647701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976852893829346</t>
+    <t xml:space="preserve">0.97685295343399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275279998779</t>
+    <t xml:space="preserve">0.998275339603424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709029197693</t>
+    <t xml:space="preserve">0.979709267616272</t>
   </si>
   <si>
     <t xml:space="preserve">0.96114307641983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568869590759</t>
+    <t xml:space="preserve">0.972568809986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859171390533</t>
+    <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429608821869</t>
+    <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
     <t xml:space="preserve">0.977567255496979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.968284070491791</t>
+    <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426201820374</t>
+    <t xml:space="preserve">0.970426142215729</t>
   </si>
   <si>
     <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710881710052</t>
+    <t xml:space="preserve">0.974710941314697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992154598236</t>
+    <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999703109264374</t>
+    <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
     <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846854686737</t>
+    <t xml:space="preserve">0.996846735477448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134285926819</t>
+    <t xml:space="preserve">0.991134226322174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137812137604</t>
+    <t xml:space="preserve">0.981137752532959</t>
   </si>
   <si>
     <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133148670197</t>
+    <t xml:space="preserve">0.996133327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978995025157928</t>
+    <t xml:space="preserve">0.978994846343994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569768428802</t>
+    <t xml:space="preserve">0.967569947242737</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856420040131</t>
+    <t xml:space="preserve">0.966856360435486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002678394318</t>
+    <t xml:space="preserve">0.954002857208252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430626869202</t>
+    <t xml:space="preserve">0.955430567264557</t>
   </si>
   <si>
     <t xml:space="preserve">0.922583043575287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296327590942</t>
+    <t xml:space="preserve">0.928296506404877</t>
   </si>
   <si>
     <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586569786072</t>
+    <t xml:space="preserve">0.912586510181427</t>
   </si>
   <si>
     <t xml:space="preserve">0.896876692771912</t>
@@ -650,16 +650,16 @@
     <t xml:space="preserve">0.879024863243103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879738986492157</t>
+    <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
     <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436725616455</t>
+    <t xml:space="preserve">0.935436606407166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93900728225708</t>
+    <t xml:space="preserve">0.939007163047791</t>
   </si>
   <si>
     <t xml:space="preserve">0.946148335933685</t>
@@ -668,31 +668,31 @@
     <t xml:space="preserve">0.964000165462494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866228580475</t>
+    <t xml:space="preserve">0.931866109371185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606842517853</t>
+    <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177399158478</t>
+    <t xml:space="preserve">0.846177279949188</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853318452835083</t>
+    <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
     <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170282363892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458612442017</t>
+    <t xml:space="preserve">0.860458672046661</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303444385529</t>
+    <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584836483002</t>
+    <t xml:space="preserve">0.917584776878357</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090083122253</t>
@@ -701,10 +701,10 @@
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928644597530365</t>
+    <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068193912506</t>
+    <t xml:space="preserve">0.981068134307861</t>
   </si>
   <si>
     <t xml:space="preserve">0.977323532104492</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">0.962345480918884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936133980751038</t>
+    <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
     <t xml:space="preserve">0.913666725158691</t>
@@ -746,7 +746,7 @@
     <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221299171448</t>
+    <t xml:space="preserve">0.876221239566803</t>
   </si>
   <si>
     <t xml:space="preserve">0.917411327362061</t>
@@ -761,13 +761,13 @@
     <t xml:space="preserve">0.879966020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264541149139</t>
+    <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86873185634613</t>
+    <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243307590485</t>
+    <t xml:space="preserve">0.86124324798584</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286489963531</t>
@@ -776,7 +776,7 @@
     <t xml:space="preserve">0.83503121137619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520654201508</t>
+    <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
     <t xml:space="preserve">0.853753864765167</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775932788849</t>
+    <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
@@ -797,13 +797,13 @@
     <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075287818909</t>
+    <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
     <t xml:space="preserve">0.872476518154144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987194538116</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
@@ -58283,7 +58283,7 @@
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n">
-        <v>45496.6495601852</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B2179" t="n">
         <v>86079</v>
@@ -58304,6 +58304,32 @@
         <v>415</v>
       </c>
       <c r="H2179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" s="1" t="n">
+        <v>45497.3081712963</v>
+      </c>
+      <c r="B2180" t="n">
+        <v>5813</v>
+      </c>
+      <c r="C2180" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="D2180" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="E2180" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="F2180" t="n">
+        <v>0.860000014305115</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2180" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -38,28 +38,28 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.81666374206543</t>
+    <t xml:space="preserve">0.816663980484009</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165376186371</t>
+    <t xml:space="preserve">0.803165435791016</t>
   </si>
   <si>
     <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796415865421295</t>
+    <t xml:space="preserve">0.79641580581665</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790620803833</t>
+    <t xml:space="preserve">0.799790680408478</t>
   </si>
   <si>
     <t xml:space="preserve">0.798441171646118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066475868225</t>
+    <t xml:space="preserve">0.79506641626358</t>
   </si>
   <si>
     <t xml:space="preserve">0.789667069911957</t>
@@ -71,16 +71,16 @@
     <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057803630829</t>
+    <t xml:space="preserve">0.876057863235474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661487102509</t>
+    <t xml:space="preserve">0.843661427497864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390894651413</t>
+    <t xml:space="preserve">0.863908767700195</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961992740631</t>
+    <t xml:space="preserve">0.840961873531342</t>
   </si>
   <si>
     <t xml:space="preserve">0.824762940406799</t>
@@ -95,13 +95,13 @@
     <t xml:space="preserve">0.809915065765381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917380332947</t>
+    <t xml:space="preserve">0.782917439937592</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797090947628021</t>
+    <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614619731903</t>
+    <t xml:space="preserve">0.812614738941193</t>
   </si>
   <si>
     <t xml:space="preserve">0.811264514923096</t>
@@ -113,10 +113,10 @@
     <t xml:space="preserve">0.803840577602386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809239983558655</t>
+    <t xml:space="preserve">0.809239864349365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802490293979645</t>
+    <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
     <t xml:space="preserve">0.801140904426575</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">0.795741438865662</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366743087769</t>
+    <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7869673371315</t>
+    <t xml:space="preserve">0.786967217922211</t>
   </si>
   <si>
     <t xml:space="preserve">0.788316786289215</t>
@@ -143,31 +143,31 @@
     <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738468647003</t>
+    <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
     <t xml:space="preserve">0.830837368965149</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038616657257</t>
+    <t xml:space="preserve">0.820038676261902</t>
   </si>
   <si>
     <t xml:space="preserve">0.819363534450531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639329910278</t>
+    <t xml:space="preserve">0.814639389514923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988779067993</t>
+    <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939716339111</t>
+    <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
     <t xml:space="preserve">0.813964188098907</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886347770691</t>
+    <t xml:space="preserve">0.822886288166046</t>
   </si>
   <si>
     <t xml:space="preserve">0.823572814464569</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827543735504</t>
+    <t xml:space="preserve">0.820827484130859</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
@@ -188,10 +188,10 @@
     <t xml:space="preserve">0.817395925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709339618683</t>
+    <t xml:space="preserve">0.816709399223328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277661800385</t>
+    <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
     <t xml:space="preserve">0.811905443668365</t>
@@ -203,46 +203,46 @@
     <t xml:space="preserve">0.819454550743103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845983982086</t>
+    <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
     <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983403205872</t>
+    <t xml:space="preserve">0.802983343601227</t>
   </si>
   <si>
-    <t xml:space="preserve">0.808473825454712</t>
+    <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806415021419525</t>
+    <t xml:space="preserve">0.80641496181488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061064720154</t>
+    <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.834553718566895</t>
+    <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435335636139</t>
+    <t xml:space="preserve">0.830435514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355561733246</t>
+    <t xml:space="preserve">0.804355502128601</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393872737885</t>
+    <t xml:space="preserve">0.78239381313324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766686916351</t>
+    <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099435329437</t>
+    <t xml:space="preserve">0.772099375724792</t>
   </si>
   <si>
     <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922605991364</t>
+    <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
     <t xml:space="preserve">0.773471653461456</t>
@@ -251,58 +251,58 @@
     <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216924190521</t>
+    <t xml:space="preserve">0.776216983795166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570761680603</t>
+    <t xml:space="preserve">0.788570821285248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903390884399</t>
+    <t xml:space="preserve">0.776903331279755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667757511139</t>
+    <t xml:space="preserve">0.768667817115784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335128307343</t>
+    <t xml:space="preserve">0.780335068702698</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236020088196</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059190750122</t>
+    <t xml:space="preserve">0.759059131145477</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313979625702</t>
   </si>
   <si>
     <t xml:space="preserve">0.754941701889038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748764753341675</t>
+    <t xml:space="preserve">0.74876469373703</t>
   </si>
   <si>
     <t xml:space="preserve">0.748078227043152</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315972805023</t>
+    <t xml:space="preserve">0.791315853595734</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490749359131</t>
+    <t xml:space="preserve">0.762490808963776</t>
   </si>
   <si>
     <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779648542404175</t>
+    <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296876907349</t>
+    <t xml:space="preserve">0.802296757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884294986725</t>
+    <t xml:space="preserve">0.78788423538208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119868755341</t>
+    <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
     <t xml:space="preserve">0.769354283809662</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844765663147</t>
   </si>
   <si>
     <t xml:space="preserve">0.78513902425766</t>
@@ -320,103 +320,103 @@
     <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589857578278</t>
+    <t xml:space="preserve">0.777589917182922</t>
   </si>
   <si>
     <t xml:space="preserve">0.767294764518738</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686972618103</t>
+    <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746706008911133</t>
+    <t xml:space="preserve">0.746705949306488</t>
   </si>
   <si>
-    <t xml:space="preserve">0.75425511598587</t>
+    <t xml:space="preserve">0.754255175590515</t>
   </si>
   <si>
     <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981231212616</t>
+    <t xml:space="preserve">0.767981290817261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707406044006</t>
+    <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
     <t xml:space="preserve">0.787197709083557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867132663727</t>
+    <t xml:space="preserve">0.833867192268372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161510467529</t>
+    <t xml:space="preserve">0.844161570072174</t>
   </si>
   <si>
     <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888340950012</t>
+    <t xml:space="preserve">0.857888281345367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712670326233</t>
+    <t xml:space="preserve">0.886712789535522</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879163503646851</t>
+    <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279774188995</t>
+    <t xml:space="preserve">0.84827983379364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.849651873111725</t>
+    <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555830955505</t>
+    <t xml:space="preserve">0.869555771350861</t>
   </si>
   <si>
     <t xml:space="preserve">0.850338399410248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8263179063797</t>
+    <t xml:space="preserve">0.826318025588989</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063296318054</t>
+    <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925877094269</t>
+    <t xml:space="preserve">0.835925936698914</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102766036987</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376770019531</t>
+    <t xml:space="preserve">0.828376829624176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160172939301</t>
+    <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
     <t xml:space="preserve">0.812591135501862</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83180844783783</t>
+    <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475818634033</t>
+    <t xml:space="preserve">0.843475759029388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553462266922</t>
+    <t xml:space="preserve">0.84553450345993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730547904968</t>
+    <t xml:space="preserve">0.840730488300323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87367308139801</t>
+    <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319303512573</t>
+    <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
     <t xml:space="preserve">0.891517341136932</t>
@@ -425,16 +425,16 @@
     <t xml:space="preserve">0.883281767368317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986674308777</t>
+    <t xml:space="preserve">0.872986733913422</t>
   </si>
   <si>
     <t xml:space="preserve">0.859260559082031</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595241069794</t>
+    <t xml:space="preserve">0.882595419883728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88188099861145</t>
+    <t xml:space="preserve">0.881881058216095</t>
   </si>
   <si>
     <t xml:space="preserve">0.886165857315063</t>
@@ -449,31 +449,31 @@
     <t xml:space="preserve">0.896162390708923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445456504822</t>
+    <t xml:space="preserve">0.905445396900177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873881816864</t>
+    <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593507766724</t>
+    <t xml:space="preserve">0.887593567371368</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880453288555145</t>
+    <t xml:space="preserve">0.88045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599666118622</t>
+    <t xml:space="preserve">0.867599725723267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017627239227</t>
+    <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168429851532</t>
+    <t xml:space="preserve">0.876168489456177</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884022951126099</t>
+    <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878426074982</t>
+    <t xml:space="preserve">0.891878366470337</t>
   </si>
   <si>
     <t xml:space="preserve">0.87831050157547</t>
@@ -482,7 +482,7 @@
     <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166756153107</t>
+    <t xml:space="preserve">0.881166815757751</t>
   </si>
   <si>
     <t xml:space="preserve">0.899732828140259</t>
@@ -497,55 +497,55 @@
     <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155333518982</t>
+    <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728403091431</t>
+    <t xml:space="preserve">0.914728462696075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014339447021</t>
+    <t xml:space="preserve">0.914014279842377</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444557666779</t>
+    <t xml:space="preserve">0.910444498062134</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015893936157</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90473210811615</t>
+    <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617112159729</t>
+    <t xml:space="preserve">0.86617124080658</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545149564743</t>
+    <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87188446521759</t>
+    <t xml:space="preserve">0.871884524822235</t>
   </si>
   <si>
     <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026596546173</t>
+    <t xml:space="preserve">0.874026536941528</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455980300903</t>
+    <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028270244598</t>
+    <t xml:space="preserve">0.869028329849243</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877597033977509</t>
+    <t xml:space="preserve">0.877596974372864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87688285112381</t>
+    <t xml:space="preserve">0.876882910728455</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288435935974</t>
+    <t xml:space="preserve">0.953288495540619</t>
   </si>
   <si>
     <t xml:space="preserve">0.933294594287872</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">0.942577660083771</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011647701263</t>
+    <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
     <t xml:space="preserve">0.976852893829346</t>
@@ -563,22 +563,22 @@
     <t xml:space="preserve">0.998275399208069</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709208011627</t>
+    <t xml:space="preserve">0.979709088802338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143136024475</t>
+    <t xml:space="preserve">0.961143016815186</t>
   </si>
   <si>
     <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956858992576599</t>
+    <t xml:space="preserve">0.956859111785889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.960429430007935</t>
+    <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567136287689</t>
+    <t xml:space="preserve">0.977567374706268</t>
   </si>
   <si>
     <t xml:space="preserve">0.968284130096436</t>
@@ -590,16 +590,16 @@
     <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974711060523987</t>
+    <t xml:space="preserve">0.974710941314697</t>
   </si>
   <si>
     <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999702990055084</t>
+    <t xml:space="preserve">0.999703109264374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990480899811</t>
+    <t xml:space="preserve">0.9939906001091</t>
   </si>
   <si>
     <t xml:space="preserve">0.996846795082092</t>
@@ -614,10 +614,10 @@
     <t xml:space="preserve">0.989706575870514</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133208274841</t>
+    <t xml:space="preserve">0.996133327484131</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994965553284</t>
+    <t xml:space="preserve">0.978995084762573</t>
   </si>
   <si>
     <t xml:space="preserve">0.967569887638092</t>
@@ -626,28 +626,28 @@
     <t xml:space="preserve">0.966856300830841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002737998962</t>
+    <t xml:space="preserve">0.954002678394318</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430507659912</t>
+    <t xml:space="preserve">0.955430567264557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582924365997</t>
+    <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296446800232</t>
+    <t xml:space="preserve">0.928296327590942</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734621047974</t>
+    <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586510181427</t>
+    <t xml:space="preserve">0.912586450576782</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876573562622</t>
+    <t xml:space="preserve">0.896876633167267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024744033813</t>
+    <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739105701447</t>
@@ -656,25 +656,25 @@
     <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93543666601181</t>
+    <t xml:space="preserve">0.935436606407166</t>
   </si>
   <si>
     <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148216724396</t>
+    <t xml:space="preserve">0.946148335933685</t>
   </si>
   <si>
     <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866109371185</t>
+    <t xml:space="preserve">0.93186616897583</t>
   </si>
   <si>
     <t xml:space="preserve">0.842606723308563</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177279949188</t>
+    <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
     <t xml:space="preserve">0.853318393230438</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170282363892</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458612442017</t>
+    <t xml:space="preserve">0.860458672046661</t>
   </si>
   <si>
     <t xml:space="preserve">0.903303444385529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584776878357</t>
+    <t xml:space="preserve">0.917584836483002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966090202331543</t>
+    <t xml:space="preserve">0.966090083122253</t>
   </si>
   <si>
     <t xml:space="preserve">0.939877986907959</t>
@@ -713,7 +713,7 @@
     <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579585552216</t>
+    <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345480918884</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666665554047</t>
+    <t xml:space="preserve">0.913666784763336</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921944141388</t>
+    <t xml:space="preserve">0.909922003746033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177222728729</t>
+    <t xml:space="preserve">0.906177341938019</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902432560920715</t>
+    <t xml:space="preserve">0.90243262052536</t>
   </si>
   <si>
     <t xml:space="preserve">0.891199290752411</t>
@@ -746,13 +746,13 @@
     <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221358776093</t>
+    <t xml:space="preserve">0.876221299171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411327362061</t>
+    <t xml:space="preserve">0.917411386966705</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89494401216507</t>
+    <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
     <t xml:space="preserve">0.883709907531738</t>
@@ -764,7 +764,7 @@
     <t xml:space="preserve">0.846264541149139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86873197555542</t>
+    <t xml:space="preserve">0.86873185634613</t>
   </si>
   <si>
     <t xml:space="preserve">0.861243307590485</t>
@@ -773,13 +773,13 @@
     <t xml:space="preserve">0.831286549568176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835031270980835</t>
+    <t xml:space="preserve">0.83503121137619</t>
   </si>
   <si>
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753983974457</t>
+    <t xml:space="preserve">0.853753924369812</t>
   </si>
   <si>
     <t xml:space="preserve">0.823797941207886</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">0.838775932788849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850009262561798</t>
+    <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
     <t xml:space="preserve">0.797585844993591</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476637363434</t>
+    <t xml:space="preserve">0.872476577758789</t>
   </si>
   <si>
     <t xml:space="preserve">0.864987254142761</t>
@@ -58413,7 +58413,7 @@
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n">
-        <v>45503.5895949074</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B2184" t="n">
         <v>300</v>
@@ -58434,6 +58434,32 @@
         <v>415</v>
       </c>
       <c r="H2184" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" s="1" t="n">
+        <v>45504.2918634259</v>
+      </c>
+      <c r="B2185" t="n">
+        <v>12932</v>
+      </c>
+      <c r="C2185" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2185" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2185" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2185" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>415</v>
+      </c>
+      <c r="H2185" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -59,40 +59,40 @@
     <t xml:space="preserve">0.798441171646118</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79506641626358</t>
+    <t xml:space="preserve">0.795066356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789667069911957</t>
+    <t xml:space="preserve">0.789666950702667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716192245483</t>
   </si>
   <si>
     <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057863235474</t>
+    <t xml:space="preserve">0.876057744026184</t>
   </si>
   <si>
     <t xml:space="preserve">0.843661427497864</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908767700195</t>
+    <t xml:space="preserve">0.863908886909485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840961873531342</t>
+    <t xml:space="preserve">0.840961933135986</t>
   </si>
   <si>
     <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236774921417</t>
+    <t xml:space="preserve">0.836236715316772</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713818073273</t>
+    <t xml:space="preserve">0.820713758468628</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915065765381</t>
+    <t xml:space="preserve">0.809915006160736</t>
   </si>
   <si>
     <t xml:space="preserve">0.782917439937592</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">0.797091007232666</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812614738941193</t>
+    <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
     <t xml:space="preserve">0.811264514923096</t>
@@ -116,28 +116,28 @@
     <t xml:space="preserve">0.809239864349365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80249035358429</t>
+    <t xml:space="preserve">0.802490413188934</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140904426575</t>
+    <t xml:space="preserve">0.801140964031219</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540250778198</t>
+    <t xml:space="preserve">0.806540310382843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741438865662</t>
+    <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
     <t xml:space="preserve">0.792366683483124</t>
   </si>
   <si>
-    <t xml:space="preserve">0.786967217922211</t>
+    <t xml:space="preserve">0.7869673371315</t>
   </si>
   <si>
     <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168525218964</t>
+    <t xml:space="preserve">0.776168465614319</t>
   </si>
   <si>
     <t xml:space="preserve">0.813289046287537</t>
@@ -146,19 +146,19 @@
     <t xml:space="preserve">0.822738349437714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837368965149</t>
+    <t xml:space="preserve">0.830837488174438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038676261902</t>
+    <t xml:space="preserve">0.820038735866547</t>
   </si>
   <si>
     <t xml:space="preserve">0.819363534450531</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639389514923</t>
+    <t xml:space="preserve">0.814639329910278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988719463348</t>
+    <t xml:space="preserve">0.815988779067993</t>
   </si>
   <si>
     <t xml:space="preserve">0.811939656734467</t>
@@ -170,19 +170,19 @@
     <t xml:space="preserve">0.822886288166046</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572814464569</t>
+    <t xml:space="preserve">0.823572754859924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003717422485</t>
+    <t xml:space="preserve">0.827003657817841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827484130859</t>
+    <t xml:space="preserve">0.820827543735504</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.824258506298065</t>
+    <t xml:space="preserve">0.82425856590271</t>
   </si>
   <si>
     <t xml:space="preserve">0.817395925521851</t>
@@ -194,7 +194,7 @@
     <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811905443668365</t>
+    <t xml:space="preserve">0.81190550327301</t>
   </si>
   <si>
     <t xml:space="preserve">0.813964128494263</t>
@@ -206,19 +206,19 @@
     <t xml:space="preserve">0.809845924377441</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257228374481</t>
+    <t xml:space="preserve">0.789257168769836</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983343601227</t>
+    <t xml:space="preserve">0.802983283996582</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80641496181488</t>
+    <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061124324799</t>
+    <t xml:space="preserve">0.794061183929443</t>
   </si>
   <si>
     <t xml:space="preserve">0.83455365896225</t>
@@ -227,16 +227,16 @@
     <t xml:space="preserve">0.830435514450073</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355502128601</t>
+    <t xml:space="preserve">0.804355442523956</t>
   </si>
   <si>
     <t xml:space="preserve">0.78239381313324</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766806125641</t>
+    <t xml:space="preserve">0.783766746520996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.772099375724792</t>
+    <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
     <t xml:space="preserve">0.761804342269897</t>
@@ -251,19 +251,19 @@
     <t xml:space="preserve">0.775530397891998</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776216983795166</t>
+    <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
     <t xml:space="preserve">0.788570821285248</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903331279755</t>
+    <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
     <t xml:space="preserve">0.768667817115784</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335068702698</t>
+    <t xml:space="preserve">0.780335187911987</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236020088196</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">0.756313979625702</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754941701889038</t>
+    <t xml:space="preserve">0.754941642284393</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74876469373703</t>
+    <t xml:space="preserve">0.748764753341675</t>
   </si>
   <si>
-    <t xml:space="preserve">0.748078227043152</t>
+    <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
     <t xml:space="preserve">0.791315853595734</t>
@@ -293,28 +293,28 @@
     <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.77964860200882</t>
+    <t xml:space="preserve">0.779648661613464</t>
   </si>
   <si>
     <t xml:space="preserve">0.802296757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788423538208</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119928359985</t>
+    <t xml:space="preserve">0.796119868755341</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354283809662</t>
+    <t xml:space="preserve">0.769354164600372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627393722534</t>
+    <t xml:space="preserve">0.755627453327179</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844765663147</t>
+    <t xml:space="preserve">0.774844706058502</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78513902425766</t>
+    <t xml:space="preserve">0.785139083862305</t>
   </si>
   <si>
     <t xml:space="preserve">0.801610350608826</t>
@@ -329,7 +329,7 @@
     <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746705949306488</t>
+    <t xml:space="preserve">0.746706008911133</t>
   </si>
   <si>
     <t xml:space="preserve">0.754255175590515</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">0.778276324272156</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981290817261</t>
+    <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
     <t xml:space="preserve">0.781707346439362</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197709083557</t>
+    <t xml:space="preserve">0.787197828292847</t>
   </si>
   <si>
     <t xml:space="preserve">0.833867192268372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161570072174</t>
+    <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
     <t xml:space="preserve">0.83729887008667</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">0.857888281345367</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869245052338</t>
+    <t xml:space="preserve">0.868869185447693</t>
   </si>
   <si>
     <t xml:space="preserve">0.886712789535522</t>
@@ -374,7 +374,7 @@
     <t xml:space="preserve">0.84965193271637</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555771350861</t>
+    <t xml:space="preserve">0.869555652141571</t>
   </si>
   <si>
     <t xml:space="preserve">0.850338399410248</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">0.829063236713409</t>
   </si>
   <si>
-    <t xml:space="preserve">0.835925936698914</t>
+    <t xml:space="preserve">0.835925996303558</t>
   </si>
   <si>
     <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376829624176</t>
+    <t xml:space="preserve">0.828376770019531</t>
   </si>
   <si>
     <t xml:space="preserve">0.809160232543945</t>
@@ -404,25 +404,25 @@
     <t xml:space="preserve">0.831808507442474</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843475759029388</t>
+    <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84553450345993</t>
+    <t xml:space="preserve">0.845534563064575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730488300323</t>
+    <t xml:space="preserve">0.840730547904968</t>
   </si>
   <si>
-    <t xml:space="preserve">0.873673141002655</t>
+    <t xml:space="preserve">0.8736732006073</t>
   </si>
   <si>
     <t xml:space="preserve">0.861319363117218</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517341136932</t>
+    <t xml:space="preserve">0.891517400741577</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281767368317</t>
+    <t xml:space="preserve">0.883281707763672</t>
   </si>
   <si>
     <t xml:space="preserve">0.872986733913422</t>
@@ -434,16 +434,16 @@
     <t xml:space="preserve">0.882595419883728</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881881058216095</t>
+    <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
     <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89259260892868</t>
+    <t xml:space="preserve">0.892592549324036</t>
   </si>
   <si>
-    <t xml:space="preserve">0.902589201927185</t>
+    <t xml:space="preserve">0.90258914232254</t>
   </si>
   <si>
     <t xml:space="preserve">0.896162390708923</t>
@@ -455,124 +455,124 @@
     <t xml:space="preserve">0.906873941421509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.887593567371368</t>
+    <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
     <t xml:space="preserve">0.88045334815979</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867599725723267</t>
+    <t xml:space="preserve">0.867599606513977</t>
   </si>
   <si>
     <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168489456177</t>
+    <t xml:space="preserve">0.876168429851532</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023010730743</t>
+    <t xml:space="preserve">0.884023070335388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878366470337</t>
+    <t xml:space="preserve">0.891878426074982</t>
   </si>
   <si>
     <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8890221118927</t>
+    <t xml:space="preserve">0.889022052288055</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166815757751</t>
+    <t xml:space="preserve">0.881166756153107</t>
   </si>
   <si>
     <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89901864528656</t>
+    <t xml:space="preserve">0.899018585681915</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305118083954</t>
+    <t xml:space="preserve">0.898305177688599</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159698963165</t>
+    <t xml:space="preserve">0.906159639358521</t>
   </si>
   <si>
     <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728462696075</t>
+    <t xml:space="preserve">0.914728403091431</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014279842377</t>
+    <t xml:space="preserve">0.914014399051666</t>
   </si>
   <si>
     <t xml:space="preserve">0.910444498062134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909015893936157</t>
+    <t xml:space="preserve">0.909016013145447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904732048511505</t>
+    <t xml:space="preserve">0.904731929302216</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86617124080658</t>
+    <t xml:space="preserve">0.866171181201935</t>
   </si>
   <si>
-    <t xml:space="preserve">0.885451555252075</t>
+    <t xml:space="preserve">0.88545149564743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884524822235</t>
+    <t xml:space="preserve">0.871884346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885423660278</t>
+    <t xml:space="preserve">0.866885483264923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.874026536941528</t>
+    <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
     <t xml:space="preserve">0.870455920696259</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028329849243</t>
+    <t xml:space="preserve">0.869028270244598</t>
   </si>
   <si>
-    <t xml:space="preserve">0.877596974372864</t>
+    <t xml:space="preserve">0.877597033977509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876882910728455</t>
+    <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
     <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288495540619</t>
+    <t xml:space="preserve">0.953288555145264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294594287872</t>
+    <t xml:space="preserve">0.933294653892517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577660083771</t>
+    <t xml:space="preserve">0.942577719688416</t>
   </si>
   <si>
     <t xml:space="preserve">0.924011588096619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.976852893829346</t>
+    <t xml:space="preserve">0.97685295343399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275399208069</t>
+    <t xml:space="preserve">0.998275339603424</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709088802338</t>
+    <t xml:space="preserve">0.979709029197693</t>
   </si>
   <si>
-    <t xml:space="preserve">0.961143016815186</t>
+    <t xml:space="preserve">0.96114307641983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568869590759</t>
+    <t xml:space="preserve">0.972568929195404</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859111785889</t>
+    <t xml:space="preserve">0.956859052181244</t>
   </si>
   <si>
     <t xml:space="preserve">0.960429549217224</t>
@@ -584,55 +584,55 @@
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426201820374</t>
+    <t xml:space="preserve">0.970426142215729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848528385162</t>
+    <t xml:space="preserve">0.991848647594452</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710941314697</t>
+    <t xml:space="preserve">0.974710822105408</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992214202881</t>
+    <t xml:space="preserve">0.988992094993591</t>
   </si>
   <si>
-    <t xml:space="preserve">0.999703109264374</t>
+    <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9939906001091</t>
+    <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846795082092</t>
+    <t xml:space="preserve">0.996846914291382</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134285926819</t>
+    <t xml:space="preserve">0.991134345531464</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137692928314</t>
+    <t xml:space="preserve">0.981137752532959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706575870514</t>
+    <t xml:space="preserve">0.989706516265869</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996133327484131</t>
+    <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978995084762573</t>
+    <t xml:space="preserve">0.978994965553284</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569887638092</t>
+    <t xml:space="preserve">0.967569828033447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856300830841</t>
+    <t xml:space="preserve">0.966856360435486</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002678394318</t>
+    <t xml:space="preserve">0.954002737998962</t>
   </si>
   <si>
     <t xml:space="preserve">0.955430567264557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582983970642</t>
+    <t xml:space="preserve">0.922583043575287</t>
   </si>
   <si>
     <t xml:space="preserve">0.928296327590942</t>
@@ -641,37 +641,37 @@
     <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586450576782</t>
+    <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876633167267</t>
+    <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024803638458</t>
+    <t xml:space="preserve">0.879024863243103</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739105701447</t>
+    <t xml:space="preserve">0.879739046096802</t>
   </si>
   <si>
     <t xml:space="preserve">0.924725770950317</t>
   </si>
   <si>
-    <t xml:space="preserve">0.935436606407166</t>
+    <t xml:space="preserve">0.93543666601181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.939007222652435</t>
+    <t xml:space="preserve">0.93900728225708</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148335933685</t>
+    <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000105857849</t>
+    <t xml:space="preserve">0.964000165462494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93186616897583</t>
+    <t xml:space="preserve">0.931866228580475</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606723308563</t>
+    <t xml:space="preserve">0.842606842517853</t>
   </si>
   <si>
     <t xml:space="preserve">0.846177339553833</t>
@@ -680,13 +680,13 @@
     <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83903706073761</t>
+    <t xml:space="preserve">0.839037001132965</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170282363892</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458672046661</t>
+    <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
     <t xml:space="preserve">0.903303444385529</t>
@@ -704,10 +704,10 @@
     <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068074703217</t>
+    <t xml:space="preserve">0.981068134307861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323412895203</t>
+    <t xml:space="preserve">0.977323532104492</t>
   </si>
   <si>
     <t xml:space="preserve">0.943622648715973</t>
@@ -722,19 +722,19 @@
     <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666784763336</t>
+    <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909922003746033</t>
+    <t xml:space="preserve">0.909921944141388</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906177341938019</t>
+    <t xml:space="preserve">0.906177282333374</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90243262052536</t>
+    <t xml:space="preserve">0.902432560920715</t>
   </si>
   <si>
     <t xml:space="preserve">0.891199290752411</t>
@@ -746,31 +746,31 @@
     <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221299171448</t>
+    <t xml:space="preserve">0.876221239566803</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411386966705</t>
+    <t xml:space="preserve">0.917411327362061</t>
   </si>
   <si>
     <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709907531738</t>
+    <t xml:space="preserve">0.883709967136383</t>
   </si>
   <si>
     <t xml:space="preserve">0.879966020584106</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264541149139</t>
+    <t xml:space="preserve">0.846264481544495</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86873185634613</t>
+    <t xml:space="preserve">0.868731915950775</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861243307590485</t>
+    <t xml:space="preserve">0.86124324798584</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831286549568176</t>
+    <t xml:space="preserve">0.831286489963531</t>
   </si>
   <si>
     <t xml:space="preserve">0.83503121137619</t>
@@ -779,31 +779,31 @@
     <t xml:space="preserve">0.842520594596863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.853753924369812</t>
+    <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797941207886</t>
+    <t xml:space="preserve">0.823797881603241</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775932788849</t>
+    <t xml:space="preserve">0.838775992393494</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797585844993591</t>
+    <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
     <t xml:space="preserve">0.805075228214264</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872476577758789</t>
+    <t xml:space="preserve">0.872476518154144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987254142761</t>
+    <t xml:space="preserve">0.864987194538116</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
@@ -58439,7 +58439,7 @@
     </row>
     <row r="2185">
       <c r="A2185" s="1" t="n">
-        <v>45504.2918634259</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B2185" t="n">
         <v>12932</v>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663980484009</t>
+    <t xml:space="preserve">0.816663801670074</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0.803165435791016</t>
+    <t xml:space="preserve">0.803165376186371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801815986633301</t>
+    <t xml:space="preserve">0.801816046237946</t>
   </si>
   <si>
-    <t xml:space="preserve">0.79641580581665</t>
+    <t xml:space="preserve">0.796415865421295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790680408478</t>
+    <t xml:space="preserve">0.799790620803833</t>
   </si>
   <si>
-    <t xml:space="preserve">0.798441171646118</t>
+    <t xml:space="preserve">0.798441231250763</t>
   </si>
   <si>
     <t xml:space="preserve">0.795066356658936</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789666950702667</t>
+    <t xml:space="preserve">0.789666891098022</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716192245483</t>
+    <t xml:space="preserve">0.793716132640839</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413491249084</t>
+    <t xml:space="preserve">0.823413550853729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057744026184</t>
+    <t xml:space="preserve">0.876057684421539</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661427497864</t>
+    <t xml:space="preserve">0.843661546707153</t>
   </si>
   <si>
-    <t xml:space="preserve">0.863908886909485</t>
+    <t xml:space="preserve">0.86390882730484</t>
   </si>
   <si>
     <t xml:space="preserve">0.840961933135986</t>
@@ -86,13 +86,13 @@
     <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236715316772</t>
+    <t xml:space="preserve">0.836236834526062</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713758468628</t>
+    <t xml:space="preserve">0.820713818073273</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809915006160736</t>
+    <t xml:space="preserve">0.809914946556091</t>
   </si>
   <si>
     <t xml:space="preserve">0.782917439937592</t>
@@ -104,31 +104,31 @@
     <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264514923096</t>
+    <t xml:space="preserve">0.811264455318451</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799115478992462</t>
+    <t xml:space="preserve">0.799115538597107</t>
   </si>
   <si>
     <t xml:space="preserve">0.803840577602386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809239864349365</t>
+    <t xml:space="preserve">0.809239983558655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802490413188934</t>
+    <t xml:space="preserve">0.80249035358429</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801140964031219</t>
+    <t xml:space="preserve">0.801140904426575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540310382843</t>
+    <t xml:space="preserve">0.806540250778198</t>
   </si>
   <si>
     <t xml:space="preserve">0.795741498470306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.792366683483124</t>
+    <t xml:space="preserve">0.792366743087769</t>
   </si>
   <si>
     <t xml:space="preserve">0.7869673371315</t>
@@ -137,79 +137,79 @@
     <t xml:space="preserve">0.788316786289215</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776168465614319</t>
+    <t xml:space="preserve">0.776168584823608</t>
   </si>
   <si>
     <t xml:space="preserve">0.813289046287537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822738349437714</t>
+    <t xml:space="preserve">0.822738409042358</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830837488174438</t>
+    <t xml:space="preserve">0.830837428569794</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820038735866547</t>
+    <t xml:space="preserve">0.820038557052612</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819363534450531</t>
+    <t xml:space="preserve">0.819363594055176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.814639329910278</t>
+    <t xml:space="preserve">0.814639389514923</t>
   </si>
   <si>
     <t xml:space="preserve">0.815988779067993</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939656734467</t>
+    <t xml:space="preserve">0.811939597129822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964188098907</t>
+    <t xml:space="preserve">0.813964307308197</t>
   </si>
   <si>
-    <t xml:space="preserve">0.822886288166046</t>
+    <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
     <t xml:space="preserve">0.823572754859924</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003657817841</t>
+    <t xml:space="preserve">0.827003717422485</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820827543735504</t>
+    <t xml:space="preserve">0.820827603340149</t>
   </si>
   <si>
     <t xml:space="preserve">0.820141136646271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.82425856590271</t>
+    <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
     <t xml:space="preserve">0.817395925521851</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709399223328</t>
+    <t xml:space="preserve">0.816709339618683</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277721405029</t>
+    <t xml:space="preserve">0.813277661800385</t>
   </si>
   <si>
     <t xml:space="preserve">0.81190550327301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964128494263</t>
+    <t xml:space="preserve">0.813964247703552</t>
   </si>
   <si>
-    <t xml:space="preserve">0.819454550743103</t>
+    <t xml:space="preserve">0.819454610347748</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809845924377441</t>
+    <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257168769836</t>
+    <t xml:space="preserve">0.789257287979126</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983283996582</t>
+    <t xml:space="preserve">0.802983224391937</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
@@ -218,19 +218,19 @@
     <t xml:space="preserve">0.806415021419525</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061183929443</t>
+    <t xml:space="preserve">0.794061064720154</t>
   </si>
   <si>
     <t xml:space="preserve">0.83455365896225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.830435514450073</t>
+    <t xml:space="preserve">0.830435454845428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355442523956</t>
+    <t xml:space="preserve">0.804355561733246</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78239381313324</t>
+    <t xml:space="preserve">0.782393753528595</t>
   </si>
   <si>
     <t xml:space="preserve">0.783766746520996</t>
@@ -239,13 +239,13 @@
     <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804342269897</t>
+    <t xml:space="preserve">0.761804401874542</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922546386719</t>
+    <t xml:space="preserve">0.765922605991364</t>
   </si>
   <si>
-    <t xml:space="preserve">0.773471653461456</t>
+    <t xml:space="preserve">0.773471772670746</t>
   </si>
   <si>
     <t xml:space="preserve">0.775530397891998</t>
@@ -254,25 +254,25 @@
     <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570821285248</t>
+    <t xml:space="preserve">0.788570880889893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903390884399</t>
+    <t xml:space="preserve">0.776903331279755</t>
   </si>
   <si>
-    <t xml:space="preserve">0.768667817115784</t>
+    <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335187911987</t>
+    <t xml:space="preserve">0.780335128307343</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765236020088196</t>
+    <t xml:space="preserve">0.765236079692841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.759059131145477</t>
+    <t xml:space="preserve">0.759059190750122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313979625702</t>
+    <t xml:space="preserve">0.756313920021057</t>
   </si>
   <si>
     <t xml:space="preserve">0.754941642284393</t>
@@ -284,31 +284,31 @@
     <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315853595734</t>
+    <t xml:space="preserve">0.791315972805023</t>
   </si>
   <si>
-    <t xml:space="preserve">0.762490808963776</t>
+    <t xml:space="preserve">0.76249086856842</t>
   </si>
   <si>
     <t xml:space="preserve">0.781021595001221</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779648661613464</t>
+    <t xml:space="preserve">0.779648542404175</t>
   </si>
   <si>
     <t xml:space="preserve">0.802296757698059</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787884294986725</t>
+    <t xml:space="preserve">0.78788423538208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796119868755341</t>
+    <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354164600372</t>
+    <t xml:space="preserve">0.769354224205017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627453327179</t>
+    <t xml:space="preserve">0.755627393722534</t>
   </si>
   <si>
     <t xml:space="preserve">0.774844706058502</t>
@@ -317,70 +317,70 @@
     <t xml:space="preserve">0.785139083862305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610350608826</t>
+    <t xml:space="preserve">0.801610291004181</t>
   </si>
   <si>
-    <t xml:space="preserve">0.777589917182922</t>
+    <t xml:space="preserve">0.777589857578278</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767294764518738</t>
+    <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686853408813</t>
+    <t xml:space="preserve">0.757686913013458</t>
   </si>
   <si>
-    <t xml:space="preserve">0.746706008911133</t>
+    <t xml:space="preserve">0.746706068515778</t>
   </si>
   <si>
-    <t xml:space="preserve">0.754255175590515</t>
+    <t xml:space="preserve">0.75425511598587</t>
   </si>
   <si>
-    <t xml:space="preserve">0.778276324272156</t>
+    <t xml:space="preserve">0.778276264667511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981231212616</t>
+    <t xml:space="preserve">0.767981290817261</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781707346439362</t>
+    <t xml:space="preserve">0.781707406044006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197828292847</t>
+    <t xml:space="preserve">0.787197768688202</t>
   </si>
   <si>
-    <t xml:space="preserve">0.833867192268372</t>
+    <t xml:space="preserve">0.833867073059082</t>
   </si>
   <si>
     <t xml:space="preserve">0.844161510467529</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83729887008667</t>
+    <t xml:space="preserve">0.837298989295959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.857888281345367</t>
+    <t xml:space="preserve">0.857888340950012</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868869185447693</t>
+    <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712789535522</t>
+    <t xml:space="preserve">0.886712670326233</t>
   </si>
   <si>
     <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84827983379364</t>
+    <t xml:space="preserve">0.848279714584351</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84965193271637</t>
+    <t xml:space="preserve">0.849651992321014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555652141571</t>
+    <t xml:space="preserve">0.869555771350861</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338399410248</t>
+    <t xml:space="preserve">0.850338459014893</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826318025588989</t>
+    <t xml:space="preserve">0.8263179063797</t>
   </si>
   <si>
     <t xml:space="preserve">0.829063236713409</t>
@@ -389,49 +389,49 @@
     <t xml:space="preserve">0.835925996303558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102885246277</t>
+    <t xml:space="preserve">0.842102825641632</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828376770019531</t>
+    <t xml:space="preserve">0.828376829624176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160232543945</t>
+    <t xml:space="preserve">0.809160172939301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812591135501862</t>
+    <t xml:space="preserve">0.812591195106506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.831808507442474</t>
+    <t xml:space="preserve">0.831808388233185</t>
   </si>
   <si>
     <t xml:space="preserve">0.843475818634033</t>
   </si>
   <si>
-    <t xml:space="preserve">0.845534563064575</t>
+    <t xml:space="preserve">0.84553462266922</t>
   </si>
   <si>
-    <t xml:space="preserve">0.840730547904968</t>
+    <t xml:space="preserve">0.840730488300323</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8736732006073</t>
+    <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319363117218</t>
+    <t xml:space="preserve">0.861319422721863</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891517400741577</t>
+    <t xml:space="preserve">0.891517519950867</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883281707763672</t>
+    <t xml:space="preserve">0.883281826972961</t>
   </si>
   <si>
-    <t xml:space="preserve">0.872986733913422</t>
+    <t xml:space="preserve">0.872986674308777</t>
   </si>
   <si>
-    <t xml:space="preserve">0.859260559082031</t>
+    <t xml:space="preserve">0.859260618686676</t>
   </si>
   <si>
-    <t xml:space="preserve">0.882595419883728</t>
+    <t xml:space="preserve">0.882595300674438</t>
   </si>
   <si>
     <t xml:space="preserve">0.88188099861145</t>
@@ -440,16 +440,16 @@
     <t xml:space="preserve">0.886165857315063</t>
   </si>
   <si>
-    <t xml:space="preserve">0.892592549324036</t>
+    <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
     <t xml:space="preserve">0.90258914232254</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162390708923</t>
+    <t xml:space="preserve">0.896162450313568</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445396900177</t>
+    <t xml:space="preserve">0.905445516109467</t>
   </si>
   <si>
     <t xml:space="preserve">0.906873941421509</t>
@@ -458,82 +458,82 @@
     <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88045334815979</t>
+    <t xml:space="preserve">0.880453288555145</t>
   </si>
   <si>
     <t xml:space="preserve">0.867599606513977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017686843872</t>
+    <t xml:space="preserve">0.904017746448517</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876168429851532</t>
+    <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023070335388</t>
+    <t xml:space="preserve">0.884023010730743</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891878426074982</t>
+    <t xml:space="preserve">0.891878306865692</t>
   </si>
   <si>
     <t xml:space="preserve">0.87831050157547</t>
   </si>
   <si>
-    <t xml:space="preserve">0.889022052288055</t>
+    <t xml:space="preserve">0.8890221118927</t>
   </si>
   <si>
-    <t xml:space="preserve">0.881166756153107</t>
+    <t xml:space="preserve">0.881166696548462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732828140259</t>
+    <t xml:space="preserve">0.899732768535614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899018585681915</t>
+    <t xml:space="preserve">0.899018526077271</t>
   </si>
   <si>
-    <t xml:space="preserve">0.898305177688599</t>
+    <t xml:space="preserve">0.898305118083954</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906159639358521</t>
+    <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155273914337</t>
+    <t xml:space="preserve">0.921155393123627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914728403091431</t>
+    <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014399051666</t>
+    <t xml:space="preserve">0.914014220237732</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444498062134</t>
+    <t xml:space="preserve">0.910444557666779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909016013145447</t>
+    <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904731929302216</t>
+    <t xml:space="preserve">0.90473198890686</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866171181201935</t>
+    <t xml:space="preserve">0.86617112159729</t>
   </si>
   <si>
-    <t xml:space="preserve">0.88545149564743</t>
+    <t xml:space="preserve">0.885451555252075</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871884346008301</t>
+    <t xml:space="preserve">0.871884524822235</t>
   </si>
   <si>
-    <t xml:space="preserve">0.866885483264923</t>
+    <t xml:space="preserve">0.866885423660278</t>
   </si>
   <si>
     <t xml:space="preserve">0.874026477336884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.870455920696259</t>
+    <t xml:space="preserve">0.870455980300903</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869028270244598</t>
+    <t xml:space="preserve">0.869028210639954</t>
   </si>
   <si>
     <t xml:space="preserve">0.877597033977509</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575926780701</t>
+    <t xml:space="preserve">0.947575807571411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.953288555145264</t>
+    <t xml:space="preserve">0.953288435935974</t>
   </si>
   <si>
     <t xml:space="preserve">0.933294653892517</t>
@@ -560,40 +560,40 @@
     <t xml:space="preserve">0.97685295343399</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275339603424</t>
+    <t xml:space="preserve">0.998275279998779</t>
   </si>
   <si>
-    <t xml:space="preserve">0.979709029197693</t>
+    <t xml:space="preserve">0.979709208011627</t>
   </si>
   <si>
-    <t xml:space="preserve">0.96114307641983</t>
+    <t xml:space="preserve">0.961143016815186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568929195404</t>
+    <t xml:space="preserve">0.972568809986115</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859052181244</t>
+    <t xml:space="preserve">0.956859111785889</t>
   </si>
   <si>
     <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567374706268</t>
+    <t xml:space="preserve">0.977567315101624</t>
   </si>
   <si>
     <t xml:space="preserve">0.968284130096436</t>
   </si>
   <si>
-    <t xml:space="preserve">0.970426142215729</t>
+    <t xml:space="preserve">0.970426082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848647594452</t>
+    <t xml:space="preserve">0.991848468780518</t>
   </si>
   <si>
-    <t xml:space="preserve">0.974710822105408</t>
+    <t xml:space="preserve">0.974710941314697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992094993591</t>
+    <t xml:space="preserve">0.988992214202881</t>
   </si>
   <si>
     <t xml:space="preserve">0.999702990055084</t>
@@ -602,97 +602,97 @@
     <t xml:space="preserve">0.993990540504456</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846914291382</t>
+    <t xml:space="preserve">0.996846735477448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991134345531464</t>
+    <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137752532959</t>
+    <t xml:space="preserve">0.981137633323669</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706516265869</t>
+    <t xml:space="preserve">0.989706456661224</t>
   </si>
   <si>
     <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994965553284</t>
+    <t xml:space="preserve">0.978994905948639</t>
   </si>
   <si>
     <t xml:space="preserve">0.967569828033447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.966856360435486</t>
+    <t xml:space="preserve">0.966856300830841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.954002737998962</t>
+    <t xml:space="preserve">0.954002857208252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430567264557</t>
+    <t xml:space="preserve">0.955430448055267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922583043575287</t>
+    <t xml:space="preserve">0.922582983970642</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296327590942</t>
+    <t xml:space="preserve">0.928296506404877</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734680652618</t>
+    <t xml:space="preserve">0.894734621047974</t>
   </si>
   <si>
     <t xml:space="preserve">0.912586569786072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876692771912</t>
+    <t xml:space="preserve">0.896876633167267</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024863243103</t>
+    <t xml:space="preserve">0.879024744033813</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879739046096802</t>
+    <t xml:space="preserve">0.879739105701447</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924725770950317</t>
+    <t xml:space="preserve">0.924725830554962</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93543666601181</t>
+    <t xml:space="preserve">0.935436606407166</t>
   </si>
   <si>
-    <t xml:space="preserve">0.93900728225708</t>
+    <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.946148276329041</t>
+    <t xml:space="preserve">0.94614839553833</t>
   </si>
   <si>
     <t xml:space="preserve">0.964000165462494</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866228580475</t>
+    <t xml:space="preserve">0.931866049766541</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842606842517853</t>
+    <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177339553833</t>
+    <t xml:space="preserve">0.846177279949188</t>
   </si>
   <si>
     <t xml:space="preserve">0.853318393230438</t>
   </si>
   <si>
-    <t xml:space="preserve">0.839037001132965</t>
+    <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170222759247</t>
+    <t xml:space="preserve">0.871170282363892</t>
   </si>
   <si>
     <t xml:space="preserve">0.860458612442017</t>
   </si>
   <si>
-    <t xml:space="preserve">0.903303444385529</t>
+    <t xml:space="preserve">0.903303503990173</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917584836483002</t>
+    <t xml:space="preserve">0.917584776878357</t>
   </si>
   <si>
     <t xml:space="preserve">0.966090083122253</t>
@@ -704,16 +704,16 @@
     <t xml:space="preserve">0.92864465713501</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068134307861</t>
+    <t xml:space="preserve">0.981068074703217</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323532104492</t>
+    <t xml:space="preserve">0.977323472499847</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622648715973</t>
+    <t xml:space="preserve">0.943622589111328</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579466342926</t>
+    <t xml:space="preserve">0.973579525947571</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345480918884</t>
@@ -722,13 +722,13 @@
     <t xml:space="preserve">0.936134040355682</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666725158691</t>
+    <t xml:space="preserve">0.913666784763336</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909921944141388</t>
+    <t xml:space="preserve">0.909922003746033</t>
   </si>
   <si>
     <t xml:space="preserve">0.906177282333374</t>
@@ -740,28 +740,28 @@
     <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924899995326996</t>
+    <t xml:space="preserve">0.924900054931641</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155214309692</t>
+    <t xml:space="preserve">0.921155273914337</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876221239566803</t>
+    <t xml:space="preserve">0.876221299171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411327362061</t>
+    <t xml:space="preserve">0.917411386966705</t>
   </si>
   <si>
     <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709967136383</t>
+    <t xml:space="preserve">0.883709847927094</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879966020584106</t>
+    <t xml:space="preserve">0.879965960979462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846264481544495</t>
+    <t xml:space="preserve">0.846264541149139</t>
   </si>
   <si>
     <t xml:space="preserve">0.868731915950775</t>
@@ -782,13 +782,13 @@
     <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797881603241</t>
+    <t xml:space="preserve">0.823797941207886</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
   </si>
   <si>
-    <t xml:space="preserve">0.838775992393494</t>
+    <t xml:space="preserve">0.838775932788849</t>
   </si>
   <si>
     <t xml:space="preserve">0.850009202957153</t>
@@ -803,7 +803,7 @@
     <t xml:space="preserve">0.872476518154144</t>
   </si>
   <si>
-    <t xml:space="preserve">0.864987194538116</t>
+    <t xml:space="preserve">0.864987254142761</t>
   </si>
   <si>
     <t xml:space="preserve">0.938942551612854</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89949107170105</t>
+    <t xml:space="preserve">0.899491131305695</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92316210269928</t>
+    <t xml:space="preserve">0.923162162303925</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051969528198</t>
+    <t xml:space="preserve">0.931051909923553</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600489616394</t>
+    <t xml:space="preserve">0.891600549221039</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613582611084</t>
+    <t xml:space="preserve">0.962613642215729</t>
   </si>
   <si>
     <t xml:space="preserve">0.946833193302155</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">0.88371080160141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875820100307465</t>
+    <t xml:space="preserve">0.875820159912109</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930293083191</t>
+    <t xml:space="preserve">0.867930352687836</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478991985321</t>
+    <t xml:space="preserve">0.828478932380676</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917319297791</t>
+    <t xml:space="preserve">0.796917259693146</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698483467102</t>
+    <t xml:space="preserve">0.812698543071747</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356481075287</t>
+    <t xml:space="preserve">0.765356421470642</t>
   </si>
   <si>
     <t xml:space="preserve">0.785082161426544</t>
@@ -893,13 +893,13 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795702457428</t>
+    <t xml:space="preserve">0.733795642852783</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.74563080072403</t>
+    <t xml:space="preserve">0.745630741119385</t>
   </si>
   <si>
     <t xml:space="preserve">0.757465839385986</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">0.729850351810455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737740159034729</t>
+    <t xml:space="preserve">0.737740099430084</t>
   </si>
   <si>
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.706179320812225</t>
+    <t xml:space="preserve">0.70617938041687</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
@@ -932,13 +932,10 @@
     <t xml:space="preserve">0.7219597697258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588350296021</t>
+    <t xml:space="preserve">0.820588290691376</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.923162162303925</t>
   </si>
   <si>
     <t xml:space="preserve">0.898212492465973</t>
@@ -37267,7 +37264,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1370" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37293,7 +37290,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1371" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37319,7 +37316,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1372" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37345,7 +37342,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1373" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37371,7 +37368,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1374" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37397,7 +37394,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1375" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37423,7 +37420,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1376" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37449,7 +37446,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1377" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37475,7 +37472,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1378" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37501,7 +37498,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1379" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37527,7 +37524,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1380" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37553,7 +37550,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1381" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -37579,7 +37576,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1382" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -37605,7 +37602,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1383" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -37631,7 +37628,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1384" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -37657,7 +37654,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1385" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -37683,7 +37680,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1386" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -37709,7 +37706,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1387" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -37735,7 +37732,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1388" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -37761,7 +37758,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1389" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -37787,7 +37784,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1390" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -37813,7 +37810,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1391" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -37839,7 +37836,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1392" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -37865,7 +37862,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1393" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -37891,7 +37888,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1394" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -37917,7 +37914,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1395" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -37943,7 +37940,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1396" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -37969,7 +37966,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1397" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -37995,7 +37992,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1398" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38021,7 +38018,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1399" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38047,7 +38044,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1400" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38073,7 +38070,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1401" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38099,7 +38096,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1402" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38125,7 +38122,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1403" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38151,7 +38148,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1404" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38177,7 +38174,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1405" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38203,7 +38200,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1406" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38229,7 +38226,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1407" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38255,7 +38252,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1408" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38281,7 +38278,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1409" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38307,7 +38304,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1410" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38333,7 +38330,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1411" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38359,7 +38356,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1412" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38385,7 +38382,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1413" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38411,7 +38408,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1414" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38437,7 +38434,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1415" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38463,7 +38460,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1416" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38489,7 +38486,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1417" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38515,7 +38512,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1418" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38541,7 +38538,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1419" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38593,7 +38590,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1421" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38619,7 +38616,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1422" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38645,7 +38642,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1423" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38671,7 +38668,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1424" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38697,7 +38694,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1425" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -38723,7 +38720,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1426" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -38749,7 +38746,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1427" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -38775,7 +38772,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1428" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -38801,7 +38798,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1429" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -38827,7 +38824,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1430" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -38853,7 +38850,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1431" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -38879,7 +38876,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1432" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -38905,7 +38902,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1433" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -38931,7 +38928,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1434" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -38957,7 +38954,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1435" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -38983,7 +38980,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1436" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39009,7 +39006,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1437" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39035,7 +39032,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1438" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39061,7 +39058,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1439" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39087,7 +39084,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1440" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39113,7 +39110,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1441" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39139,7 +39136,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1442" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39165,7 +39162,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1443" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39191,7 +39188,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1444" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39217,7 +39214,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1445" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39243,7 +39240,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1446" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39269,7 +39266,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1447" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39295,7 +39292,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1448" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39321,7 +39318,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1449" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39347,7 +39344,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1450" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39373,7 +39370,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1451" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39399,7 +39396,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1452" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39425,7 +39422,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1453" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39451,7 +39448,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1454" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39477,7 +39474,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1455" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39503,7 +39500,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1456" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39529,7 +39526,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1457" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39555,7 +39552,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1458" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39581,7 +39578,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1459" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -39607,7 +39604,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1460" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -39633,7 +39630,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1461" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -39659,7 +39656,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1462" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -39685,7 +39682,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1463" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -39737,7 +39734,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1465" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -39763,7 +39760,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1466" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -39789,7 +39786,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1467" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -39815,7 +39812,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1468" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -39841,7 +39838,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1469" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -39867,7 +39864,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1470" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -39893,7 +39890,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1471" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -39919,7 +39916,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1472" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -39945,7 +39942,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1473" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -39971,7 +39968,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1474" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -39997,7 +39994,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1475" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40023,7 +40020,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1476" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40049,7 +40046,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1477" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40075,7 +40072,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1478" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40101,7 +40098,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1479" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40127,7 +40124,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1480" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40153,7 +40150,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1481" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40179,7 +40176,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1482" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40205,7 +40202,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1483" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40231,7 +40228,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1484" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40257,7 +40254,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1485" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40283,7 +40280,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1486" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40309,7 +40306,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1487" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40335,7 +40332,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1488" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40361,7 +40358,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1489" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40387,7 +40384,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1490" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40413,7 +40410,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1491" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40439,7 +40436,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1492" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40465,7 +40462,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1493" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40491,7 +40488,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1494" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40517,7 +40514,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1495" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40543,7 +40540,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1496" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40569,7 +40566,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1497" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -40595,7 +40592,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1498" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -40621,7 +40618,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1499" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -40647,7 +40644,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1500" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -40673,7 +40670,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1501" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -40699,7 +40696,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1502" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -40725,7 +40722,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1503" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -40751,7 +40748,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1504" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -40777,7 +40774,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1505" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -40803,7 +40800,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1506" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -40881,7 +40878,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1509" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -40907,7 +40904,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1510" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -40933,7 +40930,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1511" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -40959,7 +40956,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1512" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -40985,7 +40982,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1513" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41037,7 +41034,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1515" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41063,7 +41060,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1516" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41089,7 +41086,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1517" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41115,7 +41112,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1518" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41141,7 +41138,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1519" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41167,7 +41164,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1520" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41193,7 +41190,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1521" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41219,7 +41216,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1522" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41245,7 +41242,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1523" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41271,7 +41268,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1524" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41297,7 +41294,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1525" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41323,7 +41320,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1526" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41349,7 +41346,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1527" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41375,7 +41372,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1528" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41401,7 +41398,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1529" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41427,7 +41424,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1530" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41453,7 +41450,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1531" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41479,7 +41476,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1532" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41505,7 +41502,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1533" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41531,7 +41528,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1534" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41557,7 +41554,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1535" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41583,7 +41580,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1536" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -41609,7 +41606,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1537" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -41635,7 +41632,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1538" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -41661,7 +41658,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1539" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -41687,7 +41684,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1540" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -41713,7 +41710,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1541" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -41739,7 +41736,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1542" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -41765,7 +41762,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1543" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -41791,7 +41788,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1544" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -41817,7 +41814,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1545" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -41843,7 +41840,7 @@
         <v>1.10685801506042</v>
       </c>
       <c r="G1546" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -41869,7 +41866,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1547" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -41895,7 +41892,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1548" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -41921,7 +41918,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1549" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -41947,7 +41944,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1550" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -41973,7 +41970,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1551" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -41999,7 +41996,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1552" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42025,7 +42022,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1553" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42051,7 +42048,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1554" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42077,7 +42074,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1555" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42103,7 +42100,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1556" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42129,7 +42126,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1557" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42155,7 +42152,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1558" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42207,7 +42204,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1560" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42233,7 +42230,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1561" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42259,7 +42256,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1562" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42285,7 +42282,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1563" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42337,7 +42334,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1565" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42363,7 +42360,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1566" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42389,7 +42386,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1567" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42415,7 +42412,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1568" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42441,7 +42438,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1569" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42467,7 +42464,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1570" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42493,7 +42490,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1571" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42519,7 +42516,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1572" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42545,7 +42542,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1573" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42571,7 +42568,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1574" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42597,7 +42594,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1575" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42623,7 +42620,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1576" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42649,7 +42646,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1577" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42675,7 +42672,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1578" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42987,7 +42984,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1590" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43013,7 +43010,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1591" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43039,7 +43036,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1592" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43065,7 +43062,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1593" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43091,7 +43088,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1594" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43117,7 +43114,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1595" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43143,7 +43140,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1596" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43169,7 +43166,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1597" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43195,7 +43192,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1598" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43221,7 +43218,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1599" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43247,7 +43244,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1600" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43273,7 +43270,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1601" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43403,7 +43400,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1606" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43429,7 +43426,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1607" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43455,7 +43452,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1608" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43481,7 +43478,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1609" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43507,7 +43504,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1610" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43533,7 +43530,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1611" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43559,7 +43556,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1612" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43585,7 +43582,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1613" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43611,7 +43608,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1614" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43637,7 +43634,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1615" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43663,7 +43660,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1616" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43689,7 +43686,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1617" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43715,7 +43712,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1618" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43741,7 +43738,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1619" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43767,7 +43764,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1620" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43793,7 +43790,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1621" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43819,7 +43816,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1622" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43845,7 +43842,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1623" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43871,7 +43868,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1624" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43897,7 +43894,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1625" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43923,7 +43920,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1626" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43949,7 +43946,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1627" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43975,7 +43972,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1628" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -44001,7 +43998,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1629" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44027,7 +44024,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1630" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44053,7 +44050,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1631" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44079,7 +44076,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1632" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44105,7 +44102,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1633" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44131,7 +44128,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1634" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44157,7 +44154,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1635" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44183,7 +44180,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1636" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44209,7 +44206,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1637" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44235,7 +44232,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44261,7 +44258,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44287,7 +44284,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44313,7 +44310,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44339,7 +44336,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44365,7 +44362,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44391,7 +44388,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44417,7 +44414,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44443,7 +44440,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44469,7 +44466,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44495,7 +44492,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44521,7 +44518,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44547,7 +44544,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44573,7 +44570,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44599,7 +44596,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44625,7 +44622,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44651,7 +44648,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44677,7 +44674,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44703,7 +44700,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44729,7 +44726,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44755,7 +44752,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1658" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44781,7 +44778,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44807,7 +44804,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44833,7 +44830,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44859,7 +44856,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44885,7 +44882,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44911,7 +44908,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44937,7 +44934,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44963,7 +44960,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44989,7 +44986,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45015,7 +45012,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45041,7 +45038,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45067,7 +45064,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45093,7 +45090,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1671" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45119,7 +45116,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1672" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45145,7 +45142,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45171,7 +45168,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45197,7 +45194,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45223,7 +45220,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45249,7 +45246,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1677" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45275,7 +45272,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1678" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45301,7 +45298,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1679" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45327,7 +45324,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1680" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45353,7 +45350,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1681" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45379,7 +45376,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1682" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45405,7 +45402,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1683" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45431,7 +45428,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1684" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45457,7 +45454,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1685" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45483,7 +45480,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45509,7 +45506,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45535,7 +45532,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45561,7 +45558,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45587,7 +45584,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45613,7 +45610,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45639,7 +45636,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45665,7 +45662,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45691,7 +45688,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45717,7 +45714,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45743,7 +45740,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45769,7 +45766,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45795,7 +45792,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45821,7 +45818,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45847,7 +45844,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45873,7 +45870,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45899,7 +45896,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45925,7 +45922,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45951,7 +45948,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45977,7 +45974,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46003,7 +46000,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46029,7 +46026,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46055,7 +46052,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46081,7 +46078,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46107,7 +46104,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46133,7 +46130,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46159,7 +46156,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46185,7 +46182,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46211,7 +46208,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46237,7 +46234,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46263,7 +46260,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46289,7 +46286,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46315,7 +46312,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46341,7 +46338,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46367,7 +46364,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46393,7 +46390,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46419,7 +46416,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46445,7 +46442,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46471,7 +46468,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46497,7 +46494,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46523,7 +46520,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46549,7 +46546,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46575,7 +46572,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46601,7 +46598,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46627,7 +46624,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46653,7 +46650,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46679,7 +46676,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46705,7 +46702,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46731,7 +46728,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46757,7 +46754,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46783,7 +46780,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46809,7 +46806,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46835,7 +46832,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46861,7 +46858,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46887,7 +46884,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46913,7 +46910,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46939,7 +46936,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46965,7 +46962,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46991,7 +46988,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47017,7 +47014,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47043,7 +47040,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47069,7 +47066,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47095,7 +47092,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47121,7 +47118,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47147,7 +47144,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47173,7 +47170,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47199,7 +47196,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47225,7 +47222,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47251,7 +47248,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47277,7 +47274,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47303,7 +47300,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47329,7 +47326,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47355,7 +47352,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47381,7 +47378,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47407,7 +47404,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47433,7 +47430,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47459,7 +47456,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47485,7 +47482,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47511,7 +47508,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47537,7 +47534,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47563,7 +47560,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47589,7 +47586,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47615,7 +47612,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47641,7 +47638,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47667,7 +47664,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47693,7 +47690,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47719,7 +47716,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47745,7 +47742,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47771,7 +47768,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47797,7 +47794,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47823,7 +47820,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47849,7 +47846,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47875,7 +47872,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47901,7 +47898,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47927,7 +47924,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47953,7 +47950,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47979,7 +47976,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48005,7 +48002,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48031,7 +48028,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48057,7 +48054,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48083,7 +48080,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48109,7 +48106,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48135,7 +48132,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48161,7 +48158,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48187,7 +48184,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48213,7 +48210,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48239,7 +48236,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48265,7 +48262,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48291,7 +48288,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48317,7 +48314,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48343,7 +48340,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48369,7 +48366,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48395,7 +48392,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48421,7 +48418,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48447,7 +48444,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48473,7 +48470,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48499,7 +48496,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48525,7 +48522,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48551,7 +48548,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48577,7 +48574,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48603,7 +48600,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48629,7 +48626,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48655,7 +48652,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48681,7 +48678,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48707,7 +48704,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48733,7 +48730,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48759,7 +48756,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48785,7 +48782,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48811,7 +48808,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48837,7 +48834,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48863,7 +48860,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48889,7 +48886,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48915,7 +48912,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48941,7 +48938,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48967,7 +48964,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48993,7 +48990,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49019,7 +49016,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49045,7 +49042,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49071,7 +49068,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49097,7 +49094,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49123,7 +49120,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49149,7 +49146,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49175,7 +49172,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49201,7 +49198,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49227,7 +49224,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49253,7 +49250,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49279,7 +49276,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49305,7 +49302,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49331,7 +49328,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49357,7 +49354,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49383,7 +49380,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1836" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49409,7 +49406,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49435,7 +49432,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49461,7 +49458,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1839" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49487,7 +49484,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1840" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49513,7 +49510,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49539,7 +49536,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1842" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49565,7 +49562,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1843" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49591,7 +49588,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1844" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49617,7 +49614,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49643,7 +49640,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49669,7 +49666,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49695,7 +49692,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49721,7 +49718,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49747,7 +49744,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49773,7 +49770,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49799,7 +49796,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49825,7 +49822,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49851,7 +49848,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49877,7 +49874,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49903,7 +49900,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49929,7 +49926,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1857" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49955,7 +49952,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49981,7 +49978,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50007,7 +50004,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50033,7 +50030,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50059,7 +50056,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50085,7 +50082,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50111,7 +50108,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50137,7 +50134,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50163,7 +50160,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50189,7 +50186,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50215,7 +50212,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50241,7 +50238,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50267,7 +50264,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50293,7 +50290,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50319,7 +50316,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50345,7 +50342,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50371,7 +50368,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50397,7 +50394,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50423,7 +50420,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50449,7 +50446,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50475,7 +50472,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50501,7 +50498,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50527,7 +50524,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50553,7 +50550,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50579,7 +50576,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50605,7 +50602,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50631,7 +50628,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50657,7 +50654,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50683,7 +50680,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50709,7 +50706,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50735,7 +50732,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50761,7 +50758,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50787,7 +50784,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50813,7 +50810,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50839,7 +50836,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50865,7 +50862,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50891,7 +50888,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50917,7 +50914,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50943,7 +50940,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50969,7 +50966,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50995,7 +50992,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51021,7 +51018,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51047,7 +51044,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51073,7 +51070,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51099,7 +51096,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51125,7 +51122,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51151,7 +51148,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51177,7 +51174,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51203,7 +51200,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51229,7 +51226,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51255,7 +51252,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51281,7 +51278,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51307,7 +51304,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51333,7 +51330,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51359,7 +51356,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51385,7 +51382,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51411,7 +51408,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51437,7 +51434,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51463,7 +51460,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51489,7 +51486,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51515,7 +51512,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51541,7 +51538,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51567,7 +51564,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51593,7 +51590,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51619,7 +51616,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51645,7 +51642,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51671,7 +51668,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51697,7 +51694,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51723,7 +51720,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51749,7 +51746,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51775,7 +51772,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51801,7 +51798,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51827,7 +51824,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51853,7 +51850,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51879,7 +51876,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51905,7 +51902,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51931,7 +51928,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51957,7 +51954,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51983,7 +51980,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52009,7 +52006,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52035,7 +52032,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52061,7 +52058,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52087,7 +52084,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52113,7 +52110,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52139,7 +52136,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52165,7 +52162,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52191,7 +52188,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52217,7 +52214,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52243,7 +52240,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52269,7 +52266,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52295,7 +52292,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52321,7 +52318,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52347,7 +52344,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52373,7 +52370,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52399,7 +52396,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52425,7 +52422,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52451,7 +52448,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52477,7 +52474,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52503,7 +52500,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52529,7 +52526,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52555,7 +52552,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52581,7 +52578,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52607,7 +52604,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52633,7 +52630,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52659,7 +52656,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52685,7 +52682,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52711,7 +52708,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52737,7 +52734,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52763,7 +52760,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52789,7 +52786,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52815,7 +52812,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52841,7 +52838,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52867,7 +52864,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52893,7 +52890,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52919,7 +52916,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52945,7 +52942,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52971,7 +52968,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52997,7 +52994,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53023,7 +53020,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53049,7 +53046,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53075,7 +53072,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53101,7 +53098,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53127,7 +53124,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53153,7 +53150,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53179,7 +53176,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53205,7 +53202,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53231,7 +53228,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53257,7 +53254,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53283,7 +53280,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53309,7 +53306,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53335,7 +53332,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53361,7 +53358,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53387,7 +53384,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53413,7 +53410,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53439,7 +53436,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53465,7 +53462,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53491,7 +53488,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53517,7 +53514,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53543,7 +53540,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53569,7 +53566,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53595,7 +53592,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53621,7 +53618,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53647,7 +53644,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53673,7 +53670,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53699,7 +53696,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53725,7 +53722,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53751,7 +53748,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53777,7 +53774,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53803,7 +53800,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53829,7 +53826,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53855,7 +53852,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53881,7 +53878,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53907,7 +53904,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53933,7 +53930,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53959,7 +53956,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53985,7 +53982,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54011,7 +54008,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54037,7 +54034,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54063,7 +54060,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54089,7 +54086,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54115,7 +54112,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54141,7 +54138,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54167,7 +54164,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54193,7 +54190,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54219,7 +54216,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54245,7 +54242,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54271,7 +54268,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54297,7 +54294,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54323,7 +54320,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54349,7 +54346,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54375,7 +54372,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54401,7 +54398,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54427,7 +54424,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54453,7 +54450,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54479,7 +54476,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54505,7 +54502,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54531,7 +54528,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54557,7 +54554,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54583,7 +54580,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -54609,7 +54606,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2037" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -54635,7 +54632,7 @@
         <v>0.845000028610229</v>
       </c>
       <c r="G2038" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -54661,7 +54658,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2039" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -54687,7 +54684,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2040" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -54713,7 +54710,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2041" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -54739,7 +54736,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2042" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -54765,7 +54762,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2043" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -54791,7 +54788,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2044" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -54817,7 +54814,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2045" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -54843,7 +54840,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2046" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -54869,7 +54866,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2047" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -54895,7 +54892,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2048" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -54921,7 +54918,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2049" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -54947,7 +54944,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2050" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -54973,7 +54970,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2051" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -54999,7 +54996,7 @@
         <v>0.819999992847443</v>
       </c>
       <c r="G2052" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -55025,7 +55022,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2053" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -55051,7 +55048,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2054" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -55077,7 +55074,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2055" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -55103,7 +55100,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2056" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -55129,7 +55126,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2057" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -55155,7 +55152,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2058" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -55181,7 +55178,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2059" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -55207,7 +55204,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2060" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -55233,7 +55230,7 @@
         <v>0.884999990463257</v>
       </c>
       <c r="G2061" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -55259,7 +55256,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2062" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -55285,7 +55282,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2063" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -55311,7 +55308,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2064" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -55337,7 +55334,7 @@
         <v>0.824999988079071</v>
       </c>
       <c r="G2065" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -55363,7 +55360,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2066" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -55389,7 +55386,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2067" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -55415,7 +55412,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2068" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -55441,7 +55438,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2069" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -55467,7 +55464,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2070" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -55493,7 +55490,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2071" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -55519,7 +55516,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2072" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -55545,7 +55542,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2073" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -55571,7 +55568,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2074" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -55597,7 +55594,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2075" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -55623,7 +55620,7 @@
         <v>0.839999973773956</v>
       </c>
       <c r="G2076" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -55649,7 +55646,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2077" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -55675,7 +55672,7 @@
         <v>0.829999983310699</v>
       </c>
       <c r="G2078" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -55701,7 +55698,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2079" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -55727,7 +55724,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2080" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -55753,7 +55750,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2081" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -55779,7 +55776,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2082" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -55805,7 +55802,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2083" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -55831,7 +55828,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2084" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -55857,7 +55854,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2085" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -55883,7 +55880,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2086" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -55909,7 +55906,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2087" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -55935,7 +55932,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2088" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -55961,7 +55958,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2089" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -55987,7 +55984,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2090" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -56013,7 +56010,7 @@
         <v>0.779999971389771</v>
       </c>
       <c r="G2091" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -56039,7 +56036,7 @@
         <v>0.774999976158142</v>
       </c>
       <c r="G2092" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -56065,7 +56062,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2093" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -56091,7 +56088,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2094" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -56117,7 +56114,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2095" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -56143,7 +56140,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2096" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -56169,7 +56166,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2097" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -56195,7 +56192,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2098" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -56221,7 +56218,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2099" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -56247,7 +56244,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2100" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -56273,7 +56270,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -56299,7 +56296,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2102" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -56325,7 +56322,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -56351,7 +56348,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -56377,7 +56374,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -56403,7 +56400,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2106" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -56429,7 +56426,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2107" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -56455,7 +56452,7 @@
         <v>0.814999997615814</v>
       </c>
       <c r="G2108" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -56481,7 +56478,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2109" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -56507,7 +56504,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -56533,7 +56530,7 @@
         <v>0.810000002384186</v>
       </c>
       <c r="G2111" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -56559,7 +56556,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2112" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -56585,7 +56582,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2113" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -56611,7 +56608,7 @@
         <v>0.795000016689301</v>
       </c>
       <c r="G2114" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -56637,7 +56634,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2115" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -56663,7 +56660,7 @@
         <v>0.790000021457672</v>
       </c>
       <c r="G2116" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -56689,7 +56686,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2117" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -56715,7 +56712,7 @@
         <v>0.805000007152557</v>
       </c>
       <c r="G2118" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -56741,7 +56738,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2119" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -56767,7 +56764,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2120" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -56793,7 +56790,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -56819,7 +56816,7 @@
         <v>0.785000026226044</v>
       </c>
       <c r="G2122" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -56845,7 +56842,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2123" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -56871,7 +56868,7 @@
         <v>0.800000011920929</v>
       </c>
       <c r="G2124" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -56897,7 +56894,7 @@
         <v>0.834999978542328</v>
       </c>
       <c r="G2125" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -56923,7 +56920,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2126" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -56949,7 +56946,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2127" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -56975,7 +56972,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2128" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -57001,7 +56998,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2129" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -57027,7 +57024,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2130" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -57053,7 +57050,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2131" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -57079,7 +57076,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2132" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -57105,7 +57102,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2133" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -57131,7 +57128,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2134" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -57157,7 +57154,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2135" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -57183,7 +57180,7 @@
         <v>0.870000004768372</v>
       </c>
       <c r="G2136" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -57209,7 +57206,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2137" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -57235,7 +57232,7 @@
         <v>0.875</v>
       </c>
       <c r="G2138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -57261,7 +57258,7 @@
         <v>0.875</v>
       </c>
       <c r="G2139" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -57287,7 +57284,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2140" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -57313,7 +57310,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2141" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -57339,7 +57336,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2142" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -57365,7 +57362,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2143" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -57391,7 +57388,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -57417,7 +57414,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2145" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -57443,7 +57440,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2146" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -57469,7 +57466,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2147" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -57495,7 +57492,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2148" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -57521,7 +57518,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2149" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -57547,7 +57544,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2150" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -57573,7 +57570,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2151" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -57599,7 +57596,7 @@
         <v>0.865000009536743</v>
       </c>
       <c r="G2152" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -57625,7 +57622,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2153" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -57651,7 +57648,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2154" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -57677,7 +57674,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2155" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -57703,7 +57700,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2156" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -57729,7 +57726,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2157" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -57755,7 +57752,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2158" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -57781,7 +57778,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -57807,7 +57804,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -57833,7 +57830,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2161" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -57859,7 +57856,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2162" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -57885,7 +57882,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2163" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -57911,7 +57908,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2164" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -57937,7 +57934,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2165" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -57963,7 +57960,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2166" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -57989,7 +57986,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2167" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -58015,7 +58012,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2168" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -58041,7 +58038,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2169" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -58067,7 +58064,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2170" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -58093,7 +58090,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2171" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -58119,7 +58116,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2172" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -58145,7 +58142,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2173" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -58171,7 +58168,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2174" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -58197,7 +58194,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2175" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -58223,7 +58220,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2176" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -58249,7 +58246,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2177" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2177" t="s">
         <v>9</v>
@@ -58275,7 +58272,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2178" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2178" t="s">
         <v>9</v>
@@ -58301,7 +58298,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2179" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2179" t="s">
         <v>9</v>
@@ -58327,7 +58324,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2180" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H2180" t="s">
         <v>9</v>
@@ -58353,7 +58350,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2181" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2181" t="s">
         <v>9</v>
@@ -58379,7 +58376,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2182" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2182" t="s">
         <v>9</v>
@@ -58405,7 +58402,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2183" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2183" t="s">
         <v>9</v>
@@ -58431,7 +58428,7 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2184" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2184" t="s">
         <v>9</v>
@@ -58457,9 +58454,35 @@
         <v>0.855000019073486</v>
       </c>
       <c r="G2185" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H2185" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" s="1" t="n">
+        <v>45505.2916666667</v>
+      </c>
+      <c r="B2186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2186" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="D2186" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="E2186" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="F2186" t="n">
+        <v>0.855000019073486</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>414</v>
+      </c>
+      <c r="H2186" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/VIA.MI.xlsx
+++ b/data/VIA.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="434">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816663801670074</t>
+    <t xml:space="preserve">0.816663861274719</t>
   </si>
   <si>
     <t xml:space="preserve">VIA.MI</t>
@@ -47,37 +47,37 @@
     <t xml:space="preserve">0.803165376186371</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801816046237946</t>
+    <t xml:space="preserve">0.801815986633301</t>
   </si>
   <si>
     <t xml:space="preserve">0.796415865421295</t>
   </si>
   <si>
-    <t xml:space="preserve">0.799790620803833</t>
+    <t xml:space="preserve">0.799790680408478</t>
   </si>
   <si>
     <t xml:space="preserve">0.798441231250763</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795066356658936</t>
+    <t xml:space="preserve">0.795066475868225</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789666891098022</t>
+    <t xml:space="preserve">0.789666950702667</t>
   </si>
   <si>
-    <t xml:space="preserve">0.793716132640839</t>
+    <t xml:space="preserve">0.793716073036194</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823413550853729</t>
+    <t xml:space="preserve">0.823413491249084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.876057684421539</t>
+    <t xml:space="preserve">0.876057744026184</t>
   </si>
   <si>
-    <t xml:space="preserve">0.843661546707153</t>
+    <t xml:space="preserve">0.843661487102509</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86390882730484</t>
+    <t xml:space="preserve">0.863908886909485</t>
   </si>
   <si>
     <t xml:space="preserve">0.840961933135986</t>
@@ -86,25 +86,25 @@
     <t xml:space="preserve">0.824762940406799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.836236834526062</t>
+    <t xml:space="preserve">0.836236894130707</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820713818073273</t>
+    <t xml:space="preserve">0.820713698863983</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809914946556091</t>
+    <t xml:space="preserve">0.809915006160736</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782917439937592</t>
+    <t xml:space="preserve">0.782917380332947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.797091007232666</t>
+    <t xml:space="preserve">0.797090947628021</t>
   </si>
   <si>
     <t xml:space="preserve">0.812614679336548</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811264455318451</t>
+    <t xml:space="preserve">0.811264395713806</t>
   </si>
   <si>
     <t xml:space="preserve">0.799115538597107</t>
@@ -113,19 +113,19 @@
     <t xml:space="preserve">0.803840577602386</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809239983558655</t>
+    <t xml:space="preserve">0.80923992395401</t>
   </si>
   <si>
-    <t xml:space="preserve">0.80249035358429</t>
+    <t xml:space="preserve">0.802490293979645</t>
   </si>
   <si>
     <t xml:space="preserve">0.801140904426575</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806540250778198</t>
+    <t xml:space="preserve">0.806540310382843</t>
   </si>
   <si>
-    <t xml:space="preserve">0.795741498470306</t>
+    <t xml:space="preserve">0.795741438865662</t>
   </si>
   <si>
     <t xml:space="preserve">0.792366743087769</t>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">0.776168584823608</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813289046287537</t>
+    <t xml:space="preserve">0.813289105892181</t>
   </si>
   <si>
     <t xml:space="preserve">0.822738409042358</t>
@@ -158,22 +158,22 @@
     <t xml:space="preserve">0.814639389514923</t>
   </si>
   <si>
-    <t xml:space="preserve">0.815988779067993</t>
+    <t xml:space="preserve">0.815988719463348</t>
   </si>
   <si>
-    <t xml:space="preserve">0.811939597129822</t>
+    <t xml:space="preserve">0.811939656734467</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964307308197</t>
+    <t xml:space="preserve">0.813964247703552</t>
   </si>
   <si>
     <t xml:space="preserve">0.822886347770691</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823572754859924</t>
+    <t xml:space="preserve">0.823572814464569</t>
   </si>
   <si>
-    <t xml:space="preserve">0.827003717422485</t>
+    <t xml:space="preserve">0.82700377702713</t>
   </si>
   <si>
     <t xml:space="preserve">0.820827603340149</t>
@@ -185,19 +185,19 @@
     <t xml:space="preserve">0.82425844669342</t>
   </si>
   <si>
-    <t xml:space="preserve">0.817395925521851</t>
+    <t xml:space="preserve">0.817395865917206</t>
   </si>
   <si>
-    <t xml:space="preserve">0.816709339618683</t>
+    <t xml:space="preserve">0.816709280014038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813277661800385</t>
+    <t xml:space="preserve">0.813277721405029</t>
   </si>
   <si>
     <t xml:space="preserve">0.81190550327301</t>
   </si>
   <si>
-    <t xml:space="preserve">0.813964247703552</t>
+    <t xml:space="preserve">0.813964128494263</t>
   </si>
   <si>
     <t xml:space="preserve">0.819454610347748</t>
@@ -206,43 +206,43 @@
     <t xml:space="preserve">0.809845983982086</t>
   </si>
   <si>
-    <t xml:space="preserve">0.789257287979126</t>
+    <t xml:space="preserve">0.789257228374481</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802983224391937</t>
+    <t xml:space="preserve">0.802983283996582</t>
   </si>
   <si>
     <t xml:space="preserve">0.808473765850067</t>
   </si>
   <si>
-    <t xml:space="preserve">0.806415021419525</t>
+    <t xml:space="preserve">0.80641508102417</t>
   </si>
   <si>
-    <t xml:space="preserve">0.794061064720154</t>
+    <t xml:space="preserve">0.794061124324799</t>
   </si>
   <si>
-    <t xml:space="preserve">0.83455365896225</t>
+    <t xml:space="preserve">0.834553599357605</t>
   </si>
   <si>
     <t xml:space="preserve">0.830435454845428</t>
   </si>
   <si>
-    <t xml:space="preserve">0.804355561733246</t>
+    <t xml:space="preserve">0.804355442523956</t>
   </si>
   <si>
-    <t xml:space="preserve">0.782393753528595</t>
+    <t xml:space="preserve">0.782393872737885</t>
   </si>
   <si>
-    <t xml:space="preserve">0.783766746520996</t>
+    <t xml:space="preserve">0.783766806125641</t>
   </si>
   <si>
     <t xml:space="preserve">0.772099435329437</t>
   </si>
   <si>
-    <t xml:space="preserve">0.761804401874542</t>
+    <t xml:space="preserve">0.761804342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765922605991364</t>
+    <t xml:space="preserve">0.765922546386719</t>
   </si>
   <si>
     <t xml:space="preserve">0.773471772670746</t>
@@ -254,16 +254,16 @@
     <t xml:space="preserve">0.776216924190521</t>
   </si>
   <si>
-    <t xml:space="preserve">0.788570880889893</t>
+    <t xml:space="preserve">0.788570761680603</t>
   </si>
   <si>
-    <t xml:space="preserve">0.776903331279755</t>
+    <t xml:space="preserve">0.776903390884399</t>
   </si>
   <si>
     <t xml:space="preserve">0.768667757511139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.780335128307343</t>
+    <t xml:space="preserve">0.780335187911987</t>
   </si>
   <si>
     <t xml:space="preserve">0.765236079692841</t>
@@ -272,7 +272,7 @@
     <t xml:space="preserve">0.759059190750122</t>
   </si>
   <si>
-    <t xml:space="preserve">0.756313920021057</t>
+    <t xml:space="preserve">0.756313979625702</t>
   </si>
   <si>
     <t xml:space="preserve">0.754941642284393</t>
@@ -284,40 +284,40 @@
     <t xml:space="preserve">0.748078286647797</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791315972805023</t>
+    <t xml:space="preserve">0.791315913200378</t>
   </si>
   <si>
     <t xml:space="preserve">0.76249086856842</t>
   </si>
   <si>
-    <t xml:space="preserve">0.781021595001221</t>
+    <t xml:space="preserve">0.781021535396576</t>
   </si>
   <si>
-    <t xml:space="preserve">0.779648542404175</t>
+    <t xml:space="preserve">0.77964860200882</t>
   </si>
   <si>
-    <t xml:space="preserve">0.802296757698059</t>
+    <t xml:space="preserve">0.802296817302704</t>
   </si>
   <si>
-    <t xml:space="preserve">0.78788423538208</t>
+    <t xml:space="preserve">0.787884294986725</t>
   </si>
   <si>
     <t xml:space="preserve">0.796119928359985</t>
   </si>
   <si>
-    <t xml:space="preserve">0.769354224205017</t>
+    <t xml:space="preserve">0.769354164600372</t>
   </si>
   <si>
-    <t xml:space="preserve">0.755627393722534</t>
+    <t xml:space="preserve">0.755627334117889</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774844706058502</t>
+    <t xml:space="preserve">0.774844646453857</t>
   </si>
   <si>
-    <t xml:space="preserve">0.785139083862305</t>
+    <t xml:space="preserve">0.78513902425766</t>
   </si>
   <si>
-    <t xml:space="preserve">0.801610291004181</t>
+    <t xml:space="preserve">0.801610350608826</t>
   </si>
   <si>
     <t xml:space="preserve">0.777589857578278</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">0.767294704914093</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757686913013458</t>
+    <t xml:space="preserve">0.757686853408813</t>
   </si>
   <si>
     <t xml:space="preserve">0.746706068515778</t>
@@ -338,22 +338,22 @@
     <t xml:space="preserve">0.778276264667511</t>
   </si>
   <si>
-    <t xml:space="preserve">0.767981290817261</t>
+    <t xml:space="preserve">0.767981231212616</t>
   </si>
   <si>
     <t xml:space="preserve">0.781707406044006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.787197768688202</t>
+    <t xml:space="preserve">0.787197709083557</t>
   </si>
   <si>
     <t xml:space="preserve">0.833867073059082</t>
   </si>
   <si>
-    <t xml:space="preserve">0.844161510467529</t>
+    <t xml:space="preserve">0.844161570072174</t>
   </si>
   <si>
-    <t xml:space="preserve">0.837298989295959</t>
+    <t xml:space="preserve">0.83729887008667</t>
   </si>
   <si>
     <t xml:space="preserve">0.857888340950012</t>
@@ -362,40 +362,40 @@
     <t xml:space="preserve">0.868869245052338</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886712670326233</t>
+    <t xml:space="preserve">0.886712729930878</t>
   </si>
   <si>
     <t xml:space="preserve">0.87916362285614</t>
   </si>
   <si>
-    <t xml:space="preserve">0.848279714584351</t>
+    <t xml:space="preserve">0.848279654979706</t>
   </si>
   <si>
     <t xml:space="preserve">0.849651992321014</t>
   </si>
   <si>
-    <t xml:space="preserve">0.869555771350861</t>
+    <t xml:space="preserve">0.869555830955505</t>
   </si>
   <si>
-    <t xml:space="preserve">0.850338459014893</t>
+    <t xml:space="preserve">0.850338518619537</t>
   </si>
   <si>
-    <t xml:space="preserve">0.8263179063797</t>
+    <t xml:space="preserve">0.826317965984344</t>
   </si>
   <si>
-    <t xml:space="preserve">0.829063236713409</t>
+    <t xml:space="preserve">0.829063296318054</t>
   </si>
   <si>
     <t xml:space="preserve">0.835925996303558</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842102825641632</t>
+    <t xml:space="preserve">0.842102885246277</t>
   </si>
   <si>
     <t xml:space="preserve">0.828376829624176</t>
   </si>
   <si>
-    <t xml:space="preserve">0.809160172939301</t>
+    <t xml:space="preserve">0.809160232543945</t>
   </si>
   <si>
     <t xml:space="preserve">0.812591195106506</t>
@@ -416,7 +416,7 @@
     <t xml:space="preserve">0.873673141002655</t>
   </si>
   <si>
-    <t xml:space="preserve">0.861319422721863</t>
+    <t xml:space="preserve">0.861319482326508</t>
   </si>
   <si>
     <t xml:space="preserve">0.891517519950867</t>
@@ -437,46 +437,46 @@
     <t xml:space="preserve">0.88188099861145</t>
   </si>
   <si>
-    <t xml:space="preserve">0.886165857315063</t>
+    <t xml:space="preserve">0.886165797710419</t>
   </si>
   <si>
     <t xml:space="preserve">0.89259260892868</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90258914232254</t>
+    <t xml:space="preserve">0.902589201927185</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896162450313568</t>
+    <t xml:space="preserve">0.896162509918213</t>
   </si>
   <si>
-    <t xml:space="preserve">0.905445516109467</t>
+    <t xml:space="preserve">0.905445456504822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.906873941421509</t>
+    <t xml:space="preserve">0.906874001026154</t>
   </si>
   <si>
     <t xml:space="preserve">0.887593626976013</t>
   </si>
   <si>
-    <t xml:space="preserve">0.880453288555145</t>
+    <t xml:space="preserve">0.88045334815979</t>
   </si>
   <si>
     <t xml:space="preserve">0.867599606513977</t>
   </si>
   <si>
-    <t xml:space="preserve">0.904017746448517</t>
+    <t xml:space="preserve">0.904017686843872</t>
   </si>
   <si>
     <t xml:space="preserve">0.876168549060822</t>
   </si>
   <si>
-    <t xml:space="preserve">0.884023010730743</t>
+    <t xml:space="preserve">0.884023070335388</t>
   </si>
   <si>
     <t xml:space="preserve">0.891878306865692</t>
   </si>
   <si>
-    <t xml:space="preserve">0.87831050157547</t>
+    <t xml:space="preserve">0.878310561180115</t>
   </si>
   <si>
     <t xml:space="preserve">0.8890221118927</t>
@@ -485,7 +485,7 @@
     <t xml:space="preserve">0.881166696548462</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899732768535614</t>
+    <t xml:space="preserve">0.899732828140259</t>
   </si>
   <si>
     <t xml:space="preserve">0.899018526077271</t>
@@ -497,22 +497,22 @@
     <t xml:space="preserve">0.906159698963165</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155393123627</t>
+    <t xml:space="preserve">0.921155333518982</t>
   </si>
   <si>
     <t xml:space="preserve">0.91472852230072</t>
   </si>
   <si>
-    <t xml:space="preserve">0.914014220237732</t>
+    <t xml:space="preserve">0.914014339447021</t>
   </si>
   <si>
-    <t xml:space="preserve">0.910444557666779</t>
+    <t xml:space="preserve">0.910444498062134</t>
   </si>
   <si>
     <t xml:space="preserve">0.909015953540802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.90473198890686</t>
+    <t xml:space="preserve">0.904732048511505</t>
   </si>
   <si>
     <t xml:space="preserve">0.86617112159729</t>
@@ -542,25 +542,25 @@
     <t xml:space="preserve">0.87688285112381</t>
   </si>
   <si>
-    <t xml:space="preserve">0.947575807571411</t>
+    <t xml:space="preserve">0.947575926780701</t>
   </si>
   <si>
     <t xml:space="preserve">0.953288435935974</t>
   </si>
   <si>
-    <t xml:space="preserve">0.933294653892517</t>
+    <t xml:space="preserve">0.933294594287872</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942577719688416</t>
+    <t xml:space="preserve">0.94257777929306</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924011588096619</t>
+    <t xml:space="preserve">0.924011647701263</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97685295343399</t>
+    <t xml:space="preserve">0.976853013038635</t>
   </si>
   <si>
-    <t xml:space="preserve">0.998275279998779</t>
+    <t xml:space="preserve">0.998275399208069</t>
   </si>
   <si>
     <t xml:space="preserve">0.979709208011627</t>
@@ -569,16 +569,16 @@
     <t xml:space="preserve">0.961143016815186</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972568809986115</t>
+    <t xml:space="preserve">0.972568869590759</t>
   </si>
   <si>
-    <t xml:space="preserve">0.956859111785889</t>
+    <t xml:space="preserve">0.956858992576599</t>
   </si>
   <si>
     <t xml:space="preserve">0.960429549217224</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977567315101624</t>
+    <t xml:space="preserve">0.977567255496979</t>
   </si>
   <si>
     <t xml:space="preserve">0.968284130096436</t>
@@ -587,40 +587,40 @@
     <t xml:space="preserve">0.970426082611084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.991848468780518</t>
+    <t xml:space="preserve">0.991848528385162</t>
   </si>
   <si>
     <t xml:space="preserve">0.974710941314697</t>
   </si>
   <si>
-    <t xml:space="preserve">0.988992214202881</t>
+    <t xml:space="preserve">0.98899233341217</t>
   </si>
   <si>
     <t xml:space="preserve">0.999702990055084</t>
   </si>
   <si>
-    <t xml:space="preserve">0.993990540504456</t>
+    <t xml:space="preserve">0.993990480899811</t>
   </si>
   <si>
-    <t xml:space="preserve">0.996846735477448</t>
+    <t xml:space="preserve">0.996846675872803</t>
   </si>
   <si>
     <t xml:space="preserve">0.991134285926819</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981137633323669</t>
+    <t xml:space="preserve">0.981137692928314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989706456661224</t>
+    <t xml:space="preserve">0.989706575870514</t>
   </si>
   <si>
     <t xml:space="preserve">0.996133208274841</t>
   </si>
   <si>
-    <t xml:space="preserve">0.978994905948639</t>
+    <t xml:space="preserve">0.978994846343994</t>
   </si>
   <si>
-    <t xml:space="preserve">0.967569828033447</t>
+    <t xml:space="preserve">0.967570006847382</t>
   </si>
   <si>
     <t xml:space="preserve">0.966856300830841</t>
@@ -629,25 +629,25 @@
     <t xml:space="preserve">0.954002857208252</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955430448055267</t>
+    <t xml:space="preserve">0.955430567264557</t>
   </si>
   <si>
-    <t xml:space="preserve">0.922582983970642</t>
+    <t xml:space="preserve">0.922583043575287</t>
   </si>
   <si>
-    <t xml:space="preserve">0.928296506404877</t>
+    <t xml:space="preserve">0.928296446800232</t>
   </si>
   <si>
-    <t xml:space="preserve">0.894734621047974</t>
+    <t xml:space="preserve">0.894734680652618</t>
   </si>
   <si>
-    <t xml:space="preserve">0.912586569786072</t>
+    <t xml:space="preserve">0.912586510181427</t>
   </si>
   <si>
-    <t xml:space="preserve">0.896876633167267</t>
+    <t xml:space="preserve">0.896876692771912</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879024744033813</t>
+    <t xml:space="preserve">0.879024803638458</t>
   </si>
   <si>
     <t xml:space="preserve">0.879739105701447</t>
@@ -662,19 +662,19 @@
     <t xml:space="preserve">0.939007222652435</t>
   </si>
   <si>
-    <t xml:space="preserve">0.94614839553833</t>
+    <t xml:space="preserve">0.946148276329041</t>
   </si>
   <si>
-    <t xml:space="preserve">0.964000165462494</t>
+    <t xml:space="preserve">0.964000105857849</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931866049766541</t>
+    <t xml:space="preserve">0.93186616897583</t>
   </si>
   <si>
     <t xml:space="preserve">0.842606782913208</t>
   </si>
   <si>
-    <t xml:space="preserve">0.846177279949188</t>
+    <t xml:space="preserve">0.846177339553833</t>
   </si>
   <si>
     <t xml:space="preserve">0.853318393230438</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">0.83903706073761</t>
   </si>
   <si>
-    <t xml:space="preserve">0.871170282363892</t>
+    <t xml:space="preserve">0.871170222759247</t>
   </si>
   <si>
-    <t xml:space="preserve">0.860458612442017</t>
+    <t xml:space="preserve">0.860458672046661</t>
   </si>
   <si>
     <t xml:space="preserve">0.903303503990173</t>
@@ -701,34 +701,34 @@
     <t xml:space="preserve">0.939877986907959</t>
   </si>
   <si>
-    <t xml:space="preserve">0.92864465713501</t>
+    <t xml:space="preserve">0.928644597530365</t>
   </si>
   <si>
-    <t xml:space="preserve">0.981068074703217</t>
+    <t xml:space="preserve">0.981068193912506</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977323472499847</t>
+    <t xml:space="preserve">0.977323532104492</t>
   </si>
   <si>
-    <t xml:space="preserve">0.943622589111328</t>
+    <t xml:space="preserve">0.943622648715973</t>
   </si>
   <si>
-    <t xml:space="preserve">0.973579525947571</t>
+    <t xml:space="preserve">0.973579466342926</t>
   </si>
   <si>
     <t xml:space="preserve">0.962345480918884</t>
   </si>
   <si>
-    <t xml:space="preserve">0.936134040355682</t>
+    <t xml:space="preserve">0.936133980751038</t>
   </si>
   <si>
-    <t xml:space="preserve">0.913666784763336</t>
+    <t xml:space="preserve">0.913666725158691</t>
   </si>
   <si>
     <t xml:space="preserve">0.954856812953949</t>
   </si>
   <si>
-    <t xml:space="preserve">0.909922003746033</t>
+    <t xml:space="preserve">0.909921944141388</t>
   </si>
   <si>
     <t xml:space="preserve">0.906177282333374</t>
@@ -740,34 +740,34 @@
     <t xml:space="preserve">0.891199290752411</t>
   </si>
   <si>
-    <t xml:space="preserve">0.924900054931641</t>
+    <t xml:space="preserve">0.924899995326996</t>
   </si>
   <si>
-    <t xml:space="preserve">0.921155273914337</t>
+    <t xml:space="preserve">0.921155214309692</t>
   </si>
   <si>
     <t xml:space="preserve">0.876221299171448</t>
   </si>
   <si>
-    <t xml:space="preserve">0.917411386966705</t>
+    <t xml:space="preserve">0.917411327362061</t>
   </si>
   <si>
     <t xml:space="preserve">0.894944071769714</t>
   </si>
   <si>
-    <t xml:space="preserve">0.883709847927094</t>
+    <t xml:space="preserve">0.883709967136383</t>
   </si>
   <si>
-    <t xml:space="preserve">0.879965960979462</t>
+    <t xml:space="preserve">0.879966020584106</t>
   </si>
   <si>
     <t xml:space="preserve">0.846264541149139</t>
   </si>
   <si>
-    <t xml:space="preserve">0.868731915950775</t>
+    <t xml:space="preserve">0.86873185634613</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86124324798584</t>
+    <t xml:space="preserve">0.861243307590485</t>
   </si>
   <si>
     <t xml:space="preserve">0.831286489963531</t>
@@ -776,13 +776,13 @@
     <t xml:space="preserve">0.83503121137619</t>
   </si>
   <si>
-    <t xml:space="preserve">0.842520594596863</t>
+    <t xml:space="preserve">0.842520654201508</t>
   </si>
   <si>
     <t xml:space="preserve">0.853753864765167</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823797941207886</t>
+    <t xml:space="preserve">0.823797881603241</t>
   </si>
   <si>
     <t xml:space="preserve">0.857498645782471</t>
@@ -797,7 +797,7 @@
     <t xml:space="preserve">0.797585785388947</t>
   </si>
   <si>
-    <t xml:space="preserve">0.805075228214264</t>
+    <t xml:space="preserve">0.805075287818909</t>
   </si>
   <si>
     <t xml:space="preserve">0.872476518154144</t>
@@ -812,22 +812,22 @@
     <t xml:space="preserve">0.90738171339035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899491131305695</t>
+    <t xml:space="preserve">0.89949107170105</t>
   </si>
   <si>
     <t xml:space="preserve">0.915271520614624</t>
   </si>
   <si>
-    <t xml:space="preserve">0.923162162303925</t>
+    <t xml:space="preserve">0.92316210269928</t>
   </si>
   <si>
-    <t xml:space="preserve">0.931051909923553</t>
+    <t xml:space="preserve">0.931051969528198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.891600549221039</t>
+    <t xml:space="preserve">0.891600489616394</t>
   </si>
   <si>
-    <t xml:space="preserve">0.962613642215729</t>
+    <t xml:space="preserve">0.962613582611084</t>
   </si>
   <si>
     <t xml:space="preserve">0.946833193302155</t>
@@ -836,10 +836,10 @@
     <t xml:space="preserve">0.88371080160141</t>
   </si>
   <si>
-    <t xml:space="preserve">0.875820159912109</t>
+    <t xml:space="preserve">0.875820100307465</t>
   </si>
   <si>
-    <t xml:space="preserve">0.867930352687836</t>
+    <t xml:space="preserve">0.867930293083191</t>
   </si>
   <si>
     <t xml:space="preserve">0.860039710998535</t>
@@ -851,7 +851,7 @@
     <t xml:space="preserve">0.836368680000305</t>
   </si>
   <si>
-    <t xml:space="preserve">0.828478932380676</t>
+    <t xml:space="preserve">0.828478991985321</t>
   </si>
   <si>
     <t xml:space="preserve">0.789027452468872</t>
@@ -860,10 +860,10 @@
     <t xml:space="preserve">0.844259321689606</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796917259693146</t>
+    <t xml:space="preserve">0.796917319297791</t>
   </si>
   <si>
-    <t xml:space="preserve">0.812698543071747</t>
+    <t xml:space="preserve">0.812698483467102</t>
   </si>
   <si>
     <t xml:space="preserve">0.781136870384216</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">0.804807841777802</t>
   </si>
   <si>
-    <t xml:space="preserve">0.765356421470642</t>
+    <t xml:space="preserve">0.765356481075287</t>
   </si>
   <si>
     <t xml:space="preserve">0.785082161426544</t>
@@ -893,13 +893,13 @@
     <t xml:space="preserve">0.753521382808685</t>
   </si>
   <si>
-    <t xml:space="preserve">0.733795642852783</t>
+    <t xml:space="preserve">0.733795702457428</t>
   </si>
   <si>
     <t xml:space="preserve">0.761411130428314</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745630741119385</t>
+    <t xml:space="preserve">0.74563080072403</t>
   </si>
   <si>
     <t xml:space="preserve">0.757465839385986</t>
@@ -911,13 +911,13 @@
     <t xml:space="preserve">0.729850351810455</t>
   </si>
   <si>
-    <t xml:space="preserve">0.737740099430084</t>
+    <t xml:space="preserve">0.737740159034729</t>
   </si>
   <si>
     <t xml:space="preserve">0.710124671459198</t>
   </si>
   <si>
-    <t xml:space="preserve">0.70617938041687</t>
+    <t xml:space="preserve">0.706179320812225</t>
   </si>
   <si>
     <t xml:space="preserve">0.725905060768127</t>
@@ -932,10 +932,13 @@
     <t xml:space="preserve">0.7219597697258</t>
   </si>
   <si>
-    <t xml:space="preserve">0.820588290691376</t>
+    <t xml:space="preserve">0.820588350296021</t>
   </si>
   <si>
     <t xml:space="preserve">0.931479334831238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.923162162303925</t>
   </si>
   <si>
     <t xml:space="preserve">0.898212492465973</t>
@@ -37264,7 +37267,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1370" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1370" t="s">
         <v>9</v>
@@ -37290,7 +37293,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1371" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1371" t="s">
         <v>9</v>
@@ -37316,7 +37319,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1372" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1372" t="s">
         <v>9</v>
@@ -37342,7 +37345,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1373" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1373" t="s">
         <v>9</v>
@@ -37368,7 +37371,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1374" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1374" t="s">
         <v>9</v>
@@ -37394,7 +37397,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1375" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1375" t="s">
         <v>9</v>
@@ -37420,7 +37423,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1376" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1376" t="s">
         <v>9</v>
@@ -37446,7 +37449,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1377" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1377" t="s">
         <v>9</v>
@@ -37472,7 +37475,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1378" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1378" t="s">
         <v>9</v>
@@ -37498,7 +37501,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1379" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1379" t="s">
         <v>9</v>
@@ -37524,7 +37527,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1380" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1380" t="s">
         <v>9</v>
@@ -37550,7 +37553,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1381" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1381" t="s">
         <v>9</v>
@@ -37576,7 +37579,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1382" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1382" t="s">
         <v>9</v>
@@ -37602,7 +37605,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1383" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1383" t="s">
         <v>9</v>
@@ -37628,7 +37631,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1384" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1384" t="s">
         <v>9</v>
@@ -37654,7 +37657,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1385" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1385" t="s">
         <v>9</v>
@@ -37680,7 +37683,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1386" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1386" t="s">
         <v>9</v>
@@ -37706,7 +37709,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1387" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1387" t="s">
         <v>9</v>
@@ -37732,7 +37735,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1388" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1388" t="s">
         <v>9</v>
@@ -37758,7 +37761,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1389" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1389" t="s">
         <v>9</v>
@@ -37784,7 +37787,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1390" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1390" t="s">
         <v>9</v>
@@ -37810,7 +37813,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1391" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1391" t="s">
         <v>9</v>
@@ -37836,7 +37839,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1392" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1392" t="s">
         <v>9</v>
@@ -37862,7 +37865,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1393" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1393" t="s">
         <v>9</v>
@@ -37888,7 +37891,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1394" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1394" t="s">
         <v>9</v>
@@ -37914,7 +37917,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1395" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1395" t="s">
         <v>9</v>
@@ -37940,7 +37943,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1396" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1396" t="s">
         <v>9</v>
@@ -37966,7 +37969,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1397" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1397" t="s">
         <v>9</v>
@@ -37992,7 +37995,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1398" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1398" t="s">
         <v>9</v>
@@ -38018,7 +38021,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1399" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1399" t="s">
         <v>9</v>
@@ -38044,7 +38047,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1400" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1400" t="s">
         <v>9</v>
@@ -38070,7 +38073,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1401" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1401" t="s">
         <v>9</v>
@@ -38096,7 +38099,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1402" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1402" t="s">
         <v>9</v>
@@ -38122,7 +38125,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1403" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1403" t="s">
         <v>9</v>
@@ -38148,7 +38151,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1404" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1404" t="s">
         <v>9</v>
@@ -38174,7 +38177,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1405" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1405" t="s">
         <v>9</v>
@@ -38200,7 +38203,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1406" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1406" t="s">
         <v>9</v>
@@ -38226,7 +38229,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1407" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1407" t="s">
         <v>9</v>
@@ -38252,7 +38255,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1408" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1408" t="s">
         <v>9</v>
@@ -38278,7 +38281,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1409" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1409" t="s">
         <v>9</v>
@@ -38304,7 +38307,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1410" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1410" t="s">
         <v>9</v>
@@ -38330,7 +38333,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1411" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1411" t="s">
         <v>9</v>
@@ -38356,7 +38359,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1412" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1412" t="s">
         <v>9</v>
@@ -38382,7 +38385,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1413" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1413" t="s">
         <v>9</v>
@@ -38408,7 +38411,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1414" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H1414" t="s">
         <v>9</v>
@@ -38434,7 +38437,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1415" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1415" t="s">
         <v>9</v>
@@ -38460,7 +38463,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1416" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1416" t="s">
         <v>9</v>
@@ -38486,7 +38489,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1417" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1417" t="s">
         <v>9</v>
@@ -38512,7 +38515,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1418" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1418" t="s">
         <v>9</v>
@@ -38538,7 +38541,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1419" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1419" t="s">
         <v>9</v>
@@ -38590,7 +38593,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1421" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1421" t="s">
         <v>9</v>
@@ -38616,7 +38619,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1422" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1422" t="s">
         <v>9</v>
@@ -38642,7 +38645,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1423" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1423" t="s">
         <v>9</v>
@@ -38668,7 +38671,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1424" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1424" t="s">
         <v>9</v>
@@ -38694,7 +38697,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1425" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1425" t="s">
         <v>9</v>
@@ -38720,7 +38723,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1426" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1426" t="s">
         <v>9</v>
@@ -38746,7 +38749,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1427" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1427" t="s">
         <v>9</v>
@@ -38772,7 +38775,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1428" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1428" t="s">
         <v>9</v>
@@ -38798,7 +38801,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1429" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1429" t="s">
         <v>9</v>
@@ -38824,7 +38827,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1430" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1430" t="s">
         <v>9</v>
@@ -38850,7 +38853,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1431" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1431" t="s">
         <v>9</v>
@@ -38876,7 +38879,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1432" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1432" t="s">
         <v>9</v>
@@ -38902,7 +38905,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1433" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1433" t="s">
         <v>9</v>
@@ -38928,7 +38931,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1434" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1434" t="s">
         <v>9</v>
@@ -38954,7 +38957,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1435" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1435" t="s">
         <v>9</v>
@@ -38980,7 +38983,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1436" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1436" t="s">
         <v>9</v>
@@ -39006,7 +39009,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1437" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1437" t="s">
         <v>9</v>
@@ -39032,7 +39035,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1438" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1438" t="s">
         <v>9</v>
@@ -39058,7 +39061,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1439" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1439" t="s">
         <v>9</v>
@@ -39084,7 +39087,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1440" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1440" t="s">
         <v>9</v>
@@ -39110,7 +39113,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1441" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1441" t="s">
         <v>9</v>
@@ -39136,7 +39139,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1442" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1442" t="s">
         <v>9</v>
@@ -39162,7 +39165,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1443" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1443" t="s">
         <v>9</v>
@@ -39188,7 +39191,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1444" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1444" t="s">
         <v>9</v>
@@ -39214,7 +39217,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1445" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1445" t="s">
         <v>9</v>
@@ -39240,7 +39243,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1446" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1446" t="s">
         <v>9</v>
@@ -39266,7 +39269,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1447" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1447" t="s">
         <v>9</v>
@@ -39292,7 +39295,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1448" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1448" t="s">
         <v>9</v>
@@ -39318,7 +39321,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1449" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1449" t="s">
         <v>9</v>
@@ -39344,7 +39347,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1450" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1450" t="s">
         <v>9</v>
@@ -39370,7 +39373,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1451" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1451" t="s">
         <v>9</v>
@@ -39396,7 +39399,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1452" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1452" t="s">
         <v>9</v>
@@ -39422,7 +39425,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1453" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1453" t="s">
         <v>9</v>
@@ -39448,7 +39451,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1454" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1454" t="s">
         <v>9</v>
@@ -39474,7 +39477,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1455" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1455" t="s">
         <v>9</v>
@@ -39500,7 +39503,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1456" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1456" t="s">
         <v>9</v>
@@ -39526,7 +39529,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1457" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1457" t="s">
         <v>9</v>
@@ -39552,7 +39555,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1458" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1458" t="s">
         <v>9</v>
@@ -39578,7 +39581,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1459" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1459" t="s">
         <v>9</v>
@@ -39604,7 +39607,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1460" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1460" t="s">
         <v>9</v>
@@ -39630,7 +39633,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1461" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1461" t="s">
         <v>9</v>
@@ -39656,7 +39659,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1462" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1462" t="s">
         <v>9</v>
@@ -39682,7 +39685,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1463" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1463" t="s">
         <v>9</v>
@@ -39734,7 +39737,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1465" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1465" t="s">
         <v>9</v>
@@ -39760,7 +39763,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1466" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1466" t="s">
         <v>9</v>
@@ -39786,7 +39789,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1467" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1467" t="s">
         <v>9</v>
@@ -39812,7 +39815,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1468" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1468" t="s">
         <v>9</v>
@@ -39838,7 +39841,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1469" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1469" t="s">
         <v>9</v>
@@ -39864,7 +39867,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1470" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1470" t="s">
         <v>9</v>
@@ -39890,7 +39893,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1471" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1471" t="s">
         <v>9</v>
@@ -39916,7 +39919,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1472" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1472" t="s">
         <v>9</v>
@@ -39942,7 +39945,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1473" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1473" t="s">
         <v>9</v>
@@ -39968,7 +39971,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1474" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1474" t="s">
         <v>9</v>
@@ -39994,7 +39997,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1475" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1475" t="s">
         <v>9</v>
@@ -40020,7 +40023,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1476" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1476" t="s">
         <v>9</v>
@@ -40046,7 +40049,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1477" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1477" t="s">
         <v>9</v>
@@ -40072,7 +40075,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1478" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1478" t="s">
         <v>9</v>
@@ -40098,7 +40101,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1479" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1479" t="s">
         <v>9</v>
@@ -40124,7 +40127,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1480" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1480" t="s">
         <v>9</v>
@@ -40150,7 +40153,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1481" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1481" t="s">
         <v>9</v>
@@ -40176,7 +40179,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1482" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1482" t="s">
         <v>9</v>
@@ -40202,7 +40205,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1483" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1483" t="s">
         <v>9</v>
@@ -40228,7 +40231,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1484" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1484" t="s">
         <v>9</v>
@@ -40254,7 +40257,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1485" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1485" t="s">
         <v>9</v>
@@ -40280,7 +40283,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1486" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1486" t="s">
         <v>9</v>
@@ -40306,7 +40309,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1487" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1487" t="s">
         <v>9</v>
@@ -40332,7 +40335,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1488" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1488" t="s">
         <v>9</v>
@@ -40358,7 +40361,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1489" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1489" t="s">
         <v>9</v>
@@ -40384,7 +40387,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1490" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1490" t="s">
         <v>9</v>
@@ -40410,7 +40413,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1491" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1491" t="s">
         <v>9</v>
@@ -40436,7 +40439,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1492" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1492" t="s">
         <v>9</v>
@@ -40462,7 +40465,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1493" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1493" t="s">
         <v>9</v>
@@ -40488,7 +40491,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1494" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1494" t="s">
         <v>9</v>
@@ -40514,7 +40517,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1495" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1495" t="s">
         <v>9</v>
@@ -40540,7 +40543,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1496" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1496" t="s">
         <v>9</v>
@@ -40566,7 +40569,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1497" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1497" t="s">
         <v>9</v>
@@ -40592,7 +40595,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1498" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H1498" t="s">
         <v>9</v>
@@ -40618,7 +40621,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1499" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1499" t="s">
         <v>9</v>
@@ -40644,7 +40647,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1500" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1500" t="s">
         <v>9</v>
@@ -40670,7 +40673,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1501" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1501" t="s">
         <v>9</v>
@@ -40696,7 +40699,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1502" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1502" t="s">
         <v>9</v>
@@ -40722,7 +40725,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1503" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1503" t="s">
         <v>9</v>
@@ -40748,7 +40751,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1504" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1504" t="s">
         <v>9</v>
@@ -40774,7 +40777,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1505" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1505" t="s">
         <v>9</v>
@@ -40800,7 +40803,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1506" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1506" t="s">
         <v>9</v>
@@ -40878,7 +40881,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1509" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -40904,7 +40907,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1510" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -40930,7 +40933,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1511" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -40956,7 +40959,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1512" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -40982,7 +40985,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1513" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -41034,7 +41037,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1515" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -41060,7 +41063,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1516" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -41086,7 +41089,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1517" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -41112,7 +41115,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1518" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -41138,7 +41141,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1519" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -41164,7 +41167,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1520" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -41190,7 +41193,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1521" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -41216,7 +41219,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1522" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -41242,7 +41245,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1523" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -41268,7 +41271,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1524" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -41294,7 +41297,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1525" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -41320,7 +41323,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1526" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -41346,7 +41349,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1527" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -41372,7 +41375,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1528" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -41398,7 +41401,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1529" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -41424,7 +41427,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1530" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -41450,7 +41453,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1531" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -41476,7 +41479,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1532" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -41502,7 +41505,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1533" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -41528,7 +41531,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1534" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -41554,7 +41557,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1535" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -41580,7 +41583,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1536" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -41606,7 +41609,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1537" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -41632,7 +41635,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1538" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -41658,7 +41661,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1539" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -41684,7 +41687,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1540" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -41710,7 +41713,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1541" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -41736,7 +41739,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1542" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -41762,7 +41765,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1543" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -41788,7 +41791,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1544" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -41814,7 +41817,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1545" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -41840,7 +41843,7 @@
         <v>1.10685801506042</v>
       </c>
       <c r="G1546" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -41866,7 +41869,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1547" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -41892,7 +41895,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1548" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -41918,7 +41921,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1549" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -41944,7 +41947,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1550" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1550" t="s">
         <v>9</v>
@@ -41970,7 +41973,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1551" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -41996,7 +41999,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1552" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -42022,7 +42025,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1553" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1553" t="s">
         <v>9</v>
@@ -42048,7 +42051,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1554" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -42074,7 +42077,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1555" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1555" t="s">
         <v>9</v>
@@ -42100,7 +42103,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1556" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -42126,7 +42129,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1557" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H1557" t="s">
         <v>9</v>
@@ -42152,7 +42155,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1558" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -42204,7 +42207,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1560" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -42230,7 +42233,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1561" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1561" t="s">
         <v>9</v>
@@ -42256,7 +42259,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1562" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1562" t="s">
         <v>9</v>
@@ -42282,7 +42285,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1563" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -42334,7 +42337,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1565" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1565" t="s">
         <v>9</v>
@@ -42360,7 +42363,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1566" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -42386,7 +42389,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1567" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -42412,7 +42415,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1568" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1568" t="s">
         <v>9</v>
@@ -42438,7 +42441,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1569" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1569" t="s">
         <v>9</v>
@@ -42464,7 +42467,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1570" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H1570" t="s">
         <v>9</v>
@@ -42490,7 +42493,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1571" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -42516,7 +42519,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1572" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -42542,7 +42545,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1573" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -42568,7 +42571,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1574" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1574" t="s">
         <v>9</v>
@@ -42594,7 +42597,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1575" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1575" t="s">
         <v>9</v>
@@ -42620,7 +42623,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1576" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1576" t="s">
         <v>9</v>
@@ -42646,7 +42649,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1577" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1577" t="s">
         <v>9</v>
@@ -42672,7 +42675,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1578" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1578" t="s">
         <v>9</v>
@@ -42984,7 +42987,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1590" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -43010,7 +43013,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1591" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -43036,7 +43039,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1592" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -43062,7 +43065,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1593" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1593" t="s">
         <v>9</v>
@@ -43088,7 +43091,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1594" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -43114,7 +43117,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1595" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1595" t="s">
         <v>9</v>
@@ -43140,7 +43143,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1596" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -43166,7 +43169,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1597" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -43192,7 +43195,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1598" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -43218,7 +43221,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1599" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -43244,7 +43247,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1600" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -43270,7 +43273,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1601" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -43400,7 +43403,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1606" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -43426,7 +43429,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1607" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H1607" t="s">
         <v>9</v>
@@ -43452,7 +43455,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1608" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -43478,7 +43481,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1609" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1609" t="s">
         <v>9</v>
@@ -43504,7 +43507,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1610" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1610" t="s">
         <v>9</v>
@@ -43530,7 +43533,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1611" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1611" t="s">
         <v>9</v>
@@ -43556,7 +43559,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1612" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -43582,7 +43585,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1613" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -43608,7 +43611,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1614" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H1614" t="s">
         <v>9</v>
@@ -43634,7 +43637,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1615" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -43660,7 +43663,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1616" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -43686,7 +43689,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1617" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -43712,7 +43715,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1618" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -43738,7 +43741,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1619" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -43764,7 +43767,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1620" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -43790,7 +43793,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1621" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -43816,7 +43819,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1622" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -43842,7 +43845,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1623" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -43868,7 +43871,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1624" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -43894,7 +43897,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1625" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -43920,7 +43923,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1626" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -43946,7 +43949,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1627" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -43972,7 +43975,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1628" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -43998,7 +44001,7 @@
         <v>1.0977109670639</v>
       </c>
       <c r="G1629" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -44024,7 +44027,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1630" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -44050,7 +44053,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1631" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -44076,7 +44079,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1632" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -44102,7 +44105,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1633" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -44128,7 +44131,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1634" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -44154,7 +44157,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1635" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -44180,7 +44183,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1636" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -44206,7 +44209,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1637" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -44232,7 +44235,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1638" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -44258,7 +44261,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1639" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -44284,7 +44287,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1640" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -44310,7 +44313,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1641" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -44336,7 +44339,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1642" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -44362,7 +44365,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1643" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -44388,7 +44391,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1644" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -44414,7 +44417,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1645" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -44440,7 +44443,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1646" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -44466,7 +44469,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1647" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -44492,7 +44495,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1648" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -44518,7 +44521,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1649" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -44544,7 +44547,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1650" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -44570,7 +44573,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1651" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -44596,7 +44599,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1652" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -44622,7 +44625,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1653" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -44648,7 +44651,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1654" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -44674,7 +44677,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1655" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -44700,7 +44703,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1656" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -44726,7 +44729,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1657" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -44752,7 +44755,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1658" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -44778,7 +44781,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1659" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -44804,7 +44807,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1660" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -44830,7 +44833,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1661" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -44856,7 +44859,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1662" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -44882,7 +44885,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1663" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -44908,7 +44911,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1664" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -44934,7 +44937,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1665" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -44960,7 +44963,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1666" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -44986,7 +44989,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1667" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -45012,7 +45015,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1668" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -45038,7 +45041,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1669" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -45064,7 +45067,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1670" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -45090,7 +45093,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1671" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -45116,7 +45119,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1672" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -45142,7 +45145,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1673" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -45168,7 +45171,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1674" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -45194,7 +45197,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1675" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -45220,7 +45223,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1676" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -45246,7 +45249,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1677" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -45272,7 +45275,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1678" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -45298,7 +45301,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1679" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -45324,7 +45327,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1680" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -45350,7 +45353,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1681" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -45376,7 +45379,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1682" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -45402,7 +45405,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1683" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -45428,7 +45431,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1684" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -45454,7 +45457,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1685" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -45480,7 +45483,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1686" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -45506,7 +45509,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1687" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -45532,7 +45535,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1688" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -45558,7 +45561,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1689" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -45584,7 +45587,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1690" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -45610,7 +45613,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1691" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -45636,7 +45639,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1692" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -45662,7 +45665,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1693" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -45688,7 +45691,7 @@
         <v>0.997087001800537</v>
       </c>
       <c r="G1694" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -45714,7 +45717,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1695" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -45740,7 +45743,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1696" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -45766,7 +45769,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1697" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -45792,7 +45795,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1698" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -45818,7 +45821,7 @@
         <v>0.969644010066986</v>
       </c>
       <c r="G1699" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -45844,7 +45847,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1700" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -45870,7 +45873,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1701" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -45896,7 +45899,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1702" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -45922,7 +45925,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1703" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -45948,7 +45951,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1704" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -45974,7 +45977,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1705" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -46000,7 +46003,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1706" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -46026,7 +46029,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1707" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -46052,7 +46055,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1708" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -46078,7 +46081,7 @@
         <v>0.850726008415222</v>
       </c>
       <c r="G1709" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -46104,7 +46107,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G1710" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -46130,7 +46133,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G1711" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -46156,7 +46159,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1712" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -46182,7 +46185,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1713" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -46208,7 +46211,7 @@
         <v>0.882741987705231</v>
       </c>
       <c r="G1714" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -46234,7 +46237,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1715" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -46260,7 +46263,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1716" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -46286,7 +46289,7 @@
         <v>0.873594999313354</v>
       </c>
       <c r="G1717" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -46312,7 +46315,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1718" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -46338,7 +46341,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1719" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -46364,7 +46367,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1720" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -46390,7 +46393,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1721" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -46416,7 +46419,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1722" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -46442,7 +46445,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1723" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -46468,7 +46471,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1724" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -46494,7 +46497,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1725" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -46520,7 +46523,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1726" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -46546,7 +46549,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1727" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -46572,7 +46575,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1728" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -46598,7 +46601,7 @@
         <v>0.896463990211487</v>
       </c>
       <c r="G1729" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -46624,7 +46627,7 @@
         <v>0.859872996807098</v>
       </c>
       <c r="G1730" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -46650,7 +46653,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1731" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -46676,7 +46679,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1732" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -46702,7 +46705,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1733" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -46728,7 +46731,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1734" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -46754,7 +46757,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1735" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -46780,7 +46783,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1736" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -46806,7 +46809,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1737" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -46832,7 +46835,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1738" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -46858,7 +46861,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1739" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -46884,7 +46887,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1740" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -46910,7 +46913,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1741" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -46936,7 +46939,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1742" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -46962,7 +46965,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1743" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -46988,7 +46991,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1744" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -47014,7 +47017,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1745" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -47040,7 +47043,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1746" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -47066,7 +47069,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1747" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -47092,7 +47095,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1748" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -47118,7 +47121,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1749" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -47144,7 +47147,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1750" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -47170,7 +47173,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1751" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -47196,7 +47199,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1752" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -47222,7 +47225,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1753" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -47248,7 +47251,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1754" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -47274,7 +47277,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1755" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -47300,7 +47303,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1756" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -47326,7 +47329,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1757" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -47352,7 +47355,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1758" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -47378,7 +47381,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1759" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -47404,7 +47407,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1760" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -47430,7 +47433,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1761" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -47456,7 +47459,7 @@
         <v>0.891889989376068</v>
       </c>
       <c r="G1762" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -47482,7 +47485,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1763" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -47508,7 +47511,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1764" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -47534,7 +47537,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1765" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -47560,7 +47563,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1766" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -47586,7 +47589,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1767" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -47612,7 +47615,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1768" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -47638,7 +47641,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1769" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -47664,7 +47667,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1770" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -47690,7 +47693,7 @@
         <v>0.923906028270721</v>
       </c>
       <c r="G1771" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -47716,7 +47719,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1772" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -47742,7 +47745,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1773" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -47768,7 +47771,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1774" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -47794,7 +47797,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1775" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -47820,7 +47823,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1776" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -47846,7 +47849,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1777" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -47872,7 +47875,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1778" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -47898,7 +47901,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1779" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -47924,7 +47927,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1780" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -47950,7 +47953,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1781" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -47976,7 +47979,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1782" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -48002,7 +48005,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1783" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -48028,7 +48031,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1784" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -48054,7 +48057,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1785" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -48080,7 +48083,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1786" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -48106,7 +48109,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1787" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -48132,7 +48135,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1788" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -48158,7 +48161,7 @@
         <v>0.869020998477936</v>
       </c>
       <c r="G1789" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -48184,7 +48187,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1790" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -48210,7 +48213,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1791" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -48236,7 +48239,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1792" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -48262,7 +48265,7 @@
         <v>0.864446997642517</v>
       </c>
       <c r="G1793" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -48288,7 +48291,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1794" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -48314,7 +48317,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1795" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -48340,7 +48343,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1796" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -48366,7 +48369,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1797" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -48392,7 +48395,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1798" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -48418,7 +48421,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1799" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -48444,7 +48447,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1800" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -48470,7 +48473,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1801" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -48496,7 +48499,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1802" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -48522,7 +48525,7 @@
         <v>0.910184979438782</v>
       </c>
       <c r="G1803" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -48548,7 +48551,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1804" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -48574,7 +48577,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1805" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -48600,7 +48603,7 @@
         <v>0.887315988540649</v>
       </c>
       <c r="G1806" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -48626,7 +48629,7 @@
         <v>0.878167986869812</v>
       </c>
       <c r="G1807" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -48652,7 +48655,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1808" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -48678,7 +48681,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1809" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -48704,7 +48707,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1810" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -48730,7 +48733,7 @@
         <v>0.901036977767944</v>
       </c>
       <c r="G1811" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -48756,7 +48759,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1812" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -48782,7 +48785,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1813" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -48808,7 +48811,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1814" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -48834,7 +48837,7 @@
         <v>0.9147589802742</v>
       </c>
       <c r="G1815" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -48860,7 +48863,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1816" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -48886,7 +48889,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1817" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -48912,7 +48915,7 @@
         <v>1.0153820514679</v>
       </c>
       <c r="G1818" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -48938,7 +48941,7 @@
         <v>1.02453005313873</v>
       </c>
       <c r="G1819" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -48964,7 +48967,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1820" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -48990,7 +48993,7 @@
         <v>0.978792011737823</v>
       </c>
       <c r="G1821" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -49016,7 +49019,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1822" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -49042,7 +49045,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1823" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -49068,7 +49071,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1824" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -49094,7 +49097,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1825" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -49120,7 +49123,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1826" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -49146,7 +49149,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1827" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -49172,7 +49175,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1828" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -49198,7 +49201,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1829" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -49224,7 +49227,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1830" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -49250,7 +49253,7 @@
         <v>1.00623500347137</v>
       </c>
       <c r="G1831" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -49276,7 +49279,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1832" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -49302,7 +49305,7 @@
         <v>0.987940013408661</v>
       </c>
       <c r="G1833" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -49328,7 +49331,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1834" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -49354,7 +49357,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1835" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -49380,7 +49383,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1836" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -49406,7 +49409,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1837" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -49432,7 +49435,7 @@
         <v>1.12515294551849</v>
       </c>
       <c r="G1838" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -49458,7 +49461,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1839" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -49484,7 +49487,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1840" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -49510,7 +49513,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1841" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -49536,7 +49539,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1842" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -49562,7 +49565,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1843" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -49588,7 +49591,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1844" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -49614,7 +49617,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1845" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -49640,7 +49643,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1846" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -49666,7 +49669,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1847" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -49692,7 +49695,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1848" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -49718,7 +49721,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1849" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -49744,7 +49747,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1850" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -49770,7 +49773,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1851" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -49796,7 +49799,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1852" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -49822,7 +49825,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1853" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -49848,7 +49851,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1854" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -49874,7 +49877,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1855" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -49900,7 +49903,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1856" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -49926,7 +49929,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1857" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -49952,7 +49955,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1858" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -49978,7 +49981,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1859" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -50004,7 +50007,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1860" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -50030,7 +50033,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1861" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -50056,7 +50059,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1862" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -50082,7 +50085,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1863" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -50108,7 +50111,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1864" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -50134,7 +50137,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1865" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -50160,7 +50163,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1866" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -50186,7 +50189,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1867" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -50212,7 +50215,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1868" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -50238,7 +50241,7 @@
         <v>1.18918704986572</v>
       </c>
       <c r="G1869" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -50264,7 +50267,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1870" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -50290,7 +50293,7 @@
         <v>1.21662902832031</v>
       </c>
       <c r="G1871" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -50316,7 +50319,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1872" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -50342,7 +50345,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1873" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -50368,7 +50371,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1874" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -50394,7 +50397,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1875" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -50420,7 +50423,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1876" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -50446,7 +50449,7 @@
         <v>1.23492503166199</v>
       </c>
       <c r="G1877" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -50472,7 +50475,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1878" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -50498,7 +50501,7 @@
         <v>1.25321996212006</v>
       </c>
       <c r="G1879" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -50524,7 +50527,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1880" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -50550,7 +50553,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1881" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -50576,7 +50579,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1882" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -50602,7 +50605,7 @@
         <v>1.22577702999115</v>
       </c>
       <c r="G1883" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -50628,7 +50631,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1884" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -50654,7 +50657,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1885" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -50680,7 +50683,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1886" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -50706,7 +50709,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1887" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -50732,7 +50735,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1888" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -50758,7 +50761,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1889" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -50784,7 +50787,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1890" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -50810,7 +50813,7 @@
         <v>1.17089104652405</v>
       </c>
       <c r="G1891" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -50836,7 +50839,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1892" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -50862,7 +50865,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1893" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -50888,7 +50891,7 @@
         <v>1.14344894886017</v>
       </c>
       <c r="G1894" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -50914,7 +50917,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1895" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -50940,7 +50943,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1896" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -50966,7 +50969,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1897" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -50992,7 +50995,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1898" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -51018,7 +51021,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1899" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -51044,7 +51047,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1900" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -51070,7 +51073,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1901" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -51096,7 +51099,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1902" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -51122,7 +51125,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1903" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -51148,7 +51151,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1904" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -51174,7 +51177,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1905" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -51200,7 +51203,7 @@
         <v>1.18003904819489</v>
       </c>
       <c r="G1906" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -51226,7 +51229,7 @@
         <v>1.15259599685669</v>
       </c>
       <c r="G1907" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -51252,7 +51255,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1908" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -51278,7 +51281,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1909" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -51304,7 +51307,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1910" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -51330,7 +51333,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1911" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -51356,7 +51359,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1912" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -51382,7 +51385,7 @@
         <v>1.19833397865295</v>
       </c>
       <c r="G1913" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -51408,7 +51411,7 @@
         <v>1.16174399852753</v>
       </c>
       <c r="G1914" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -51434,7 +51437,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1915" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -51460,7 +51463,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1916" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -51486,7 +51489,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1917" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -51512,7 +51515,7 @@
         <v>1.20748198032379</v>
       </c>
       <c r="G1918" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -51538,7 +51541,7 @@
         <v>1.13430094718933</v>
       </c>
       <c r="G1919" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -51564,7 +51567,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1920" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -51590,7 +51593,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1921" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -51616,7 +51619,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1922" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -51642,7 +51645,7 @@
         <v>1.08856296539307</v>
       </c>
       <c r="G1923" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -51668,7 +51671,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1924" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -51694,7 +51697,7 @@
         <v>1.03367698192596</v>
       </c>
       <c r="G1925" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -51720,7 +51723,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1926" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -51746,7 +51749,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1927" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -51772,7 +51775,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1928" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -51798,7 +51801,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1929" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -51824,7 +51827,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1930" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -51850,7 +51853,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1931" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -51876,7 +51879,7 @@
         <v>1.11600601673126</v>
       </c>
       <c r="G1932" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -51902,7 +51905,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1933" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -51928,7 +51931,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1934" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -51954,7 +51957,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1935" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -51980,7 +51983,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1936" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -52006,7 +52009,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1937" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -52032,7 +52035,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1938" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -52058,7 +52061,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1939" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -52084,7 +52087,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1940" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -52110,7 +52113,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1941" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -52136,7 +52139,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1942" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -52162,7 +52165,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1943" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -52188,7 +52191,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1944" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -52214,7 +52217,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1945" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -52240,7 +52243,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1946" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -52266,7 +52269,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1947" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -52292,7 +52295,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1948" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -52318,7 +52321,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1949" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -52344,7 +52347,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1950" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -52370,7 +52373,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1951" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -52396,7 +52399,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1952" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -52422,7 +52425,7 @@
         <v>1.070268034935</v>
       </c>
       <c r="G1953" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -52448,7 +52451,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1954" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -52474,7 +52477,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1955" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -52500,7 +52503,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1956" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -52526,7 +52529,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1957" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -52552,7 +52555,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1958" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -52578,7 +52581,7 @@
         <v>1.07941496372223</v>
       </c>
       <c r="G1959" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -52604,7 +52607,7 @@
         <v>1.05197298526764</v>
       </c>
       <c r="G1960" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -52630,7 +52633,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1961" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -52656,7 +52659,7 @@
         <v>1.06112003326416</v>
       </c>
       <c r="G1962" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -52682,7 +52685,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1963" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -52708,7 +52711,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1964" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -52734,7 +52737,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1965" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -52760,7 +52763,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1966" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -52786,7 +52789,7 @@
         <v>1.0428249835968</v>
       </c>
       <c r="G1967" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -52812,7 +52815,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1968" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -52838,7 +52841,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1969" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -52864,7 +52867,7 @@
         <v>0.96049702167511</v>
       </c>
       <c r="G1970" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -52890,7 +52893,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1971" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -52916,7 +52919,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1972" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -52942,7 +52945,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1973" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -52968,7 +52971,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1974" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -52994,7 +52997,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1975" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -53020,7 +53023,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1976" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -53046,7 +53049,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1977" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -53072,7 +53075,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1978" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -53098,7 +53101,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1979" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -53124,7 +53127,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1980" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -53150,7 +53153,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1981" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -53176,7 +53179,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1982" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -53202,7 +53205,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1983" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -53228,7 +53231,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1984" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -53254,7 +53257,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1985" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -53280,7 +53283,7 @@
         <v>0.951349020004272</v>
       </c>
       <c r="G1986" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -53306,7 +53309,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1987" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -53332,7 +53335,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1988" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -53358,7 +53361,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1989" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -53384,7 +53387,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1990" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -53410,7 +53413,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1991" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -53436,7 +53439,7 @@
         <v>0.942201972007751</v>
       </c>
       <c r="G1992" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -53462,7 +53465,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1993" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -53488,7 +53491,7 @@
         <v>0.905610978603363</v>
       </c>
       <c r="G1994" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -53514,7 +53517,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1995" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -53540,7 +53543,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1996" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -53566,7 +53569,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1997" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -53592,7 +53595,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1998" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -53618,7 +53621,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G1999" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -53644,7 +53647,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2000" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -53670,7 +53673,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2001" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -53696,7 +53699,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2002" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -53722,7 +53725,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2003" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -53748,7 +53751,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2004" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -53774,7 +53777,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2005" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -53800,7 +53803,7 @@
         <v>0.933053970336914</v>
       </c>
       <c r="G2006" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -53826,7 +53829,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2007" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -53852,7 +53855,7 @@
         <v>0.837004005908966</v>
       </c>
       <c r="G2008" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -53878,7 +53881,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2009" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -53904,7 +53907,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2010" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -53930,7 +53933,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2011" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -53956,7 +53959,7 @@
         <v>0.759249985218048</v>
       </c>
       <c r="G2012" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -53982,7 +53985,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2013" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -54008,7 +54011,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2014" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -54034,7 +54037,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2015" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -54060,7 +54063,7 @@
         <v>0.823283016681671</v>
       </c>
       <c r="G2016" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -54086,7 +54089,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2017" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -54112,7 +54115,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2018" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -54138,7 +54141,7 @@
         <v>0.768396973609924</v>
       </c>
       <c r="G2019" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -54164,7 +54167,7 @@
         <v>0.791266024112701</v>
       </c>
       <c r="G2020" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -54190,7 +54193,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2021" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -54216,7 +54219,7 @@
         <v>0.78211897611618</v>
       </c>
       <c r="G2022" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -54242,7 +54245,7 @@
         <v>0.841578006744385</v>
       </c>
       <c r="G2023" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -54268,7 +54271,7 @@
         <v>0.832430005073547</v>
       </c>
       <c r="G2024" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -54294,7 +54297,7 @@
         <v>0.777544975280762</v>
       </c>
       <c r="G2025" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -54320,7 +54323,7 @@
         <v>0.79584002494812</v>
       </c>
       <c r="G2026" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -54346,7 +54349,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2027" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -54372,7 +54375,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2028" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -54398,7 +54401,7 @@
         <v>0.814135015010834</v>
       </c>
       <c r="G2029" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -54424,7 +54427,7 @@
         <v>0.804988026618958</v>
       </c>
       <c r="G2030" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -54450,7 +54453,7 @@
         <v>0.800414025783539</v>
       </c>
       <c r="G2031" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -54476,7 +54479,7 @@
         <v>0.786692023277283</v>
       </c>
       <c r="G2032" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -54502,7 +54505,7 @@
         <v>0.82785701751709</v>
       </c>
       <c r="G2033" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -54528,7 +54531,7 @@
         <v>0.850000023841858</v>
       </c>
       <c r="G2034" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -54554,7 +54557,7 @@
         <v>0.860000014305115</v>
       </c>
       <c r="G2035" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -54580,7 +54583,7 @@
         <v>0.875</v>
       </c>
       <c r="G2036" t="s">
-        <v>413</v>
+  